--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1112.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1112.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07025045252758821</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.0618547638640305</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.01033001815510755</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01410222951325295</v>
+        <v>0.01228841743034669</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0007259900807726621</v>
+        <v>0.001079392943288723</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007610958050627116</v>
+        <v>0.0007866168638538942</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001204148489146607</v>
+        <v>0.003885073787796456</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007636418661588565</v>
+        <v>0.0007784392084982731</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003365244459021866</v>
+        <v>0.005859302173840619</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007124246469564867</v>
+        <v>0.0007792408853619723</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006299925692889619</v>
+        <v>0.001079392943288723</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000762949604575122</v>
+        <v>0.0007866168638538942</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001514475435848116</v>
+        <v>0.002511097233958308</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001522191610125423</v>
+        <v>0.001573233727707788</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002260247082688072</v>
+        <v>0.007444455450094728</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001527283732317713</v>
+        <v>0.001556878416996546</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.006288411309407937</v>
+        <v>0.01088923383718121</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001424849293912973</v>
+        <v>0.001558481770723945</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01266622507248788</v>
+        <v>0.002511097233958308</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001525899209150244</v>
+        <v>0.001573233727707788</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.001687852147255767</v>
+        <v>0.003532942373353505</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002283287415188134</v>
+        <v>0.002359850591561683</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003182042006945739</v>
+        <v>0.01056735540963866</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00229092559847657</v>
+        <v>0.00233531762549482</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.00917085853979252</v>
+        <v>0.01628205156112628</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00213727394086946</v>
+        <v>0.002337722656085917</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01812051389339142</v>
+        <v>0.003532942373353505</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002288848813725366</v>
+        <v>0.002359850591561683</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003760595650843732</v>
+        <v>0.004382757862818998</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003044383220250847</v>
+        <v>0.003146467455415577</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.01399999999999998</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002854999999999998</v>
+        <v>0.00336447811447811</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01201394413880993</v>
+        <v>0.02200000000000002</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002849698587825947</v>
+        <v>0.003451098901098904</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02300000000000002</v>
+        <v>0.004382757862818998</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003218872549019611</v>
+        <v>0.003146467455415577</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004700743171084316</v>
+        <v>0.003568749999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.004699161544005452</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003805479025313558</v>
+        <v>0.003568749999999999</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.004777281222293366</v>
+        <v>0.01493613162348065</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003818209330794283</v>
+        <v>0.003892196042491366</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01411902609509461</v>
+        <v>0.0233086662447522</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003562123234782433</v>
+        <v>0.003896204426809861</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02506776261379717</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00381474802287561</v>
+        <v>0.003568749999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.005874940322429946</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004700743171084316</v>
+        <v>0.004719701183123365</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.005401630344795558</v>
+        <v>0.01679367366916404</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004581851196953139</v>
+        <v>0.004670635250989639</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01599999999999999</v>
+        <v>0.02618729556927613</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004229629629629626</v>
+        <v>0.004675445312171834</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02779229927870225</v>
+        <v>0.005874940322429946</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004577697627450732</v>
+        <v>0.004719701183123365</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006085713320026498</v>
+        <v>0.006375625973607038</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005327670635438981</v>
+        <v>0.005506318046977259</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.006072707954201104</v>
+        <v>0.01837226497134417</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005345493063111995</v>
+        <v>0.005449074459487911</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.01717472877375781</v>
+        <v>0.02779139851940249</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004986972528695406</v>
+        <v>0.005454686197533806</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02987160319636045</v>
+        <v>0.006375625973607038</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005340647232025854</v>
+        <v>0.005506318046977259</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00562568643212024</v>
+        <v>0.007128936995396927</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006088766440501693</v>
+        <v>0.006292934910831154</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.006599410902979067</v>
+        <v>0.01949293567331165</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006109134929270852</v>
+        <v>0.006227513667986185</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.01847462556891413</v>
+        <v>0.03045361190513496</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005699397175651893</v>
+        <v>0.006233927082895778</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03129245582757451</v>
+        <v>0.007128936995396927</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006103596836600976</v>
+        <v>0.006292934910831154</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.007103741835870259</v>
+        <v>0.007640001598248063</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006849862245564404</v>
+        <v>0.007079551774685049</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.00699063604359848</v>
+        <v>0.02087671591835702</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006872776795429709</v>
+        <v>0.007005952876484457</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.01942706799540156</v>
+        <v>0.03210657253647747</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00641182182260838</v>
+        <v>0.00701316796825775</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03344163863314747</v>
+        <v>0.007640001598248063</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006866546441176099</v>
+        <v>0.007079551774685049</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.00653181940909478</v>
+        <v>0.007913947992608854</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007610958050627116</v>
+        <v>0.007866168638538942</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.007355280228528382</v>
+        <v>0.02174463584977082</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007636418661588565</v>
+        <v>0.007784392084982731</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.01987116862108862</v>
+        <v>0.03338291722343373</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007124246469564866</v>
+        <v>0.007792408853619722</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03510593307388227</v>
+        <v>0.007913947992608854</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00762949604575122</v>
+        <v>0.007866168638538942</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.008921859029612018</v>
+        <v>0.008355904388927742</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008372053855689829</v>
+        <v>0.008652785502392837</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.007802240310237823</v>
+        <v>0.02281772561084372</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008400060527747421</v>
+        <v>0.008562831293481005</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02064604001384393</v>
+        <v>0.03521528277600749</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007836671116521352</v>
+        <v>0.008571649738981694</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.03677212061058183</v>
+        <v>0.008355904388927742</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008392445650326342</v>
+        <v>0.008652785502392837</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.009285800575240165</v>
+        <v>0.008970998997653155</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009133149660752538</v>
+        <v>0.00943940236624673</v>
       </c>
       <c r="J77" t="n">
-        <v>0.008440413141195834</v>
+        <v>0.02420828814715215</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009163702393906278</v>
+        <v>0.009696220911913491</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02169079474153587</v>
+        <v>0.03693630600420256</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00854909576347784</v>
+        <v>0.009350890624343668</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0380865581391967</v>
+        <v>0.008970998997653155</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00888375191890577</v>
+        <v>0.00943940236624673</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009635583923797431</v>
+        <v>0.009364360029233514</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00989424546581525</v>
+        <v>0.01022601923010063</v>
       </c>
       <c r="J78" t="n">
-        <v>0.00887869557387147</v>
+        <v>0.02446921215431952</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009927344260065135</v>
+        <v>0.01011970971047755</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02214454537203303</v>
+        <v>0.0380865581391967</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009261520410434326</v>
+        <v>0.0099576120409713</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04046160774984225</v>
+        <v>0.009364360029233514</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009918344859476586</v>
+        <v>0.01022601923010063</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.008983148953102045</v>
+        <v>0.009741115694117272</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01065534127087796</v>
+        <v>0.01101263609395452</v>
       </c>
       <c r="J79" t="n">
-        <v>0.00932598446073378</v>
+        <v>0.02551534456170038</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01069098612622399</v>
+        <v>0.01089814891897582</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02334640447320402</v>
+        <v>0.03970467229758562</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009973945057390812</v>
+        <v>0.01090937239506761</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04246690159268979</v>
+        <v>0.009741115694117272</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01068129446405171</v>
+        <v>0.01101263609395452</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.008340435540972205</v>
+        <v>0.01000639420275284</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01141643707594067</v>
+        <v>0.01179925295780841</v>
       </c>
       <c r="J80" t="n">
-        <v>0.009691176654251774</v>
+        <v>0.02595929501988603</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01145462799238285</v>
+        <v>0.0116765881274741</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02420828814715215</v>
+        <v>0.04062821650316434</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01066584300310484</v>
+        <v>0.01168861328042958</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04412349950089567</v>
+        <v>0.01000639420275284</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01144424406862683</v>
+        <v>0.01179925295780841</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.008719383565226127</v>
+        <v>0.01033001815510755</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01217753288100339</v>
+        <v>0.01228841743034669</v>
       </c>
       <c r="J81" t="n">
+        <v>0.0269001991709068</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.01245502733597237</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.04174905143953755</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.01246785416579156</v>
+      </c>
+      <c r="N81" t="n">
         <v>0.01033001815510755</v>
       </c>
-      <c r="K81" t="n">
+      <c r="O81" t="n">
         <v>0.01228841743034669</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.02522839069960028</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.01139879435130379</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.04611648497909054</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.01220719367320195</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01113193290368201</v>
+        <v>0.01062671971130816</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0129386286860661</v>
+        <v>0.0133724866855162</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01081655898300935</v>
+        <v>0.02783719265679302</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01298191172470056</v>
+        <v>0.01323346654447064</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02620822430071137</v>
+        <v>0.04356571453664604</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01211121899826027</v>
+        <v>0.01324709505115353</v>
       </c>
       <c r="N82" t="n">
-        <v>0.04823094153190505</v>
+        <v>0.01062671971130816</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01297014327777707</v>
+        <v>0.0133724866855162</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01159002343415807</v>
+        <v>0.01119020256176378</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01369972449112881</v>
+        <v>0.0141591035493701</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01139733116441934</v>
+        <v>0.028869411119575</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01374555359085942</v>
+        <v>0.01401190575296891</v>
       </c>
       <c r="L83" t="n">
-        <v>0.02736160020926262</v>
+        <v>0.04477674322443048</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01282364364521676</v>
+        <v>0.0140263359365155</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05025195266396976</v>
+        <v>0.01119020256176378</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0137330928823522</v>
+        <v>0.0141591035493701</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.01155555921807196</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01410222951325295</v>
+        <v>0.01494572041322399</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01191637604184882</v>
+        <v>0.02939599020128314</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01450919545701827</v>
+        <v>0.01479034496146719</v>
       </c>
       <c r="L84" t="n">
-        <v>0.02837514360912799</v>
+        <v>0.04588067493283171</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01353606829217325</v>
+        <v>0.01480557682187747</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05196460187991514</v>
+        <v>0.01155555921807196</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01449604248692732</v>
+        <v>0.01494572041322399</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01273683045452925</v>
+        <v>0.01192216181086837</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01522191610125423</v>
+        <v>0.01573233727707788</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0124645003390658</v>
+        <v>0.03021606554394768</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01527283732317713</v>
+        <v>0.01556878416996546</v>
       </c>
       <c r="L85" t="n">
-        <v>0.02973547968418122</v>
+        <v>0.04737604709179055</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01424849293912973</v>
+        <v>0.01558481770723944</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05395397268437191</v>
+        <v>0.01192216181086837</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01525899209150244</v>
+        <v>0.01573233727707788</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01245593881254699</v>
+        <v>0.01208938247078872</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01598301190631694</v>
+        <v>0.01651895414093178</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01323251077983824</v>
+        <v>0.03132877278959895</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01603647918933599</v>
+        <v>0.01634722337846374</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03122923361829624</v>
+        <v>0.04876139713124772</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01496091758608622</v>
+        <v>0.01636405859260142</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05610514858197063</v>
+        <v>0.01208938247078872</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01602194169607756</v>
+        <v>0.01651895414093178</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01424981898927218</v>
+        <v>0.0125565933284687</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01674410771137966</v>
+        <v>0.01730557100478567</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01401121408793414</v>
+        <v>0.03213324758026734</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01680012105549484</v>
+        <v>0.01712566258696201</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03234303059534688</v>
+        <v>0.04973526248114385</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0156733422330427</v>
+        <v>0.01714329947796339</v>
       </c>
       <c r="N87" t="n">
-        <v>0.057703213077342</v>
+        <v>0.0125565933284687</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01678489130065268</v>
+        <v>0.01730557100478567</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01509948264238884</v>
+        <v>0.01282316651454397</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01750520351644237</v>
+        <v>0.01809218786863957</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01459141698712146</v>
+        <v>0.03252862555798311</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0175637629216537</v>
+        <v>0.01790410179546028</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03376349579920698</v>
+        <v>0.05139618057142004</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01638576687999919</v>
+        <v>0.01792254036332536</v>
       </c>
       <c r="N88" t="n">
-        <v>0.05973324967511651</v>
+        <v>0.01282316651454397</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01754784090522781</v>
+        <v>0.01809218786863957</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01498594142958103</v>
+        <v>0.01318847415965026</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01826629932150508</v>
+        <v>0.01887880473249346</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01516392620116823</v>
+        <v>0.03331404236477664</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01832740478781256</v>
+        <v>0.01868254100395856</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03477725441375032</v>
+        <v>0.05234268883201681</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01709819152695568</v>
+        <v>0.01870178124868734</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06128034187992487</v>
+        <v>0.01318847415965026</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01831079050980293</v>
+        <v>0.01887880473249346</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01489020700853277</v>
+        <v>0.01365188839442322</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01902739512656779</v>
+        <v>0.01966542159634736</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0159195484538424</v>
+        <v>0.0341886336426783</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01909104665397141</v>
+        <v>0.01946098021245683</v>
       </c>
       <c r="L90" t="n">
-        <v>0.03617093162285084</v>
+        <v>0.05327332469287499</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01781061617391217</v>
+        <v>0.01948102213404931</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06342957319639758</v>
+        <v>0.01365188839442322</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01907374011437805</v>
+        <v>0.01966542159634736</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0177932910369281</v>
+        <v>0.01401278134949854</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0197884909316305</v>
+        <v>0.02045203846020125</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01644909046891196</v>
+        <v>0.03495153503371828</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01985468852013027</v>
+        <v>0.0202394194209551</v>
       </c>
       <c r="L91" t="n">
-        <v>0.03773115261038235</v>
+        <v>0.0545866255839354</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01852304082086865</v>
+        <v>0.02026026301941128</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06446602712916527</v>
+        <v>0.01401278134949854</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01983668971895317</v>
+        <v>0.02045203846020125</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01767620517245105</v>
+        <v>0.01447052515551196</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02054958673669321</v>
+        <v>0.02123865532405514</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0172433589701449</v>
+        <v>0.03580188217992702</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02061833038628912</v>
+        <v>0.02101785862945337</v>
       </c>
       <c r="L92" t="n">
-        <v>0.03864454256021871</v>
+        <v>0.0557811289351387</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01923546546782514</v>
+        <v>0.02103950390477325</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06647478718285854</v>
+        <v>0.01447052515551196</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02059963932352829</v>
+        <v>0.02123865532405514</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01751996107278569</v>
+        <v>0.01472449194309911</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02131068254175593</v>
+        <v>0.02202527218790904</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0176931606813092</v>
+        <v>0.03633881072333481</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02138197225244798</v>
+        <v>0.02179629783795164</v>
       </c>
       <c r="L93" t="n">
-        <v>0.03989772665623376</v>
+        <v>0.0571553721764258</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01994789011478162</v>
+        <v>0.02181874479013523</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06754093686210799</v>
+        <v>0.01472449194309911</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02136258892810342</v>
+        <v>0.02202527218790904</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02030557039561603</v>
+        <v>0.0149740538428957</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02207177834681864</v>
+        <v>0.02281188905176293</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01808930232617284</v>
+        <v>0.03736145630597201</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02214561411860684</v>
+        <v>0.02257473704644992</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04097733008230134</v>
+        <v>0.05830789273773734</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02066031476173811</v>
+        <v>0.02259798567549719</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06864955967154418</v>
+        <v>0.0149740538428957</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02212553853267854</v>
+        <v>0.02281188905176293</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0190140447986261</v>
+        <v>0.01541858298553742</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02283287415188135</v>
+        <v>0.02359850591561683</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01852259062850382</v>
+        <v>0.03776895456986887</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02290925598476569</v>
+        <v>0.02335317625494819</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0421699780222953</v>
+        <v>0.05923722804901432</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0213727394086946</v>
+        <v>0.02337722656085917</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06918573911579778</v>
+        <v>0.01541858298553742</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02288848813725366</v>
+        <v>0.02359850591561683</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02162639593949998</v>
+        <v>0.01575745150165994</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02359396995694406</v>
+        <v>0.02438512277947072</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01888383231207011</v>
+        <v>0.0386604411570558</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02367289785092455</v>
+        <v>0.02413161546344647</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04276229566008952</v>
+        <v>0.06054191554019717</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02208516405565109</v>
+        <v>0.02415646744622114</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07043455869949938</v>
+        <v>0.01575745150165994</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02365143774182878</v>
+        <v>0.02438512277947072</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02012363547592166</v>
+        <v>0.015990031521899</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02435506576200677</v>
+        <v>0.02517173964332461</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01926383410063968</v>
+        <v>0.03953505170956312</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02443653971708341</v>
+        <v>0.02491005467194474</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04384090817955777</v>
+        <v>0.06182049264122702</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02279758870260757</v>
+        <v>0.02493570833158311</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07108110192727957</v>
+        <v>0.015990031521899</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0244143873464039</v>
+        <v>0.02517173964332461</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0204867750655752</v>
+        <v>0.01641569517689022</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02511616156706948</v>
+        <v>0.02595835650717851</v>
       </c>
       <c r="J98" t="n">
-        <v>0.01955340271798056</v>
+        <v>0.03989192186942114</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02520018158324227</v>
+        <v>0.02568849388044301</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04429244076457398</v>
+        <v>0.06247149678204439</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02351001334956406</v>
+        <v>0.02571494921694509</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07111045230376895</v>
+        <v>0.01641569517689022</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02517733695097903</v>
+        <v>0.02595835650717851</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02069682636614463</v>
+        <v>0.01673381459726933</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02587725737213219</v>
+        <v>0.0267449733710324</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0194433448878607</v>
+        <v>0.04083018727866017</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02596382344940112</v>
+        <v>0.02646693308894128</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04480351859901197</v>
+        <v>0.0634934653925901</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02422243799652055</v>
+        <v>0.02649419010230706</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07100794368826369</v>
+        <v>0.01673381459726933</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02594028655555415</v>
+        <v>0.0267449733710324</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02173963773143321</v>
+        <v>0.016943761913672</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02663835317719491</v>
+        <v>0.0275315902348863</v>
       </c>
       <c r="J100" t="n">
-        <v>0.01954108118634293</v>
+        <v>0.04144898357931054</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02672746531555998</v>
+        <v>0.02724537229743956</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04536076686674559</v>
+        <v>0.064684935902805</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02493486264347703</v>
+        <v>0.02727343098766903</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07079641644912887</v>
+        <v>0.016943761913672</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02670323616012927</v>
+        <v>0.0275315902348863</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02268552576731869</v>
+        <v>0.01734490925673395</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02739944898225762</v>
+        <v>0.02831820709874019</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01959760226842615</v>
+        <v>0.04194744641340262</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02749110718171884</v>
+        <v>0.02802381150593783</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04555081075164868</v>
+        <v>0.06574444574262989</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02564728729043352</v>
+        <v>0.028052671873031</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07080971082190207</v>
+        <v>0.01734490925673395</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02746618576470439</v>
+        <v>0.02831820709874019</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0225696595238405</v>
+        <v>0.01773662875709082</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02816054478732033</v>
+        <v>0.02910482396259409</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0195201181866126</v>
+        <v>0.04252471142296665</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02825474904787769</v>
+        <v>0.02880225071443611</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04557041683874488</v>
+        <v>0.06617053234200543</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02635971193739</v>
+        <v>0.02883191275839297</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07056398316544465</v>
+        <v>0.01773662875709082</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02822913536927952</v>
+        <v>0.02910482396259409</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02040017066027316</v>
+        <v>0.01791829254537833</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02892164059238304</v>
+        <v>0.02989144082644798</v>
       </c>
       <c r="J103" t="n">
-        <v>0.01921182379659923</v>
+        <v>0.0428799142500331</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02901839091403655</v>
+        <v>0.02958068992293438</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04518913319293155</v>
+        <v>0.06756173313087238</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02707213658434649</v>
+        <v>0.02961115364375495</v>
       </c>
       <c r="N103" t="n">
-        <v>0.06947538983861751</v>
+        <v>0.01791829254537833</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02899208497385464</v>
+        <v>0.02989144082644798</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02018519083589122</v>
+        <v>0.01828927275223217</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02968273639744575</v>
+        <v>0.03067805769030188</v>
       </c>
       <c r="J104" t="n">
-        <v>0.01907591395408302</v>
+        <v>0.04371219053663217</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0297820327801954</v>
+        <v>0.03035912913143266</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04522803669598158</v>
+        <v>0.06841658553917157</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02778456123130298</v>
+        <v>0.03039039452911692</v>
       </c>
       <c r="N104" t="n">
-        <v>0.06886008720028175</v>
+        <v>0.01828927275223217</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02975503457842976</v>
+        <v>0.03067805769030188</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02193285170996924</v>
+        <v>0.018348941508288</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03044383220250847</v>
+        <v>0.03146467455415577</v>
       </c>
       <c r="J105" t="n">
-        <v>0.01901558351476088</v>
+        <v>0.04412067592479424</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03054567464635426</v>
+        <v>0.03113756833993092</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04499364596437985</v>
+        <v>0.06873362699684377</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02849698587825946</v>
+        <v>0.03116963541447889</v>
       </c>
       <c r="N105" t="n">
-        <v>0.06813423160929855</v>
+        <v>0.018348941508288</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03051798418300488</v>
+        <v>0.03146467455415577</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02165128494178171</v>
+        <v>0.01869667094418156</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03120492800757118</v>
+        <v>0.03225129141800966</v>
       </c>
       <c r="J106" t="n">
-        <v>0.01893402733432975</v>
+        <v>0.04460450605654967</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03130931651251311</v>
+        <v>0.0319160075484292</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04439247961461135</v>
+        <v>0.0700113949338298</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02920941052521595</v>
+        <v>0.03194887629984087</v>
       </c>
       <c r="N106" t="n">
-        <v>0.06731397942452899</v>
+        <v>0.01869667094418156</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03128093378758001</v>
+        <v>0.03225129141800966</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01934862219060324</v>
+        <v>0.01893183319054847</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03196602381263389</v>
+        <v>0.03303790828186356</v>
       </c>
       <c r="J107" t="n">
-        <v>0.01873444026848659</v>
+        <v>0.04476281657392867</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03207295837867197</v>
+        <v>0.03269444675692747</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04433105626316114</v>
+        <v>0.07054842678007028</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02992183517217244</v>
+        <v>0.03272811718520283</v>
       </c>
       <c r="N107" t="n">
-        <v>0.06641548700483429</v>
+        <v>0.01893183319054847</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03204388339215512</v>
+        <v>0.03303790828186356</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0190329951157083</v>
+        <v>0.01925380037802447</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0327271196176966</v>
+        <v>0.03382452514571745</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0183200171729283</v>
+        <v>0.04539474311896172</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03283660024483083</v>
+        <v>0.03347288596542574</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04391589452651412</v>
+        <v>0.07104325996550626</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03063425981912892</v>
+        <v>0.0335073580705648</v>
       </c>
       <c r="N108" t="n">
-        <v>0.06485491070907529</v>
+        <v>0.01925380037802447</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03280683299673024</v>
+        <v>0.03382452514571745</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01971253537637148</v>
+        <v>0.01936194463724523</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03348821542275932</v>
+        <v>0.03461114200957135</v>
       </c>
       <c r="J109" t="n">
-        <v>0.01829395290335188</v>
+        <v>0.04599942133367901</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03360024211098969</v>
+        <v>0.03425132517392402</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0431535130211553</v>
+        <v>0.07179443192007828</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03134668446608541</v>
+        <v>0.03428659895592678</v>
       </c>
       <c r="N109" t="n">
-        <v>0.06384840689611332</v>
+        <v>0.01936194463724523</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03356978260130537</v>
+        <v>0.03461114200957135</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02039537463186732</v>
+        <v>0.01955563809884646</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03424931122782202</v>
+        <v>0.03539775887342524</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01795944231545422</v>
+        <v>0.04627598686011103</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03436388397714854</v>
+        <v>0.03502976438242229</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04285043036356972</v>
+        <v>0.07220048007372715</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0320591091130419</v>
+        <v>0.03506583984128876</v>
       </c>
       <c r="N110" t="n">
-        <v>0.06271213192480946</v>
+        <v>0.01955563809884646</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03433273220588049</v>
+        <v>0.03539775887342524</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01808964454147031</v>
+        <v>0.01973425289346381</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03501040703288474</v>
+        <v>0.03618437573727914</v>
       </c>
       <c r="J111" t="n">
-        <v>0.01781968026493227</v>
+        <v>0.04662357534028794</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0351275258433074</v>
+        <v>0.03580820359092057</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04241316517024235</v>
+        <v>0.07325994185639367</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03277153375999838</v>
+        <v>0.03584508072665073</v>
       </c>
       <c r="N111" t="n">
-        <v>0.06196224215402474</v>
+        <v>0.01973425289346381</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03509568181045562</v>
+        <v>0.03618437573727914</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01980347676445507</v>
+        <v>0.01999716115173299</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03577150283794744</v>
+        <v>0.03697099260113303</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01747786160748299</v>
+        <v>0.04704132241624015</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03589116770946626</v>
+        <v>0.03658664279941883</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04154823605765809</v>
+        <v>0.0732713546980186</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03348395840695487</v>
+        <v>0.0366243216120127</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06071489394262025</v>
+        <v>0.01999716115173299</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03585863141503073</v>
+        <v>0.03697099260113303</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01954500296009608</v>
+        <v>0.02004373500428967</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03653259864301015</v>
+        <v>0.03775760946498692</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01713718119880331</v>
+        <v>0.04712836372999801</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03665480957562511</v>
+        <v>0.03736508200791711</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04116216164230202</v>
+        <v>0.07443325602854278</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03419638305391136</v>
+        <v>0.03740356249737467</v>
       </c>
       <c r="N113" t="n">
-        <v>0.05938624364945722</v>
+        <v>0.02004373500428967</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03662158101960586</v>
+        <v>0.03775760946498692</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01732235478766789</v>
+        <v>0.02027334658176959</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03729369444807287</v>
+        <v>0.03854422632884082</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01700083389459016</v>
+        <v>0.04758383492359178</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03741845144178396</v>
+        <v>0.03814352121641538</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04046146054065911</v>
+        <v>0.07414418327790689</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03490880770086785</v>
+        <v>0.03818280338273664</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0580924476333966</v>
+        <v>0.02027334658176959</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03738453062418098</v>
+        <v>0.03854422632884082</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01814366390644506</v>
+        <v>0.02038536801480838</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03805479025313558</v>
+        <v>0.03933084319269471</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01667201455054049</v>
+        <v>0.04770687163905188</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03818209330794282</v>
+        <v>0.03892196042491366</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04015265136921434</v>
+        <v>0.07520267387605167</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03562123234782433</v>
+        <v>0.03896204426809861</v>
       </c>
       <c r="N115" t="n">
-        <v>0.05744966225329962</v>
+        <v>0.02038536801480838</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0381474802287561</v>
+        <v>0.03933084319269471</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0170170619757021</v>
+        <v>0.02027917143404176</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03881588605819829</v>
+        <v>0.04011746005654861</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01665391802235125</v>
+        <v>0.04789660951840852</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03894573517410168</v>
+        <v>0.03970039963341193</v>
       </c>
       <c r="L116" t="n">
-        <v>0.03934225274445266</v>
+        <v>0.07480726525291803</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03633365699478082</v>
+        <v>0.03974128515346059</v>
       </c>
       <c r="N116" t="n">
-        <v>0.05607404386802739</v>
+        <v>0.02027917143404176</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03891042983333122</v>
+        <v>0.04011746005654861</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0189506806547136</v>
+        <v>0.0203541289701054</v>
       </c>
       <c r="G117" t="n">
-        <v>0.039576981863261</v>
+        <v>0.0409040769204025</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01644973916571936</v>
+        <v>0.04775218420369212</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03970937704026054</v>
+        <v>0.0404788388419102</v>
       </c>
       <c r="L117" t="n">
-        <v>0.03853678328285909</v>
+        <v>0.07515649483844666</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0370460816417373</v>
+        <v>0.04052052603882256</v>
       </c>
       <c r="N117" t="n">
-        <v>0.05518174883644095</v>
+        <v>0.0203541289701054</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03967337943790634</v>
+        <v>0.0409040769204025</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01694623544667589</v>
+        <v>0.020509612753635</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04033807766832372</v>
+        <v>0.0416906937842564</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01606267283634177</v>
+        <v>0.04827273133693302</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04047301890641939</v>
+        <v>0.04125727805040848</v>
       </c>
       <c r="L118" t="n">
-        <v>0.03814276160091865</v>
+        <v>0.07574890006257839</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0377585062886938</v>
+        <v>0.04129976692418453</v>
       </c>
       <c r="N118" t="n">
-        <v>0.05458893351740135</v>
+        <v>0.020509612753635</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04043632904248147</v>
+        <v>0.0416906937842564</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01697288315092337</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04109917347338642</v>
+        <v>0.04247731064811028</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01589591388991543</v>
+        <v>0.04815738656016144</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04123666077257825</v>
+        <v>0.04203571725890674</v>
       </c>
       <c r="L119" t="n">
-        <v>0.03736670631511624</v>
+        <v>0.07558301835525383</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03847093093565028</v>
+        <v>0.0420790078095465</v>
       </c>
       <c r="N119" t="n">
-        <v>0.05401175426976978</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04119927864705659</v>
+        <v>0.04247731064811028</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01702405040072397</v>
+        <v>0.0204596475856348</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04186026927844914</v>
+        <v>0.04326392751196419</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01575265718213727</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04200030263873711</v>
+        <v>0.04281415646740502</v>
       </c>
       <c r="L120" t="n">
-        <v>0.03711513604193695</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03918335558260676</v>
+        <v>0.04285824869490847</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05366636745240738</v>
+        <v>0.0204596475856348</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04196222825163171</v>
+        <v>0.04326392751196419</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0180981503486996</v>
+        <v>0.02045539423573431</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04262136508351185</v>
+        <v>0.04405054437581808</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01563609756870424</v>
+        <v>0.04801577079233649</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04276394450489596</v>
+        <v>0.04359259567590329</v>
       </c>
       <c r="L121" t="n">
-        <v>0.03659456939786568</v>
+        <v>0.07607252085611349</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03989578022956325</v>
+        <v>0.04363748958027045</v>
       </c>
       <c r="N121" t="n">
-        <v>0.05326892942417522</v>
+        <v>0.02045539423573431</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04272517785620683</v>
+        <v>0.04405054437581808</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01719359614747221</v>
+        <v>0.02063720622763807</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04338246088857456</v>
+        <v>0.04483716123967197</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01554942990531326</v>
+        <v>0.04799384667325904</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04352758637105482</v>
+        <v>0.04437103488440157</v>
       </c>
       <c r="L122" t="n">
-        <v>0.03621152499938746</v>
+        <v>0.07586121162572951</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04060820487651974</v>
+        <v>0.04441673046563242</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05323559654393434</v>
+        <v>0.02063720622763807</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04348812746078196</v>
+        <v>0.04483716123967197</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01730880094966368</v>
+        <v>0.0206058765527737</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04414355669363727</v>
+        <v>0.04562377810352587</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01569584904766128</v>
+        <v>0.04834298170590232</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04429122823721367</v>
+        <v>0.04514947409289984</v>
       </c>
       <c r="L123" t="n">
-        <v>0.03557252146298723</v>
+        <v>0.07573571453879702</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04132062952347623</v>
+        <v>0.04519597135099439</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05278422035044006</v>
+        <v>0.0206058765527737</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04425107706535708</v>
+        <v>0.04562377810352587</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01944217790789593</v>
+        <v>0.02036207037134591</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04490465249869999</v>
+        <v>0.04641039496737976</v>
       </c>
       <c r="J124" t="n">
-        <v>0.01547856427671067</v>
+        <v>0.0480645393776569</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04505487010337253</v>
+        <v>0.04592791330139812</v>
       </c>
       <c r="L124" t="n">
-        <v>0.03498407740515005</v>
+        <v>0.07569624303070716</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04203305417043271</v>
+        <v>0.04597521223635637</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05326896270910053</v>
+        <v>0.02036207037134591</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0450140266699322</v>
+        <v>0.04641039496737976</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01859214017479088</v>
+        <v>0.02030645284355942</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04566574830376269</v>
+        <v>0.04719701183123366</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0156061426372464</v>
+        <v>0.04815988317591338</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04581851196953138</v>
+        <v>0.04670635250989639</v>
       </c>
       <c r="L125" t="n">
-        <v>0.03505271144236086</v>
+        <v>0.07544301053685132</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04274547881738919</v>
+        <v>0.04675445312171834</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05349216408969992</v>
+        <v>0.02030645284355942</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04577697627450732</v>
+        <v>0.04719701183123366</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01875710090297043</v>
+        <v>0.02043968912961895</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04642684410882541</v>
+        <v>0.04798362869508755</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01568107582752293</v>
+        <v>0.04773037658806234</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04658215383569025</v>
+        <v>0.04748479171839466</v>
       </c>
       <c r="L126" t="n">
-        <v>0.03458494219110464</v>
+        <v>0.0753762304926206</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04345790346434569</v>
+        <v>0.04753369400708031</v>
       </c>
       <c r="N126" t="n">
-        <v>0.05373032330090433</v>
+        <v>0.02043968912961895</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04653992587908245</v>
+        <v>0.04798362869508755</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01793547324505651</v>
+        <v>0.0202624443897292</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04718793991388812</v>
+        <v>0.04877024555894144</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0158991606784696</v>
+        <v>0.0476773831014943</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0473457957018491</v>
+        <v>0.04826323092689293</v>
       </c>
       <c r="L127" t="n">
-        <v>0.03458728826786642</v>
+        <v>0.07589611633340615</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04417032811130217</v>
+        <v>0.04831293489244228</v>
       </c>
       <c r="N127" t="n">
-        <v>0.05455993915137941</v>
+        <v>0.0202624443897292</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04730287548365757</v>
+        <v>0.04877024555894144</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01812567035367103</v>
+        <v>0.02017538378409491</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04794903571895083</v>
+        <v>0.04955686242279534</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01585619402101576</v>
+        <v>0.04730226620359992</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04810943756800796</v>
+        <v>0.04904167013539121</v>
       </c>
       <c r="L128" t="n">
-        <v>0.03426626828913112</v>
+        <v>0.07550288149459938</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04488275275825866</v>
+        <v>0.04909217577780425</v>
       </c>
       <c r="N128" t="n">
-        <v>0.05555751044979118</v>
+        <v>0.02017538378409491</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04806582508823268</v>
+        <v>0.04955686242279534</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01932610538143591</v>
+        <v>0.02017917247292077</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04871013152401354</v>
+        <v>0.05034347928664923</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01604797268609079</v>
+        <v>0.04730638938176981</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04887307943416681</v>
+        <v>0.04982010934388948</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0342285765485601</v>
+        <v>0.07539673941159153</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04559517740521515</v>
+        <v>0.04987141666316623</v>
       </c>
       <c r="N129" t="n">
-        <v>0.05689953600480552</v>
+        <v>0.02017917247292077</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04882877469280781</v>
+        <v>0.05034347928664923</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01853519148097302</v>
+        <v>0.01997447561641151</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04947122732907625</v>
+        <v>0.05113009615050312</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01627029350462403</v>
+        <v>0.04719111612339452</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04963672130032567</v>
+        <v>0.05059854855238775</v>
       </c>
       <c r="L130" t="n">
-        <v>0.03442220583051647</v>
+        <v>0.07487790351977369</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04630760205217163</v>
+        <v>0.0506506575485282</v>
       </c>
       <c r="N130" t="n">
-        <v>0.05846251462508839</v>
+        <v>0.01997447561641151</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04959172429738293</v>
+        <v>0.05113009615050312</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01875134180490431</v>
+        <v>0.01976195837477185</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05023232313413897</v>
+        <v>0.05191671301435702</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01661895330754486</v>
+        <v>0.04705780991586458</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05040036316648453</v>
+        <v>0.05137698776088603</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0343703828037758</v>
+        <v>0.07544658725453718</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04702002669912812</v>
+        <v>0.05142989843389018</v>
       </c>
       <c r="N131" t="n">
-        <v>0.05942294511930563</v>
+        <v>0.01976195837477185</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05035467390195805</v>
+        <v>0.05191671301435702</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02097296950585172</v>
+        <v>0.01974228590820651</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05099341893920167</v>
+        <v>0.05270332987821091</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01698974892578262</v>
+        <v>0.04640783424657063</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05116400503264338</v>
+        <v>0.0521554269693843</v>
       </c>
       <c r="L132" t="n">
-        <v>0.03495767043428463</v>
+        <v>0.07510300405127318</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0477324513460846</v>
+        <v>0.05220913931925214</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0609573262961231</v>
+        <v>0.01974228590820651</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05111762350653317</v>
+        <v>0.05270332987821091</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02119848773643711</v>
+        <v>0.01951612337692017</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05175451474426439</v>
+        <v>0.05348994674206481</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01707847719026666</v>
+        <v>0.04644255260290331</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05192764689880224</v>
+        <v>0.05293386617788257</v>
       </c>
       <c r="L133" t="n">
-        <v>0.03536863168798929</v>
+        <v>0.07474736734537296</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04844487599304109</v>
+        <v>0.05298838020461412</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06244215696420674</v>
+        <v>0.01951612337692017</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0518805731111083</v>
+        <v>0.05348994674206481</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0204263096492824</v>
+        <v>0.0195841359411176</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05251561054932709</v>
+        <v>0.0542765636059187</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01758093493192635</v>
+        <v>0.04586332847225302</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0526912887649611</v>
+        <v>0.05371230538638085</v>
       </c>
       <c r="L134" t="n">
-        <v>0.03618782953083627</v>
+        <v>0.07487989057222777</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04915730063999758</v>
+        <v>0.05376762108997608</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06395393593222243</v>
+        <v>0.0195841359411176</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05264352271568342</v>
+        <v>0.0542765636059187</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01965484839700954</v>
+        <v>0.01944698876100348</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05327670635438982</v>
+        <v>0.0550631804697726</v>
       </c>
       <c r="J135" t="n">
-        <v>0.01769291898169106</v>
+        <v>0.04587152534201058</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05345493063111995</v>
+        <v>0.05449074459487912</v>
       </c>
       <c r="L135" t="n">
-        <v>0.03689982692877197</v>
+        <v>0.07450078716722874</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04986972528695406</v>
+        <v>0.05454686197533806</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0656691620088361</v>
+        <v>0.01944698876100348</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05340647232025854</v>
+        <v>0.0550631804697726</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01988251713224042</v>
+        <v>0.01910534699678253</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05403780215945252</v>
+        <v>0.05584979733362649</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01801022617049013</v>
+        <v>0.04536850669956638</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05421857249727881</v>
+        <v>0.0552691838033774</v>
       </c>
       <c r="L136" t="n">
-        <v>0.03748918684774288</v>
+        <v>0.07421027056576718</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05058214993391055</v>
+        <v>0.05532610286070003</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06746433400271368</v>
+        <v>0.01910534699678253</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05416942192483366</v>
+        <v>0.05584979733362649</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02010772900759696</v>
+        <v>0.01895987580865947</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05479889796451523</v>
+        <v>0.05663641419748039</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01852865332925295</v>
+        <v>0.04495563603231112</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05498221436343767</v>
+        <v>0.05604762301187566</v>
       </c>
       <c r="L137" t="n">
-        <v>0.03834047225369541</v>
+        <v>0.07390855420323444</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05129457458086704</v>
+        <v>0.056105343746062</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06821595072252101</v>
+        <v>0.01895987580865947</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05493237152940879</v>
+        <v>0.05663641419748039</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02232889717570105</v>
+        <v>0.01881124035683902</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05555999376957794</v>
+        <v>0.05742303106133428</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01874399728890884</v>
+        <v>0.04473427682763534</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05574585622959653</v>
+        <v>0.05682606222037394</v>
       </c>
       <c r="L138" t="n">
-        <v>0.03953824611257603</v>
+        <v>0.07349585151502153</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05200699922782352</v>
+        <v>0.05688458463142398</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06980051097692391</v>
+        <v>0.01881124035683902</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05569532113398391</v>
+        <v>0.05742303106133428</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02154443478917463</v>
+        <v>0.01886010580152592</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05632108957464066</v>
+        <v>0.05820964792518817</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01915205488038717</v>
+        <v>0.04470579257292961</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05650949809575538</v>
+        <v>0.05760450142887221</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04026707139033114</v>
+        <v>0.07377237593651975</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05271942387478001</v>
+        <v>0.05766382551678594</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07119451357458845</v>
+        <v>0.01886010580152592</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05645827073855904</v>
+        <v>0.05820964792518817</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02275275500063961</v>
+        <v>0.01850713730292483</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05708218537970337</v>
+        <v>0.05899626478904206</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0194486229346173</v>
+        <v>0.04397154675558457</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05727313996191424</v>
+        <v>0.05838294063737048</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04131151105290723</v>
+        <v>0.07353834090312039</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05343184852173649</v>
+        <v>0.05844306640214792</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07217445732418037</v>
+        <v>0.01850713730292483</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05722122034313415</v>
+        <v>0.05899626478904206</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02095227096271789</v>
+        <v>0.0183530000212405</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05784328118476609</v>
+        <v>0.05978288165289597</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01952949828252858</v>
+        <v>0.04383290286299077</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05803678182807309</v>
+        <v>0.05916137984586876</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04225612806625068</v>
+        <v>0.07339395985021469</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05414427316869298</v>
+        <v>0.0592223072875099</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07351684103436568</v>
+        <v>0.0183530000212405</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05798416994770927</v>
+        <v>0.05978288165289597</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0211413958280314</v>
+        <v>0.01819835911667764</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05860437698982879</v>
+        <v>0.06056949851674986</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01989047775505037</v>
+        <v>0.04359122438253882</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05880042369423194</v>
+        <v>0.05993981905436703</v>
       </c>
       <c r="L142" t="n">
-        <v>0.043285485396308</v>
+        <v>0.07263944621319374</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05485669781564947</v>
+        <v>0.06000154817287186</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07409816351381021</v>
+        <v>0.01819835911667764</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0587471195522844</v>
+        <v>0.06056949851674986</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02231854274920204</v>
+        <v>0.01824387974944097</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0593654727948915</v>
+        <v>0.06135611538060375</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02012735818311205</v>
+        <v>0.04304787480161923</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05956406556039081</v>
+        <v>0.06071825826286531</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04408414600902555</v>
+        <v>0.07287501342744895</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05556912246260595</v>
+        <v>0.06078078905823384</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07499492357117993</v>
+        <v>0.01824387974944097</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05951006915685951</v>
+        <v>0.06135611538060375</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02348212487885173</v>
+        <v>0.01789022707973521</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06012656859995422</v>
+        <v>0.06214273224445764</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02043593639764298</v>
+        <v>0.04260421760762262</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06032770742654966</v>
+        <v>0.06149669747136357</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04483667287034984</v>
+        <v>0.07240087492837144</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05628154710956244</v>
+        <v>0.06156002994359581</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07518362001514067</v>
+        <v>0.01789022707973521</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06027301876143464</v>
+        <v>0.06214273224445764</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02363055536960239</v>
+        <v>0.01773806626776507</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06088766440501693</v>
+        <v>0.06292934910831154</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0206600363102151</v>
+        <v>0.04256161628793967</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06109134929270852</v>
+        <v>0.06227513667986185</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04582762894622727</v>
+        <v>0.07191724415135253</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05699397175651893</v>
+        <v>0.06233927082895778</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07544075165435837</v>
+        <v>0.01773806626776507</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06103596836600976</v>
+        <v>0.06292934910831154</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02370952772806099</v>
+        <v>0.01768806247373528</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06164876021007965</v>
+        <v>0.06371596597216544</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02056079322353083</v>
+        <v>0.04212143432996079</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06185499115886737</v>
+        <v>0.06305357588836012</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04634157720260432</v>
+        <v>0.07192433453178332</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05770639640347541</v>
+        <v>0.06311851171431976</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0761731162783934</v>
+        <v>0.01768806247373528</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06179891797058489</v>
+        <v>0.06371596597216544</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02189820802973941</v>
+        <v>0.01754088085785052</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06240985601514235</v>
+        <v>0.06450258283601933</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02070859238482294</v>
+        <v>0.04168503522107675</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06261863302502622</v>
+        <v>0.0638320150968584</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04716308060542737</v>
+        <v>0.07172235950505518</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0584188210504319</v>
+        <v>0.06389775259968174</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07602471987760784</v>
+        <v>0.01754088085785052</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06256186757516001</v>
+        <v>0.06450258283601933</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02203566541020081</v>
+        <v>0.01729718658031552</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06317095182020506</v>
+        <v>0.06528919969987322</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02105691113403302</v>
+        <v>0.04155378244867802</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06338227489118509</v>
+        <v>0.06461045430535667</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04757670212064291</v>
+        <v>0.07151153250655923</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05913124569738839</v>
+        <v>0.0646769934850437</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07605533190230507</v>
+        <v>0.01729718658031552</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06332481717973512</v>
+        <v>0.06528919969987322</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02317582731066495</v>
+        <v>0.01715764480133504</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06393204762526777</v>
+        <v>0.06607581656372712</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02120532841004084</v>
+        <v>0.04122903950015516</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06414591675734395</v>
+        <v>0.06538889351385495</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04766700471419735</v>
+        <v>0.07049206697168675</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05984367034434487</v>
+        <v>0.06545623437040567</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07588488814835581</v>
+        <v>0.01715764480133504</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06408776678431025</v>
+        <v>0.06607581656372712</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02331797288841085</v>
+        <v>0.01712292068111373</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06469314343033049</v>
+        <v>0.06686243342758101</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02135342315172624</v>
+        <v>0.04061216986289881</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0649095586235028</v>
+        <v>0.06616733272235321</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04841657629430426</v>
+        <v>0.07036417633582892</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06055609499130136</v>
+        <v>0.06623547525576763</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07611339769838499</v>
+        <v>0.01712292068111373</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06485071638888537</v>
+        <v>0.06686243342758101</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02446138130071757</v>
+        <v>0.01689367937985635</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0654542392353932</v>
+        <v>0.06764905029143491</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02140077429796898</v>
+        <v>0.0407045370242996</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06567320048966166</v>
+        <v>0.06694577193085148</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04831590500010882</v>
+        <v>0.07052807403437711</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06126851963825784</v>
+        <v>0.06701471614112961</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07564086963501743</v>
+        <v>0.01689367937985635</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06561366599346048</v>
+        <v>0.06764905029143491</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02260533170486409</v>
+        <v>0.01697058605776761</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06621533504045592</v>
+        <v>0.0684356671552888</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02144696078764886</v>
+        <v>0.04000750447174803</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06643684235582051</v>
+        <v>0.06772421113934976</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04811495505829741</v>
+        <v>0.06958397350272244</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06198094428521433</v>
+        <v>0.06779395702649159</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07636731304087802</v>
+        <v>0.01697058605776761</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06637661559803561</v>
+        <v>0.0684356671552888</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02274910325812948</v>
+        <v>0.0168525183203479</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06697643084551863</v>
+        <v>0.0692222840191427</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02179156155964569</v>
+        <v>0.03972243569263473</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06720048422197937</v>
+        <v>0.06850265034784804</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04800951483465637</v>
+        <v>0.06963208817625616</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06269336893217081</v>
+        <v>0.06857319791185355</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07609273699859176</v>
+        <v>0.0168525183203479</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06713956520261073</v>
+        <v>0.0692222840191427</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02489197511779276</v>
+        <v>0.01663482173376701</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06773752665058133</v>
+        <v>0.07000890088299659</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02173415555283925</v>
+        <v>0.03945069417435026</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06796412608813823</v>
+        <v>0.06928108955634631</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04810035551196212</v>
+        <v>0.06947263149036942</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0634057935791273</v>
+        <v>0.06935243879721553</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07601715059078351</v>
+        <v>0.01663482173376701</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06790251480718586</v>
+        <v>0.07000890088299659</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02503322644113296</v>
+        <v>0.01641719830706571</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06849862245564405</v>
+        <v>0.07079551774685049</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02187432170610937</v>
+        <v>0.03959364340428526</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06872776795429708</v>
+        <v>0.07005952876484457</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04818759249964441</v>
+        <v>0.06860581688045359</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0641182182260838</v>
+        <v>0.07013167968257751</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07574056290007813</v>
+        <v>0.01641719830706571</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06866546441176098</v>
+        <v>0.07079551774685049</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02317213638542912</v>
+        <v>0.01649963594177808</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06925971826070676</v>
+        <v>0.07158213461070437</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02221163895833581</v>
+        <v>0.03915264686983019</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06949140982045594</v>
+        <v>0.07083796797334285</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04817134120713301</v>
+        <v>0.06823185778189989</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06483064287304027</v>
+        <v>0.07091092056793948</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07646298300910054</v>
+        <v>0.01649963594177808</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06942841401633611</v>
+        <v>0.07158213461070437</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02430798410796023</v>
+        <v>0.01628212253943814</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07002081406576947</v>
+        <v>0.07236875147455828</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02214568624839834</v>
+        <v>0.0390290680583758</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07025505168661479</v>
+        <v>0.07161640718184113</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04795171704385767</v>
+        <v>0.06785096763009946</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06554306751999676</v>
+        <v>0.07169016145330145</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07598442000047562</v>
+        <v>0.01628212253943814</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07019136362091123</v>
+        <v>0.07236875147455828</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02344004876600536</v>
+        <v>0.01626464600157997</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07078190987083217</v>
+        <v>0.07315536833841217</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02247604251517682</v>
+        <v>0.03852417766519617</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07101869355277364</v>
+        <v>0.0723948463903394</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04812883541924814</v>
+        <v>0.06776335986044352</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06625549216695326</v>
+        <v>0.07246940233866343</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0763048829568283</v>
+        <v>0.01626464600157997</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07095431322548636</v>
+        <v>0.07315536833841217</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02456760951684354</v>
+        <v>0.01594719422973759</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07154300567589489</v>
+        <v>0.07394198520226607</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02240228669755101</v>
+        <v>0.03853315314247469</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07178233541893252</v>
+        <v>0.07317328559883766</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04790281174273417</v>
+        <v>0.06686924790832349</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06696791681390973</v>
+        <v>0.0732486432240254</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07582438096078348</v>
+        <v>0.01594719422973759</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07171726283006147</v>
+        <v>0.07394198520226607</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02468994551775379</v>
+        <v>0.0159297551254451</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0723041014809576</v>
+        <v>0.07472860206611995</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0227239977344007</v>
+        <v>0.03855216388208793</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07254597728509136</v>
+        <v>0.07395172480733594</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04817376142374552</v>
+        <v>0.06706884520913037</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06768034146086623</v>
+        <v>0.07402788410938736</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07654292309496585</v>
+        <v>0.0159297551254451</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07248021243463659</v>
+        <v>0.07472860206611995</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02480633592601512</v>
+        <v>0.01571231659023654</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0730651972860203</v>
+        <v>0.07551521892997384</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02264075456460571</v>
+        <v>0.03818053045932643</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07330961915125023</v>
+        <v>0.07473016401583422</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04784179987171189</v>
+        <v>0.06656236519825548</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06839276610782272</v>
+        <v>0.07480712499474934</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07626051844200066</v>
+        <v>0.01571231659023654</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07324316203921172</v>
+        <v>0.07551521892997384</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02391605989890661</v>
+        <v>0.01559486652564597</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07382629309108302</v>
+        <v>0.07630183579382774</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02275213612704582</v>
+        <v>0.03821757344948062</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07407326101740908</v>
+        <v>0.07550860322433249</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04800704249606311</v>
+        <v>0.0656500213110901</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06910519075477921</v>
+        <v>0.07558636588011131</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07657717608451259</v>
+        <v>0.01559486652564597</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07400611164378684</v>
+        <v>0.07630183579382774</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02601839659370724</v>
+        <v>0.01567739283320742</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07458738889614573</v>
+        <v>0.07708845265768165</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02305772136060083</v>
+        <v>0.03776261342784112</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07483690288356792</v>
+        <v>0.07628704243283076</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04806960470622892</v>
+        <v>0.06523202698302544</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0698176154017357</v>
+        <v>0.07636560676547328</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07639290510512664</v>
+        <v>0.01567739283320742</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07476906124836197</v>
+        <v>0.07708845265768165</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02411262516769606</v>
+        <v>0.01545988341445498</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07534848470120845</v>
+        <v>0.07787506952153553</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02295708920415053</v>
+        <v>0.0375149709696983</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0756005447497268</v>
+        <v>0.07706548164132904</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04782960191163901</v>
+        <v>0.06490859564945273</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07053004004869218</v>
+        <v>0.07714484765083525</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07650771458646755</v>
+        <v>0.01545988341445498</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07553201085293708</v>
+        <v>0.07787506952153553</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02419802477815211</v>
+        <v>0.01534232617092271</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07610958050627116</v>
+        <v>0.07866168638538942</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02304981859657473</v>
+        <v>0.03757396665034268</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07636418661588565</v>
+        <v>0.07784392084982732</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04808714952172316</v>
+        <v>0.06487994074576309</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07124246469564867</v>
+        <v>0.07792408853619723</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07632161361116035</v>
+        <v>0.01534232617092271</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0762949604575122</v>
+        <v>0.07866168638538942</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0262738745823544</v>
+        <v>0.01522470900414463</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07687067631133386</v>
+        <v>0.07944830324924332</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02333548847675321</v>
+        <v>0.03743892104506483</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07712782848204451</v>
+        <v>0.07862236005832558</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04804236294591116</v>
+        <v>0.06464627570734793</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07195488934260515</v>
+        <v>0.07870332942155921</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07663461126182997</v>
+        <v>0.01522470900414463</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07705791006208733</v>
+        <v>0.07944830324924332</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02433945373758196</v>
+        <v>0.01500701981565482</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07763177211639657</v>
+        <v>0.08023492011309721</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02341367778356576</v>
+        <v>0.03730915472915516</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07789147034820336</v>
+        <v>0.07940079926682386</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04779535759363274</v>
+        <v>0.06410781396959836</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07266731398956164</v>
+        <v>0.07948257030692117</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07654671662110124</v>
+        <v>0.01500701981565482</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07782085966666244</v>
+        <v>0.08023492011309721</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02539404140111387</v>
+        <v>0.01498924650698735</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07839286792145929</v>
+        <v>0.08102153697695111</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02328396545589219</v>
+        <v>0.0371839882779042</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07865511221436221</v>
+        <v>0.08017923847532213</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04794624887431762</v>
+        <v>0.06356476896790569</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07337973863651813</v>
+        <v>0.08026181119228315</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0759579387715989</v>
+        <v>0.01498924650698735</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07858380927123756</v>
+        <v>0.08102153697695111</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0244369167302291</v>
+        <v>0.01497137697967625</v>
       </c>
       <c r="G169" t="n">
-        <v>0.079153963726522</v>
+        <v>0.081808153840805</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02334593043261229</v>
+        <v>0.03726274226660242</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07941875408052108</v>
+        <v>0.08095767768382041</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04749515219739558</v>
+        <v>0.06291735413766097</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07409216328347461</v>
+        <v>0.08104105207764511</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07646828679594814</v>
+        <v>0.01497137697967625</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07934675887581269</v>
+        <v>0.081808153840805</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02446735888220669</v>
+        <v>0.01475339913525558</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07991505953158472</v>
+        <v>0.0825947707046589</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02339915165260588</v>
+        <v>0.03684473727054033</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08018239594667993</v>
+        <v>0.08173611689231867</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04784218297229639</v>
+        <v>0.06226578291425572</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0748045879304311</v>
+        <v>0.08182029296300708</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07637776977677363</v>
+        <v>0.01475339913525558</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08010970848038781</v>
+        <v>0.0825947707046589</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02648464701432571</v>
+        <v>0.01453530087525941</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08067615533664743</v>
+        <v>0.08338138756851279</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02344320805475271</v>
+        <v>0.03682929386500838</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08094603781283878</v>
+        <v>0.08251455610081695</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0474874566084498</v>
+        <v>0.06191026873308092</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07551701257738759</v>
+        <v>0.08259953384836906</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07668639679670047</v>
+        <v>0.01453530087525941</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08087265808496294</v>
+        <v>0.08338138756851279</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02648794714217116</v>
+        <v>0.0145170701012218</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08143725114171013</v>
+        <v>0.08416800443236667</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02357767857793261</v>
+        <v>0.03681573262529717</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08170967967899764</v>
+        <v>0.08329299530931522</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04773108851528551</v>
+        <v>0.06124343782551317</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07622943722434407</v>
+        <v>0.08337877473373104</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07639417693835338</v>
+        <v>0.0145170701012218</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08163560768953805</v>
+        <v>0.08416800443236667</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02447462041024785</v>
+        <v>0.01429869471467679</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08219834694677285</v>
+        <v>0.08495462129622057</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02370214216102537</v>
+        <v>0.03650337412669707</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08247332154515649</v>
+        <v>0.08407143451781349</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0474731941022333</v>
+        <v>0.06118106604202861</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07694186187130056</v>
+        <v>0.084158015619093</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07650111928435738</v>
+        <v>0.01429869471467679</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08239855729411318</v>
+        <v>0.08495462129622057</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02644442253448691</v>
+        <v>0.01418016261715845</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08295944275183556</v>
+        <v>0.08574123816007448</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02351617774291076</v>
+        <v>0.03659153894449868</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08323696341131535</v>
+        <v>0.08484987372631177</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04721388877872296</v>
+        <v>0.06050696272227379</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07765428651825705</v>
+        <v>0.08493725650445498</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0765072329173373</v>
+        <v>0.01418016261715845</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0831615068986883</v>
+        <v>0.08574123816007448</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02639817026515257</v>
+        <v>0.01426146171020082</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08372053855689827</v>
+        <v>0.08652785502392837</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02371919490112336</v>
+        <v>0.0363795476539924</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08400060527747422</v>
+        <v>0.08562831293481005</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0475532879541842</v>
+        <v>0.05943032767955941</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07836671116521353</v>
+        <v>0.08571649738981695</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07641252691991796</v>
+        <v>0.01426146171020082</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08392445650326341</v>
+        <v>0.08652785502392837</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02633668035250908</v>
+        <v>0.01394257989533797</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08448163436196099</v>
+        <v>0.08731447188778226</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02350603380255625</v>
+        <v>0.03646672083046876</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08476424714363306</v>
+        <v>0.08640675214330833</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04739150703804682</v>
+        <v>0.0586603607271961</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07907913581217002</v>
+        <v>0.08649573827517892</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07631701037472438</v>
+        <v>0.01394257989533797</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08468740610783854</v>
+        <v>0.08731447188778226</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02626076954682068</v>
+        <v>0.01382350507410395</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0852427301670237</v>
+        <v>0.08810108875163615</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02367500694796128</v>
+        <v>0.03605237904921832</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08552788900979193</v>
+        <v>0.08718519135180658</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04702866143974049</v>
+        <v>0.05760626167849475</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0797915604591265</v>
+        <v>0.0872749791605409</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07662069236438146</v>
+        <v>0.01382350507410395</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08545035571241366</v>
+        <v>0.08810108875163615</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02417125459835158</v>
+        <v>0.01380422514803281</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0860038259720864</v>
+        <v>0.08888770561549005</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02362689471213106</v>
+        <v>0.03613584288553148</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08629153087595078</v>
+        <v>0.08796363056030486</v>
       </c>
       <c r="L178" t="n">
-        <v>0.046964866568695</v>
+        <v>0.05697723034676588</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08050398510608299</v>
+        <v>0.08805422004590287</v>
       </c>
       <c r="N178" t="n">
-        <v>0.076423581971514</v>
+        <v>0.01380422514803281</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08621330531698879</v>
+        <v>0.08888770561549005</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02506895225736605</v>
+        <v>0.01378472801865864</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08676492177714912</v>
+        <v>0.08967432247934394</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02346247746985825</v>
+        <v>0.03571643291469873</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08705517274210964</v>
+        <v>0.08874206976880314</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04690023783434014</v>
+        <v>0.05548246654532024</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08121640975303948</v>
+        <v>0.08883346093126483</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07602568827874701</v>
+        <v>0.01378472801865864</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08697625492156391</v>
+        <v>0.08967432247934394</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02495467927412832</v>
+        <v>0.01366500158751546</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08752601758221183</v>
+        <v>0.09046093934319784</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0232825355959355</v>
+        <v>0.03579346971201064</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0878188146082685</v>
+        <v>0.08952050897730142</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04683489064610563</v>
+        <v>0.05413117008746859</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08192883439999596</v>
+        <v>0.08961270181662681</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07602702036870534</v>
+        <v>0.01366500158751546</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08773920452613904</v>
+        <v>0.09046093934319784</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02582925239890263</v>
+        <v>0.01354503375613735</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08828711338727455</v>
+        <v>0.09124755620705173</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02338784946515547</v>
+        <v>0.03556627385275765</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08858245647442735</v>
+        <v>0.09029894818579969</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04686894041342124</v>
+        <v>0.05353254078652159</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08264125904695245</v>
+        <v>0.09039194270198878</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07662758732401381</v>
+        <v>0.01354503375613735</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08850215413071416</v>
+        <v>0.09124755620705173</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0246934883819532</v>
+        <v>0.01322481242605833</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08904820919233726</v>
+        <v>0.09203417307090563</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02307919945231079</v>
+        <v>0.03543416591223028</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08934609834058621</v>
+        <v>0.09107738739429795</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04709285631053187</v>
+        <v>0.0519957784557899</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08335368369390894</v>
+        <v>0.09117118358735075</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07610129542874455</v>
+        <v>0.01322481242605833</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08926510373528929</v>
+        <v>0.09203417307090563</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02554820397354429</v>
+        <v>0.01310432549881251</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08980930499739997</v>
+        <v>0.09282078993475952</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02305736593219414</v>
+        <v>0.03559646646571896</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09010974020674506</v>
+        <v>0.09185582660279623</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04659635282611138</v>
+        <v>0.05063008290858428</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08406610834086542</v>
+        <v>0.09195042447271273</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07618788726753939</v>
+        <v>0.01310432549881251</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0900280533398644</v>
+        <v>0.09282078993475952</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02339421592394011</v>
+        <v>0.01318356087593391</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09057040080246267</v>
+        <v>0.09360740679861342</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02282312927959812</v>
+        <v>0.03545249608851425</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09087338207290392</v>
+        <v>0.0926342658112945</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04658062460635198</v>
+        <v>0.04924465395821548</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08477853298782191</v>
+        <v>0.0927296653580747</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07609064826562334</v>
+        <v>0.01318356087593391</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09079100294443952</v>
+        <v>0.09360740679861342</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02523234098340493</v>
+        <v>0.01296250645895658</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09133149660752539</v>
+        <v>0.09439402366246731</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02267726986931541</v>
+        <v>0.03530157535590664</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09163702393906277</v>
+        <v>0.09341270501979278</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04654688004050447</v>
+        <v>0.04854869141799412</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08549095763477839</v>
+        <v>0.09350890624343668</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07571577416847941</v>
+        <v>0.01296250645895658</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09155395254901465</v>
+        <v>0.09439402366246731</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02306339590220297</v>
+        <v>0.0127411501494146</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0920925924125881</v>
+        <v>0.09518064052632121</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02272056807613866</v>
+        <v>0.03484302484318663</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09240066580522163</v>
+        <v>0.09419114422829104</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0463963275178198</v>
+        <v>0.04675139510123094</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08620338228173488</v>
+        <v>0.09428814712879866</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07576946072159074</v>
+        <v>0.0127411501494146</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09231690215358977</v>
+        <v>0.09518064052632121</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02288819743059844</v>
+        <v>0.01281947984884202</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09285368821765082</v>
+        <v>0.0959672573901751</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02255380427486049</v>
+        <v>0.03457616512564463</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09316430767138049</v>
+        <v>0.09496958343678932</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04603017542754889</v>
+        <v>0.04556196482123664</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08691580692869137</v>
+        <v>0.09506738801416062</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07465790367044051</v>
+        <v>0.01281947984884202</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0930798517581649</v>
+        <v>0.0959672573901751</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02370756231885564</v>
+        <v>0.0126974834587729</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09361478402271353</v>
+        <v>0.096753874254029</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02237775884027358</v>
+        <v>0.03470031677857127</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09392794953753934</v>
+        <v>0.09574802264528759</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04584963215894267</v>
+        <v>0.04398960039132199</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08762823157564785</v>
+        <v>0.0958466288995226</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0748872987605117</v>
+        <v>0.0126974834587729</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09384280136274001</v>
+        <v>0.096753874254029</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02452230731723874</v>
+        <v>0.01237514888074129</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09437587982777625</v>
+        <v>0.09754049111788288</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02199321214717057</v>
+        <v>0.03451480037725693</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09469159140369821</v>
+        <v>0.09652646185378587</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04585590610125204</v>
+        <v>0.04314350162479752</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08834065622260434</v>
+        <v>0.09662586978488456</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07416384173728757</v>
+        <v>0.01237514888074129</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09460575096731513</v>
+        <v>0.09754049111788288</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02433324917601204</v>
+        <v>0.01235246401628125</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09513697563283895</v>
+        <v>0.09832710798173677</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0220009445703441</v>
+        <v>0.03411893649699213</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09545523326985705</v>
+        <v>0.09730490106228414</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04545020564372793</v>
+        <v>0.04173286833497408</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08905308086956083</v>
+        <v>0.09740511067024653</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07349372834625112</v>
+        <v>0.01235246401628125</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09536870057189026</v>
+        <v>0.09832710798173677</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02314120464543973</v>
+        <v>0.01212941676692682</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09589807143790166</v>
+        <v>0.09911372484559068</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02170173648458681</v>
+        <v>0.03391204571306738</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09621887513601592</v>
+        <v>0.09808334027078242</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04523373917562118</v>
+        <v>0.04046690033516243</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08976550551651731</v>
+        <v>0.09818435155560851</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07318315433288558</v>
+        <v>0.01212941676692682</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09613165017646537</v>
+        <v>0.09911372484559068</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02294699047578606</v>
+        <v>0.01220599503421209</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09665916724296438</v>
+        <v>0.09990034170944458</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02159636826469138</v>
+        <v>0.03359344860077315</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09698251700217478</v>
+        <v>0.09886177947928068</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04500771508618279</v>
+        <v>0.03945479743867303</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0904779301634738</v>
+        <v>0.09896359244097047</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07213831544267396</v>
+        <v>0.01220599503421209</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09689459978104049</v>
+        <v>0.09990034170944458</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02275142341731527</v>
+        <v>0.01188218671967109</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09742026304802709</v>
+        <v>0.1006869585732985</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02128562028545043</v>
+        <v>0.03366246573539999</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09774615886833363</v>
+        <v>0.09964021868777896</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04477334176466363</v>
+        <v>0.03860575945881684</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09119035481043029</v>
+        <v>0.09974283332633245</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07146540742109941</v>
+        <v>0.01188218671967109</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09765754938561562</v>
+        <v>0.1006869585732985</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02355532022029162</v>
+        <v>0.01175797972483788</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0981813588530898</v>
+        <v>0.1014735754371524</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02107027292165663</v>
+        <v>0.03341841769223836</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09850980073449249</v>
+        <v>0.1004186578962772</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04483182760031462</v>
+        <v>0.03782898620890435</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09190277945738677</v>
+        <v>0.1005220742116944</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07097062601364518</v>
+        <v>0.01175797972483788</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09842049899019074</v>
+        <v>0.1014735754371524</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02135949763497931</v>
+        <v>0.01183336195124653</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0989424546581525</v>
+        <v>0.1022601923010062</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0208511065481026</v>
+        <v>0.0332606250465787</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09927344260065134</v>
+        <v>0.1011970971047755</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04448438098238669</v>
+        <v>0.03633367750224653</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09261520410434326</v>
+        <v>0.1013013150970564</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07046016696579427</v>
+        <v>0.01183336195124653</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09918344859476587</v>
+        <v>0.1022601923010062</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0231647724116426</v>
+        <v>0.01160832130043107</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09970355046321522</v>
+        <v>0.1030468091648602</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02052890153958099</v>
+        <v>0.03258840837371157</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1000370844668102</v>
+        <v>0.1019755363132738</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04403221030013069</v>
+        <v>0.03612903315215382</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09332762875129974</v>
+        <v>0.1020805559824184</v>
       </c>
       <c r="N196" t="n">
-        <v>0.06924022602302976</v>
+        <v>0.01160832130043107</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09994639819934098</v>
+        <v>0.1030468091648602</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02097196130054572</v>
+        <v>0.01138284567392558</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1004646462682779</v>
+        <v>0.103833426028714</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02040443827088449</v>
+        <v>0.03250108824892747</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1008007263329691</v>
+        <v>0.1027539755217721</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04417652394279761</v>
+        <v>0.03502425297193701</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09404005339825623</v>
+        <v>0.1028597968677804</v>
       </c>
       <c r="N197" t="n">
-        <v>0.06831699893083487</v>
+        <v>0.01138284567392558</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1007093478039161</v>
+        <v>0.103833426028714</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02078188105195289</v>
+        <v>0.01135692297326411</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1012257420733406</v>
+        <v>0.1046200428925679</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02017849711680572</v>
+        <v>0.03216247126848873</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1015643681991279</v>
+        <v>0.1035324147302703</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04381853029963836</v>
+        <v>0.03432853677490688</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09475247804521272</v>
+        <v>0.1036390377531423</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0681966814346926</v>
+        <v>0.01135692297326411</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1014722974084912</v>
+        <v>0.1046200428925679</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0225953484161284</v>
+        <v>0.0111284756167133</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1019868378784033</v>
+        <v>0.1054066597564218</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01995185845213733</v>
+        <v>0.03156612883467599</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1023280100652868</v>
+        <v>0.1043108539387686</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04355943775990379</v>
+        <v>0.03385108437437412</v>
       </c>
       <c r="M199" t="n">
-        <v>0.0954649026921692</v>
+        <v>0.1044182786385043</v>
       </c>
       <c r="N199" t="n">
-        <v>0.06718546928008612</v>
+        <v>0.0111284756167133</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1022352470130663</v>
+        <v>0.1054066597564218</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02041318014333642</v>
+        <v>0.01109528946798593</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1027479336834661</v>
+        <v>0.1061932766202757</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01962530265167195</v>
+        <v>0.03082057339462727</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1030916519314456</v>
+        <v>0.1050892931472669</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04340045471284484</v>
+        <v>0.03335803212864474</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09617732733912569</v>
+        <v>0.1051975195238662</v>
       </c>
       <c r="N200" t="n">
-        <v>0.06618955821249867</v>
+        <v>0.01109528946798593</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1029981966176415</v>
+        <v>0.1061932766202757</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02223619298384123</v>
+        <v>0.0109584269366161</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1035090294885288</v>
+        <v>0.1069798934841296</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01959961009020225</v>
+        <v>0.03004328024249772</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1038552937976045</v>
+        <v>0.1058677323557651</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04314278954771247</v>
+        <v>0.033295396104779</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09688975198608218</v>
+        <v>0.1059767604092282</v>
       </c>
       <c r="N201" t="n">
-        <v>0.06591514397741316</v>
+        <v>0.0109584269366161</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1037611462222166</v>
+        <v>0.1069798934841296</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02106520368790706</v>
+        <v>0.01091897048257066</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1042701252935915</v>
+        <v>0.1077665103479835</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01937556114252088</v>
+        <v>0.02925172467244233</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1046189356637633</v>
+        <v>0.1066461715642634</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04278765065375756</v>
+        <v>0.03336052591125721</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09760217663303866</v>
+        <v>0.1067560012945902</v>
       </c>
       <c r="N202" t="n">
-        <v>0.06536842232031292</v>
+        <v>0.01091897048257066</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1045240958267917</v>
+        <v>0.1077665103479835</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01990102900579814</v>
+        <v>0.01057800256581647</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1050312210986542</v>
+        <v>0.1085531272118374</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01905393618342048</v>
+        <v>0.02856338197861613</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1053825775299222</v>
+        <v>0.1074246107727617</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04243624642023097</v>
+        <v>0.03275099462193037</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09831460127999515</v>
+        <v>0.1075352421799522</v>
       </c>
       <c r="N203" t="n">
-        <v>0.06495558898668086</v>
+        <v>0.01057800256581647</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1052870454313668</v>
+        <v>0.1085531272118374</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01974448568777872</v>
+        <v>0.01043660564632038</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1057923169037169</v>
+        <v>0.1093397440756913</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01893551558769371</v>
+        <v>0.02749572745517415</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1061462193960811</v>
+        <v>0.10820304998126</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04198978523638369</v>
+        <v>0.03266437531064953</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09902702592695163</v>
+        <v>0.1083144830653142</v>
       </c>
       <c r="N204" t="n">
-        <v>0.06428283972200027</v>
+        <v>0.01043660564632038</v>
       </c>
       <c r="O204" t="n">
-        <v>0.106049995035942</v>
+        <v>0.1093397440756913</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02159639048411301</v>
+        <v>0.01029586218404928</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1065534127087796</v>
+        <v>0.1101263609395452</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01872107973013319</v>
+        <v>0.02596623639627135</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1069098612622399</v>
+        <v>0.1089814891897582</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04204947549146665</v>
+        <v>0.03219824105126562</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09973945057390812</v>
+        <v>0.1090937239506761</v>
       </c>
       <c r="N205" t="n">
-        <v>0.06315637027175419</v>
+        <v>0.01029586218404928</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1068129446405171</v>
+        <v>0.1101263609395452</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02145756014506528</v>
+        <v>0.01025685463897</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1073145085138423</v>
+        <v>0.1109129778033991</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01841140898553159</v>
+        <v>0.02519238409606281</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1076735031283988</v>
+        <v>0.1097599283982565</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04191652557473069</v>
+        <v>0.03215016491762984</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1004518752208646</v>
+        <v>0.1098729648360381</v>
       </c>
       <c r="N206" t="n">
-        <v>0.06288237638142569</v>
+        <v>0.01025685463897</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1075758942450922</v>
+        <v>0.1109129778033991</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01932881142089976</v>
+        <v>0.01012066547104942</v>
       </c>
       <c r="G207" t="n">
-        <v>0.108075604318905</v>
+        <v>0.111699594667253</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01820728372868158</v>
+        <v>0.02379164584870355</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1084371449945576</v>
+        <v>0.1105383676067548</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04149214387542671</v>
+        <v>0.03181771998359306</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1011642998678211</v>
+        <v>0.1106522057214001</v>
       </c>
       <c r="N207" t="n">
-        <v>0.06266705379649801</v>
+        <v>0.01012066547104942</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1083388438496673</v>
+        <v>0.111699594667253</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02021096106188067</v>
+        <v>0.009888377140254395</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1088367001239677</v>
+        <v>0.1124862115311069</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01810948433437576</v>
+        <v>0.02278149694834863</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1092007868607165</v>
+        <v>0.1113168068152531</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04117753878280575</v>
+        <v>0.03139847932300638</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1018767245147776</v>
+        <v>0.111431446606762</v>
       </c>
       <c r="N208" t="n">
-        <v>0.06191659826245421</v>
+        <v>0.009888377140254395</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1091017934542425</v>
+        <v>0.1124862115311069</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02110482581827226</v>
+        <v>0.009961072106551783</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1095977959290305</v>
+        <v>0.1132728283949608</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01771879117740678</v>
+        <v>0.02147941268915304</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1099644287268753</v>
+        <v>0.1120952460237513</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04107391868611857</v>
+        <v>0.03129001600972081</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1025891491617341</v>
+        <v>0.112210687492124</v>
       </c>
       <c r="N209" t="n">
-        <v>0.06222227175014622</v>
+        <v>0.009961072106551783</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1098647430588176</v>
+        <v>0.1132728283949608</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01901122244033877</v>
+        <v>0.009839832829908447</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1103588917340932</v>
+        <v>0.1140594452588147</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01753598463256736</v>
+        <v>0.02040286836527175</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1107280705930342</v>
+        <v>0.1128736852322496</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04078249197461617</v>
+        <v>0.03118990311758751</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1033015738086906</v>
+        <v>0.112989928377486</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06163363671061767</v>
+        <v>0.009839832829908447</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1106276926633927</v>
+        <v>0.1140594452588147</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01993096767834443</v>
+        <v>0.009625741770291248</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1111199875391559</v>
+        <v>0.1148460621226686</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01745890548475187</v>
+        <v>0.01926933927085983</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1114917124591931</v>
+        <v>0.1136521244407479</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04080446703754942</v>
+        <v>0.0308957137204573</v>
       </c>
       <c r="M211" t="n">
-        <v>0.104013998455647</v>
+        <v>0.113769169262848</v>
       </c>
       <c r="N211" t="n">
-        <v>0.06154610793445769</v>
+        <v>0.009625741770291248</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1113906422679678</v>
+        <v>0.1148460621226686</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01886461083122301</v>
+        <v>0.009419881387667049</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1118810833442186</v>
+        <v>0.1156326789865225</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01718172697899563</v>
+        <v>0.01779630070007235</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1122553543253519</v>
+        <v>0.1144305636492461</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04074105226416927</v>
+        <v>0.0307050208921813</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1047264231026035</v>
+        <v>0.1145484101482099</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06135984205389616</v>
+        <v>0.009419881387667049</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1121535918725429</v>
+        <v>0.1156326789865225</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01980325392724196</v>
+        <v>0.009319582501476874</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1126421791492813</v>
+        <v>0.1164192958503763</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01700425531650585</v>
+        <v>0.01700122794706427</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1130189961915108</v>
+        <v>0.1152090028577444</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04029345604372664</v>
+        <v>0.03021539770661069</v>
       </c>
       <c r="M213" t="n">
-        <v>0.10543884774956</v>
+        <v>0.1153276510335719</v>
       </c>
       <c r="N213" t="n">
-        <v>0.06067499570116308</v>
+        <v>0.009319582501476874</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1129165414771181</v>
+        <v>0.1164192958503763</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01974226285476707</v>
+        <v>0.009319648245588168</v>
       </c>
       <c r="G214" t="n">
-        <v>0.113403274954344</v>
+        <v>0.1172059127142302</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0170264889936099</v>
+        <v>0.01600159630599071</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1137826380576696</v>
+        <v>0.1159874420662427</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04046288676547241</v>
+        <v>0.03042441723759626</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1061512723965165</v>
+        <v>0.1161068919189339</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0605917255084884</v>
+        <v>0.009319648245588168</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1136794910816932</v>
+        <v>0.1172059127142302</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01868167031047721</v>
+        <v>0.009120065224192779</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1141643707594067</v>
+        <v>0.1179925295780841</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01684842650663511</v>
+        <v>0.01521488107100658</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1145462799238285</v>
+        <v>0.116765881274741</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0399505528186575</v>
+        <v>0.02972965255898913</v>
       </c>
       <c r="M215" t="n">
-        <v>0.106863697043473</v>
+        <v>0.1168861328042958</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06051018810810227</v>
+        <v>0.009120065224192779</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1144424406862683</v>
+        <v>0.1179925295780841</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02062150899105124</v>
+        <v>0.009220875016028328</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1149254665644695</v>
+        <v>0.118779146441938</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01647006635190883</v>
+        <v>0.0144585575362669</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1153099217899873</v>
+        <v>0.1175443204832392</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04015766259253287</v>
+        <v>0.0297286767446403</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1075761216904295</v>
+        <v>0.1176653736896578</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06013054013223446</v>
+        <v>0.009220875016028328</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1152053902908434</v>
+        <v>0.118779146441938</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01956181159316803</v>
+        <v>0.008922119199832455</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1156865623695322</v>
+        <v>0.1195657633057919</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01649140702575845</v>
+        <v>0.01428690908224298</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1160735636561462</v>
+        <v>0.1183227596917375</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04018542447634935</v>
+        <v>0.03001906286840095</v>
       </c>
       <c r="M217" t="n">
-        <v>0.108288546337386</v>
+        <v>0.1184446145750198</v>
       </c>
       <c r="N217" t="n">
-        <v>0.05955293821311508</v>
+        <v>0.008922119199832455</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1159683398954185</v>
+        <v>0.1195657633057919</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01950261081350643</v>
+        <v>0.008923839354342822</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1164476581745949</v>
+        <v>0.1203523801696458</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01631244702451128</v>
+        <v>0.01361734377997539</v>
       </c>
       <c r="K218" t="n">
-        <v>0.116837205522305</v>
+        <v>0.1191011989002358</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03993504685935789</v>
+        <v>0.0295983840041219</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1090009709843425</v>
+        <v>0.1192238554603818</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0593775389829741</v>
+        <v>0.008923839354342822</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1167312894999937</v>
+        <v>0.1203523801696458</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0204439393487453</v>
+        <v>0.008826077058297049</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1172087539796576</v>
+        <v>0.1211389970334997</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0159331848444947</v>
+        <v>0.01294967784486317</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1176008473884639</v>
+        <v>0.1198796381087341</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03980773813080948</v>
+        <v>0.02896421322565434</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1097133956312989</v>
+        <v>0.1200030963457437</v>
       </c>
       <c r="N219" t="n">
-        <v>0.05880449907404151</v>
+        <v>0.008826077058297049</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1174942391045688</v>
+        <v>0.1211389970334997</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01838582989556352</v>
+        <v>0.008628873890432799</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1179698497847203</v>
+        <v>0.1219256138973536</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01575361898203605</v>
+        <v>0.01238436621126546</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1183644892546228</v>
+        <v>0.1206580773172323</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03970292252316193</v>
+        <v>0.02901412360684924</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1104258202782554</v>
+        <v>0.1207823372311057</v>
       </c>
       <c r="N220" t="n">
-        <v>0.05893397511854714</v>
+        <v>0.008628873890432799</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1182571887091439</v>
+        <v>0.1219256138973536</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01932831515063992</v>
+        <v>0.008632271429487692</v>
       </c>
       <c r="G221" t="n">
-        <v>0.118730945589783</v>
+        <v>0.1227122307612075</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0156737479334627</v>
+        <v>0.01162186381354136</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1191281311207816</v>
+        <v>0.1214365165257306</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03990295964743018</v>
+        <v>0.02854568822155762</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1111382449252119</v>
+        <v>0.1215615781164677</v>
       </c>
       <c r="N221" t="n">
-        <v>0.05876612374872126</v>
+        <v>0.008632271429487692</v>
       </c>
       <c r="O221" t="n">
-        <v>0.119020138313719</v>
+        <v>0.1227122307612075</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01827142781065338</v>
+        <v>0.008636311254199378</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1194920413948457</v>
+        <v>0.1234988476250614</v>
       </c>
       <c r="J222" t="n">
-        <v>0.015393570195102</v>
+        <v>0.01106262558604995</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1198917729869405</v>
+        <v>0.1222149557342289</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03990311678500927</v>
+        <v>0.02825648014363052</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1118506695721684</v>
+        <v>0.1223408190018296</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0581011015967936</v>
+        <v>0.008636311254199378</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1197830879182942</v>
+        <v>0.1234988476250614</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02021520057228279</v>
+        <v>0.008441034943305503</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1202531371999084</v>
+        <v>0.1242854644889153</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0153130842632813</v>
+        <v>0.01090710646315038</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1206554148530993</v>
+        <v>0.1229933949427271</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03980348112249332</v>
+        <v>0.02794407244691899</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1125630942191249</v>
+        <v>0.1231200598871916</v>
       </c>
       <c r="N223" t="n">
-        <v>0.05833906529499427</v>
+        <v>0.008441034943305503</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1205460375228693</v>
+        <v>0.1242854644889153</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01915966613220697</v>
+        <v>0.0084464840755437</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1210142330049711</v>
+        <v>0.1250720813527692</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01523228863432796</v>
+        <v>0.01035576137920172</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1214190567192582</v>
+        <v>0.1237718341512254</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03970413984647644</v>
+        <v>0.02750603820527397</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1132755188660814</v>
+        <v>0.1238993007725536</v>
       </c>
       <c r="N224" t="n">
-        <v>0.05808017147555328</v>
+        <v>0.0084464840755437</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1213089871274444</v>
+        <v>0.1250720813527692</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01910485718710479</v>
+        <v>0.008352700229651622</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1217753288100339</v>
+        <v>0.1258586982166231</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01495118180456932</v>
+        <v>0.009709045268563116</v>
       </c>
       <c r="K225" t="n">
-        <v>0.122182698585417</v>
+        <v>0.1245502733597237</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03970518014355284</v>
+        <v>0.02754009213639291</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1139879435130379</v>
+        <v>0.1246785416579156</v>
       </c>
       <c r="N225" t="n">
-        <v>0.05772457677070053</v>
+        <v>0.008352700229651622</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1220719367320195</v>
+        <v>0.1258586982166231</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02005080643365514</v>
+        <v>0.008059724984366898</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1225364246150966</v>
+        <v>0.126645315080477</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01486976227033274</v>
+        <v>0.009067413065593638</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1229463404515759</v>
+        <v>0.125328712568222</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03970668920031664</v>
+        <v>0.02704764698986711</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1147003681599943</v>
+        <v>0.1254577825432776</v>
       </c>
       <c r="N226" t="n">
-        <v>0.05767243781266601</v>
+        <v>0.008059724984366898</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1228348863365946</v>
+        <v>0.126645315080477</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01799754656853685</v>
+        <v>0.008167599918427172</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1232975204201593</v>
+        <v>0.1274319319443309</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01458802852794557</v>
+        <v>0.00833131970465234</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1237099823177347</v>
+        <v>0.1261071517767202</v>
       </c>
       <c r="L227" t="n">
-        <v>0.040008754203362</v>
+        <v>0.02653007264583457</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1154127928069508</v>
+        <v>0.1262370234286395</v>
       </c>
       <c r="N227" t="n">
-        <v>0.05682391123367975</v>
+        <v>0.008167599918427172</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1235978359411698</v>
+        <v>0.1274319319443309</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0199451102884288</v>
+        <v>0.007876366610570097</v>
       </c>
       <c r="G228" t="n">
-        <v>0.124058616225222</v>
+        <v>0.1282185488081848</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01430597907373517</v>
+        <v>0.008101220120098507</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1244736241838936</v>
+        <v>0.1268855909852185</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04001146233928304</v>
+        <v>0.02618772605139141</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1161252174539073</v>
+        <v>0.1270162643140015</v>
       </c>
       <c r="N228" t="n">
-        <v>0.05707915366597172</v>
+        <v>0.007876366610570097</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1243607855457449</v>
+        <v>0.1282185488081848</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01789353029000984</v>
+        <v>0.007786066639533289</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1248197120302847</v>
+        <v>0.1290051656720387</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01432361240402891</v>
+        <v>0.007377569246291071</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1252372660500524</v>
+        <v>0.1276640301937168</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0398149007946739</v>
+        <v>0.02602096415363359</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1168376421008638</v>
+        <v>0.1277955051993635</v>
       </c>
       <c r="N229" t="n">
-        <v>0.05673832174177196</v>
+        <v>0.007786066639533289</v>
       </c>
       <c r="O229" t="n">
-        <v>0.12512373515032</v>
+        <v>0.1290051656720387</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01784283926995883</v>
+        <v>0.007896741584054422</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1255808078353474</v>
+        <v>0.1297917825358925</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01394092701515411</v>
+        <v>0.006860822017589224</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1260009079162113</v>
+        <v>0.1284424694022151</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03991915675612875</v>
+        <v>0.02533014389965749</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1175500667478203</v>
+        <v>0.1285747460847254</v>
       </c>
       <c r="N230" t="n">
-        <v>0.05670157209331034</v>
+        <v>0.007896741584054422</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1258866847548951</v>
+        <v>0.1297917825358925</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01879306992495465</v>
+        <v>0.007808433022871111</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1263419036404101</v>
+        <v>0.1305783993997464</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01395792140343814</v>
+        <v>0.006351433368352033</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1267645497823702</v>
+        <v>0.1292209086107133</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04002431741024173</v>
+        <v>0.02431562223655898</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1182624913947768</v>
+        <v>0.1293539869700874</v>
       </c>
       <c r="N231" t="n">
-        <v>0.05586906135281683</v>
+        <v>0.007808433022871111</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1266496343594702</v>
+        <v>0.1305783993997464</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01774425495167616</v>
+        <v>0.007621182534721008</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1271029994454728</v>
+        <v>0.1313650162636003</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01357459406520836</v>
+        <v>0.005949858232938643</v>
       </c>
       <c r="K232" t="n">
-        <v>0.127528191648529</v>
+        <v>0.1299993478192116</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04003046994360698</v>
+        <v>0.02397775611143438</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1189749160417333</v>
+        <v>0.1301332278554494</v>
       </c>
       <c r="N232" t="n">
-        <v>0.05624094615252156</v>
+        <v>0.007621182534721008</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1274125839640454</v>
+        <v>0.1313650162636003</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0176964270468022</v>
+        <v>0.00763503169834176</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1278640952505355</v>
+        <v>0.1321516331274542</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01359094349679212</v>
+        <v>0.005656551545708127</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1282918335146879</v>
+        <v>0.1307777870277099</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03983770154281863</v>
+        <v>0.02341690247137973</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1196873406886897</v>
+        <v>0.1309124687408113</v>
       </c>
       <c r="N233" t="n">
-        <v>0.05581738312465445</v>
+        <v>0.00763503169834176</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1281755335686205</v>
+        <v>0.1321516331274542</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01764961890701164</v>
+        <v>0.007450022092470997</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1286251910555982</v>
+        <v>0.1329382499913081</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01320696819451675</v>
+        <v>0.00517196824101962</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1290554753808467</v>
+        <v>0.1315562262362081</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03984609939447084</v>
+        <v>0.0230334182634912</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1203997653356462</v>
+        <v>0.1316917096261733</v>
       </c>
       <c r="N234" t="n">
-        <v>0.05579852890144549</v>
+        <v>0.007450022092470997</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1289384831731956</v>
+        <v>0.1329382499913081</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01760386322898336</v>
+        <v>0.007266195295846371</v>
       </c>
       <c r="G235" t="n">
-        <v>0.129386286860661</v>
+        <v>0.133724866855162</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01312266665470965</v>
+        <v>0.004496563253232166</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1298191172470056</v>
+        <v>0.1323346654447064</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03995575068515775</v>
+        <v>0.02202766043486498</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1211121899826027</v>
+        <v>0.1324709505115353</v>
       </c>
       <c r="N235" t="n">
-        <v>0.05498454011512455</v>
+        <v>0.007266195295846371</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1297014327777707</v>
+        <v>0.133724866855162</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0185591927093962</v>
+        <v>0.007383592887205512</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1301473826657237</v>
+        <v>0.1345114837190159</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01283803737369814</v>
+        <v>0.003930791516704973</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1305827591131645</v>
+        <v>0.1331131046532047</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03976674260147353</v>
+        <v>0.02149998593259694</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1218246146295592</v>
+        <v>0.1332501913968973</v>
       </c>
       <c r="N236" t="n">
-        <v>0.05487557339792182</v>
+        <v>0.007383592887205512</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1304643823823459</v>
+        <v>0.1345114837190159</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01751564004492905</v>
+        <v>0.007202256445286069</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1309084784707864</v>
+        <v>0.1352981005828698</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0126530788478096</v>
+        <v>0.00367510796579712</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1313464009793233</v>
+        <v>0.133891543861703</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03977916233001227</v>
+        <v>0.02135075170378359</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1225370392765157</v>
+        <v>0.1340294322822592</v>
       </c>
       <c r="N237" t="n">
-        <v>0.05477178538206712</v>
+        <v>0.007202256445286069</v>
       </c>
       <c r="O237" t="n">
-        <v>0.131227331986921</v>
+        <v>0.1352981005828698</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01747323793226072</v>
+        <v>0.007222227548825691</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1316695742758491</v>
+        <v>0.1360847174467237</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01266778957337135</v>
+        <v>0.002929967534867572</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1321100428454822</v>
+        <v>0.1346699830702013</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03979309705736819</v>
+        <v>0.02078031469552077</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1232494639234722</v>
+        <v>0.1348086731676212</v>
       </c>
       <c r="N238" t="n">
-        <v>0.05457333269979053</v>
+        <v>0.007222227548825691</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1319902815914961</v>
+        <v>0.1360847174467237</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01743201906807013</v>
+        <v>0.006943547776562004</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1324306700809118</v>
+        <v>0.1368713343105776</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01238216804671076</v>
+        <v>0.002695825158275628</v>
       </c>
       <c r="K239" t="n">
-        <v>0.132873684711641</v>
+        <v>0.1354484222786995</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04000863397013538</v>
+        <v>0.0193890318549047</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1239618885704287</v>
+        <v>0.1355879140529832</v>
       </c>
       <c r="N239" t="n">
-        <v>0.05428037198332203</v>
+        <v>0.006943547776562004</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1327532311960712</v>
+        <v>0.1368713343105776</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01739201614903611</v>
+        <v>0.00696625870723265</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1331917658859745</v>
+        <v>0.1376579511744315</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01229621276415518</v>
+        <v>0.002073135770380347</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1336373265777999</v>
+        <v>0.1362268614871978</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03992586025490802</v>
+        <v>0.01907726012903155</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1246743132173852</v>
+        <v>0.1363671549383451</v>
       </c>
       <c r="N240" t="n">
-        <v>0.05429305986489147</v>
+        <v>0.00696625870723265</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1335161808006464</v>
+        <v>0.1376579511744315</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01935326187183753</v>
+        <v>0.006990401919575284</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1339528616910373</v>
+        <v>0.1384445680382854</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01190992222203199</v>
+        <v>0.001862354305540798</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1344009684439587</v>
+        <v>0.1370053006956961</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0398448630982802</v>
+        <v>0.0180453564649975</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1253867378643416</v>
+        <v>0.1371463958237071</v>
       </c>
       <c r="N241" t="n">
-        <v>0.05441155297672901</v>
+        <v>0.006990401919575284</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1342791304052215</v>
+        <v>0.1384445680382854</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01731578893315325</v>
+        <v>0.006916018992327543</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1347139574960999</v>
+        <v>0.1392311849021393</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0119232949166685</v>
+        <v>0.001263935698116059</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1351646103101176</v>
+        <v>0.1377837399041943</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03996572968684611</v>
+        <v>0.01779367780989849</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1260991625112981</v>
+        <v>0.1379256367090691</v>
       </c>
       <c r="N242" t="n">
-        <v>0.05383600795106452</v>
+        <v>0.006916018992327543</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1350420800097966</v>
+        <v>0.1392311849021393</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01727963002966211</v>
+        <v>0.006643151504227063</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1354750533011627</v>
+        <v>0.1400178017659932</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01153632934439209</v>
+        <v>0.001078334882465309</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1359282521762765</v>
+        <v>0.1385621791126926</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03998854720719988</v>
+        <v>0.01652258111083083</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1268115871582546</v>
+        <v>0.1387048775944311</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05376658142012808</v>
+        <v>0.006643151504227063</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1358050296143717</v>
+        <v>0.1400178017659932</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01824481785804304</v>
+        <v>0.006771841034011475</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1362361491062254</v>
+        <v>0.1408044186298471</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01154902400153011</v>
+        <v>0.0007060067929476332</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1366918940424353</v>
+        <v>0.1393406183211909</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04011340284593568</v>
+        <v>0.01563242331489056</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1275240118052111</v>
+        <v>0.139484118479793</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05360343001614953</v>
+        <v>0.006771841034011475</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1365679792189468</v>
+        <v>0.1408044186298471</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01821138511497483</v>
+        <v>0.00670212916041845</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1369972449112881</v>
+        <v>0.141591035493701</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01136137738440992</v>
+        <v>0.0001474063639221035</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1374555359085942</v>
+        <v>0.1401190575296891</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03994038378964759</v>
+        <v>0.01532356136917379</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1282364364521676</v>
+        <v>0.140263359365155</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0536467103713591</v>
+        <v>0.00670212916041845</v>
       </c>
       <c r="O245" t="n">
-        <v>0.137330928823522</v>
+        <v>0.141591035493701</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01717936449713636</v>
+        <v>0.006634057462185601</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1377583407163508</v>
+        <v>0.1423776523575549</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01107338798935887</v>
+        <v>-9.701147025217849e-05</v>
       </c>
       <c r="K246" t="n">
-        <v>0.138219177774753</v>
+        <v>0.1408974967381874</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04006957722492985</v>
+        <v>0.01449635222077672</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1289488610991241</v>
+        <v>0.141042600250517</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05319657911798642</v>
+        <v>0.006634057462185601</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1380938784280971</v>
+        <v>0.1423776523575549</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01714878870120654</v>
+        <v>0.006367667518050589</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1385194365214135</v>
+        <v>0.1431642692214087</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0107850543127043</v>
+        <v>-0.0005267917752160012</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1389828196409119</v>
+        <v>0.1416759359466857</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04020107033837653</v>
+        <v>0.01365115281679552</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1296612857460805</v>
+        <v>0.141821841135879</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05295319288826184</v>
+        <v>0.006367667518050589</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1388568280326722</v>
+        <v>0.1431642692214087</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01911969042386416</v>
+        <v>0.006503000906751044</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1392805323264762</v>
+        <v>0.1439508860852627</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01069637485077358</v>
+        <v>-0.0004414796166103685</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1397464615070707</v>
+        <v>0.142454375155184</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0403349503165818</v>
+        <v>0.01228832010432618</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1303737103930371</v>
+        <v>0.1426010820212409</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05261670831441512</v>
+        <v>0.006503000906751044</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1396197776372473</v>
+        <v>0.1439508860852627</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01709210236178811</v>
+        <v>0.006440099207024604</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1400416281315389</v>
+        <v>0.1447375029491166</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01060734809989406</v>
+        <v>-0.001140620060076175</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1405101033732296</v>
+        <v>0.1432328143636823</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0404713043461398</v>
+        <v>0.01140821103046497</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1310861350399935</v>
+        <v>0.1433803229066029</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05298728202867625</v>
+        <v>0.006440099207024604</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1403827272418225</v>
+        <v>0.1447375029491166</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01906605721165729</v>
+        <v>0.006179003997608928</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1408027239366016</v>
+        <v>0.1455241198129704</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01031797255639309</v>
+        <v>-0.001023758171254219</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1412737452393885</v>
+        <v>0.1440112535721805</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04041021961364469</v>
+        <v>0.01051118254230787</v>
       </c>
       <c r="M250" t="n">
-        <v>0.13179855968695</v>
+        <v>0.1441595637919649</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05236507066327534</v>
+        <v>0.006179003997608928</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1411456768463976</v>
+        <v>0.1455241198129704</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0180415876701505</v>
+        <v>0.006119756857241636</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1415638197416643</v>
+        <v>0.1463107366768243</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01002824671659804</v>
+        <v>-0.00139043901578545</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1420373871055473</v>
+        <v>0.1447896927806788</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0402517833056906</v>
+        <v>0.009797591586951093</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1325109843339065</v>
+        <v>0.1449388046773269</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05235023085044227</v>
+        <v>0.006119756857241636</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1419086264509727</v>
+        <v>0.1463107366768243</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01901872643394663</v>
+        <v>0.006162399364660391</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1423249155467271</v>
+        <v>0.1470973535406782</v>
       </c>
       <c r="J252" t="n">
-        <v>0.009938169076836235</v>
+        <v>-0.001640207659310805</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1428010289717062</v>
+        <v>0.1455681319891771</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04019608260887164</v>
+        <v>0.009067795111490806</v>
       </c>
       <c r="M252" t="n">
-        <v>0.133223408980863</v>
+        <v>0.1457180455626888</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05264291922240705</v>
+        <v>0.006162399364660391</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1426715760555478</v>
+        <v>0.1470973535406782</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01699750619972454</v>
+        <v>0.006106973098602822</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1430860113517898</v>
+        <v>0.1478839704045321</v>
       </c>
       <c r="J253" t="n">
-        <v>0.009847738133435049</v>
+        <v>-0.002072609167471123</v>
       </c>
       <c r="K253" t="n">
-        <v>0.143564670837865</v>
+        <v>0.1463465711976753</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04044320470978205</v>
+        <v>0.008422150063023215</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1339358336278195</v>
+        <v>0.1464972864480508</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05274329241139963</v>
+        <v>0.006106973098602822</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1434345256601229</v>
+        <v>0.1478839704045321</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01797795966416312</v>
+        <v>0.006153519637806561</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1438471071568525</v>
+        <v>0.148670587268386</v>
       </c>
       <c r="J254" t="n">
-        <v>0.009456952382721838</v>
+        <v>-0.002187188605907331</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1443283127040239</v>
+        <v>0.1471250104061736</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04039323679501591</v>
+        <v>0.007461013388644244</v>
       </c>
       <c r="M254" t="n">
-        <v>0.134648258274776</v>
+        <v>0.1472765273334128</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05195150704965013</v>
+        <v>0.006153519637806561</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1441974752646981</v>
+        <v>0.148670587268386</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01696011952394118</v>
+        <v>0.006002080561009267</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1446082029619152</v>
+        <v>0.1494572041322399</v>
       </c>
       <c r="J255" t="n">
-        <v>0.009365810321023932</v>
+        <v>-0.002383491040260227</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1450919545701827</v>
+        <v>0.1479034496146719</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04064626605116736</v>
+        <v>0.00598474203545013</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1353606829217325</v>
+        <v>0.1480557682187747</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05206771976938834</v>
+        <v>0.006002080561009267</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1449604248692732</v>
+        <v>0.1494572041322399</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01894401847573762</v>
+        <v>0.006052697446948571</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1453692987669779</v>
+        <v>0.1502438209960938</v>
       </c>
       <c r="J256" t="n">
-        <v>0.00917431044466871</v>
+        <v>-0.002461061536170817</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1458555964363416</v>
+        <v>0.1486818888231702</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04070237966483056</v>
+        <v>0.004793692950537054</v>
       </c>
       <c r="M256" t="n">
-        <v>0.136073107568689</v>
+        <v>0.1488350091041367</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0522920872028444</v>
+        <v>0.006052697446948571</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1457233744738483</v>
+        <v>0.1502438209960938</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01792968921623128</v>
+        <v>0.006005411874362127</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1461303945720406</v>
+        <v>0.1510304378599477</v>
       </c>
       <c r="J257" t="n">
-        <v>0.009082451249983525</v>
+        <v>-0.002719445159279993</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1466192383025005</v>
+        <v>0.1494603280316684</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04076166482259966</v>
+        <v>0.004488223081000997</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1367855322156454</v>
+        <v>0.1496142499894987</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0520247659822482</v>
+        <v>0.006005411874362127</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1464863240784234</v>
+        <v>0.1510304378599477</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01791716444210105</v>
+        <v>0.005960265421987555</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1468914903771033</v>
+        <v>0.1518170547238016</v>
       </c>
       <c r="J258" t="n">
-        <v>0.008690231233295716</v>
+        <v>-0.002658186975228571</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1473828801686593</v>
+        <v>0.1502387672401667</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04082420871106879</v>
+        <v>0.00336868937393825</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1374979568626019</v>
+        <v>0.1503934908748606</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05196591273982976</v>
+        <v>0.005960265421987555</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1472492736829985</v>
+        <v>0.1518170547238016</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01790647685002576</v>
+        <v>0.005917299668562519</v>
       </c>
       <c r="G259" t="n">
-        <v>0.147652586182166</v>
+        <v>0.1526036715876555</v>
       </c>
       <c r="J259" t="n">
-        <v>0.008697648890932642</v>
+        <v>-0.002976832049657485</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1481465220348182</v>
+        <v>0.151017206448665</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04089009851683209</v>
+        <v>0.002235448776444882</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1382103815095584</v>
+        <v>0.1511727317602226</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05181568410781912</v>
+        <v>0.005917299668562519</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1480122232875737</v>
+        <v>0.1526036715876555</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0168976591366843</v>
+        <v>0.00587655619282465</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1484136819872288</v>
+        <v>0.1533902884515094</v>
       </c>
       <c r="J260" t="n">
-        <v>0.008404702719221661</v>
+        <v>-0.002974925448207572</v>
       </c>
       <c r="K260" t="n">
-        <v>0.148910163900977</v>
+        <v>0.1517956456571633</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04105942142648372</v>
+        <v>0.001188858235616985</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1389228061565149</v>
+        <v>0.1519519726455846</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05187423671844626</v>
+        <v>0.00587655619282465</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1487751728921488</v>
+        <v>0.1533902884515094</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0178907439987555</v>
+        <v>0.005738076573511587</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1491747777922915</v>
+        <v>0.1541769053153633</v>
       </c>
       <c r="J261" t="n">
-        <v>0.008311391214490135</v>
+        <v>-0.003252012236519858</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1496738057671358</v>
+        <v>0.1525740848656615</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04103226462661785</v>
+        <v>-0.0002707253014493372</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1396352308034714</v>
+        <v>0.1527312135309466</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05224172720394099</v>
+        <v>0.005738076573511587</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1495381224967239</v>
+        <v>0.1541769053153633</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01888576413291825</v>
+        <v>0.005801902389360979</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1499358735973542</v>
+        <v>0.1549635221792172</v>
       </c>
       <c r="J262" t="n">
-        <v>0.008017712873065387</v>
+        <v>-0.003307637480235132</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1504374476332947</v>
+        <v>0.1533525240741598</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04080871530382854</v>
+        <v>-0.001042944887657798</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1403476554504278</v>
+        <v>0.1535104544163085</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0522183121965335</v>
+        <v>0.005801902389360979</v>
       </c>
       <c r="O262" t="n">
-        <v>0.150301072101299</v>
+        <v>0.1549635221792172</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0178827522358514</v>
+        <v>0.00576807521911045</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1506969694024169</v>
+        <v>0.1557501390430711</v>
       </c>
       <c r="J263" t="n">
-        <v>0.007923666191274811</v>
+        <v>-0.003441346244994287</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1512010894994536</v>
+        <v>0.1541309632826581</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04128886064471005</v>
+        <v>-0.002427443575912375</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1410600800973844</v>
+        <v>0.1542896953016705</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05180414832845365</v>
+        <v>0.00576807521911045</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1510640217058742</v>
+        <v>0.1557501390430711</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01788174100423381</v>
+        <v>0.005536636641497665</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1514580652074796</v>
+        <v>0.156536755906925</v>
       </c>
       <c r="J264" t="n">
-        <v>0.00772924966544572</v>
+        <v>-0.00305268359643826</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1519647313656124</v>
+        <v>0.1549094024911563</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04127278783585647</v>
+        <v>-0.003323864419117056</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1417725047443408</v>
+        <v>0.1550689361870325</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05169939223193148</v>
+        <v>0.005536636641497665</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1518269713104493</v>
+        <v>0.156536755906925</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1112.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1112.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07025045252758821</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08734391969784558</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01033001815510755</v>
+        <v>0.03734391969784558</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01228841743034669</v>
+        <v>0.02875456057028107</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001079392943288723</v>
+        <v>0.001101537578659238</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007866168638538942</v>
+        <v>0.0006941874805078896</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003885073787796456</v>
+        <v>0.001140064160125701</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007784392084982731</v>
+        <v>0.0007866168638538942</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005859302173840619</v>
+        <v>0.003220378918995709</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007792408853619723</v>
+        <v>0.0007772765041531816</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001079392943288723</v>
+        <v>0.005534611268027623</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007866168638538942</v>
+        <v>0.000774926672661274</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002511097233958308</v>
+        <v>0.00219255824011421</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001573233727707788</v>
+        <v>0.001388374961015779</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007444455450094728</v>
+        <v>0.002426390127377789</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001556878416996546</v>
+        <v>0.001573233727707788</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01088923383718121</v>
+        <v>0.005999999999999978</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001558481770723945</v>
+        <v>0.001385922330097082</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002511097233958308</v>
+        <v>0.009000000000000008</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001573233727707788</v>
+        <v>0.001212028301886794</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003532942373353505</v>
+        <v>0.003273137424207193</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002359850591561683</v>
+        <v>0.002082562441523669</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01056735540963866</v>
+        <v>0.00326470243909175</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00233531762549482</v>
+        <v>0.002359850591561683</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01628205156112628</v>
+        <v>0.008565632118874927</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002337722656085917</v>
+        <v>0.002331829512459545</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.003532942373353505</v>
+        <v>0.01498808992647238</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002359850591561683</v>
+        <v>0.002324780017983822</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004382757862818998</v>
+        <v>0.004343350570780488</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003146467455415577</v>
+        <v>0.002776749922031559</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01399999999999998</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00336447811447811</v>
+        <v>0.002854999999999998</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02200000000000002</v>
+        <v>0.01096002915185035</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003451098901098904</v>
+        <v>0.003109106016612726</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.004382757862818998</v>
+        <v>0.01868468907758664</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003146467455415577</v>
+        <v>0.003099706690645096</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003568749999999999</v>
+        <v>0.01880297268433729</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.005403273119676352</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003568749999999999</v>
+        <v>0.003470937402539448</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01493613162348065</v>
+        <v>0.004996503113138477</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003892196042491366</v>
+        <v>0.003933084319269471</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0233086662447522</v>
+        <v>0.01311911517902789</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003896204426809861</v>
+        <v>0.003886382520765908</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.02223285536191233</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003568749999999999</v>
+        <v>0.00387463336330637</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005874940322429946</v>
+        <v>0.006452980510737095</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004719701183123365</v>
+        <v>0.004165124883047338</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01679367366916404</v>
+        <v>0.005466791056636305</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004670635250989639</v>
+        <v>0.004719701183123365</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02618729556927613</v>
+        <v>0.01523662336197376</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004675445312171834</v>
+        <v>0.004663659024919089</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.005874940322429946</v>
+        <v>0.02561176860384512</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004719701183123365</v>
+        <v>0.004649560035967644</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006375625973607038</v>
+        <v>0.007492548183804994</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005506318046977259</v>
+        <v>0.004859312363555228</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01837226497134417</v>
+        <v>0.00609279964294196</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005449074459487911</v>
+        <v>0.005506318046977259</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02779139851940249</v>
+        <v>0.01720628686225414</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005454686197533806</v>
+        <v>0.00544093552907227</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.006375625973607038</v>
+        <v>0.0289006086277806</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005506318046977259</v>
+        <v>0.005424486708628918</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.007128936995396927</v>
+        <v>0.00852205157872233</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006292934910831154</v>
+        <v>0.005553499844063117</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01949293567331165</v>
+        <v>0.006777773629203607</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006227513667986185</v>
+        <v>0.006292934910831154</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03045361190513496</v>
+        <v>0.01872183884143513</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006233927082895778</v>
+        <v>0.006218212033225453</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.007128936995396927</v>
+        <v>0.031378555258114</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006292934910831154</v>
+        <v>0.006199413381290192</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.007640001598248063</v>
+        <v>0.0095415661353314</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007079551774685049</v>
+        <v>0.006247687324571007</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02087671591835702</v>
+        <v>0.007424957772569435</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007005952876484457</v>
+        <v>0.007079551774685049</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03210657253647747</v>
+        <v>0.02057701246108296</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00701316796825775</v>
+        <v>0.006995488537378634</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.007640001598248063</v>
+        <v>0.03372478831924119</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007079551774685049</v>
+        <v>0.006974340053951466</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.007913947992608854</v>
+        <v>0.01055116729347449</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007866168638538942</v>
+        <v>0.006941874805078897</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02174463584977082</v>
+        <v>0.007737596830187612</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007784392084982731</v>
+        <v>0.007866168638538942</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03338291722343373</v>
+        <v>0.02186554088276377</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007792408853619722</v>
+        <v>0.007772765041531816</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.007913947992608854</v>
+        <v>0.03621848763555752</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007866168638538942</v>
+        <v>0.00774926672661274</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.008355904388927742</v>
+        <v>0.01155093049299388</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008652785502392837</v>
+        <v>0.007636062285586787</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02281772561084372</v>
+        <v>0.008418935559206343</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008562831293481005</v>
+        <v>0.008652785502392837</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03521528277600749</v>
+        <v>0.02278115726804367</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008571649738981694</v>
+        <v>0.008550041545684997</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.008355904388927742</v>
+        <v>0.0380865581391967</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008652785502392837</v>
+        <v>0.008548515997437627</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.008970998997653155</v>
+        <v>0.01254093117373185</v>
       </c>
       <c r="G77" t="n">
+        <v>0.008330249766094677</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.008772218716773791</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.00943940236624673</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.02420828814715215</v>
       </c>
-      <c r="K77" t="n">
-        <v>0.009696220911913491</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.03693630600420256</v>
-      </c>
       <c r="M77" t="n">
-        <v>0.009350890624343668</v>
+        <v>0.009319668643489668</v>
       </c>
       <c r="N77" t="n">
-        <v>0.008970998997653155</v>
+        <v>0.0392430938235529</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00943940236624673</v>
+        <v>0.009299120071935289</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009364360029233514</v>
+        <v>0.01352124477553069</v>
       </c>
       <c r="G78" t="n">
+        <v>0.009024437246602564</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.009300691060038155</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01022601923010063</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.02446921215431952</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01011970971047755</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.0380865581391967</v>
+        <v>0.0251585826291307</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0099576120409713</v>
+        <v>0.01010459455399136</v>
       </c>
       <c r="N78" t="n">
-        <v>0.009364360029233514</v>
+        <v>0.04052491534549163</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01022601923010063</v>
+        <v>0.01007404674459656</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.009741115694117272</v>
+        <v>0.01449194673823269</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009718624727110456</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.009607597346147592</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01101263609395452</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.02551534456170038</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01089814891897582</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.03970467229758562</v>
+        <v>0.02588823942724208</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01090937239506761</v>
+        <v>0.01088187105814454</v>
       </c>
       <c r="N79" t="n">
-        <v>0.009741115694117272</v>
+        <v>0.04198395157111895</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01101263609395452</v>
+        <v>0.01084897341725784</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01000639420275284</v>
+        <v>0.01545311250168013</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01041281220761835</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.009996182332250296</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01179925295780841</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.02595929501988603</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.0116765881274741</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.04062821650316434</v>
+        <v>0.02670608334520141</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01168861328042958</v>
+        <v>0.01165914756229772</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01000639420275284</v>
+        <v>0.04341967280802561</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01179925295780841</v>
+        <v>0.01162390008991911</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
+        <v>0.01640481750571529</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01110699968812623</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.01033001815510755</v>
       </c>
-      <c r="G81" t="n">
+      <c r="K81" t="n">
         <v>0.01228841743034669</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.0269001991709068</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01245502733597237</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.04174905143953755</v>
+        <v>0.02761162410147588</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01246785416579156</v>
+        <v>0.01243642406645091</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01033001815510755</v>
+        <v>0.0450315493638021</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01228841743034669</v>
+        <v>0.01239882676258038</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01062671971130816</v>
+        <v>0.01734713719018048</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01180118716863412</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01074400637461952</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.0133724866855162</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.02783719265679302</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01323346654447064</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.04356571453664604</v>
+        <v>0.02880437141453285</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01324709505115353</v>
+        <v>0.01321370057060408</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01062671971130816</v>
+        <v>0.0460190515460393</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0133724866855162</v>
+        <v>0.01317375343524166</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01119020256176378</v>
+        <v>0.01828014699491795</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01249537464914201</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01121849096129114</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.0141591035493701</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.028869411119575</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01401190575296891</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.04477674322443048</v>
+        <v>0.02968383500283955</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0140263359365155</v>
+        <v>0.01399097707475727</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01119020256176378</v>
+        <v>0.04758164966232759</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0141591035493701</v>
+        <v>0.01394868010790293</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01155555921807196</v>
+        <v>0.01920392235977003</v>
       </c>
       <c r="G84" t="n">
+        <v>0.0131895621296499</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01149361087920324</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01494572041322399</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.02939599020128314</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01479034496146719</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.04588067493283171</v>
+        <v>0.03034952458486323</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01480557682187747</v>
+        <v>0.01476825357891045</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01155555921807196</v>
+        <v>0.04891881402025761</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01494572041322399</v>
+        <v>0.0147236067805642</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01192216181086837</v>
+        <v>0.02011853872457897</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01388374961015779</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01196878986014072</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01573233727707788</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.03021606554394768</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01556878416996546</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.04737604709179055</v>
+        <v>0.03110094987907122</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01558481770723944</v>
+        <v>0.01554553008306363</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01192216181086837</v>
+        <v>0.05013001492742014</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01573233727707788</v>
+        <v>0.01549853345322548</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01208938247078872</v>
+        <v>0.02102407152918707</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01457793709066568</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0122434516358885</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01651895414093178</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.03132877278959895</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01634722337846374</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.04876139713124772</v>
+        <v>0.03223762060393071</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01636405859260142</v>
+        <v>0.01632280658721681</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01208938247078872</v>
+        <v>0.05151472269140567</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01651895414093178</v>
+        <v>0.01627346012588675</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0125565933284687</v>
+        <v>0.0219205962134366</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01527212457117357</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01251701993823147</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01730557100478567</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03213324758026734</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01712566258696201</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.04973526248114385</v>
+        <v>0.03305904647790905</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01714329947796339</v>
+        <v>0.01710008309136999</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0125565933284687</v>
+        <v>0.05297240761980498</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01730557100478567</v>
+        <v>0.01704838679854803</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01282316651454397</v>
+        <v>0.02280818821716987</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01596631205168146</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01308891849895458</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01809218786863957</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.03252862555798311</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01790410179546028</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.05139618057142004</v>
+        <v>0.03346473721947343</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01792254036332536</v>
+        <v>0.01787735959552318</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01282316651454397</v>
+        <v>0.05430254002020862</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01809218786863957</v>
+        <v>0.0178233134712093</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01318847415965026</v>
+        <v>0.02368692298022915</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01666049953218935</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01325857104984264</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01887880473249346</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.03331404236477664</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01868254100395856</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.05234268883201681</v>
+        <v>0.03455420254709124</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01870178124868734</v>
+        <v>0.01865463609967636</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01318847415965026</v>
+        <v>0.0551045902002073</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01887880473249346</v>
+        <v>0.01859824014387058</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01365188839442322</v>
+        <v>0.02455687594245673</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01735468701269724</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01362540132268066</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01966542159634736</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.0341886336426783</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01946098021245683</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.05327332469287499</v>
+        <v>0.03522695217922966</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01948102213404931</v>
+        <v>0.01943191260382954</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01365188839442322</v>
+        <v>0.05617802846739145</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01966542159634736</v>
+        <v>0.01937316681653185</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01401278134949854</v>
+        <v>0.0254181225436949</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01804887449320513</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01408883304925347</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02045203846020125</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.03495153503371828</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0202394194209551</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.0545866255839354</v>
+        <v>0.03578249583435597</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02026026301941128</v>
+        <v>0.02020918910798272</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01401278134949854</v>
+        <v>0.05782232512935187</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02045203846020125</v>
+        <v>0.02014809348919312</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01447052515551196</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01880297268433729</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01434828996134599</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02123865532405514</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.03580188217992702</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02101785862945337</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.0557811289351387</v>
+        <v>0.03662034323093746</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02103950390477325</v>
+        <v>0.0209864656121359</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01447052515551196</v>
+        <v>0.05873695049367911</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02123865532405514</v>
+        <v>0.0209230201618544</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01472449194309911</v>
+        <v>0.02710371644524331</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01943724945422091</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01490319579074317</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02202527218790904</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.03633881072333481</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02179629783795164</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.0571553721764258</v>
+        <v>0.03754000408744138</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02181874479013523</v>
+        <v>0.02176374211628908</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01472449194309911</v>
+        <v>0.05952137486796394</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02202527218790904</v>
+        <v>0.02169794683451567</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0149740538428957</v>
+        <v>0.02790497616925788</v>
       </c>
       <c r="G94" t="n">
+        <v>0.0201314369347288</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01515297426922986</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02281188905176293</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.03736145630597201</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02257473704644992</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.05830789273773734</v>
+        <v>0.03794098812233498</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02259798567549719</v>
+        <v>0.02254101862044227</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0149740538428957</v>
+        <v>0.06097506855979673</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02281188905176293</v>
+        <v>0.02247287350717694</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01541858298553742</v>
+        <v>0.02867974876040982</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02082562441523669</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.015497049128591</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02359850591561683</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.03776895456986887</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02335317625494819</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.05923722804901432</v>
+        <v>0.03882280505408561</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02337722656085917</v>
+        <v>0.02331829512459544</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01541858298553742</v>
+        <v>0.06209750187676849</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02359850591561683</v>
+        <v>0.02324780017983822</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01575745150165994</v>
+        <v>0.02943337098549906</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02151981189574458</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01593484410061145</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02438512277947072</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.0386604411570558</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02413161546344647</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.06054191554019717</v>
+        <v>0.03948496460116047</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02415646744622114</v>
+        <v>0.02409557162874863</v>
       </c>
       <c r="N96" t="n">
-        <v>0.01575745150165994</v>
+        <v>0.06288814512646951</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02438512277947072</v>
+        <v>0.02402272685249949</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.015990031521899</v>
+        <v>0.03017117961132551</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02221399937625247</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.01616578291707615</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02517173964332461</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.03953505170956312</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02491005467194474</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.06182049264122702</v>
+        <v>0.03992697648202687</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02493570833158311</v>
+        <v>0.02487284813290181</v>
       </c>
       <c r="N97" t="n">
-        <v>0.015990031521899</v>
+        <v>0.06424646861649053</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02517173964332461</v>
+        <v>0.02479765352516077</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01641569517689022</v>
+        <v>0.03089851140468913</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02290818685676036</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.01658928930977001</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02595835650717851</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.03989192186942114</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02568849388044301</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.06247149678204439</v>
+        <v>0.04064835041515211</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02571494921694509</v>
+        <v>0.02565012463705499</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01641569517689022</v>
+        <v>0.06477194265442227</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02595835650717851</v>
+        <v>0.02557258019782204</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01673381459726933</v>
+        <v>0.03162070313238986</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02360237433726825</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.01690478701047791</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.0267449733710324</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.04083018727866017</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02646693308894128</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.0634934653925901</v>
+        <v>0.04114859611900334</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02649419010230706</v>
+        <v>0.02642740114120817</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01673381459726933</v>
+        <v>0.06586403754785525</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0267449733710324</v>
+        <v>0.02634750687048331</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.016943761913672</v>
+        <v>0.03234309156122761</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02429656181777614</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.01721169975098477</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.0275315902348863</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.04144898357931054</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02724537229743956</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.064684935902805</v>
+        <v>0.04172722331204795</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02727343098766903</v>
+        <v>0.02720467764536136</v>
       </c>
       <c r="N100" t="n">
-        <v>0.016943761913672</v>
+        <v>0.06622222360438018</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0275315902348863</v>
+        <v>0.02712243354314459</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01734490925673395</v>
+        <v>0.03307101345800231</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02499074929828403</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.0175094512630755</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02831820709874019</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.04194744641340262</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02802381150593783</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.06574444574262989</v>
+        <v>0.04238374171275316</v>
       </c>
       <c r="M101" t="n">
-        <v>0.028052671873031</v>
+        <v>0.02798195414951454</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01734490925673395</v>
+        <v>0.06754597113158761</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02831820709874019</v>
+        <v>0.02789736021580587</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01773662875709082</v>
+        <v>0.03380980558951389</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02568493677879192</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.01769746527853498</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02910482396259409</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.04252471142296665</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02880225071443611</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.06617053234200543</v>
+        <v>0.04301766103958626</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02883191275839297</v>
+        <v>0.02875923065366772</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01773662875709082</v>
+        <v>0.06843475043706826</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02910482396259409</v>
+        <v>0.02867228688846713</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.01791829254537833</v>
+        <v>0.03456480472256229</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02637912425929981</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.01787516552914814</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02989144082644798</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.0428799142500331</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02958068992293438</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.06756173313087238</v>
+        <v>0.04352849101101453</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02961115364375495</v>
+        <v>0.0295365071578209</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01791829254537833</v>
+        <v>0.06888803182841263</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02989144082644798</v>
+        <v>0.02944721356112841</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01828927275223217</v>
+        <v>0.03534134762394744</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02707331173980769</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.01834197574669987</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03067805769030188</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.04371219053663217</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03035912913143266</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.06841658553917157</v>
+        <v>0.04421574134550518</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03039039452911692</v>
+        <v>0.03031378366197408</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01828927275223217</v>
+        <v>0.06990528561321152</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03067805769030188</v>
+        <v>0.03022214023378969</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.018348941508288</v>
+        <v>0.03614477106046927</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02776749922031559</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.01849731966297509</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03146467455415577</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.04412067592479424</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03113756833993092</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.06873362699684377</v>
+        <v>0.0444789217615256</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03116963541447889</v>
+        <v>0.03109106016612726</v>
       </c>
       <c r="N105" t="n">
-        <v>0.018348941508288</v>
+        <v>0.06998598209905543</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03146467455415577</v>
+        <v>0.03099706690645096</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01869667094418156</v>
+        <v>0.03734391969784558</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02875456057028107</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.01864062100975866</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03225129141800966</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.04460450605654967</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.0319160075484292</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.0700113949338298</v>
+        <v>0.04481754197754292</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03194887629984087</v>
+        <v>0.03186833667028045</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01869667094418156</v>
+        <v>0.07072959159353515</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03225129141800966</v>
+        <v>0.03177199357911223</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01893183319054847</v>
+        <v>0.03787264003641368</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02915587418133136</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.01907130351883556</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03303790828186356</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.04476281657392867</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03269444675692747</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.07054842678007028</v>
+        <v>0.04523111171202449</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03272811718520283</v>
+        <v>0.03264561317443362</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01893183319054847</v>
+        <v>0.07143558440424108</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03303790828186356</v>
+        <v>0.0325469202517735</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01925380037802447</v>
+        <v>0.0388937739197333</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02985006166183926</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.01928879092199062</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03382452514571745</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.04539474311896172</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03347288596542574</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.07104325996550626</v>
+        <v>0.04571914068343755</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0335073580705648</v>
+        <v>0.03342288967858681</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01925380037802447</v>
+        <v>0.07200343083876398</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03382452514571745</v>
+        <v>0.03332184692443478</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01936194463724523</v>
+        <v>0.04001779065051173</v>
       </c>
       <c r="G109" t="n">
+        <v>0.03054424914234715</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.01949250695100879</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03461114200957135</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.04599942133367901</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03425132517392402</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.07179443192007828</v>
+        <v>0.04618113861024942</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03428659895592678</v>
+        <v>0.03420016618273999</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01936194463724523</v>
+        <v>0.07303260120469446</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03461114200957135</v>
+        <v>0.03409677359709605</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01955563809884646</v>
+        <v>0.04120726173823723</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03123843662285504</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.01958187533767494</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03539775887342524</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.04627598686011103</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03502976438242229</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.07220048007372715</v>
+        <v>0.04621661521092729</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03506583984128876</v>
+        <v>0.03497744268689316</v>
       </c>
       <c r="N110" t="n">
-        <v>0.01955563809884646</v>
+        <v>0.07312256580962329</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03539775887342524</v>
+        <v>0.03487170026975733</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01973425289346381</v>
+        <v>0.04242475869239819</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03193262410336293</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.01965631981377403</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03618437573727914</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.04662357534028794</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03580820359092057</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.07325994185639367</v>
+        <v>0.04672508020393851</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03584508072665073</v>
+        <v>0.03575471919104636</v>
       </c>
       <c r="N111" t="n">
-        <v>0.01973425289346381</v>
+        <v>0.07337279496114096</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03618437573727914</v>
+        <v>0.0356466269424186</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01999716115173299</v>
+        <v>0.04363285302248285</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03262681158387081</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0199152641110909</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03697099260113303</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.04704132241624015</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03658664279941883</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.0732713546980186</v>
+        <v>0.04690604330775031</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0366243216120127</v>
+        <v>0.03653199569519953</v>
       </c>
       <c r="N112" t="n">
-        <v>0.01999716115173299</v>
+        <v>0.07438275896683799</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03697099260113303</v>
+        <v>0.03642155361507987</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02004373500428967</v>
+        <v>0.04479411623797953</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03332099906437871</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0199581319614105</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03775760946498692</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.04712836372999801</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03736508200791711</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.07443325602854278</v>
+        <v>0.04715901424082999</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03740356249737467</v>
+        <v>0.03730927219935271</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02004373500428967</v>
+        <v>0.07455192813430528</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03775760946498692</v>
+        <v>0.03719648028774115</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02027334658176959</v>
+        <v>0.04587111984837657</v>
       </c>
       <c r="G114" t="n">
+        <v>0.0340151865448866</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02018434709651772</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03854422632884082</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.04758383492359178</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03814352121641538</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.07414418327790689</v>
+        <v>0.04768350272164482</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03818280338273664</v>
+        <v>0.0380865487035059</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02027334658176959</v>
+        <v>0.07477977277113323</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03854422632884082</v>
+        <v>0.03797140696040242</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02038536801480838</v>
+        <v>0.04682643536316222</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03470937402539448</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02029333324819745</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03933084319269471</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.04770687163905188</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03892196042491366</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.07520267387605167</v>
+        <v>0.04747901846866201</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03896204426809861</v>
+        <v>0.03886382520765908</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02038536801480838</v>
+        <v>0.07486576318491267</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03933084319269471</v>
+        <v>0.0387463336330637</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02027917143404176</v>
+        <v>0.04762263429182484</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03540356150590238</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02048451414823461</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04011746005654861</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.04789660951840852</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03970039963341193</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.07480726525291803</v>
+        <v>0.04794507120034888</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03974128515346059</v>
+        <v>0.03964110171181226</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02027917143404176</v>
+        <v>0.07540936968323403</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04011746005654861</v>
+        <v>0.03952126030572498</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0203541289701054</v>
+        <v>0.0482222881438527</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03609774898641026</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02035731352841411</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.0409040769204025</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.04775218420369212</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0404788388419102</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.07515649483844666</v>
+        <v>0.04798117063517268</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04052052603882256</v>
+        <v>0.04041837821596544</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0203541289701054</v>
+        <v>0.07521006257368812</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0409040769204025</v>
+        <v>0.04029618697838624</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.020509612753635</v>
+        <v>0.04860290322432206</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03679193646691815</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02051115512052085</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.0416906937842564</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.04827273133693302</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04125727805040848</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.07574890006257839</v>
+        <v>0.04798682649160074</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04129976692418453</v>
+        <v>0.04119565472011862</v>
       </c>
       <c r="N118" t="n">
-        <v>0.020509612753635</v>
+        <v>0.07526731216386545</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0416906937842564</v>
+        <v>0.04107111365104752</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04892365036841807</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03748612394742604</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.0206600363102151</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04247731064811028</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.04815738656016144</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04203571725890674</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.07558301835525383</v>
+        <v>0.04826154848810027</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0420790078095465</v>
+        <v>0.0419729312242718</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0206600363102151</v>
+        <v>0.07578058876135663</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04247731064811028</v>
+        <v>0.0418460403237088</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0204596475856348</v>
+        <v>0.0492372197641502</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03818031142793393</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.02065965986765562</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04326392751196419</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.04841657629430426</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04281415646740502</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04275020772842499</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.0761731162783934</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04285824869490847</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.0204596475856348</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04326392751196419</v>
+        <v>0.04262096699637007</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02045539423573431</v>
+        <v>0.0495436171807708</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03887449890844182</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02055791648114208</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04405054437581808</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.04801577079233649</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04359259567590329</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.07607252085611349</v>
+        <v>0.04801636291870226</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04363748958027045</v>
+        <v>0.04352748423257816</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02045539423573431</v>
+        <v>0.07607310420864338</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04405054437581808</v>
+        <v>0.04339589366903134</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02063720622763807</v>
+        <v>0.04984284838753221</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03956868638894971</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02044956741394535</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04483716123967197</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.04799384667325904</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04437103488440157</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.07586121162572951</v>
+        <v>0.04810363720097496</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04441673046563242</v>
+        <v>0.04430476073673135</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02063720622763807</v>
+        <v>0.0754539539283704</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04483716123967197</v>
+        <v>0.04417082034169262</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0206058765527737</v>
+        <v>0.05013491915368677</v>
       </c>
       <c r="G123" t="n">
+        <v>0.0402628738694576</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02063509465425573</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04562377810352587</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.04834298170590232</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04514947409289984</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.07573571453879702</v>
+        <v>0.04837175085569959</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04519597135099439</v>
+        <v>0.04508203724088453</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0206058765527737</v>
+        <v>0.07539568772393651</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04562377810352587</v>
+        <v>0.04494574701435389</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02036207037134591</v>
+        <v>0.05041983524848685</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04095706134996549</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02041472240529414</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04641039496737976</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.0480645393776569</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04592791330139812</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.07569624303070716</v>
+        <v>0.04802139971008584</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04597521223635637</v>
+        <v>0.04585931374503771</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02036207037134591</v>
+        <v>0.07579989909027685</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04641039496737976</v>
+        <v>0.04572067368701516</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02030645284355942</v>
+        <v>0.05069760244118481</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04165124883047339</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02048867487028154</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04719701183123366</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.04815988317591338</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04670635250989639</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.07544301053685132</v>
+        <v>0.04815327959134336</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04675445312171834</v>
+        <v>0.04663659024919089</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02030645284355942</v>
+        <v>0.07566818022774158</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04719701183123366</v>
+        <v>0.04649560035967644</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02043968912961895</v>
+        <v>0.05096822650103296</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04234543631098127</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02055717625243886</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04798362869508755</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.04773037658806234</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04748479171839466</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.0753762304926206</v>
+        <v>0.0479680863266817</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04753369400708031</v>
+        <v>0.04741386675334407</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02043968912961895</v>
+        <v>0.07500212333668071</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04798362869508755</v>
+        <v>0.04727052703233772</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0202624443897292</v>
+        <v>0.05123171319728366</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04303962379148916</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02052045075498701</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04877024555894144</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.0476773831014943</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04826323092689293</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.07589611633340615</v>
+        <v>0.04786651574331052</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04831293489244228</v>
+        <v>0.04819114325749726</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0202624443897292</v>
+        <v>0.07490332061744448</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04877024555894144</v>
+        <v>0.04804545370499898</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02017538378409491</v>
+        <v>0.05148806829918928</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04373381127199705</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02037872258114695</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04955686242279534</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.04730226620359992</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04904167013539121</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.07550288149459938</v>
+        <v>0.04774926366843946</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04909217577780425</v>
+        <v>0.04896841976165044</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02017538378409491</v>
+        <v>0.07507336427038275</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04955686242279534</v>
+        <v>0.04882038037766026</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02017917247292077</v>
+        <v>0.05173729757600215</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04442799875250494</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0202322159341396</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05034347928664923</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.04730638938176981</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04982010934388948</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.07539673941159153</v>
+        <v>0.04761702592927811</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04987141666316623</v>
+        <v>0.04974569626580362</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02017917247292077</v>
+        <v>0.07501384649584575</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05034347928664923</v>
+        <v>0.04959530705032154</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01997447561641151</v>
+        <v>0.05197940679697462</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04512218623301283</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02038115501718593</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05113009615050312</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.04719111612339452</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05059854855238775</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.07487790351977369</v>
+        <v>0.04727049835303612</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0506506575485282</v>
+        <v>0.0505229727699568</v>
       </c>
       <c r="N130" t="n">
-        <v>0.01997447561641151</v>
+        <v>0.07472635949418355</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05113009615050312</v>
+        <v>0.05037023372298281</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01976195837477185</v>
+        <v>0.05221440173135904</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04581637371352072</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02032576403350685</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05191671301435702</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.04705780991586458</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05137698776088603</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.07544658725453718</v>
+        <v>0.04711037676692309</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05142989843389018</v>
+        <v>0.05130024927410998</v>
       </c>
       <c r="N131" t="n">
-        <v>0.01976195837477185</v>
+        <v>0.07391249546574619</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05191671301435702</v>
+        <v>0.05114516039564408</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01974228590820651</v>
+        <v>0.05244228814840775</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04651056119402861</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02006626718632327</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05270332987821091</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.04640783424657063</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.0521554269693843</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.07510300405127318</v>
+        <v>0.04693735699814866</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05220913931925214</v>
+        <v>0.05207752577826317</v>
       </c>
       <c r="N132" t="n">
-        <v>0.01974228590820651</v>
+        <v>0.07377384661088376</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05270332987821091</v>
+        <v>0.05192008706830536</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01951612337692017</v>
+        <v>0.05266307181737311</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04720474867453649</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02000288867885619</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05348994674206481</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.04644255260290331</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05293386617788257</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.07474736734537296</v>
+        <v>0.04695213487392247</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05298838020461412</v>
+        <v>0.05285480228241634</v>
       </c>
       <c r="N133" t="n">
-        <v>0.01951612337692017</v>
+        <v>0.07371200512994647</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05348994674206481</v>
+        <v>0.05269501374096663</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0195841359411176</v>
+        <v>0.05287675850750746</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04789893615504439</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02013585271432648</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.0542765636059187</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.04586332847225302</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05371230538638085</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.07487989057222777</v>
+        <v>0.04665540622145412</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05376762108997608</v>
+        <v>0.05363207878656952</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0195841359411176</v>
+        <v>0.0726285632232842</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0542765636059187</v>
+        <v>0.0534699404136279</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01944698876100348</v>
+        <v>0.05308335398806317</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04859312363555228</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02006538349595513</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.0550631804697726</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.04587152534201058</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05449074459487912</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.07450078716722874</v>
+        <v>0.04674786686795318</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05454686197533806</v>
+        <v>0.05440935529072272</v>
       </c>
       <c r="N135" t="n">
-        <v>0.01944698876100348</v>
+        <v>0.07282511309124717</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0550631804697726</v>
+        <v>0.05424486708628917</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01910534699678253</v>
+        <v>0.05328286402829256</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04928731111606016</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.01989170522696306</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05584979733362649</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.04536850669956638</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.0552691838033774</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.07421027056576718</v>
+        <v>0.04653021264062934</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05532610286070003</v>
+        <v>0.05518663179487589</v>
       </c>
       <c r="N136" t="n">
-        <v>0.01910534699678253</v>
+        <v>0.07180324693418538</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05584979733362649</v>
+        <v>0.05501979375895045</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01895987580865947</v>
+        <v>0.053475294397448</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04998149859656806</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.01981504211057118</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05663641419748039</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.04495563603231112</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05604762301187566</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.07390855420323444</v>
+        <v>0.04590313936669224</v>
       </c>
       <c r="M137" t="n">
-        <v>0.056105343746062</v>
+        <v>0.05596390829902907</v>
       </c>
       <c r="N137" t="n">
-        <v>0.01895987580865947</v>
+        <v>0.07136455695244898</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05663641419748039</v>
+        <v>0.05579472043161173</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01881124035683902</v>
+        <v>0.05366065086478181</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05067568607707595</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.01963561835000045</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05742303106133428</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.04473427682763534</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05682606222037394</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.07349585151502153</v>
+        <v>0.04586734287335148</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05688458463142398</v>
+        <v>0.05674118480318226</v>
       </c>
       <c r="N138" t="n">
-        <v>0.01881124035683902</v>
+        <v>0.07101063534638802</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05742303106133428</v>
+        <v>0.05656964710427299</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01886010580152592</v>
+        <v>0.05383893919954637</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05136987355758384</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.01975365814847183</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05820964792518817</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.04470579257292961</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05760450142887221</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.07377237593651975</v>
+        <v>0.04552351898781665</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05766382551678594</v>
+        <v>0.05751846130733543</v>
       </c>
       <c r="N139" t="n">
-        <v>0.01886010580152592</v>
+        <v>0.07064307431635264</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05820964792518817</v>
+        <v>0.05734457377693427</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01850713730292483</v>
+        <v>0.05401016517099402</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05206406103809173</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.01946938570920619</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05899626478904206</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.04397154675558457</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05838294063737048</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.07353834090312039</v>
+        <v>0.0453723635372974</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05844306640214792</v>
+        <v>0.05829573781148861</v>
       </c>
       <c r="N140" t="n">
-        <v>0.01850713730292483</v>
+        <v>0.06996346606269288</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05899626478904206</v>
+        <v>0.05811950044959555</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0183530000212405</v>
+        <v>0.0541743345483771</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05275824851859962</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.01958302523542452</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05978288165289597</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.04383290286299077</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05916137984586876</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.07339395985021469</v>
+        <v>0.04521457234900336</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0592223072875099</v>
+        <v>0.0590730143156418</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0183530000212405</v>
+        <v>0.06977340278575878</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05978288165289597</v>
+        <v>0.05889442712225681</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01819835911667764</v>
+        <v>0.05433145310094795</v>
       </c>
       <c r="G142" t="n">
+        <v>0.0534524359991075</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.01929480093034773</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06056949851674986</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.04359122438253882</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05993981905436703</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.07263944621319374</v>
+        <v>0.04495084125014412</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06000154817287186</v>
+        <v>0.05985029081979498</v>
       </c>
       <c r="N142" t="n">
-        <v>0.01819835911667764</v>
+        <v>0.0690744766859005</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06056949851674986</v>
+        <v>0.05966935379491809</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01824387974944097</v>
+        <v>0.05448152659795893</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05414662347961539</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.01920493699719678</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06135611538060375</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.04304787480161923</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06071825826286531</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.07287501342744895</v>
+        <v>0.04468186606792934</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06078078905823384</v>
+        <v>0.06062756732394816</v>
       </c>
       <c r="N143" t="n">
-        <v>0.01824387974944097</v>
+        <v>0.06906827996346804</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06135611538060375</v>
+        <v>0.06044428046757937</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01789022707973521</v>
+        <v>0.05462456080866239</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05484081096012329</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.01911365763919258</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06214273224445764</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.04260421760762262</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06149669747136357</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.07240087492837144</v>
+        <v>0.04430834262956862</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06156002994359581</v>
+        <v>0.06140484382810134</v>
       </c>
       <c r="N144" t="n">
-        <v>0.01789022707973521</v>
+        <v>0.06825640481881162</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06214273224445764</v>
+        <v>0.06121920714024064</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01773806626776507</v>
+        <v>0.05476056150231068</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05553499844063117</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.0192211870595561</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06292934910831154</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.04256161628793967</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06227513667986185</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.07191724415135253</v>
+        <v>0.04393096676227159</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06233927082895778</v>
+        <v>0.06218212033225453</v>
       </c>
       <c r="N145" t="n">
-        <v>0.01773806626776507</v>
+        <v>0.06754044345228122</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06292934910831154</v>
+        <v>0.06199413381290192</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01768806247373528</v>
+        <v>0.05488953444815615</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05622918592113906</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.01892774946150823</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06371596597216544</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.04212143432996079</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06305357588836012</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.07192433453178332</v>
+        <v>0.04395043429324788</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06311851171431976</v>
+        <v>0.06295939683640771</v>
       </c>
       <c r="N146" t="n">
-        <v>0.01768806247373528</v>
+        <v>0.06752198806422693</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06371596597216544</v>
+        <v>0.06276906048556319</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01754088085785052</v>
+        <v>0.05501148541545113</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05692337340164696</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.01883356904826995</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06450258283601933</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.04168503522107675</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.0638320150968584</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.07172235950505518</v>
+        <v>0.0434674410497071</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06389775259968174</v>
+        <v>0.06373667334056089</v>
       </c>
       <c r="N147" t="n">
-        <v>0.01754088085785052</v>
+        <v>0.06710263085499885</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06450258283601933</v>
+        <v>0.06354398715822446</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01729718658031552</v>
+        <v>0.05512642017344799</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05761756088215484</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.01893887002306216</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06528919969987322</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.04155378244867802</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06461045430535667</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.07151153250655923</v>
+        <v>0.04298268285885889</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0646769934850437</v>
+        <v>0.06451394984471408</v>
       </c>
       <c r="N148" t="n">
-        <v>0.01729718658031552</v>
+        <v>0.06618396402494708</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06528919969987322</v>
+        <v>0.06431891383088574</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01715764480133504</v>
+        <v>0.05523434449139905</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05831174836266273</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.01884387658910583</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06607581656372712</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.04122903950015516</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06538889351385495</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.07049206697168675</v>
+        <v>0.0427968555479129</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06545623437040567</v>
+        <v>0.06529122634886725</v>
       </c>
       <c r="N149" t="n">
-        <v>0.01715764480133504</v>
+        <v>0.06546757977442175</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06607581656372712</v>
+        <v>0.06509384050354701</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01712292068111373</v>
+        <v>0.05533526413855672</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05900593584317063</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.01864881294962187</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06686243342758101</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.04061216986289881</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06616733272235321</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.07036417633582892</v>
+        <v>0.04251065494407869</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06623547525576763</v>
+        <v>0.06606850285302043</v>
       </c>
       <c r="N150" t="n">
-        <v>0.01712292068111373</v>
+        <v>0.06515507030377282</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06686243342758101</v>
+        <v>0.06586876717620828</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01689367937985635</v>
+        <v>0.05542918488417327</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05970012332367852</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.01855390330783123</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06764905029143491</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.0407045370242996</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06694577193085148</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.07052807403437711</v>
+        <v>0.04212477687456587</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06701471614112961</v>
+        <v>0.06684577935717362</v>
       </c>
       <c r="N151" t="n">
-        <v>0.01689367937985635</v>
+        <v>0.06474802781335037</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06764905029143491</v>
+        <v>0.06664369384886956</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01697058605776761</v>
+        <v>0.05551611249750109</v>
       </c>
       <c r="G152" t="n">
+        <v>0.0603943108041864</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.01845937186695484</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.0684356671552888</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.04000750447174803</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06772421113934976</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.06958397350272244</v>
+        <v>0.04203991716658415</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06779395702649159</v>
+        <v>0.06762305586132679</v>
       </c>
       <c r="N152" t="n">
-        <v>0.01697058605776761</v>
+        <v>0.06424804450350463</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0684356671552888</v>
+        <v>0.06741862052153084</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0168525183203479</v>
+        <v>0.05559605274779253</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06108849828469429</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.01846544283021365</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.0692222840191427</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.03972243569263473</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06850265034784804</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.06963208817625616</v>
+        <v>0.04175677164734309</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06857319791185355</v>
+        <v>0.06840033236547997</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0168525183203479</v>
+        <v>0.06375671257458565</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0692222840191427</v>
+        <v>0.0681935471941921</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01663482173376701</v>
+        <v>0.05566901140429993</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06178268576520218</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.01827234040082856</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07000890088299659</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.03945069417435026</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06928108955634631</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.06947263149036942</v>
+        <v>0.04127603614405231</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06935243879721553</v>
+        <v>0.06917760886963316</v>
       </c>
       <c r="N154" t="n">
-        <v>0.01663482173376701</v>
+        <v>0.06357562422694346</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07000890088299659</v>
+        <v>0.06896847386685338</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01641719830706571</v>
+        <v>0.05573499423627563</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06247687324571007</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.01808028878202055</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07079551774685049</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.03959364340428526</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07005952876484457</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.06860581688045359</v>
+        <v>0.04119840648392151</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07013167968257751</v>
+        <v>0.06995488537378633</v>
       </c>
       <c r="N155" t="n">
-        <v>0.01641719830706571</v>
+        <v>0.06280637166092812</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07079551774685049</v>
+        <v>0.06974340053951467</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01649963594177808</v>
+        <v>0.05579400701297199</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06317106072621796</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.01818951217701054</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07158213461070437</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.03915264686983019</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07083796797334285</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.06823185778189989</v>
+        <v>0.04102457849416019</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07091092056793948</v>
+        <v>0.07073216187793953</v>
       </c>
       <c r="N156" t="n">
-        <v>0.01649963594177808</v>
+        <v>0.06255054707688978</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07158213461070437</v>
+        <v>0.07051832721217592</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01628212253943814</v>
+        <v>0.05584605550364136</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06386524820672586</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.01800023478901944</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07236875147455828</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.0390290680583758</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07161640718184113</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.06785096763009946</v>
+        <v>0.04065524800197806</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07169016145330145</v>
+        <v>0.07150943838209271</v>
       </c>
       <c r="N157" t="n">
-        <v>0.01628212253943814</v>
+        <v>0.06210974267517844</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07236875147455828</v>
+        <v>0.0712932538848372</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01626464600157997</v>
+        <v>0.05589114547753608</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06455943568723374</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.01801110217798464</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07315536833841217</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.03852417766519617</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.0723948463903394</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.06776335986044352</v>
+        <v>0.04048571271643009</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07246940233866343</v>
+        <v>0.07228671488624588</v>
       </c>
       <c r="N158" t="n">
-        <v>0.01626464600157997</v>
+        <v>0.06158098881563401</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07315536833841217</v>
+        <v>0.07206818055749849</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01594719422973759</v>
+        <v>0.0559292827039085</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06525362316774162</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.01791960799162499</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07394198520226607</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.03853315314247469</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07317328559883766</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.06686924790832349</v>
+        <v>0.04020731084238013</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0732486432240254</v>
+        <v>0.07306399139039907</v>
       </c>
       <c r="N159" t="n">
-        <v>0.01594719422973759</v>
+        <v>0.06065681269540268</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07394198520226607</v>
+        <v>0.07284310723015974</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0159297551254451</v>
+        <v>0.055960472952011</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06594781064824952</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.01772576828379455</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07472860206611995</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.03855216388208793</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07395172480733594</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.06706884520913037</v>
+        <v>0.03982021460741469</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07402788410938736</v>
+        <v>0.07384126789455225</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0159297551254451</v>
+        <v>0.06043640590808685</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07472860206611995</v>
+        <v>0.07361803390282103</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01571231659023654</v>
+        <v>0.05598472199109587</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06664199812875742</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.01752963929352967</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07551521892997384</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.03818053045932643</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07473016401583422</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.06656236519825548</v>
+        <v>0.03932474453153051</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07480712499474934</v>
+        <v>0.07461854439870542</v>
       </c>
       <c r="N161" t="n">
-        <v>0.01571231659023654</v>
+        <v>0.06021908092247102</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07551521892997384</v>
+        <v>0.07439296057548231</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01559486652564597</v>
+        <v>0.0560020355904155</v>
       </c>
       <c r="G162" t="n">
+        <v>0.0673361856092653</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.01763127725986673</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07630183579382774</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.03821757344948062</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07550860322433249</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.0656500213110901</v>
+        <v>0.03942122113472418</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07558636588011131</v>
+        <v>0.07539582090285861</v>
       </c>
       <c r="N162" t="n">
-        <v>0.01559486652564597</v>
+        <v>0.05940415020733963</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07630183579382774</v>
+        <v>0.07516788724814356</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01567739283320742</v>
+        <v>0.05601241951922221</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06803037308977319</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.01743073842184198</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07708845265768165</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.03776261342784112</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07628704243283076</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.06523202698302544</v>
+        <v>0.03890996493699236</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07636560676547328</v>
+        <v>0.07617309740701179</v>
       </c>
       <c r="N163" t="n">
-        <v>0.01567739283320742</v>
+        <v>0.05969092623147682</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07708845265768165</v>
+        <v>0.07594281392080485</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01545988341445498</v>
+        <v>0.05601587954676839</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06872456057028108</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.01732807901849188</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07787506952153553</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.0375149709696983</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07706548164132904</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.06490859564945273</v>
+        <v>0.03859129645833181</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07714484765083525</v>
+        <v>0.07695037391116497</v>
       </c>
       <c r="N164" t="n">
-        <v>0.01545988341445498</v>
+        <v>0.0586787214636672</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07787506952153553</v>
+        <v>0.07671774059346613</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01534232617092271</v>
+        <v>0.05601587954676837</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06872456057028108</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.01722335528885272</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07866168638538942</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.03757396665034268</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07784392084982732</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.06487994074576309</v>
+        <v>0.03816553621873908</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07792408853619723</v>
+        <v>0.07772765041531815</v>
       </c>
       <c r="N165" t="n">
-        <v>0.01534232617092271</v>
+        <v>0.0586668483726952</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07866168638538942</v>
+        <v>0.0774926672661274</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01522470900414463</v>
+        <v>0.0550711807372794</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06872429204181707</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.01711662347196083</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07944830324924332</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.03743892104506483</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07862236005832558</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.06464627570734793</v>
+        <v>0.03803300473821092</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07870332942155921</v>
+        <v>0.07850492691947134</v>
       </c>
       <c r="N166" t="n">
-        <v>0.01522470900414463</v>
+        <v>0.0578546194273451</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07944830324924332</v>
+        <v>0.07826759393878867</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01500701981565482</v>
+        <v>0.05413707691627033</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06872402351335305</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.01710793980685259</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08023492011309721</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.03730915472915516</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07940079926682386</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.06410781396959836</v>
+        <v>0.03769402253674392</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07948257030692117</v>
+        <v>0.07928220342362452</v>
       </c>
       <c r="N167" t="n">
-        <v>0.01500701981565482</v>
+        <v>0.05734134709640137</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08023492011309721</v>
+        <v>0.07904252061144995</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01498924650698735</v>
+        <v>0.05321406954973695</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06872375498488903</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.01689736053256431</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08102153697695111</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.0371839882779042</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08017923847532213</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.06356476896790569</v>
+        <v>0.03734891013433481</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08026181119228315</v>
+        <v>0.0800594799277777</v>
       </c>
       <c r="N168" t="n">
-        <v>0.01498924650698735</v>
+        <v>0.05732634384864843</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08102153697695111</v>
+        <v>0.07981744728411122</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01497137697967625</v>
+        <v>0.0523026601037954</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06872348645642501</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.01688494188813237</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.081808153840805</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.03726274226660242</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08095767768382041</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.06291735413766097</v>
+        <v>0.0369979880509802</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08104105207764511</v>
+        <v>0.08083675643193089</v>
       </c>
       <c r="N169" t="n">
-        <v>0.01497137697967625</v>
+        <v>0.05710892215287072</v>
       </c>
       <c r="O169" t="n">
-        <v>0.081808153840805</v>
+        <v>0.08059237395677249</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01475339913525558</v>
+        <v>0.05140335004444102</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06872321792796099</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.01677074011259311</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.0825947707046589</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.03684473727054033</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08173611689231867</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.06226578291425572</v>
+        <v>0.03654157680667675</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08182029296300708</v>
+        <v>0.08161403293608406</v>
       </c>
       <c r="N170" t="n">
-        <v>0.01475339913525558</v>
+        <v>0.05618839447785262</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0825947707046589</v>
+        <v>0.08136730062943377</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01453530087525941</v>
+        <v>0.05051664083770951</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06872294939949698</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.01645481144498281</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08338138756851279</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.03682929386500838</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08251455610081695</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.06191026873308092</v>
+        <v>0.03597999692142115</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08259953384836906</v>
+        <v>0.08239130944023725</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01453530087525941</v>
+        <v>0.05566407329237849</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08338138756851279</v>
+        <v>0.08214222730209504</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0145170701012218</v>
+        <v>0.04964303394959893</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06872268087103295</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.01633721212433793</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08416800443236667</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.03681573262529717</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08329299530931522</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.06124343782551317</v>
+        <v>0.03601356891521013</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08337877473373104</v>
+        <v>0.08316858594439043</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0145170701012218</v>
+        <v>0.05563527106523269</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08416800443236667</v>
+        <v>0.08291715397475631</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01429869471467679</v>
+        <v>0.04878303084622107</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06872241234256894</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.01621799838969472</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08495462129622057</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.03650337412669707</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08407143451781349</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.06118106604202861</v>
+        <v>0.03524261330804018</v>
       </c>
       <c r="M173" t="n">
-        <v>0.084158015619093</v>
+        <v>0.0839458624485436</v>
       </c>
       <c r="N173" t="n">
-        <v>0.01429869471467679</v>
+        <v>0.05520130026519987</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08495462129622057</v>
+        <v>0.08369208064741759</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01418016261715845</v>
+        <v>0.04793713299357337</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06872214381410492</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.01609722648008959</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08574123816007448</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.03659153894449868</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08484987372631177</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.06050696272227379</v>
+        <v>0.03516745061990817</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08493725650445498</v>
+        <v>0.08472313895269679</v>
       </c>
       <c r="N174" t="n">
-        <v>0.01418016261715845</v>
+        <v>0.05436147336106417</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08574123816007448</v>
+        <v>0.08446700732007886</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01426146171020082</v>
+        <v>0.04710584185769158</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06872187528564092</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.01617495263455884</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08652785502392837</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.0363795476539924</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08562831293481005</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.05943032767955941</v>
+        <v>0.03458840137081062</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08571649738981695</v>
+        <v>0.08550041545684997</v>
       </c>
       <c r="N175" t="n">
-        <v>0.01426146171020082</v>
+        <v>0.05421510282161013</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08652785502392837</v>
+        <v>0.08524193399274013</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01394257989533797</v>
+        <v>0.04628965890457626</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06872160675717688</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.01595123309213882</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08731447188778226</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.03646672083046876</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08640675214330833</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.0586603607271961</v>
+        <v>0.03450578608074423</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08649573827517892</v>
+        <v>0.08627769196100314</v>
       </c>
       <c r="N176" t="n">
-        <v>0.01394257989533797</v>
+        <v>0.05406150111562213</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08731447188778226</v>
+        <v>0.08601686066540142</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01382350507410395</v>
+        <v>0.04548908560033421</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06872133822871287</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.0159261240918659</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08810108875163615</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.03605237904921832</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08718519135180658</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.05760626167849475</v>
+        <v>0.03401992526970568</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0872749791605409</v>
+        <v>0.08705496846515633</v>
       </c>
       <c r="N177" t="n">
-        <v>0.01382350507410395</v>
+        <v>0.05329998071188446</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08810108875163615</v>
+        <v>0.08679178733806268</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01380422514803281</v>
+        <v>0.04470462341096536</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06872106970024885</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.0156996818727764</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08888770561549005</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.03613584288553148</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08796363056030486</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.05697723034676588</v>
+        <v>0.03353113945769159</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08805422004590287</v>
+        <v>0.08783224496930953</v>
       </c>
       <c r="N178" t="n">
-        <v>0.01380422514803281</v>
+        <v>0.05302985407918176</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08888770561549005</v>
+        <v>0.08756671401072395</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01378472801865864</v>
+        <v>0.04393677380250541</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06872080117178485</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.01557196267390668</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08967432247934394</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.03571643291469873</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08874206976880314</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.05548246654532024</v>
+        <v>0.0333397491646987</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08883346093126483</v>
+        <v>0.0886095214734627</v>
       </c>
       <c r="N179" t="n">
-        <v>0.01378472801865864</v>
+        <v>0.05255043368629825</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08967432247934394</v>
+        <v>0.08834164068338524</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01366500158751546</v>
+        <v>0.04318603824095779</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06872053264332081</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.01534302273429307</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09046093934319784</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.03579346971201064</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08952050897730142</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.05413117008746859</v>
+        <v>0.0329460749107236</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08961270181662681</v>
+        <v>0.08938679797761588</v>
       </c>
       <c r="N180" t="n">
-        <v>0.01366500158751546</v>
+        <v>0.05216103200201844</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09046093934319784</v>
+        <v>0.08911656735604651</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01354503375613735</v>
+        <v>0.04245291819242372</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06872026411485681</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01531291829297196</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09124755620705173</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.03556627385275765</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09029894818579969</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.05353254078652159</v>
+        <v>0.03255043721576298</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09039194270198878</v>
+        <v>0.09016407448176907</v>
       </c>
       <c r="N181" t="n">
-        <v>0.01354503375613735</v>
+        <v>0.05106096149512662</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09124755620705173</v>
+        <v>0.08989149402870777</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01322481242605833</v>
+        <v>0.0417379151229058</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06871999558639279</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.01508170558897962</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09203417307090563</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.03543416591223028</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09107738739429795</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.0519957784557899</v>
+        <v>0.03205315659981356</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09117118358735075</v>
+        <v>0.09094135098592224</v>
       </c>
       <c r="N182" t="n">
-        <v>0.01322481242605833</v>
+        <v>0.05064953463440736</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09203417307090563</v>
+        <v>0.09066642070136906</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01310432549881251</v>
+        <v>0.0410415304984398</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06871972705792877</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01504944086135247</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09282078993475952</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.03559646646571896</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09185582660279623</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.05063008290858428</v>
+        <v>0.03145455358287186</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09195042447271273</v>
+        <v>0.09171862749007542</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01310432549881251</v>
+        <v>0.05072606388864492</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09282078993475952</v>
+        <v>0.09144134737403033</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01318356087593391</v>
+        <v>0.04036426578503244</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06871945852946475</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.0149161803491268</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09360740679861342</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.03545249608851425</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.0926342658112945</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.04924465395821548</v>
+        <v>0.03135494868493469</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0927296653580747</v>
+        <v>0.09249590399422861</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01318356087593391</v>
+        <v>0.0498898617266238</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09360740679861342</v>
+        <v>0.0922162740466916</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01296250645895658</v>
+        <v>0.03970662244877841</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06871919000100073</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01468198029133898</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09439402366246731</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.03530157535590664</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09341270501979278</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.04854869141799412</v>
+        <v>0.03065466242599865</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09350890624343668</v>
+        <v>0.09327318049838178</v>
       </c>
       <c r="N185" t="n">
-        <v>0.01296250645895658</v>
+        <v>0.04914024061712835</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09439402366246731</v>
+        <v>0.09299120071935288</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0127411501494146</v>
+        <v>0.03906910195568358</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06871892147253672</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01474689692702535</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09518064052632121</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.03484302484318663</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09419114422829104</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.04675139510123094</v>
+        <v>0.0304540153260604</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09428814712879866</v>
+        <v>0.09405045700253496</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0127411501494146</v>
+        <v>0.04907651302894295</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09518064052632121</v>
+        <v>0.09376612739201415</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01281947984884202</v>
+        <v>0.03845220577178368</v>
       </c>
       <c r="G187" t="n">
+        <v>0.0687186529440727</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01461098649522227</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.0959672573901751</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.03457616512564463</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09496958343678932</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.04556196482123664</v>
+        <v>0.02995332790511662</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09506738801416062</v>
+        <v>0.09482773350668815</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01281947984884202</v>
+        <v>0.04779799143085217</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0959672573901751</v>
+        <v>0.09454105406467543</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0126974834587729</v>
+        <v>0.03785643536308901</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06871838441560868</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01437430523496606</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.096753874254029</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.03470031677857127</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09574802264528759</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.04398960039132199</v>
+        <v>0.02965292068316397</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0958466288995226</v>
+        <v>0.09560501001084133</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0126974834587729</v>
+        <v>0.04790398829164016</v>
       </c>
       <c r="O188" t="n">
-        <v>0.096753874254029</v>
+        <v>0.0953159807373367</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01237514888074129</v>
+        <v>0.03728229219568717</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06871811588714466</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01433690938529308</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09754049111788288</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.03451480037725693</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09652646185378587</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.04314350162479752</v>
+        <v>0.02935311418019909</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09662586978488456</v>
+        <v>0.09638228651499452</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01237514888074129</v>
+        <v>0.04729381608009153</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09754049111788288</v>
+        <v>0.09609090740999797</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01235246401628125</v>
+        <v>0.03672823008260839</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06871784735868065</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01409885518523968</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09832710798173677</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.03411893649699213</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09730490106228414</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.04173286833497408</v>
+        <v>0.02895422891621868</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09740511067024653</v>
+        <v>0.0971595630191477</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01235246401628125</v>
+        <v>0.04656678726499064</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09832710798173677</v>
+        <v>0.09686583408265925</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01212941676692682</v>
+        <v>0.03618246457201246</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06871757883021663</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01396019887384217</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09911372484559068</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.03391204571306738</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09808334027078242</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.04046690033516243</v>
+        <v>0.02825658541121936</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09818435155560851</v>
+        <v>0.09793683952330087</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01212941676692682</v>
+        <v>0.04592221431512183</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09911372484559068</v>
+        <v>0.09764076075532052</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01220599503421209</v>
+        <v>0.03564344947693233</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06871731030175261</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01392099669013697</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09990034170944458</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.03359344860077315</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09886177947928068</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.03945479743867303</v>
+        <v>0.0280605041851979</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09896359244097047</v>
+        <v>0.09871411602745406</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01220599503421209</v>
+        <v>0.04495940969926954</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09990034170944458</v>
+        <v>0.09841568742798179</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01188218671967109</v>
+        <v>0.03511168626345067</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06871704177328859</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01367990796514724</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1006869585732985</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.03366246573539999</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09964021868777896</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.03860575945881684</v>
+        <v>0.02766002598254166</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09974283332633245</v>
+        <v>0.09949139253160724</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01188218671967109</v>
+        <v>0.04413911566104672</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1006869585732985</v>
+        <v>0.09919061410064307</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01175797972483788</v>
+        <v>0.03458767639757959</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06871677324482457</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01363527368946328</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1014735754371524</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.03341841769223836</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1004186578962772</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.03782898620890435</v>
+        <v>0.02724799252027016</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1005220742116944</v>
+        <v>0.1002686690357604</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01175797972483788</v>
+        <v>0.04341618219463922</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1014735754371524</v>
+        <v>0.09996554077330434</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01183336195124653</v>
+        <v>0.03407192134535489</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06871650471636057</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01328726102422112</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1022601923010062</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.0332606250465787</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1011970971047755</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.03633367750224653</v>
+        <v>0.02682519620322513</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1013013150970564</v>
+        <v>0.1010459455399136</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01183336195124653</v>
+        <v>0.04249713821749912</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1022601923010062</v>
+        <v>0.1007404674459656</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01160832130043107</v>
+        <v>0.03356492257279042</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06871623618789653</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01333604384925022</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1030468091648602</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.03258840837371157</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1019755363132738</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.03612903315215382</v>
+        <v>0.0260924517384091</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1020805559824184</v>
+        <v>0.1018232220440668</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01160832130043107</v>
+        <v>0.04148869088771295</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1030468091648602</v>
+        <v>0.1015153941186269</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01138284567392558</v>
+        <v>0.03306718154596609</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06871596765943253</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01308179604438003</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.103833426028714</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.03250108824892747</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1027539755217721</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.03502425297193701</v>
+        <v>0.02595057383282473</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1028597968677804</v>
+        <v>0.10260049854822</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01138284567392558</v>
+        <v>0.04029754736336733</v>
       </c>
       <c r="O197" t="n">
-        <v>0.103833426028714</v>
+        <v>0.1022903207912882</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01135692297326411</v>
+        <v>0.03257919973089539</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06871569913096851</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01292469148944005</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1046200428925679</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.03216247126848873</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1035324147302703</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.03432853677490688</v>
+        <v>0.02560037719347438</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1036390377531423</v>
+        <v>0.1033777750523731</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01135692297326411</v>
+        <v>0.03963041480254859</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1046200428925679</v>
+        <v>0.1030652474639494</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0111284756167133</v>
+        <v>0.03210147859361406</v>
       </c>
       <c r="G199" t="n">
+        <v>0.0687154306025045</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01276490406425973</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1054066597564218</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.03156612883467599</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1043108539387686</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.03385108437437412</v>
+        <v>0.0247426765273607</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1044182786385043</v>
+        <v>0.1041550515565263</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0111284756167133</v>
+        <v>0.03789400036334345</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1054066597564218</v>
+        <v>0.1038401741366107</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01109528946798593</v>
+        <v>0.0316345196001378</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06871516207404046</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01270260764866853</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1061932766202757</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.03082057339462727</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1050892931472669</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.03335803212864474</v>
+        <v>0.0242782865414862</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1051975195238662</v>
+        <v>0.1049323280606795</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01109528946798593</v>
+        <v>0.0364950112038383</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1061932766202757</v>
+        <v>0.104615100809272</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0109584269366161</v>
+        <v>0.03117882421654297</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06871489354557646</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01243797612249595</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1069798934841296</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.03004328024249772</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1058677323557651</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.033295396104779</v>
+        <v>0.02410802194285347</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1059767604092282</v>
+        <v>0.1057096045648327</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0109584269366161</v>
+        <v>0.03554015448211972</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1069798934841296</v>
+        <v>0.1053900274819333</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01091897048257066</v>
+        <v>0.03073489390884479</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06871462501711244</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01217118336557144</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1077665103479835</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.02925172467244233</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1066461715642634</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.03336052591125721</v>
+        <v>0.02373269743846496</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1067560012945902</v>
+        <v>0.1064868810689859</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01091897048257066</v>
+        <v>0.03363613735627424</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1077665103479835</v>
+        <v>0.1061649541545945</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01057800256581647</v>
+        <v>0.03030323014307899</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06871435648864843</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01220240325772448</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1085531272118374</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.02856338197861613</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1074246107727617</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.03275099462193037</v>
+        <v>0.02325312773532329</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1075352421799522</v>
+        <v>0.107264157573139</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01057800256581647</v>
+        <v>0.03258966698438825</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1085531272118374</v>
+        <v>0.1069398808272558</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01043660564632038</v>
+        <v>0.02988433438526339</v>
       </c>
       <c r="G204" t="n">
+        <v>0.0687140879601844</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01193180967878451</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1093397440756913</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.02749572745517415</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.10820304998126</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.03266437531064953</v>
+        <v>0.02277012754043092</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1083144830653142</v>
+        <v>0.1080414340772922</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01043660564632038</v>
+        <v>0.03130745052454847</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1093397440756913</v>
+        <v>0.1077148074999171</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01029586218404928</v>
+        <v>0.02947870810147024</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06871381943172039</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01185957650858104</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1101263609395452</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.02596623639627135</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1089814891897582</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.03219824105126562</v>
+        <v>0.02208451156079044</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1090937239506761</v>
+        <v>0.1088187105814454</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01029586218404928</v>
+        <v>0.02979619513484133</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1101263609395452</v>
+        <v>0.1084897341725783</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01025685463897</v>
+        <v>0.02908685275771673</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06871355090325637</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01168587762694351</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1109129778033991</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.02519238409606281</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1097599283982565</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.03215016491762984</v>
+        <v>0.0214970945034044</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1098729648360381</v>
+        <v>0.1095959870855986</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01025685463897</v>
+        <v>0.02836260797335322</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1109129778033991</v>
+        <v>0.1092646608452396</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01012066547104942</v>
+        <v>0.02870926982003864</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06871328237479235</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01141088691370139</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.111699594667253</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.02379164584870355</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1105383676067548</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.03181771998359306</v>
+        <v>0.02110869107527533</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1106522057214001</v>
+        <v>0.1103732635897518</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01012066547104942</v>
+        <v>0.02621339619817092</v>
       </c>
       <c r="O207" t="n">
-        <v>0.111699594667253</v>
+        <v>0.1100395875179009</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.009888377140254395</v>
+        <v>0.02834646075445622</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06871301384632833</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01113477824868418</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1124862115311069</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.02278149694834863</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1113168068152531</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.03139847932300638</v>
+        <v>0.02062011598340571</v>
       </c>
       <c r="M208" t="n">
-        <v>0.111431446606762</v>
+        <v>0.111150540093905</v>
       </c>
       <c r="N208" t="n">
-        <v>0.009888377140254395</v>
+        <v>0.02495526696738065</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1124862115311069</v>
+        <v>0.1108145141905622</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.009961072106551783</v>
+        <v>0.02799892702703688</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06871274531786431</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01105772551172131</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1132728283949608</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.02147941268915304</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1120952460237513</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.03129001600972081</v>
+        <v>0.02033218393479821</v>
       </c>
       <c r="M209" t="n">
-        <v>0.112210687492124</v>
+        <v>0.1119278165980581</v>
       </c>
       <c r="N209" t="n">
-        <v>0.009961072106551783</v>
+        <v>0.02329492743906919</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1132728283949608</v>
+        <v>0.1115894408632235</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.009839832829908447</v>
+        <v>0.02766717010380021</v>
       </c>
       <c r="G210" t="n">
+        <v>0.0687124767894003</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01097990258264226</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1140594452588147</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.02040286836527175</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1128736852322496</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.03118990311758751</v>
+        <v>0.01964570963645526</v>
       </c>
       <c r="M210" t="n">
-        <v>0.112989928377486</v>
+        <v>0.1127050931022113</v>
       </c>
       <c r="N210" t="n">
-        <v>0.009839832829908447</v>
+        <v>0.02163908477132304</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1140594452588147</v>
+        <v>0.1123643675358847</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.009625741770291248</v>
+        <v>0.02735169145078196</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06871220826093628</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01070148334127651</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1148460621226686</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.01926933927085983</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1136521244407479</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.0308957137204573</v>
+        <v>0.01916150779537942</v>
       </c>
       <c r="M211" t="n">
-        <v>0.113769169262848</v>
+        <v>0.1134823696063645</v>
       </c>
       <c r="N211" t="n">
-        <v>0.009625741770291248</v>
+        <v>0.02029444612222853</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1148460621226686</v>
+        <v>0.113139294208546</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.009419881387667049</v>
+        <v>0.02705299253400525</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06871193973247226</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01062264166745354</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1156326789865225</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.01779630070007235</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1144305636492461</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.0307050208921813</v>
+        <v>0.01858039311857324</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1145484101482099</v>
+        <v>0.1142596461105177</v>
       </c>
       <c r="N212" t="n">
-        <v>0.009419881387667049</v>
+        <v>0.01906771864987239</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1156326789865225</v>
+        <v>0.1139142208812073</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.009319582501476874</v>
+        <v>0.02677157481953187</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06871167120400824</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.0102435514410028</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1164192958503763</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.01700122794706427</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1152090028577444</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03021539770661069</v>
+        <v>0.01810318031303926</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1153276510335719</v>
+        <v>0.1150369226146709</v>
       </c>
       <c r="N213" t="n">
-        <v>0.009319582501476874</v>
+        <v>0.01706560951234104</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1164192958503763</v>
+        <v>0.1146891475538685</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.009319648245588168</v>
+        <v>0.02650793977338418</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06871140267554424</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01016438654175375</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1172059127142302</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.01600159630599071</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1159874420662427</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.03042441723759626</v>
+        <v>0.01753068408577999</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1161068919189339</v>
+        <v>0.1158141991188241</v>
       </c>
       <c r="N214" t="n">
-        <v>0.009319648245588168</v>
+        <v>0.01559482586772093</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1172059127142302</v>
+        <v>0.1154640742265298</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.009120065224192779</v>
+        <v>0.02650793977338418</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06871140267554424</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.009985320849535871</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1179925295780841</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.01521488107100658</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.116765881274741</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.02972965255898913</v>
+        <v>0.01716371914379805</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1168861328042958</v>
+        <v>0.1165914756229772</v>
       </c>
       <c r="N215" t="n">
-        <v>0.009120065224192779</v>
+        <v>0.01396207487409873</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1179925295780841</v>
+        <v>0.1162390008991911</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.009220875016028328</v>
+        <v>0.02582913735570426</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06858641132564625</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.009906528244178647</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.118779146441938</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.0144585575362669</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1175443204832392</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.0297286767446403</v>
+        <v>0.01700310019409593</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1176653736896578</v>
+        <v>0.1173687521271304</v>
       </c>
       <c r="N216" t="n">
-        <v>0.009220875016028328</v>
+        <v>0.01297406368956083</v>
       </c>
       <c r="O216" t="n">
-        <v>0.118779146441938</v>
+        <v>0.1170139275718524</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.008922119199832455</v>
+        <v>0.02515785477179713</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06846141997574827</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.009628182605511508</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1195657633057919</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.01428690908224298</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1183227596917375</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.03001906286840095</v>
+        <v>0.01624964194367615</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1184446145750198</v>
+        <v>0.1181460286312836</v>
       </c>
       <c r="N217" t="n">
-        <v>0.008922119199832455</v>
+        <v>0.01173749947219388</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1195657633057919</v>
+        <v>0.1177888542445136</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.008923839354342822</v>
+        <v>0.02449442961821829</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06833642862585029</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.009550457813363972</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1203523801696458</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.01361734377997539</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1191011989002358</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.0295983840041219</v>
+        <v>0.01590415909954121</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1192238554603818</v>
+        <v>0.1189233051354368</v>
       </c>
       <c r="N218" t="n">
-        <v>0.008923839354342822</v>
+        <v>0.009959089380084274</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1203523801696458</v>
+        <v>0.1185637809171749</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.008826077058297049</v>
+        <v>0.02383919949152331</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06821143727595232</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.009273527747565478</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1211389970334997</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.01294967784486317</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1198796381087341</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.02896421322565434</v>
+        <v>0.01546746636869378</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1200030963457437</v>
+        <v>0.11970058163959</v>
       </c>
       <c r="N219" t="n">
-        <v>0.008826077058297049</v>
+        <v>0.009145540571318556</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1211389970334997</v>
+        <v>0.1193387075898362</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.008628873890432799</v>
+        <v>0.02319250198826793</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06808644592605434</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.009097566287945502</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1219256138973536</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.01238436621126546</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1206580773172323</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.02901412360684924</v>
+        <v>0.01504037845813633</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1207823372311057</v>
+        <v>0.1204778581437431</v>
       </c>
       <c r="N220" t="n">
-        <v>0.008628873890432799</v>
+        <v>0.007803560203983428</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1219256138973536</v>
+        <v>0.1201136342624975</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.008632271429487692</v>
+        <v>0.02255467470500758</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06796145457615635</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.008922747314333512</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1227122307612075</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.01162186381354136</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1214365165257306</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.02854568822155762</v>
+        <v>0.01442371007487134</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1215615781164677</v>
+        <v>0.1212551346478963</v>
       </c>
       <c r="N221" t="n">
-        <v>0.008632271429487692</v>
+        <v>0.007039855436165143</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1227122307612075</v>
+        <v>0.1208885609351587</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.008636311254199378</v>
+        <v>0.02192605523829799</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06783646322625837</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.008749244706558974</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1234988476250614</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.01106262558604995</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1222149557342289</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.02825648014363052</v>
+        <v>0.01431827592590149</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1223408190018296</v>
+        <v>0.1220324111520495</v>
       </c>
       <c r="N222" t="n">
-        <v>0.008636311254199378</v>
+        <v>0.005861133425950293</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1234988476250614</v>
+        <v>0.12166348760782</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.008441034943305503</v>
+        <v>0.02130698118469466</v>
       </c>
       <c r="G223" t="n">
+        <v>0.0677114718763604</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.008677232344451377</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1242854644889153</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.01090710646315038</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1229933949427271</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.02794407244691899</v>
+        <v>0.01402489071822913</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1231200598871916</v>
+        <v>0.1228096876562027</v>
       </c>
       <c r="N223" t="n">
-        <v>0.008441034943305503</v>
+        <v>0.004674101331425595</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1242854644889153</v>
+        <v>0.1224384142804813</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0084464840755437</v>
+        <v>0.02069779014075329</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06758648052646242</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.008506884107840167</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1250720813527692</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.01035576137920172</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1237718341512254</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.02750603820527397</v>
+        <v>0.01334436915885695</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1238993007725536</v>
+        <v>0.1235869641603559</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0084464840755437</v>
+        <v>0.00398546631067731</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1250720813527692</v>
+        <v>0.1232133409531426</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.008352700229651622</v>
+        <v>0.02009881970302939</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06746148917656443</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.008138373876554812</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1258586982166231</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.009709045268563116</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1245502733597237</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.02754009213639291</v>
+        <v>0.01307752595478745</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1246785416579156</v>
+        <v>0.1243642406645091</v>
       </c>
       <c r="N225" t="n">
-        <v>0.008352700229651622</v>
+        <v>0.003601935521792055</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1258586982166231</v>
+        <v>0.1239882676258038</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.008059724984366898</v>
+        <v>0.01951040746807862</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06733649782666645</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.008071875530424794</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.126645315080477</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.009067413065593638</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.125328712568222</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.02704764698986711</v>
+        <v>0.01252517581302315</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1254577825432776</v>
+        <v>0.1251415171686622</v>
       </c>
       <c r="N226" t="n">
-        <v>0.008059724984366898</v>
+        <v>0.003230216122856455</v>
       </c>
       <c r="O226" t="n">
-        <v>0.126645315080477</v>
+        <v>0.1247631942984651</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.008167599918427172</v>
+        <v>0.01893289103245653</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06721150647676848</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.008007562949279581</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1274319319443309</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.00833131970465234</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1261071517767202</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.02653007264583457</v>
+        <v>0.01238813344056663</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1262370234286395</v>
+        <v>0.1259187936728154</v>
       </c>
       <c r="N227" t="n">
-        <v>0.008167599918427172</v>
+        <v>0.002577015271956862</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1274319319443309</v>
+        <v>0.1255381209711264</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.007876366610570097</v>
+        <v>0.01836660799271879</v>
       </c>
       <c r="G228" t="n">
+        <v>0.0670865151268705</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.007845610012948645</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1282185488081848</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.008101220120098507</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1268855909852185</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.02618772605139141</v>
+        <v>0.01226721354442037</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1270162643140015</v>
+        <v>0.1266960701769686</v>
       </c>
       <c r="N228" t="n">
-        <v>0.007876366610570097</v>
+        <v>0.002349040127179958</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1282185488081848</v>
+        <v>0.1263130476437876</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.007786066639533289</v>
+        <v>0.0178118959454209</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06696152377697251</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.007686190601261432</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1290051656720387</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.007377569246291071</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1276640301937168</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.02602096415363359</v>
+        <v>0.01186323083158697</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1277955051993635</v>
+        <v>0.1274733466811218</v>
       </c>
       <c r="N229" t="n">
-        <v>0.007786066639533289</v>
+        <v>0.002252997846612148</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1290051656720387</v>
+        <v>0.1270879743164489</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.007896741584054422</v>
+        <v>0.01726909248711856</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06683653242707453</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.007329466450619396</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1297917825358925</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.006860822017589224</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1284424694022151</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.02533014389965749</v>
+        <v>0.01157688800406562</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1285747460847254</v>
+        <v>0.128250623185275</v>
       </c>
       <c r="N230" t="n">
-        <v>0.007896741584054422</v>
+        <v>0.001794905460458851</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1297917825358925</v>
+        <v>0.1278629009891102</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.007808433022871111</v>
+        <v>0.01673853521436727</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06671154107717654</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.007174227375814773</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1305783993997464</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.006351433368352033</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1292209086107133</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.02431562223655898</v>
+        <v>0.01109897597809378</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1293539869700874</v>
+        <v>0.1290278996894282</v>
       </c>
       <c r="N231" t="n">
-        <v>0.007808433022871111</v>
+        <v>0.001694932639860425</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1305783993997464</v>
+        <v>0.1286378276617715</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.007621182534721008</v>
+        <v>0.01622056172372274</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06658654972727858</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.007219583335363849</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1313650162636003</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.005949858232938643</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1299993478192116</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.02397775611143438</v>
+        <v>0.01072336612075522</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1301332278554494</v>
+        <v>0.1298051761935813</v>
       </c>
       <c r="N232" t="n">
-        <v>0.007621182534721008</v>
+        <v>0.001795095279218173</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1313650162636003</v>
+        <v>0.1294127543344328</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.00763503169834176</v>
+        <v>0.01571550961174045</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06646155837738059</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.006965536698726786</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1321516331274542</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.005656551545708127</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1307777870277099</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.02341690247137973</v>
+        <v>0.01065024336556966</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1309124687408113</v>
+        <v>0.1305824526977345</v>
       </c>
       <c r="N233" t="n">
-        <v>0.00763503169834176</v>
+        <v>0.001595516793578444</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1321516331274542</v>
+        <v>0.130187681007094</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.007450022092470997</v>
+        <v>0.01522371647497611</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06633656702748261</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.006712089835363741</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1329382499913081</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.00517196824101962</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1315562262362081</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.0230334182634912</v>
+        <v>0.01037979264605673</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1316917096261733</v>
+        <v>0.1313597292018877</v>
       </c>
       <c r="N234" t="n">
-        <v>0.007450022092470997</v>
+        <v>0.0021963205979873</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1329382499913081</v>
+        <v>0.1309626076797553</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.007266195295846371</v>
+        <v>0.01474551990998522</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06621157567758462</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.006659245114734889</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.133724866855162</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.004496563253232166</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1323346654447064</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.02202766043486498</v>
+        <v>0.01011219889573622</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1324709505115353</v>
+        <v>0.1321370057060409</v>
       </c>
       <c r="N235" t="n">
-        <v>0.007266195295846371</v>
+        <v>0.001897630107490944</v>
       </c>
       <c r="O235" t="n">
-        <v>0.133724866855162</v>
+        <v>0.1317375343524166</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.007383592887205512</v>
+        <v>0.01428125751332347</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06608658432768666</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.006407004906300404</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1345114837190159</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.003930791516704973</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1331131046532047</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.02149998593259694</v>
+        <v>0.01004764704812777</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1332501913968973</v>
+        <v>0.1329142822101941</v>
       </c>
       <c r="N236" t="n">
-        <v>0.007383592887205512</v>
+        <v>0.001799568737135715</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1345114837190159</v>
+        <v>0.1325124610250779</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.007202256445286069</v>
+        <v>0.01383126688154637</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06596159297778867</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.006355371579520451</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1352981005828698</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.00367510796579712</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.133891543861703</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.02135075170378359</v>
+        <v>0.009686322036751072</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1340294322822592</v>
+        <v>0.1336915587143472</v>
       </c>
       <c r="N237" t="n">
-        <v>0.007202256445286069</v>
+        <v>0.002302259901967696</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1352981005828698</v>
+        <v>0.1332873876977391</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.007222227548825691</v>
+        <v>0.01339588561120961</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06583660162789069</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.006104347503855183</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1360847174467237</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.002929967534867572</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1346699830702013</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.02078031469552077</v>
+        <v>0.00922840879512582</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1348086731676212</v>
+        <v>0.1344688352185004</v>
       </c>
       <c r="N238" t="n">
-        <v>0.007222227548825691</v>
+        <v>0.002305827017033135</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1360847174467237</v>
+        <v>0.1340623143704004</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.006943547776562004</v>
+        <v>0.01297545129886869</v>
       </c>
       <c r="G239" t="n">
+        <v>0.0657116102779927</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.005953935048764777</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1368713343105776</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.002695825158275628</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1354484222786995</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.0193890318549047</v>
+        <v>0.008874092256771687</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1355879140529832</v>
+        <v>0.1352461117226536</v>
       </c>
       <c r="N239" t="n">
-        <v>0.006943547776562004</v>
+        <v>0.001910393497378204</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1368713343105776</v>
+        <v>0.1348372410430617</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.00696625870723265</v>
+        <v>0.01256892302181063</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06558661892809474</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.005904136583709405</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1376579511744315</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.002073135770380347</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1362268614871978</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.01907726012903155</v>
+        <v>0.008823557355208428</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1363671549383451</v>
+        <v>0.1360233882268068</v>
       </c>
       <c r="N240" t="n">
-        <v>0.00696625870723265</v>
+        <v>0.001716082758049131</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1376579511744315</v>
+        <v>0.1356121677157229</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.006990401919575284</v>
+        <v>0.01216836726097873</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06546162757819675</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.005854954478149238</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1384445680382854</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.001862354305540798</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1370053006956961</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.0180453564649975</v>
+        <v>0.0083769890239557</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1371463958237071</v>
+        <v>0.1368006647309599</v>
       </c>
       <c r="N241" t="n">
-        <v>0.006990401919575284</v>
+        <v>0.001623018214092109</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1384445680382854</v>
+        <v>0.1363870943883842</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.006916018992327543</v>
+        <v>0.01177274309366001</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06533663622829877</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.005606391101544428</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1392311849021393</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.001263935698116059</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1377837399041943</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.01779367780989849</v>
+        <v>0.008534572196533224</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1379256367090691</v>
+        <v>0.1375779412351131</v>
       </c>
       <c r="N242" t="n">
-        <v>0.006916018992327543</v>
+        <v>0.001731323280553365</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1392311849021393</v>
+        <v>0.1371620210610455</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.006643151504227063</v>
+        <v>0.01138238811640997</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06521164487840078</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.00535844882335515</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1400178017659932</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.001078334882465309</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1385621791126926</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.01652258111083083</v>
+        <v>0.00799649180646067</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1387048775944311</v>
+        <v>0.1383552177392663</v>
       </c>
       <c r="N243" t="n">
-        <v>0.006643151504227063</v>
+        <v>0.001941121372479038</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1400178017659932</v>
+        <v>0.1379369477337068</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.006771841034011475</v>
+        <v>0.01099763992578427</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06508665352850281</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.005411130013041561</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1408044186298471</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.0007060067929476332</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1393406183211909</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.01563242331489056</v>
+        <v>0.007862932787257748</v>
       </c>
       <c r="M244" t="n">
-        <v>0.139484118479793</v>
+        <v>0.1391324942434195</v>
       </c>
       <c r="N244" t="n">
-        <v>0.006771841034011475</v>
+        <v>0.00225253590491542</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1408044186298471</v>
+        <v>0.138711874406368</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.00670212916041845</v>
+        <v>0.01061883611833846</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06496166217860483</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.005064437040063853</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.141591035493701</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.0001474063639221035</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1401190575296891</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.01532356136917379</v>
+        <v>0.007634080072444122</v>
       </c>
       <c r="M245" t="n">
-        <v>0.140263359365155</v>
+        <v>0.1399097707475727</v>
       </c>
       <c r="N245" t="n">
-        <v>0.00670212916041845</v>
+        <v>0.002265690292908684</v>
       </c>
       <c r="O245" t="n">
-        <v>0.141591035493701</v>
+        <v>0.1394868010790293</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.006634057462185601</v>
+        <v>0.01024631429062821</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06483667082870685</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.00501837227388216</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1423776523575549</v>
       </c>
-      <c r="J246" t="n">
-        <v>-9.701147025217849e-05</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1408974967381874</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.01449635222077672</v>
+        <v>0.007310118595539539</v>
       </c>
       <c r="M246" t="n">
-        <v>0.141042600250517</v>
+        <v>0.1406870472517258</v>
       </c>
       <c r="N246" t="n">
-        <v>0.006634057462185601</v>
+        <v>0.002380707951504968</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1423776523575549</v>
+        <v>0.1402617277516906</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.006367667518050589</v>
+        <v>0.009880412039209058</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06471167947880886</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.004872938083956689</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1431642692214087</v>
       </c>
-      <c r="J247" t="n">
-        <v>-0.0005267917752160012</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1416759359466857</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.01365115281679552</v>
+        <v>0.006991233290063625</v>
       </c>
       <c r="M247" t="n">
-        <v>0.141821841135879</v>
+        <v>0.1414643237558791</v>
       </c>
       <c r="N247" t="n">
-        <v>0.006367667518050589</v>
+        <v>0.001897712295750531</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1431642692214087</v>
+        <v>0.1410366544243518</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.006503000906751044</v>
+        <v>0.009521466960636632</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06458668812891089</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.004828136839747567</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1439508860852627</v>
       </c>
-      <c r="J248" t="n">
-        <v>-0.0004414796166103685</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.142454375155184</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.01228832010432618</v>
+        <v>0.006777609089536146</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1426010820212409</v>
+        <v>0.1422416002600322</v>
       </c>
       <c r="N248" t="n">
-        <v>0.006503000906751044</v>
+        <v>0.002316826740691558</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1439508860852627</v>
+        <v>0.1418115810970131</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.006440099207024604</v>
+        <v>0.009169816651466503</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06446169677901291</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.004583970910714989</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1447375029491166</v>
       </c>
-      <c r="J249" t="n">
-        <v>-0.001140620060076175</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1432328143636823</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.01140821103046497</v>
+        <v>0.006969430927476816</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1433803229066029</v>
+        <v>0.1430188767641854</v>
       </c>
       <c r="N249" t="n">
-        <v>0.006440099207024604</v>
+        <v>0.001838174701374262</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1447375029491166</v>
+        <v>0.1425865077696744</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.006179003997608928</v>
+        <v>0.008825798708254319</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06433670542911493</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.004540442666319117</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1455241198129704</v>
       </c>
-      <c r="J250" t="n">
-        <v>-0.001023758171254219</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1440112535721805</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.01051118254230787</v>
+        <v>0.00636688373740521</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1441595637919649</v>
+        <v>0.1437961532683386</v>
       </c>
       <c r="N250" t="n">
-        <v>0.006179003997608928</v>
+        <v>0.00236187959284484</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1455241198129704</v>
+        <v>0.1433614344423357</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.006119756857241636</v>
+        <v>0.00848975072755561</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06421171407921694</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.004197554476020104</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1463107366768243</v>
       </c>
-      <c r="J251" t="n">
-        <v>-0.00139043901578545</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1447896927806788</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.009797591586951093</v>
+        <v>0.00647015245284116</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1449388046773269</v>
+        <v>0.1445734297724918</v>
       </c>
       <c r="N251" t="n">
-        <v>0.006119756857241636</v>
+        <v>0.001888064830149527</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1463107366768243</v>
+        <v>0.144136361114997</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.006162399364660391</v>
+        <v>0.008162010305926053</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06408672272931897</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.004155308709278133</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1470973535406782</v>
       </c>
-      <c r="J252" t="n">
-        <v>-0.001640207659310805</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1455681319891771</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.009067795111490806</v>
+        <v>0.006279422007304247</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1457180455626888</v>
+        <v>0.145350706276645</v>
       </c>
       <c r="N252" t="n">
-        <v>0.006162399364660391</v>
+        <v>0.001916853828334453</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1470973535406782</v>
+        <v>0.1449112877876582</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.006106973098602822</v>
+        <v>0.007842915039921176</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06396173137942099</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.004013707735553353</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1478839704045321</v>
       </c>
-      <c r="J253" t="n">
-        <v>-0.002072609167471123</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1463465711976753</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.008422150063023215</v>
+        <v>0.006094877334314242</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1464972864480508</v>
+        <v>0.1461279827807981</v>
       </c>
       <c r="N253" t="n">
-        <v>0.006106973098602822</v>
+        <v>0.001848370002445865</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1478839704045321</v>
+        <v>0.1456862144603195</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006153519637806561</v>
+        <v>0.007532802526096637</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06383674002952301</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.003972753924305961</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.148670587268386</v>
       </c>
-      <c r="J254" t="n">
-        <v>-0.002187188605907331</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1471250104061736</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.007461013388644244</v>
+        <v>0.005616703367390813</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1472765273334128</v>
+        <v>0.1469052592849513</v>
       </c>
       <c r="N254" t="n">
-        <v>0.006153519637806561</v>
+        <v>0.002082736767529958</v>
       </c>
       <c r="O254" t="n">
-        <v>0.148670587268386</v>
+        <v>0.1464611411329808</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006002080561009267</v>
+        <v>0.007232010361007978</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06371174867962502</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.003732449644996097</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1494572041322399</v>
       </c>
-      <c r="J255" t="n">
-        <v>-0.002383491040260227</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1479034496146719</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.00598474203545013</v>
+        <v>0.005845085040053655</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1480557682187747</v>
+        <v>0.1476825357891045</v>
       </c>
       <c r="N255" t="n">
-        <v>0.006002080561009267</v>
+        <v>0.002420077538632992</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1494572041322399</v>
+        <v>0.1472360678056421</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006052697446948571</v>
+        <v>0.006940876141210861</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06358675732972704</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.003692797267083936</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1502438209960938</v>
       </c>
-      <c r="J256" t="n">
-        <v>-0.002461061536170817</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1486818888231702</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.004793692950537054</v>
+        <v>0.005480207285822464</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1488350091041367</v>
+        <v>0.1484598122932577</v>
       </c>
       <c r="N256" t="n">
-        <v>0.006052697446948571</v>
+        <v>0.002460515730801083</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1502438209960938</v>
+        <v>0.1480109944783033</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006005411874362127</v>
+        <v>0.006659737463260824</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06346176597982907</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.003353799160029647</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1510304378599477</v>
       </c>
-      <c r="J257" t="n">
-        <v>-0.002719445159279993</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1494603280316684</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.004488223081000997</v>
+        <v>0.005422255038216944</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1496142499894987</v>
+        <v>0.1492370887974108</v>
       </c>
       <c r="N257" t="n">
-        <v>0.006005411874362127</v>
+        <v>0.00200417475908049</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1510304378599477</v>
+        <v>0.1487859211509646</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005960265421987555</v>
+        <v>0.006388931923713516</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06333677462993109</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.003415457693293412</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1518170547238016</v>
       </c>
-      <c r="J258" t="n">
-        <v>-0.002658186975228571</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1502387672401667</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.00336868937393825</v>
+        <v>0.005371413230756766</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1503934908748606</v>
+        <v>0.150014365301564</v>
       </c>
       <c r="N258" t="n">
-        <v>0.005960265421987555</v>
+        <v>0.002751178038517321</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1518170547238016</v>
+        <v>0.1495608478236259</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005917299668562519</v>
+        <v>0.006128797119124493</v>
       </c>
       <c r="G259" t="n">
+        <v>0.0632117832800331</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.003077775236335373</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1526036715876555</v>
       </c>
-      <c r="J259" t="n">
-        <v>-0.002976832049657485</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.151017206448665</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.002235448776444882</v>
+        <v>0.005227866796961661</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1511727317602226</v>
+        <v>0.1507916418057172</v>
       </c>
       <c r="N259" t="n">
-        <v>0.005917299668562519</v>
+        <v>0.002801648984157912</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1526036715876555</v>
+        <v>0.1503357744962871</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.00587655619282465</v>
+        <v>0.005879670646049405</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06308679193013512</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.003140754158615706</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1533902884515094</v>
       </c>
-      <c r="J260" t="n">
-        <v>-0.002974925448207572</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1517956456571633</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.001188858235616985</v>
+        <v>0.004691800670351298</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1519519726455846</v>
+        <v>0.1515689183098704</v>
       </c>
       <c r="N260" t="n">
-        <v>0.00587655619282465</v>
+        <v>0.002255711011048378</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1533902884515094</v>
+        <v>0.1511107011689484</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005738076573511587</v>
+        <v>0.005641890101043781</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06296180058023715</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.00290439682959457</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1541769053153633</v>
       </c>
-      <c r="J261" t="n">
-        <v>-0.003252012236519858</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1525740848656615</v>
-      </c>
       <c r="L261" t="n">
-        <v>-0.0002707253014493372</v>
+        <v>0.004763399784445399</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1527312135309466</v>
+        <v>0.1523461948140236</v>
       </c>
       <c r="N261" t="n">
-        <v>0.005738076573511587</v>
+        <v>0.002413487534234926</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1541769053153633</v>
+        <v>0.1518856278416097</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005801902389360979</v>
+        <v>0.005415793080663291</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06283680923033917</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.002868705618732162</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1549635221792172</v>
       </c>
-      <c r="J262" t="n">
-        <v>-0.003307637480235132</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1533525240741598</v>
-      </c>
       <c r="L262" t="n">
-        <v>-0.001042944887657798</v>
+        <v>0.004742849072763677</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1535104544163085</v>
+        <v>0.1531234713181767</v>
       </c>
       <c r="N262" t="n">
-        <v>0.005801902389360979</v>
+        <v>0.002475101968763826</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1549635221792172</v>
+        <v>0.152660554514271</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00576807521911045</v>
+        <v>0.005201717181463492</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06271181788044118</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.002633682895488605</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1557501390430711</v>
       </c>
-      <c r="J263" t="n">
-        <v>-0.003441346244994287</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1541309632826581</v>
-      </c>
       <c r="L263" t="n">
-        <v>-0.002427443575912375</v>
+        <v>0.004630333468825715</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1542896953016705</v>
+        <v>0.1539007478223299</v>
       </c>
       <c r="N263" t="n">
-        <v>0.00576807521911045</v>
+        <v>0.002940677729681207</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1557501390430711</v>
+        <v>0.1534354811869323</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.005536636641497665</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.0625868265305432</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.002399331029324117</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.156536755906925</v>
       </c>
-      <c r="J264" t="n">
-        <v>-0.00305268359643826</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1549094024911563</v>
-      </c>
       <c r="L264" t="n">
-        <v>-0.003323864419117056</v>
+        <v>0.004326037906151325</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1550689361870325</v>
+        <v>0.1546780243264831</v>
       </c>
       <c r="N264" t="n">
-        <v>0.005536636641497665</v>
+        <v>0.00271033823203326</v>
       </c>
       <c r="O264" t="n">
-        <v>0.156536755906925</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1542104078595935</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06257366863580636</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005704192808452253</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06257393716427037</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006404464614532306</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06257420569273439</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007100770590800894</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06257447422119841</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.00779306590972792</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06257474274966243</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008481305743874304</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06257501127812644</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009165445265770539</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06257527980659046</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.00984543964797667</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06257554833505448</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.010521244062964</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.0625758168635185</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01119281368329275</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06257608539198252</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01186010368149343</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06257635392044653</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01252306923012531</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06257662244891056</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01318166550166121</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06257689097737457</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01383584766866059</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06257715950583859</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01448557090365395</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06257742803430259</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01513079037919981</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06257769656276663</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01577146126777251</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06257796509123063</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01640753874193076</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06257823361969465</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01703897797420506</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06257850214815867</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01766573413715311</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06257877067662269</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01828776240325088</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06257903920508671</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01890501794505625</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06257930773355072</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01951745593509974</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06257957626201474</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02012503154593821</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06257984479047876</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072769995004926</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06258011331894278</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02132559936549037</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06258038184740679</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02191978323779442</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06258065037587081</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02251038978501793</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06258091890433483</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02309737417964003</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06258118743279885</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.023680691594217</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06258145596126286</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02426029720127935</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06258172448972688</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0248361461733826</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0625819930181909</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02540819368300712</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06258226154665492</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.0259763949027086</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06258253007511894</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02654070500501753</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06258279860358294</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02710107916248873</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06258306713204698</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02765747254760394</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06258333566051098</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02820984033291817</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.062583604188975</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0287581376909619</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06258387271743901</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02930231979428927</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06258414124590304</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02984234181538344</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06258440977436705</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03037815892679864</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06258467830283107</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03090972630106543</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06258494683129508</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0314369991107372</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06258521535975911</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03195993252829853</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06258548388822312</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03247848172630301</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06258575241668714</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03299260187728112</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06258602094515116</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03350224815378548</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06258628947361518</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03400737572830223</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.0625865580020792</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03450793977338419</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.0625868265305432</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03450793977338419</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06257366863580636</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03504758116503558</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06269919704263238</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03558227923569594</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06282472544945839</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03611190392112276</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.0629502538562844</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03663632515707345</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06307578226311042</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03715541287930547</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06320131066993644</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03766903702357625</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06332683907676245</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0381770675256433</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06345236748358847</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03867937432126399</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06357789589041447</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03917582734619585</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06370342429724049</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03966629653619627</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06382895270406651</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04015065182702271</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06395448111089252</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04062876315443265</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06408000951771854</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04110050045418349</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06420553792454456</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04156573366203273</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06433106633137058</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04202433271373777</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06445659473819658</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04247616754505613</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.0645821231450226</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04292110809174521</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06470765155184861</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04335902428956244</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06483317995867463</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.0437897860742653</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06495870836550065</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04421326338161125</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06508423677232666</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04462932614735772</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06520976517915267</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04503784430726215</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06533529358597868</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04543868779708204</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0654608219928047</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04583172655257478</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06558635039963072</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.0462173616051549</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06571187880645672</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04659864946452241</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06583740721328275</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04697599116209174</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06596293562010876</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.0473492566336204</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06608846402693476</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04771831581486585</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06621399243376078</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04808303864158552</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06633952084058679</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04844329504953683</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06646504924741281</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04879895497447727</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06659057765423883</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04914988835216429</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06671610606106484</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04949596511835531</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06684163446789086</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.0498370552088078</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06696716287471687</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05017302855927921</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06709269128154288</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05050375510552697</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0672182196883689</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05082910478330857</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06734374809519492</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05114894752838141</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06746927650202093</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05146315327650298</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06759480490884695</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0517715919634307</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06772033331567295</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05207413352492204</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06784586172249897</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05237064789673446</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06797139012932499</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05266100501462537</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.068096918536151</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05294507481435225</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06822244694297702</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05322272723167254</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06834797534980304</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.0534938322023437</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06847350375662904</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05375825966212315</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06859903216345506</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05401587954676837</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06872456057028108</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04834391969784557</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06872456057028108</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05423265723534207</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07064760643221707</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05443317596583</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07257065229415305</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05461806955058233</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07449369815608904</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05478797180194918</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07641674401802503</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05494351653228068</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07833978987996103</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.0550853375539269</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08026283574189701</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05521406867923806</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.082185881603833</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05533034372056422</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08410892746576898</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05543479649025554</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08603197332770497</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05552806080066214</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08795501918964095</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05561077046413415</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08987806505157696</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05568355929302173</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09180111091351294</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05574706109967495</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09372415677544893</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05580190969644398</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09564720263738492</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05584873889567893</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.0975702484993209</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05588818250972995</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09949329436125688</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05592087435094714</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1014163402231929</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05594744823168064</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1033393860851289</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05596853796428061</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1052624319470649</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05598477736109712</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1071854778090008</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05599680023448035</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1091085236709368</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05600524039678041</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1110315695328728</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05601073166034742</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1129546153948088</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05601390783753155</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1148776612567448</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05601540274068287</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1168007071186808</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05601585018215151</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1187237529806168</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05601212747436567</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1206467988425528</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0559605892661427</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1225698447044888</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05585158461295704</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1244928905664247</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05568895043816283</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1264159364283607</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0554765236651141</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1283389822902967</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05521814121716498</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1302620281522327</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05491764001766952</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1321850740141687</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05457885698998184</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1341081198761047</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.054205629057456</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1360311657380407</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05380179314344609</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1379542115999767</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05337118617130619</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1398772574619127</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05291764506439041</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1418003033238486</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05244500674605279</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1437233491857846</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05195710813964746</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1456463950477206</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05145778616852846</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1475694409096566</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.05095087775604989</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.05044021982556587</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1514155326335286</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04992964930043044</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1533385784954646</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04942300310399769</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1552616243574005</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04892411815962174</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1571846702193365</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04843683139065662</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1591077160812725</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04796497972045645</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1610307619432085</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04751240007237531</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1629538078051445</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04708292936976728</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1648768536670805</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04666357414999513</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1667998995290165</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04621111984488591</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1687229453909525</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04572701789358646</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1706459912528885</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04521555700133192</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1725690371148244</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04468102587335737</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1744920829767604</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04412771321489803</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1764151288386964</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04355990773118899</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1783381747006324</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04298189812746542</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1802612205625684</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04239797310896244</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1821842664245044</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04181242138091519</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1841073122864404</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04122953164855882</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1860303581483763</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04065359261712848</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1879534040103124</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04008889299185929</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1898764498722484</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.0395397214779864</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1917994957341843</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03901036678074497</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1937225415961203</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03850511760537012</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1956455874580563</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.038028262657097</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1975686333199923</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03758409064116075</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1994916791819283</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03717689026279651</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2014147250438643</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03681095022723942</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2033377709058003</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03649055923972462</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2052608167677362</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03622000600548725</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2071838626296722</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03600357922976245</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2091069084916082</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03584556761778539</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2110299543535442</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03575025987479118</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2129530002154802</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.0357216376590174</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2148760460774162</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03572174459830146</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2167990919393522</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03572238895902403</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2187221378012882</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03572406243461909</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2206451836632242</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03572725671852064</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2225682295251602</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03573246350416268</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2244912753870961</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.0357401744849792</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2264143212490321</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03575088135440421</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2283373671109681</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03576507580587171</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2302604129729041</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03578324953281568</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2321834588348401</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03580589422867016</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2341065046967761</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0358335015868691</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2360295505587121</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03586656330084653</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.237952596420648</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03590557106403644</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2398756422825841</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03595101656987283</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.24179868814452</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03600339151178969</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.243721734006456</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03606318758322104</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.245644779868392</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03613089647760086</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.247567825730328</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03620700988836316</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.249490871592264</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03629201950894194</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2514139174541999</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03638641703277118</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.253336963316136</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0364906941532849</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2552600091780719</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03660534256391709</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2571830550400079</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03673085395810176</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2591061009019439</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1112.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1112.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08734391969784558</v>
+        <v>0.0618547638640305</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03734391969784558</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02875456057028107</v>
+        <v>0.01410222951325295</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001101537578659238</v>
+        <v>0.002721986994257859</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006941874805078896</v>
+        <v>0.001653087628293987</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001140064160125701</v>
+        <v>0.002544591390861002</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007866168638538942</v>
+        <v>0.001662922530237439</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003220378918995709</v>
+        <v>0.007590449681094597</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007772765041531816</v>
+        <v>0.001667169918494514</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.005534611268027623</v>
+        <v>0.01332003950472016</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000774926672661274</v>
+        <v>0.001662922530237439</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00219255824011421</v>
+        <v>0.005100265938347712</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001388374961015779</v>
+        <v>0.003306175256587974</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002426390127377789</v>
+        <v>0.005371609440655928</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001573233727707788</v>
+        <v>0.003833986238268169</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.005999999999999978</v>
+        <v>0.01379872424387674</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001385922330097082</v>
+        <v>0.003455733133005971</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.009000000000000008</v>
+        <v>0.01751981674403047</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001212028301886794</v>
+        <v>0.002500953840210349</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003273137424207193</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002082562441523669</v>
+        <v>0.004700743171084316</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.00326470243909175</v>
+        <v>0.006115759990496281</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002359850591561683</v>
+        <v>0.004988767590712317</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.008565632118874927</v>
+        <v>0.01576038969756585</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002331829512459545</v>
+        <v>0.005001509755483543</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01498808992647238</v>
+        <v>0.02364846108255358</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002324780017983822</v>
+        <v>0.004988767590712317</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004343350570780488</v>
+        <v>0.006015370515157714</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002776749922031559</v>
+        <v>0.006612350513175948</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.006803463744178305</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002854999999999998</v>
+        <v>0.006651690120949757</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01096002915185035</v>
+        <v>0.01739666582174662</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003109106016612726</v>
+        <v>0.006668679673978058</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01868468907758664</v>
+        <v>0.02597327721556431</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003099706690645096</v>
+        <v>0.006651690120949757</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01880297268433729</v>
+        <v>0.004700743171084316</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005403273119676352</v>
+        <v>0.007017805765423865</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003470937402539448</v>
+        <v>0.008265438141469936</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.004996503113138477</v>
+        <v>0.007720661923515983</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003933084319269471</v>
+        <v>0.008314612651187197</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01311911517902789</v>
+        <v>0.0185437102287424</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003886382520765908</v>
+        <v>0.008335849592472572</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02223285536191233</v>
+        <v>0.02877779809727676</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00387463336330637</v>
+        <v>0.008314612651187197</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006452980510737095</v>
+        <v>0.009875065242874424</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004165124883047338</v>
+        <v>0.009918525769763922</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.005466791056636305</v>
+        <v>0.008319189629735289</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004719701183123365</v>
+        <v>0.009977535181424635</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01523662336197376</v>
+        <v>0.01992089638658853</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004663659024919089</v>
+        <v>0.01000301951096709</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02561176860384512</v>
+        <v>0.03106664155992511</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004649560035967644</v>
+        <v>0.009977535181424635</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007492548183804994</v>
+        <v>0.008655133560085057</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004859312363555228</v>
+        <v>0.01157161339805791</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.00609279964294196</v>
+        <v>0.008750881964062145</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005506318046977259</v>
+        <v>0.01164045771166207</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.01720628686225414</v>
+        <v>0.02074759776332016</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00544093552907227</v>
+        <v>0.0116701894294616</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0289006086277806</v>
+        <v>0.03264442543574325</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005424486708628918</v>
+        <v>0.01164045771166207</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00852205157872233</v>
+        <v>0.01142599532963144</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005553499844063117</v>
+        <v>0.0132247010263519</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.006777773629203607</v>
+        <v>0.00916757402772253</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006292934910831154</v>
+        <v>0.01330338024189951</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.01872183884143513</v>
+        <v>0.02164318782697264</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006218212033225453</v>
+        <v>0.01333735934795612</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.031378555258114</v>
+        <v>0.03441576755696502</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006199413381290192</v>
+        <v>0.01330338024189951</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0095415661353314</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006247687324571007</v>
+        <v>0.01410222951325295</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.007424957772569435</v>
+        <v>0.009921100921942386</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007079551774685049</v>
+        <v>0.01496630277213695</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02057701246108296</v>
+        <v>0.0225270400455812</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006995488537378634</v>
+        <v>0.01500452926645063</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03372478831924119</v>
+        <v>0.03618528575582458</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006974340053951466</v>
+        <v>0.01496630277213695</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01055116729347449</v>
+        <v>0.01210848610139432</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006941874805078897</v>
+        <v>0.01653087628293987</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.007737596830187612</v>
+        <v>0.01033001815510755</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007866168638538942</v>
+        <v>0.01605937499999998</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02186554088276377</v>
+        <v>0.02420828814715215</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007772765041531816</v>
+        <v>0.01690460526315789</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03621848763555752</v>
+        <v>0.0380865581391967</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00774926672661274</v>
+        <v>0.01605937499999999</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01155093049299388</v>
+        <v>0.01298868792143374</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007636062285586787</v>
+        <v>0.01818396391123386</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.008418935559206343</v>
+        <v>0.01115896306898783</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008652785502392837</v>
+        <v>0.01829214783261183</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02278115726804367</v>
+        <v>0.02536092888396324</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008550041545684997</v>
+        <v>0.01833886910343966</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0380865581391967</v>
+        <v>0.04112995393770502</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008548515997437627</v>
+        <v>0.01829214783261183</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01254093117373185</v>
+        <v>0.01387592201999294</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008330249766094677</v>
+        <v>0.01983705153952784</v>
       </c>
       <c r="J77" t="n">
-        <v>0.008772218716773791</v>
+        <v>0.01199599409784558</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00943940236624673</v>
+        <v>0.01995507036284927</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02420828814715215</v>
+        <v>0.02675475892303292</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009319668643489668</v>
+        <v>0.02000603902193417</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0392430938235529</v>
+        <v>0.04415564507807929</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009299120071935289</v>
+        <v>0.01995507036284927</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01352124477553069</v>
+        <v>0.01575746903111482</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009024437246602564</v>
+        <v>0.02149013916782183</v>
       </c>
       <c r="J78" t="n">
-        <v>0.009300691060038155</v>
+        <v>0.01265615215364686</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01022601923010063</v>
+        <v>0.02161799289308671</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0251585826291307</v>
+        <v>0.02855956188024508</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01010459455399136</v>
+        <v>0.02167320894042869</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04052491534549163</v>
+        <v>0.04676268840490472</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01007404674459656</v>
+        <v>0.02161799289308671</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01449194673823269</v>
+        <v>0.01562060958884229</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009718624727110456</v>
+        <v>0.02314322679611582</v>
       </c>
       <c r="J79" t="n">
-        <v>0.009607597346147592</v>
+        <v>0.01342558225646223</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01101263609395452</v>
+        <v>0.02328091542332415</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02588823942724208</v>
+        <v>0.03033637321693894</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01088187105814454</v>
+        <v>0.0233403788589232</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04198395157111895</v>
+        <v>0.04950064415704158</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01084897341725784</v>
+        <v>0.02328091542332415</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01545311250168013</v>
+        <v>0.01645262432721822</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01041281220761835</v>
+        <v>0.02479631442440981</v>
       </c>
       <c r="J80" t="n">
-        <v>0.009996182332250296</v>
+        <v>0.01419042942636223</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01179925295780841</v>
+        <v>0.02494383795356159</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02670608334520141</v>
+        <v>0.03224622839445371</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01165914756229772</v>
+        <v>0.02500754877741772</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04341967280802561</v>
+        <v>0.05261907257335002</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01162390008991911</v>
+        <v>0.02494383795356159</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01640481750571529</v>
+        <v>0.01724079388028552</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01110699968812623</v>
+        <v>0.02644940205270379</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01033001815510755</v>
+        <v>0.01493683868341744</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01228841743034669</v>
+        <v>0.02660676048379903</v>
       </c>
       <c r="L81" t="n">
-        <v>0.02761162410147588</v>
+        <v>0.03405016287412857</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01243642406645091</v>
+        <v>0.02667471869591223</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0450315493638021</v>
+        <v>0.05486753389269022</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01239882676258038</v>
+        <v>0.02660676048379903</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01734713719018048</v>
+        <v>0.01697239888208708</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01180118716863412</v>
+        <v>0.02810248968099778</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01074400637461952</v>
+        <v>0.0157509550476984</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0133724866855162</v>
+        <v>0.02826968301403647</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02880437141453285</v>
+        <v>0.03560921211730272</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01321370057060408</v>
+        <v>0.02834188861440674</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0460190515460393</v>
+        <v>0.05769558835392236</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01317375343524166</v>
+        <v>0.02826968301403647</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01828014699491795</v>
+        <v>0.0196347199666658</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01249537464914201</v>
+        <v>0.02975557730929177</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01121849096129114</v>
+        <v>0.01621892353927565</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0141591035493701</v>
+        <v>0.0299326055442739</v>
       </c>
       <c r="L83" t="n">
-        <v>0.02968383500283955</v>
+        <v>0.03738441158531541</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01399097707475727</v>
+        <v>0.03000905853290126</v>
       </c>
       <c r="N83" t="n">
-        <v>0.04758164966232759</v>
+        <v>0.0600527961959067</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01394868010790293</v>
+        <v>0.0299326055442739</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01920392235977003</v>
+        <v>0.02021503776806456</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0131895621296499</v>
+        <v>0.03140866493758575</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01149361087920324</v>
+        <v>0.01682688917821976</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01494572041322399</v>
+        <v>0.03159552807451135</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03034952458486323</v>
+        <v>0.03883679673950585</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01476825357891045</v>
+        <v>0.03167622845139578</v>
       </c>
       <c r="N84" t="n">
-        <v>0.04891881402025761</v>
+        <v>0.06218871765750333</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0147236067805642</v>
+        <v>0.03159552807451135</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02011853872457897</v>
+        <v>0.01970063292032628</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01388374961015779</v>
+        <v>0.03306175256587975</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01196878986014072</v>
+        <v>0.0174609969846013</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01573233727707788</v>
+        <v>0.03325845060474879</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03110094987907122</v>
+        <v>0.04012740304121326</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01554553008306363</v>
+        <v>0.03334339836989029</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05013001492742014</v>
+        <v>0.0643529129775724</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01549853345322548</v>
+        <v>0.03325845060474879</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02102407152918707</v>
+        <v>0.02107878605749386</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01457793709066568</v>
+        <v>0.03471484019417373</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0122434516358885</v>
+        <v>0.01800739197849079</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01651895414093178</v>
+        <v>0.03492137313498622</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03223762060393071</v>
+        <v>0.04141726595177683</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01632280658721681</v>
+        <v>0.0350105682883848</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05151472269140567</v>
+        <v>0.0661949423949742</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01627346012588675</v>
+        <v>0.03492137313498622</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0219205962134366</v>
+        <v>0.02137014008665888</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01527212457117357</v>
+        <v>0.03636792782246772</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01251701993823147</v>
+        <v>0.01835221917995879</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01730557100478567</v>
+        <v>0.03658429566522366</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03305904647790905</v>
+        <v>0.04226742093253572</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01710008309136999</v>
+        <v>0.03667773820687932</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05297240761980498</v>
+        <v>0.06696436614856888</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01704838679854803</v>
+        <v>0.03658429566522366</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02280818821716987</v>
+        <v>0.01964995257351045</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01596631205168146</v>
+        <v>0.0380210154507617</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01308891849895458</v>
+        <v>0.01850987366333798</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01809218786863957</v>
+        <v>0.03824721819546111</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03346473721947343</v>
+        <v>0.04334785685465553</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01787735959552318</v>
+        <v>0.03834490812537383</v>
       </c>
       <c r="N88" t="n">
-        <v>0.05430254002020862</v>
+        <v>0.06821421002356881</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0178233134712093</v>
+        <v>0.03824721819546111</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02368692298022915</v>
+        <v>0.0219200386194528</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01666049953218935</v>
+        <v>0.03967410307905569</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01325857104984264</v>
+        <v>0.01885548438945836</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01887880473249346</v>
+        <v>0.03991014072569854</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03455420254709124</v>
+        <v>0.04393257995182337</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01865463609967636</v>
+        <v>0.04001207804386835</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0551045902002073</v>
+        <v>0.06881977156852781</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01859824014387058</v>
+        <v>0.03991014072569854</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02455687594245673</v>
+        <v>0.02117848839456789</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01735468701269724</v>
+        <v>0.04132719070734967</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01362540132268066</v>
+        <v>0.01909258782449731</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01966542159634736</v>
+        <v>0.04157306325593598</v>
       </c>
       <c r="L90" t="n">
-        <v>0.03522695217922966</v>
+        <v>0.04449904793077961</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01943191260382954</v>
+        <v>0.04167924796236287</v>
       </c>
       <c r="N90" t="n">
-        <v>0.05617802846739145</v>
+        <v>0.07039396691146138</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01937316681653185</v>
+        <v>0.04157306325593598</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0254181225436949</v>
+        <v>0.02042339206893774</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01804887449320513</v>
+        <v>0.04298027833564366</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01408883304925347</v>
+        <v>0.01931948989867627</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02045203846020125</v>
+        <v>0.04323598578617342</v>
       </c>
       <c r="L91" t="n">
-        <v>0.03578249583435597</v>
+        <v>0.04474326025873404</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02020918910798272</v>
+        <v>0.04334641788085738</v>
       </c>
       <c r="N91" t="n">
-        <v>0.05782232512935187</v>
+        <v>0.07083055005297773</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02014809348919312</v>
+        <v>0.04323598578617342</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.02165283981264432</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01880297268433729</v>
+        <v>0.04463336596393765</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01434828996134599</v>
+        <v>0.01943449654221668</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02123865532405514</v>
+        <v>0.04489890831641086</v>
       </c>
       <c r="L92" t="n">
-        <v>0.03662034323093746</v>
+        <v>0.04556121640289659</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0209864656121359</v>
+        <v>0.04501358779935189</v>
       </c>
       <c r="N92" t="n">
-        <v>0.05873695049367911</v>
+        <v>0.07152327499368527</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0209230201618544</v>
+        <v>0.04489890831641086</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02710371644524331</v>
+        <v>0.02186492179576961</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01943724945422091</v>
+        <v>0.04628645359223164</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01490319579074317</v>
+        <v>0.01973591368534001</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02202527218790904</v>
+        <v>0.0465618308466483</v>
       </c>
       <c r="L93" t="n">
-        <v>0.03754000408744138</v>
+        <v>0.04584891583047712</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02176374211628908</v>
+        <v>0.0466807577178464</v>
       </c>
       <c r="N93" t="n">
-        <v>0.05952137486796394</v>
+        <v>0.07206589573419242</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02169794683451567</v>
+        <v>0.0465618308466483</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02790497616925788</v>
+        <v>0.02105772818839559</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0201314369347288</v>
+        <v>0.04793954122052563</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01515297426922986</v>
+        <v>0.01972204725826771</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02281188905176293</v>
+        <v>0.04822475337688574</v>
       </c>
       <c r="L94" t="n">
-        <v>0.03794098812233498</v>
+        <v>0.04630235800868557</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02254101862044227</v>
+        <v>0.04834792763634092</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06097506855979673</v>
+        <v>0.07325216627510739</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02247287350717694</v>
+        <v>0.04822475337688574</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02867974876040982</v>
+        <v>0.02322934916060422</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02082562441523669</v>
+        <v>0.04959262884881961</v>
       </c>
       <c r="J95" t="n">
-        <v>0.015497049128591</v>
+        <v>0.01989120319122119</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02359850591561683</v>
+        <v>0.04988767590712318</v>
       </c>
       <c r="L95" t="n">
-        <v>0.03882280505408561</v>
+        <v>0.0466175424047317</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02331829512459544</v>
+        <v>0.05001509755483544</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06209750187676849</v>
+        <v>0.07407584061703848</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02324780017983822</v>
+        <v>0.04988767590712318</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02943337098549906</v>
+        <v>0.02137787488247751</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02151981189574458</v>
+        <v>0.0512457164771136</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01593484410061145</v>
+        <v>0.02004168741442193</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02438512277947072</v>
+        <v>0.05155059843736062</v>
       </c>
       <c r="L96" t="n">
-        <v>0.03948496460116047</v>
+        <v>0.04729046848582547</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02409557162874863</v>
+        <v>0.05168226747332996</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06288814512646951</v>
+        <v>0.07413067276059415</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02402272685249949</v>
+        <v>0.05155059843736062</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03017117961132551</v>
+        <v>0.02250139552409743</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02221399937625247</v>
+        <v>0.05289880410540759</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01616578291707615</v>
+        <v>0.02017180585809136</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02517173964332461</v>
+        <v>0.05321352096759806</v>
       </c>
       <c r="L97" t="n">
-        <v>0.03992697648202687</v>
+        <v>0.0473171357191767</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02487284813290181</v>
+        <v>0.05334943739182446</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06424646861649053</v>
+        <v>0.07511041670638263</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02479765352516077</v>
+        <v>0.05321352096759806</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03089851140468913</v>
+        <v>0.02159800125554595</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02290818685676036</v>
+        <v>0.05455189173370158</v>
       </c>
       <c r="J98" t="n">
-        <v>0.01658928930977001</v>
+        <v>0.02027986445245095</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02595835650717851</v>
+        <v>0.05487644349783549</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04064835041515211</v>
+        <v>0.04779354357199525</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02565012463705499</v>
+        <v>0.05501660731031898</v>
       </c>
       <c r="N98" t="n">
-        <v>0.06477194265442227</v>
+        <v>0.07480882645501225</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02557258019782204</v>
+        <v>0.05487644349783549</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03162070313238986</v>
+        <v>0.02366578224690508</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02360237433726825</v>
+        <v>0.05620497936199556</v>
       </c>
       <c r="J99" t="n">
-        <v>0.01690478701047791</v>
+        <v>0.02036416912772214</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0267449733710324</v>
+        <v>0.05653936602807294</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04114859611900334</v>
+        <v>0.04801569151149107</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02642740114120817</v>
+        <v>0.05668377722881349</v>
       </c>
       <c r="N99" t="n">
-        <v>0.06586403754785525</v>
+        <v>0.07511965600709142</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02634750687048331</v>
+        <v>0.05653936602807294</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03234309156122761</v>
+        <v>0.02370952772806099</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02429656181777614</v>
+        <v>0.05785806699028955</v>
       </c>
       <c r="J100" t="n">
-        <v>0.01721169975098477</v>
+        <v>0.02052302581412635</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0275315902348863</v>
+        <v>0.05820228855831037</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04172722331204795</v>
+        <v>0.04827957900487392</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02720467764536136</v>
+        <v>0.05835094714730801</v>
       </c>
       <c r="N100" t="n">
-        <v>0.06622222360438018</v>
+        <v>0.07543665936322841</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02712243354314459</v>
+        <v>0.05820228855831037</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03307101345800231</v>
+        <v>0.02170841789493683</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02499074929828403</v>
+        <v>0.05951115461858354</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0175094512630755</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02831820709874019</v>
+        <v>0.05986521108854781</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04238374171275316</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02798195414951454</v>
+        <v>0.06001811706580253</v>
       </c>
       <c r="N101" t="n">
-        <v>0.06754597113158761</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02789736021580587</v>
+        <v>0.05986521108854781</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03380980558951389</v>
+        <v>0.02369445058202574</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02568493677879192</v>
+        <v>0.06116424224687753</v>
       </c>
       <c r="J102" t="n">
-        <v>0.01769746527853498</v>
+        <v>0.02045886998798797</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02910482396259409</v>
+        <v>0.06152813361878526</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04301766103958626</v>
+        <v>0.04801657052214042</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02875923065366772</v>
+        <v>0.06168528698429704</v>
       </c>
       <c r="N102" t="n">
-        <v>0.06843475043706826</v>
+        <v>0.07606881607304578</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02867228688846713</v>
+        <v>0.06152813361878526</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03456480472256229</v>
+        <v>0.02366526682606378</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02637912425929981</v>
+        <v>0.06281732987517151</v>
       </c>
       <c r="J103" t="n">
-        <v>0.01787516552914814</v>
+        <v>0.02044608810714273</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02989144082644798</v>
+        <v>0.06319105614902269</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04352849101101453</v>
+        <v>0.04830012175503898</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0295365071578209</v>
+        <v>0.06335245690279155</v>
       </c>
       <c r="N103" t="n">
-        <v>0.06888803182841263</v>
+        <v>0.07602168954910066</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02944721356112841</v>
+        <v>0.06319105614902269</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03534134762394744</v>
+        <v>0.0236218731624942</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02707331173980769</v>
+        <v>0.06447041750346549</v>
       </c>
       <c r="J104" t="n">
-        <v>0.01834197574669987</v>
+        <v>0.02041992606944878</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03067805769030188</v>
+        <v>0.06485397867926013</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04421574134550518</v>
+        <v>0.04795128859844772</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03031378366197408</v>
+        <v>0.06501962682128606</v>
       </c>
       <c r="N104" t="n">
-        <v>0.06990528561321152</v>
+        <v>0.07552523067025751</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03022214023378969</v>
+        <v>0.06485397867926013</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03614477106046927</v>
+        <v>0.02356527612676024</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02776749922031559</v>
+        <v>0.06612350513175949</v>
       </c>
       <c r="J105" t="n">
-        <v>0.01849731966297509</v>
+        <v>0.02058127669853368</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03146467455415577</v>
+        <v>0.06651690120949758</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0444789217615256</v>
+        <v>0.0480721823901287</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03109106016612726</v>
+        <v>0.06668679673978058</v>
       </c>
       <c r="N105" t="n">
-        <v>0.06998598209905543</v>
+        <v>0.07528273125832052</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03099706690645096</v>
+        <v>0.06651690120949758</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03734391969784558</v>
+        <v>0.02249648225430512</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02875456057028107</v>
+        <v>0.06777659276005348</v>
       </c>
       <c r="J106" t="n">
-        <v>0.01864062100975866</v>
+        <v>0.02033103281802498</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03225129141800966</v>
+        <v>0.06817982373973501</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04481754197754292</v>
+        <v>0.04816491152623126</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03186833667028045</v>
+        <v>0.06835396665827509</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07072959159353515</v>
+        <v>0.07519748313509361</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03177199357911223</v>
+        <v>0.06817982373973501</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03787264003641368</v>
+        <v>0.02341649808057207</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02915587418133136</v>
+        <v>0.06942968038834746</v>
       </c>
       <c r="J107" t="n">
-        <v>0.01907130351883556</v>
+        <v>0.02037008725155026</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03303790828186356</v>
+        <v>0.06984274626997244</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04523111171202449</v>
+        <v>0.04773158440290476</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03264561317443362</v>
+        <v>0.0700211365767696</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07143558440424108</v>
+        <v>0.0754727781223809</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0325469202517735</v>
+        <v>0.06984274626997244</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0388937739197333</v>
+        <v>0.02332633014100437</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02985006166183926</v>
+        <v>0.07108276801664144</v>
       </c>
       <c r="J108" t="n">
-        <v>0.01928879092199062</v>
+        <v>0.02019933282273706</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03382452514571745</v>
+        <v>0.07150566880020989</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04571914068343755</v>
+        <v>0.04767430941629855</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03342288967858681</v>
+        <v>0.07168830649526413</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07200343083876398</v>
+        <v>0.07461190804198647</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03332184692443478</v>
+        <v>0.07150566880020989</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04001779065051173</v>
+        <v>0.02122698497104522</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03054424914234715</v>
+        <v>0.07273585564493544</v>
       </c>
       <c r="J109" t="n">
-        <v>0.01949250695100879</v>
+        <v>0.02031966235521299</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03461114200957135</v>
+        <v>0.07316859133044733</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04618113861024942</v>
+        <v>0.04729519496256201</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03420016618273999</v>
+        <v>0.07335547641375864</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07303260120469446</v>
+        <v>0.07421816471571424</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03409677359709605</v>
+        <v>0.07316859133044733</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04120726173823723</v>
+        <v>0.02211946910613788</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03123843662285504</v>
+        <v>0.07438894327322942</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01958187533767494</v>
+        <v>0.02013196867260553</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03539775887342524</v>
+        <v>0.07483151386068476</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04621661521092729</v>
+        <v>0.04749634943784453</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03497744268689316</v>
+        <v>0.07502264633225315</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07312256580962329</v>
+        <v>0.07419483996536835</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03487170026975733</v>
+        <v>0.07483151386068476</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04242475869239819</v>
+        <v>0.02300478908172555</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03193262410336293</v>
+        <v>0.07604203090152341</v>
       </c>
       <c r="J111" t="n">
-        <v>0.01965631981377403</v>
+        <v>0.0199371445985423</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03618437573727914</v>
+        <v>0.07649443639092221</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04672508020393851</v>
+        <v>0.04707988123829546</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03575471919104636</v>
+        <v>0.07668981625074767</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07337279496114096</v>
+        <v>0.07364522561275283</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0356466269424186</v>
+        <v>0.07649443639092221</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04363285302248285</v>
+        <v>0.02088395143325152</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03262681158387081</v>
+        <v>0.07769511852981741</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0199152641110909</v>
+        <v>0.01993608295665086</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03697099260113303</v>
+        <v>0.07815735892115964</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04690604330775031</v>
+        <v>0.04684789876006415</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03653199569519953</v>
+        <v>0.07835698616924218</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07438275896683799</v>
+        <v>0.07317261347967169</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03642155361507987</v>
+        <v>0.07815735892115964</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04479411623797953</v>
+        <v>0.021757962696159</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03332099906437871</v>
+        <v>0.07934820615811138</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0199581319614105</v>
+        <v>0.01992967657055875</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03775760946498692</v>
+        <v>0.07982028145139708</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04715901424082999</v>
+        <v>0.04640251039929999</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03730927219935271</v>
+        <v>0.08002415608773669</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07455192813430528</v>
+        <v>0.07288029538792906</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03719648028774115</v>
+        <v>0.07982028145139708</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04587111984837657</v>
+        <v>0.02062782940589121</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0340151865448866</v>
+        <v>0.08100129378640536</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02018434709651772</v>
+        <v>0.01961881826389354</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03854422632884082</v>
+        <v>0.08148320398163453</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04768350272164482</v>
+        <v>0.04634582455215236</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0380865487035059</v>
+        <v>0.0816913260062312</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07477977277113323</v>
+        <v>0.07267156315932882</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03797140696040242</v>
+        <v>0.08148320398163453</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04682643536316222</v>
+        <v>0.02049455809789141</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03470937402539448</v>
+        <v>0.08265438141469934</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02029333324819745</v>
+        <v>0.01950440086028281</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03933084319269471</v>
+        <v>0.08314612651187196</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04747901846866201</v>
+        <v>0.04587994961477057</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03886382520765908</v>
+        <v>0.08335849592472573</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07486576318491267</v>
+        <v>0.07194970861567529</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0387463336330637</v>
+        <v>0.08314612651187196</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04762263429182484</v>
+        <v>0.02035915530760285</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03540356150590238</v>
+        <v>0.08430746904299334</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02048451414823461</v>
+        <v>0.01958731718335409</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04011746005654861</v>
+        <v>0.08480904904210941</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04794507120034888</v>
+        <v>0.04560699398330403</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03964110171181226</v>
+        <v>0.08502566584322024</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07540936968323403</v>
+        <v>0.07151802357877224</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03952126030572498</v>
+        <v>0.08480904904210941</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0482222881438527</v>
+        <v>0.02022262757046873</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03609774898641026</v>
+        <v>0.08596055667128732</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02035731352841411</v>
+        <v>0.01926846005673494</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0409040769204025</v>
+        <v>0.08647197157234685</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04798117063517268</v>
+        <v>0.04552906605390217</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04041837821596544</v>
+        <v>0.08669283576171476</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07521006257368812</v>
+        <v>0.0714797998704238</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04029618697838624</v>
+        <v>0.08647197157234685</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04860290322432206</v>
+        <v>0.02008598142193233</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03679193646691815</v>
+        <v>0.08761364429958131</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02051115512052085</v>
+        <v>0.01914872230405296</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0416906937842564</v>
+        <v>0.08813489410258428</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04798682649160074</v>
+        <v>0.04514827422271422</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04119565472011862</v>
+        <v>0.08836000568020927</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07526731216386545</v>
+        <v>0.0709383293124341</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04107111365104752</v>
+        <v>0.08813489410258428</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04892365036841807</v>
+        <v>0.02195022339743685</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03748612394742604</v>
+        <v>0.08926673192787531</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0206600363102151</v>
+        <v>0.01902899674893568</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04247731064811028</v>
+        <v>0.08979781663282173</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04826154848810027</v>
+        <v>0.04476672688588962</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0419729312242718</v>
+        <v>0.09002717559870378</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07578058876135663</v>
+        <v>0.07089690372660712</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0418460403237088</v>
+        <v>0.08979781663282173</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0492372197641502</v>
+        <v>0.0208149836607824</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03818031142793393</v>
+        <v>0.09091981955616929</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02065965986765562</v>
+        <v>0.01911017621501067</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04326392751196419</v>
+        <v>0.09146073916305916</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04841657629430426</v>
+        <v>0.04468653243957774</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04275020772842499</v>
+        <v>0.09169434551719831</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0761731162783934</v>
+        <v>0.06995881493474687</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04262096699637007</v>
+        <v>0.09146073916305916</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0495436171807708</v>
+        <v>0.01966365004290305</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03887449890844182</v>
+        <v>0.09257290718446327</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02055791648114208</v>
+        <v>0.01889063261893553</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04405054437581808</v>
+        <v>0.0931236616932966</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04801636291870226</v>
+        <v>0.04460947676812982</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04352748423257816</v>
+        <v>0.09336151543569281</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07607310420864338</v>
+        <v>0.06941806022805419</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04339589366903134</v>
+        <v>0.0931236616932966</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04984284838753221</v>
+        <v>0.01949362756147613</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03956868638894971</v>
+        <v>0.09422599481275726</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02044956741394535</v>
+        <v>0.0186553012821386</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04483716123967197</v>
+        <v>0.09478658422353405</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04810363720097496</v>
+        <v>0.04430692554517651</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04430476073673135</v>
+        <v>0.09502868535418733</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0754539539283704</v>
+        <v>0.06911909645571823</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04417082034169262</v>
+        <v>0.09478658422353405</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05013491915368677</v>
+        <v>0.01930819562929212</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0402628738694576</v>
+        <v>0.09587908244105126</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02063509465425573</v>
+        <v>0.01850393921792574</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04562377810352587</v>
+        <v>0.09644950675377148</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04837175085569959</v>
+        <v>0.04356412919466099</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04508203724088453</v>
+        <v>0.09669585527268185</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07539568772393651</v>
+        <v>0.06866102773094435</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04494574701435389</v>
+        <v>0.09644950675377148</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05041983524848685</v>
+        <v>0.02111063365914155</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04095706134996549</v>
+        <v>0.09753217006934524</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02041472240529414</v>
+        <v>0.01833945535239942</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04641039496737976</v>
+        <v>0.09811242928400891</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04802139971008584</v>
+        <v>0.04328795712326544</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04585931374503771</v>
+        <v>0.09836302519117635</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07579989909027685</v>
+        <v>0.06835457920265886</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04572067368701516</v>
+        <v>0.09811242928400891</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05069760244118481</v>
+        <v>0.02090422106381491</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04165124883047339</v>
+        <v>0.09918525769763922</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02048867487028154</v>
+        <v>0.0182647586116621</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04719701183123366</v>
+        <v>0.09977535181424636</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04815327959134336</v>
+        <v>0.04318527873767219</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04663659024919089</v>
+        <v>0.1000301951096709</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07566818022774158</v>
+        <v>0.06721047601978775</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04649560035967644</v>
+        <v>0.09977535181424636</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05096822650103296</v>
+        <v>0.02069223725610272</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04234543631098127</v>
+        <v>0.1008383453259332</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02055717625243886</v>
+        <v>0.01818275792181626</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04798362869508755</v>
+        <v>0.1014382743444838</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0479680863266817</v>
+        <v>0.04256296344456345</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04741386675334407</v>
+        <v>0.1016973650281654</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07500212333668071</v>
+        <v>0.06703944333125755</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04727052703233772</v>
+        <v>0.1014382743444838</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05123171319728366</v>
+        <v>0.01847796164879549</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04303962379148916</v>
+        <v>0.1024914329542272</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02052045075498701</v>
+        <v>0.01799636220896433</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04877024555894144</v>
+        <v>0.1031011968747212</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04786651574331052</v>
+        <v>0.04192788065062147</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04819114325749726</v>
+        <v>0.1033645349466599</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07490332061744448</v>
+        <v>0.06575220628599432</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04804545370499898</v>
+        <v>0.1031011968747212</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05148806829918928</v>
+        <v>0.02026467365468372</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04373381127199705</v>
+        <v>0.1041445205825212</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02037872258114695</v>
+        <v>0.01770848039920882</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04955686242279534</v>
+        <v>0.1047641194049587</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04774926366843946</v>
+        <v>0.0415868997625285</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04896841976165044</v>
+        <v>0.1050317048651544</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07507336427038275</v>
+        <v>0.06565949003292432</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04882038037766026</v>
+        <v>0.1047641194049587</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05173729757600215</v>
+        <v>0.01805565268655791</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04442799875250494</v>
+        <v>0.1057976082108152</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0202322159341396</v>
+        <v>0.01742202141865218</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05034347928664923</v>
+        <v>0.1064270419351961</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04761702592927811</v>
+        <v>0.04124689018696673</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04974569626580362</v>
+        <v>0.1066988747836489</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07501384649584575</v>
+        <v>0.06467201972097386</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04959530705032154</v>
+        <v>0.1064270419351961</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05197940679697462</v>
+        <v>0.01985417815720859</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04512218623301283</v>
+        <v>0.1074506958391092</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02038115501718593</v>
+        <v>0.01733989419339689</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05113009615050312</v>
+        <v>0.1080899644654336</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04727049835303612</v>
+        <v>0.04091472133061852</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0505229727699568</v>
+        <v>0.1083660447021434</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07472635949418355</v>
+        <v>0.06410052049906911</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05037023372298281</v>
+        <v>0.1080899644654336</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05221440173135904</v>
+        <v>0.01966102923746652</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04581637371352072</v>
+        <v>0.1091037834674032</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02032576403350685</v>
+        <v>0.01726500764954539</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05191671301435702</v>
+        <v>0.109752886995671</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04711037676692309</v>
+        <v>0.04039726260016599</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05130024927410998</v>
+        <v>0.110033214620638</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07391249546574619</v>
+        <v>0.06295571751613638</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05114516039564408</v>
+        <v>0.109752886995671</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05244228814840775</v>
+        <v>0.01845374404509728</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04651056119402861</v>
+        <v>0.1107568710956971</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02006626718632327</v>
+        <v>0.01699489303494232</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05270332987821091</v>
+        <v>0.1114158095259084</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04693735699814866</v>
+        <v>0.03999910438587442</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05207752577826317</v>
+        <v>0.1117003845391325</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07377384661088376</v>
+        <v>0.06262850853526897</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05192008706830536</v>
+        <v>0.1114158095259084</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05266307181737311</v>
+        <v>0.01822994636327606</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04720474867453649</v>
+        <v>0.1124099587239911</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02000288867885619</v>
+        <v>0.01670969534673462</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05348994674206481</v>
+        <v>0.1130787320561459</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04695213487392247</v>
+        <v>0.03977695326333719</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05285480228241634</v>
+        <v>0.113367554457627</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07371200512994647</v>
+        <v>0.06174568858149387</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05269501374096663</v>
+        <v>0.1130787320561459</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05287675850750746</v>
+        <v>0.01899433067237315</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04789893615504439</v>
+        <v>0.1140630463522851</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02013585271432648</v>
+        <v>0.0166108505532708</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0542765636059187</v>
+        <v>0.1147416545863833</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04665540622145412</v>
+        <v>0.03901937482100726</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05363207878656952</v>
+        <v>0.1150347243761215</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0726285632232842</v>
+        <v>0.06151255203969674</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0534699404136279</v>
+        <v>0.1147416545863833</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05308335398806317</v>
+        <v>0.0167515914527589</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04859312363555228</v>
+        <v>0.1157161339805791</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02006538349595513</v>
+        <v>0.0164025227831187</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0550631804697726</v>
+        <v>0.1164045771166207</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04674786686795318</v>
+        <v>0.0388362026165627</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05440935529072272</v>
+        <v>0.116701894294616</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07282511309124717</v>
+        <v>0.06074445196370759</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05424486708628917</v>
+        <v>0.1164045771166207</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05328286402829256</v>
+        <v>0.01750642318480361</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04928731111606016</v>
+        <v>0.1173692216088731</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01989170522696306</v>
+        <v>0.01618887616484616</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05584979733362649</v>
+        <v>0.1180674996468582</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04653021264062934</v>
+        <v>0.03833727020768157</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05518663179487589</v>
+        <v>0.1183690642131105</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07180324693418538</v>
+        <v>0.06005674140735617</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05501979375895045</v>
+        <v>0.1180674996468582</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.053475294397448</v>
+        <v>0.0172635203488776</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04998149859656806</v>
+        <v>0.1190223092371671</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01981504211057118</v>
+        <v>0.01587407482702106</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05663641419748039</v>
+        <v>0.1197304221770956</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04590313936669224</v>
+        <v>0.03743241115204191</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05596390829902907</v>
+        <v>0.1200362341316051</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07136455695244898</v>
+        <v>0.05906477342447247</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05579472043161173</v>
+        <v>0.1197304221770956</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05366065086478181</v>
+        <v>0.0170275774253512</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05067568607707595</v>
+        <v>0.1206753968654611</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01963561835000045</v>
+        <v>0.01566228289821123</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05742303106133428</v>
+        <v>0.1213933447073331</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04586734287335148</v>
+        <v>0.03713145900732173</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05674118480318226</v>
+        <v>0.1217034040500996</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07101063534638802</v>
+        <v>0.0577839010688862</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05656964710427299</v>
+        <v>0.1213933447073331</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05383893919954637</v>
+        <v>0.01580328889459473</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05136987355758384</v>
+        <v>0.1223284844937551</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01975365814847183</v>
+        <v>0.01555766450698458</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05820964792518817</v>
+        <v>0.1230562672375705</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04552351898781665</v>
+        <v>0.03684424733119906</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05751846130733543</v>
+        <v>0.1233705739685941</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07064307431635264</v>
+        <v>0.05702947739442732</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05734457377693427</v>
+        <v>0.1230562672375705</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05401016517099402</v>
+        <v>0.0175953492369785</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05206406103809173</v>
+        <v>0.123981572122049</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01946938570920619</v>
+        <v>0.01526438378190891</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05899626478904206</v>
+        <v>0.1247191897678079</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0453723635372974</v>
+        <v>0.03628060968135194</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05829573781148861</v>
+        <v>0.1250377438870886</v>
       </c>
       <c r="N140" t="n">
-        <v>0.06996346606269288</v>
+        <v>0.05651685545492563</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05811950044959555</v>
+        <v>0.1247191897678079</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0541743345483771</v>
+        <v>0.01740845293287283</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05275824851859962</v>
+        <v>0.125634659750343</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01958302523542452</v>
+        <v>0.0152866048515521</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05978288165289597</v>
+        <v>0.1263821122980454</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04521457234900336</v>
+        <v>0.03565037961545844</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0590730143156418</v>
+        <v>0.1267049138055831</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06977340278575878</v>
+        <v>0.05626138830421096</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05889442712225681</v>
+        <v>0.1263821122980454</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05433145310094795</v>
+        <v>0.01724729446264805</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0534524359991075</v>
+        <v>0.127287747378637</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01929480093034773</v>
+        <v>0.01492849184448199</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06056949851674986</v>
+        <v>0.1280450348282828</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04495084125014412</v>
+        <v>0.03526339069119655</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05985029081979498</v>
+        <v>0.1283720837240776</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0690744766859005</v>
+        <v>0.05537842899611317</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05966935379491809</v>
+        <v>0.1280450348282828</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05448152659795893</v>
+        <v>0.01711656830667446</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05414662347961539</v>
+        <v>0.128940835006931</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01920493699719678</v>
+        <v>0.01499420888926647</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06135611538060375</v>
+        <v>0.1297079573585203</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04468186606792934</v>
+        <v>0.03492947646624434</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06062756732394816</v>
+        <v>0.1300392536425721</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06906827996346804</v>
+        <v>0.05488333058446221</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06044428046757937</v>
+        <v>0.1297079573585203</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05462456080866239</v>
+        <v>0.0160209689453224</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05484081096012329</v>
+        <v>0.130593922635225</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01911365763919258</v>
+        <v>0.01478792011447334</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06214273224445764</v>
+        <v>0.1313708798887577</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04430834262956862</v>
+        <v>0.03495847049827977</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06140484382810134</v>
+        <v>0.1317064235610666</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06825640481881162</v>
+        <v>0.05459144612308781</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06121920714024064</v>
+        <v>0.1313708798887577</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05476056150231068</v>
+        <v>0.01596519085896218</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05553499844063117</v>
+        <v>0.132247010263519</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0192211870595561</v>
+        <v>0.01481378964867051</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06292934910831154</v>
+        <v>0.1330338024189952</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04393096676227159</v>
+        <v>0.03476020634498098</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06218212033225453</v>
+        <v>0.1333735934795612</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06754044345228122</v>
+        <v>0.05391812866581996</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06199413381290192</v>
+        <v>0.1330338024189952</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05488953444815615</v>
+        <v>0.01695254503802188</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05622918592113906</v>
+        <v>0.133900097891813</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01892774946150823</v>
+        <v>0.01457598162042582</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06371596597216544</v>
+        <v>0.1346967249492326</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04395043429324788</v>
+        <v>0.03464451756402595</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06295939683640771</v>
+        <v>0.1350407633980557</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06752198806422693</v>
+        <v>0.05437873126648846</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06276906048556319</v>
+        <v>0.1346967249492326</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05501148541545113</v>
+        <v>0.01495773959719367</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05692337340164696</v>
+        <v>0.135553185520107</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01883356904826995</v>
+        <v>0.01477288135047142</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06450258283601933</v>
+        <v>0.13635964747947</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0434674410497071</v>
+        <v>0.03441833946390641</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06373667334056089</v>
+        <v>0.1367079333165502</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06710263085499885</v>
+        <v>0.05426730063683283</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06354398715822446</v>
+        <v>0.13635964747947</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05512642017344799</v>
+        <v>0.01696949896907869</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05761756088215484</v>
+        <v>0.1372062731484009</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01893887002306216</v>
+        <v>0.01457923274325591</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06528919969987322</v>
+        <v>0.1380225700097075</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04298268285885889</v>
+        <v>0.03432914189425512</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06451394984471408</v>
+        <v>0.1383751032350447</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06618396402494708</v>
+        <v>0.05399071808750139</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06431891383088574</v>
+        <v>0.1380225700097075</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05523434449139905</v>
+        <v>0.01698747820496941</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05831174836266273</v>
+        <v>0.1388593607766949</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01884387658910583</v>
+        <v>0.01459127860722551</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06607581656372712</v>
+        <v>0.1396854925399449</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0427968555479129</v>
+        <v>0.03425357105432414</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06529122634886725</v>
+        <v>0.1400422731535392</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06546757977442175</v>
+        <v>0.05403513093281542</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06509384050354701</v>
+        <v>0.1396854925399449</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05533526413855672</v>
+        <v>0.01501133235615824</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05900593584317063</v>
+        <v>0.1405124484049889</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01864881294962187</v>
+        <v>0.01460871296372984</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06686243342758101</v>
+        <v>0.1413484150701823</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04251065494407869</v>
+        <v>0.03459090437787726</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06606850285302043</v>
+        <v>0.1417094430720337</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06515507030377282</v>
+        <v>0.05399941103597222</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06586876717620828</v>
+        <v>0.1413484150701823</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05542918488417327</v>
+        <v>0.01604071647393764</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05970012332367852</v>
+        <v>0.1421655360332829</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01855390330783123</v>
+        <v>0.01463122983411862</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06764905029143491</v>
+        <v>0.1430113376004198</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04212477687456587</v>
+        <v>0.0345404192986784</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06684577935717362</v>
+        <v>0.1433766129905283</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06474802781335037</v>
+        <v>0.05438243026016887</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06664369384886956</v>
+        <v>0.1430113376004198</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05551611249750109</v>
+        <v>0.01607528560960005</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0603943108041864</v>
+        <v>0.1438186236615769</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01845937186695484</v>
+        <v>0.01475852323974153</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0684356671552888</v>
+        <v>0.1446742601306572</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04203991716658415</v>
+        <v>0.03460139325049141</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06762305586132679</v>
+        <v>0.1450437829090228</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06424804450350463</v>
+        <v>0.05468306046860283</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06741862052153084</v>
+        <v>0.1446742601306572</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05559605274779253</v>
+        <v>0.01511469481443789</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06108849828469429</v>
+        <v>0.1454717112898709</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01846544283021365</v>
+        <v>0.0146902872019483</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0692222840191427</v>
+        <v>0.1463371826608947</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04175677164734309</v>
+        <v>0.03487310366708019</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06840033236547997</v>
+        <v>0.1467109528275173</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06375671257458565</v>
+        <v>0.05430017352447103</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0681935471941921</v>
+        <v>0.1463371826608947</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05566901140429993</v>
+        <v>0.01715859913974361</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06178268576520218</v>
+        <v>0.1471247989181649</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01827234040082856</v>
+        <v>0.01482621574208857</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07000890088299659</v>
+        <v>0.1480001051911321</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04127603614405231</v>
+        <v>0.03455482798220855</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06917760886963316</v>
+        <v>0.1483781227460118</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06357562422694346</v>
+        <v>0.05493264129097086</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06896847386685338</v>
+        <v>0.1480001051911321</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05573499423627563</v>
+        <v>0.01720665363680965</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06247687324571007</v>
+        <v>0.1487778865464588</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01808028878202055</v>
+        <v>0.01496600288151208</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07079551774685049</v>
+        <v>0.1496630277213695</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04119840648392151</v>
+        <v>0.03504584362964042</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06995488537378633</v>
+        <v>0.1500452926645063</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06280637166092812</v>
+        <v>0.0551793356312994</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06974340053951467</v>
+        <v>0.1496630277213695</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05579400701297199</v>
+        <v>0.01725851335692845</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06317106072621796</v>
+        <v>0.1504309741747528</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01818951217701054</v>
+        <v>0.01490934264156851</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07158213461070437</v>
+        <v>0.151325950251607</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04102457849416019</v>
+        <v>0.03494542804313963</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07073216187793953</v>
+        <v>0.1517124625830008</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06255054707688978</v>
+        <v>0.05503912840865394</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07051832721217592</v>
+        <v>0.151325950251607</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05584605550364136</v>
+        <v>0.01731383335139243</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06386524820672586</v>
+        <v>0.1520840618030468</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01800023478901944</v>
+        <v>0.01485592904360754</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07236875147455828</v>
+        <v>0.1529888727818444</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04065524800197806</v>
+        <v>0.03525285865647007</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07150943838209271</v>
+        <v>0.1533796325014953</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06210974267517844</v>
+        <v>0.05531089148623175</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0712932538848372</v>
+        <v>0.1529888727818444</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05589114547753608</v>
+        <v>0.01637623381734871</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06455943568723374</v>
+        <v>0.1537371494313408</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01801110217798464</v>
+        <v>0.01500545610897885</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07315536833841217</v>
+        <v>0.1546517953120818</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04048571271643009</v>
+        <v>0.03496741290339558</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07228671488624588</v>
+        <v>0.1550468024199898</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06158098881563401</v>
+        <v>0.05549349672722986</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07206818055749849</v>
+        <v>0.1546517953120818</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0559292827039085</v>
+        <v>0.01648592577920951</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06525362316774162</v>
+        <v>0.1553902370596348</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01791960799162499</v>
+        <v>0.01497155276026511</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07394198520226607</v>
+        <v>0.1563147178423193</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04020731084238013</v>
+        <v>0.03550175329954131</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07306399139039907</v>
+        <v>0.1567139723384844</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06065681269540268</v>
+        <v>0.0558371936805383</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07284310723015974</v>
+        <v>0.1563147178423193</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.055960472952011</v>
+        <v>0.01564523114870982</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06594781064824952</v>
+        <v>0.1570433246879288</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01772576828379455</v>
+        <v>0.01528522520773963</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07472860206611995</v>
+        <v>0.1579776403725567</v>
       </c>
       <c r="L160" t="n">
-        <v>0.03982021460741469</v>
+        <v>0.0353399109204918</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07384126789455225</v>
+        <v>0.1583811422569789</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06043640590808685</v>
+        <v>0.05595630158669646</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07361803390282103</v>
+        <v>0.1579776403725567</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05598472199109587</v>
+        <v>0.01784373675693176</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06664199812875742</v>
+        <v>0.1586964123162228</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01752963929352967</v>
+        <v>0.0154391450001452</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07551521892997384</v>
+        <v>0.1596405629027942</v>
       </c>
       <c r="L161" t="n">
-        <v>0.03932474453153051</v>
+        <v>0.03577864958140961</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07461854439870542</v>
+        <v>0.1600483121754734</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06021908092247102</v>
+        <v>0.05642380060114199</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07439296057548231</v>
+        <v>0.1596405629027942</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0560020355904155</v>
+        <v>0.01807102943495738</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0673361856092653</v>
+        <v>0.1603494999445167</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01763127725986673</v>
+        <v>0.01542407538053488</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07630183579382774</v>
+        <v>0.1613034854330316</v>
       </c>
       <c r="L162" t="n">
-        <v>0.03942122113472418</v>
+        <v>0.03649615675160156</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07539582090285861</v>
+        <v>0.1617154820939679</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05940415020733963</v>
+        <v>0.05730563499665392</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07516788724814356</v>
+        <v>0.1613034854330316</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05601241951922221</v>
+        <v>0.01831669601386884</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06803037308977319</v>
+        <v>0.1620025875728107</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01743073842184198</v>
+        <v>0.01563077959196173</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07708845265768165</v>
+        <v>0.1629664079632691</v>
       </c>
       <c r="L163" t="n">
-        <v>0.03890996493699236</v>
+        <v>0.03687061990037485</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07617309740701179</v>
+        <v>0.1633826520124624</v>
       </c>
       <c r="N163" t="n">
-        <v>0.05969092623147682</v>
+        <v>0.05766774904601141</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07594281392080485</v>
+        <v>0.1629664079632691</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05601587954676839</v>
+        <v>0.01657032332474821</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06872456057028108</v>
+        <v>0.1636556752011047</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01732807901849188</v>
+        <v>0.01605002087747873</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07787506952153553</v>
+        <v>0.1646293304935065</v>
       </c>
       <c r="L164" t="n">
-        <v>0.03859129645833181</v>
+        <v>0.03748022649703636</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07695037391116497</v>
+        <v>0.1650498219309569</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0586787214636672</v>
+        <v>0.05867608702199323</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07671774059346613</v>
+        <v>0.1646293304935065</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05601587954676837</v>
+        <v>0.01682149819867759</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06872456057028108</v>
+        <v>0.1653087628293987</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01722335528885272</v>
+        <v>0.01617256248013893</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07866168638538942</v>
+        <v>0.1662922530237439</v>
       </c>
       <c r="L165" t="n">
-        <v>0.03816553621873908</v>
+        <v>0.03790316401089311</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07772765041531815</v>
+        <v>0.1667169918494515</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0586668483726952</v>
+        <v>0.05949659319737854</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0774926672661274</v>
+        <v>0.1662922530237439</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0550711807372794</v>
+        <v>0.0180598074667391</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06872429204181707</v>
+        <v>0.1669618504576927</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01711662347196083</v>
+        <v>0.0163891676429954</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07944830324924332</v>
+        <v>0.1679551755539814</v>
       </c>
       <c r="L166" t="n">
-        <v>0.03803300473821092</v>
+        <v>0.03811761991125207</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07850492691947134</v>
+        <v>0.168384161767946</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0578546194273451</v>
+        <v>0.06029521184494629</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07826759393878867</v>
+        <v>0.1679551755539814</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05413707691627033</v>
+        <v>0.01727483796001483</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06872402351335305</v>
+        <v>0.1686149380859867</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01710793980685259</v>
+        <v>0.01659059960910114</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08023492011309721</v>
+        <v>0.1696180980842188</v>
       </c>
       <c r="L167" t="n">
-        <v>0.03769402253674392</v>
+        <v>0.03870178166742033</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07928220342362452</v>
+        <v>0.1700513316864405</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05734134709640137</v>
+        <v>0.06083788723747563</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07904252061144995</v>
+        <v>0.1696180980842188</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05321406954973695</v>
+        <v>0.01945998556172102</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06872375498488903</v>
+        <v>0.1702680257142807</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01689736053256431</v>
+        <v>0.01676762162150919</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08102153697695111</v>
+        <v>0.1712810206144562</v>
       </c>
       <c r="L168" t="n">
-        <v>0.03734891013433481</v>
+        <v>0.03923383674870476</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0800594799277777</v>
+        <v>0.171718501604935</v>
       </c>
       <c r="N168" t="n">
-        <v>0.05732634384864843</v>
+        <v>0.0614905636477453</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07981744728411122</v>
+        <v>0.1712810206144562</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0523026601037954</v>
+        <v>0.01763571210407508</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06872348645642501</v>
+        <v>0.1719211133425746</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01688494188813237</v>
+        <v>0.01692412592906513</v>
       </c>
       <c r="K169" t="n">
-        <v>0.081808153840805</v>
+        <v>0.1729439431446937</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0369979880509802</v>
+        <v>0.03960785290503002</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08083675643193089</v>
+        <v>0.1733856715234295</v>
       </c>
       <c r="N169" t="n">
-        <v>0.05710892215287072</v>
+        <v>0.06246759171480798</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08059237395677249</v>
+        <v>0.1729439431446937</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05140335004444102</v>
+        <v>0.01780711716039496</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06872321792796099</v>
+        <v>0.1735742009708686</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01677074011259311</v>
+        <v>0.017076467902626</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0825947707046589</v>
+        <v>0.1746068656749311</v>
       </c>
       <c r="L170" t="n">
-        <v>0.03654157680667675</v>
+        <v>0.04016796801139652</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08161403293608406</v>
+        <v>0.175052841441924</v>
       </c>
       <c r="N170" t="n">
-        <v>0.05618839447785262</v>
+        <v>0.06272927334459266</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08136730062943377</v>
+        <v>0.1746068656749311</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05051664083770951</v>
+        <v>0.01797453106774011</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06872294939949698</v>
+        <v>0.1752272885991626</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01645481144498281</v>
+        <v>0.0173251276595818</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08338138756851279</v>
+        <v>0.1762697882051686</v>
       </c>
       <c r="L171" t="n">
-        <v>0.03597999692142115</v>
+        <v>0.04011924403412734</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08239130944023725</v>
+        <v>0.1767200113604185</v>
       </c>
       <c r="N171" t="n">
-        <v>0.05566407329237849</v>
+        <v>0.06377737871974692</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08214222730209504</v>
+        <v>0.1762697882051686</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04964303394959893</v>
+        <v>0.02013828416317003</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06872268087103295</v>
+        <v>0.1768803762274566</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01633721212433793</v>
+        <v>0.01747039821766354</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08416800443236667</v>
+        <v>0.177932710735406</v>
       </c>
       <c r="L172" t="n">
-        <v>0.03601356891521013</v>
+        <v>0.04046237293234706</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08316858594439043</v>
+        <v>0.178387181278913</v>
       </c>
       <c r="N172" t="n">
-        <v>0.05563527106523269</v>
+        <v>0.06411298819043876</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08291715397475631</v>
+        <v>0.177932710735406</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04878303084622107</v>
+        <v>0.02029870678374412</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06872241234256894</v>
+        <v>0.1785334638557506</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01621799838969472</v>
+        <v>0.01751257259460222</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08495462129622057</v>
+        <v>0.1795956332656435</v>
       </c>
       <c r="L173" t="n">
-        <v>0.03524261330804018</v>
+        <v>0.04109804666518027</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0839458624485436</v>
+        <v>0.1800543511974076</v>
       </c>
       <c r="N173" t="n">
-        <v>0.05520130026519987</v>
+        <v>0.06433718210683587</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08369208064741759</v>
+        <v>0.1795956332656435</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04793713299357337</v>
+        <v>0.01845612926652189</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06872214381410492</v>
+        <v>0.1801865514840446</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01609722648008959</v>
+        <v>0.01775194380812881</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08574123816007448</v>
+        <v>0.1812585557958809</v>
       </c>
       <c r="L174" t="n">
-        <v>0.03516745061990817</v>
+        <v>0.04152695719175151</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08472313895269679</v>
+        <v>0.1817215211159021</v>
       </c>
       <c r="N174" t="n">
-        <v>0.05436147336106417</v>
+        <v>0.06535104081910603</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08446700732007886</v>
+        <v>0.1812585557958809</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04710584185769158</v>
+        <v>0.01861088194856281</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06872187528564092</v>
+        <v>0.1818396391123386</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01617495263455884</v>
+        <v>0.01788880487597436</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08652785502392837</v>
+        <v>0.1829214783261183</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03458840137081062</v>
+        <v>0.04164979647118539</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08550041545684997</v>
+        <v>0.1833886910343966</v>
       </c>
       <c r="N175" t="n">
-        <v>0.05421510282161013</v>
+        <v>0.06545564467741721</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08524193399274013</v>
+        <v>0.1829214783261183</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04628965890457626</v>
+        <v>0.01876329516692629</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06872160675717688</v>
+        <v>0.1834927267406326</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01595123309213882</v>
+        <v>0.01792344881586982</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08731447188778226</v>
+        <v>0.1845844008563558</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03450578608074423</v>
+        <v>0.0418672564626065</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08627769196100314</v>
+        <v>0.1850558609528911</v>
       </c>
       <c r="N176" t="n">
-        <v>0.05406150111562213</v>
+        <v>0.06575207403193717</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08601686066540142</v>
+        <v>0.1845844008563558</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04548908560033421</v>
+        <v>0.01991369925867184</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06872133822871287</v>
+        <v>0.1851458143689265</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0159261240918659</v>
+        <v>0.01805616864554621</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08810108875163615</v>
+        <v>0.1862473233865932</v>
       </c>
       <c r="L177" t="n">
-        <v>0.03401992526970568</v>
+        <v>0.04238002912513941</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08705496846515633</v>
+        <v>0.1867230308713856</v>
       </c>
       <c r="N177" t="n">
-        <v>0.05329998071188446</v>
+        <v>0.06694140923283365</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08679178733806268</v>
+        <v>0.1862473233865932</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04470462341096536</v>
+        <v>0.02006242456085891</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06872106970024885</v>
+        <v>0.1867989019972205</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0156996818727764</v>
+        <v>0.01808725738273452</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08888770561549005</v>
+        <v>0.1879102459168306</v>
       </c>
       <c r="L178" t="n">
-        <v>0.03353113945769159</v>
+        <v>0.04258880641790869</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08783224496930953</v>
+        <v>0.1883902007898801</v>
       </c>
       <c r="N178" t="n">
-        <v>0.05302985407918176</v>
+        <v>0.06682473063027461</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08756671401072395</v>
+        <v>0.1879102459168306</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04393677380250541</v>
+        <v>0.01921043792840492</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06872080117178485</v>
+        <v>0.1884519896255145</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01557196267390668</v>
+        <v>0.01841700804516576</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08967432247934394</v>
+        <v>0.1895731684470681</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0333397491646987</v>
+        <v>0.0427942803000389</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0886095214734627</v>
+        <v>0.1900573707083747</v>
       </c>
       <c r="N179" t="n">
-        <v>0.05255043368629825</v>
+        <v>0.06790311857442777</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08834164068338524</v>
+        <v>0.1895731684470681</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04318603824095779</v>
+        <v>0.02136632842120717</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06872053264332081</v>
+        <v>0.1901050772538085</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01534302273429307</v>
+        <v>0.01834935601026143</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09046093934319784</v>
+        <v>0.1912360909773055</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0329460749107236</v>
+        <v>0.04310185275925035</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08938679797761588</v>
+        <v>0.1917245406268692</v>
       </c>
       <c r="N180" t="n">
-        <v>0.05216103200201844</v>
+        <v>0.06839108271849154</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08911656735604651</v>
+        <v>0.1912360909773055</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04245291819242372</v>
+        <v>0.02052832747405621</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06872026411485681</v>
+        <v>0.1917581648821025</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01531291829297196</v>
+        <v>0.01858931803121247</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09124755620705173</v>
+        <v>0.192899013507543</v>
       </c>
       <c r="L181" t="n">
-        <v>0.03255043721576298</v>
+        <v>0.04362772762095046</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09016407448176907</v>
+        <v>0.1933917105453637</v>
       </c>
       <c r="N181" t="n">
-        <v>0.05106096149512662</v>
+        <v>0.06860711972522182</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08989149402870777</v>
+        <v>0.192899013507543</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0417379151229058</v>
+        <v>0.0196907604788953</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06871999558639279</v>
+        <v>0.1934112525103965</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01508170558897962</v>
+        <v>0.01873213356506187</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09203417307090563</v>
+        <v>0.1945619360377804</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03205315659981356</v>
+        <v>0.0438628373657238</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09094135098592224</v>
+        <v>0.1950588804638582</v>
       </c>
       <c r="N182" t="n">
-        <v>0.05064953463440736</v>
+        <v>0.06883367757356856</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09066642070136906</v>
+        <v>0.1945619360377804</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0410415304984398</v>
+        <v>0.02184795282766772</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06871972705792877</v>
+        <v>0.1950643401386905</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01504944086135247</v>
+        <v>0.01877276908399474</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09282078993475952</v>
+        <v>0.1962248585680178</v>
       </c>
       <c r="L183" t="n">
-        <v>0.03145455358287186</v>
+        <v>0.04399529535623803</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09171862749007542</v>
+        <v>0.1967260503823527</v>
       </c>
       <c r="N183" t="n">
-        <v>0.05072606388864492</v>
+        <v>0.06945219775309253</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09144134737403033</v>
+        <v>0.1962248585680178</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04036426578503244</v>
+        <v>0.02099422991231675</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06871945852946475</v>
+        <v>0.1967174277669844</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0149161803491268</v>
+        <v>0.0190061910601962</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09360740679861342</v>
+        <v>0.1978877810982553</v>
       </c>
       <c r="L184" t="n">
-        <v>0.03135494868493469</v>
+        <v>0.0445132149551607</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09249590399422861</v>
+        <v>0.1983932203008472</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0498898617266238</v>
+        <v>0.06974412175335493</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0922162740466916</v>
+        <v>0.1978877810982553</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03970662244877841</v>
+        <v>0.02012391712478569</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06871919000100073</v>
+        <v>0.1983705153952784</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01468198029133898</v>
+        <v>0.01902736596585136</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09439402366246731</v>
+        <v>0.1995507036284927</v>
       </c>
       <c r="L185" t="n">
-        <v>0.03065466242599865</v>
+        <v>0.0447047095251594</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09327318049838178</v>
+        <v>0.2000603902193417</v>
       </c>
       <c r="N185" t="n">
-        <v>0.04914024061712835</v>
+        <v>0.07029089106391662</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09299120071935288</v>
+        <v>0.1995507036284927</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03906910195568358</v>
+        <v>0.02023133985701776</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06871892147253672</v>
+        <v>0.2000236030235724</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01474689692702535</v>
+        <v>0.01913126027314538</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09518064052632121</v>
+        <v>0.2012136261587301</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0304540153260604</v>
+        <v>0.04495789242890177</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09405045700253496</v>
+        <v>0.2017275601378362</v>
       </c>
       <c r="N186" t="n">
-        <v>0.04907651302894295</v>
+        <v>0.07127394717433871</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09376612739201415</v>
+        <v>0.2012136261587301</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03845220577178368</v>
+        <v>0.02131082350095628</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0687186529440727</v>
+        <v>0.2016766906518664</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01461098649522227</v>
+        <v>0.01941284045426334</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0959672573901751</v>
+        <v>0.2028765486889676</v>
       </c>
       <c r="L187" t="n">
-        <v>0.02995332790511662</v>
+        <v>0.04526087702905535</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09482773350668815</v>
+        <v>0.2033947300563308</v>
       </c>
       <c r="N187" t="n">
-        <v>0.04779799143085217</v>
+        <v>0.07107473157418209</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09454105406467543</v>
+        <v>0.2028765486889676</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03785643536308901</v>
+        <v>0.02137033381167318</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06871838441560868</v>
+        <v>0.2033297782801604</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01437430523496606</v>
+        <v>0.01936986138052045</v>
       </c>
       <c r="K188" t="n">
-        <v>0.096753874254029</v>
+        <v>0.204539471219205</v>
       </c>
       <c r="L188" t="n">
-        <v>0.02965292068316397</v>
+        <v>0.04550374082239955</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09560501001084133</v>
+        <v>0.2050618999748253</v>
       </c>
       <c r="N188" t="n">
-        <v>0.04790398829164016</v>
+        <v>0.07138496652153969</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0953159807373367</v>
+        <v>0.204539471219205</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03728229219568717</v>
+        <v>0.02242834245667205</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06871811588714466</v>
+        <v>0.2049828659084544</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01433690938529308</v>
+        <v>0.01942122134868585</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09754049111788288</v>
+        <v>0.2062023937494425</v>
       </c>
       <c r="L189" t="n">
-        <v>0.02935311418019909</v>
+        <v>0.04552492620511328</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09638228651499452</v>
+        <v>0.2067290698933198</v>
       </c>
       <c r="N189" t="n">
-        <v>0.04729381608009153</v>
+        <v>0.07127432963631719</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09609090740999797</v>
+        <v>0.2062023937494425</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03672823008260839</v>
+        <v>0.0204850366057589</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06871784735868065</v>
+        <v>0.2066359535367484</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01409885518523968</v>
+        <v>0.01957143043673235</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09832710798173677</v>
+        <v>0.2078653162796799</v>
       </c>
       <c r="L190" t="n">
-        <v>0.02895422891621868</v>
+        <v>0.04554340907573687</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0971595630191477</v>
+        <v>0.2083962398118143</v>
       </c>
       <c r="N190" t="n">
-        <v>0.04656678726499064</v>
+        <v>0.07215944948047281</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09686583408265925</v>
+        <v>0.2078653162796799</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03618246457201246</v>
+        <v>0.02254039537560823</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06871757883021663</v>
+        <v>0.2082890411650424</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01396019887384217</v>
+        <v>0.01962047012059645</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09911372484559068</v>
+        <v>0.2095282388099174</v>
       </c>
       <c r="L191" t="n">
-        <v>0.02825658541121936</v>
+        <v>0.04575914568983633</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09793683952330087</v>
+        <v>0.2100634097303088</v>
       </c>
       <c r="N191" t="n">
-        <v>0.04592221431512183</v>
+        <v>0.07184025775617697</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09764076075532052</v>
+        <v>0.2095282388099174</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03564344947693233</v>
+        <v>0.02159439788289449</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06871731030175261</v>
+        <v>0.2099421287933364</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01392099669013697</v>
+        <v>0.01966832187621466</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09990034170944458</v>
+        <v>0.2111911613401548</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0280605041851979</v>
+        <v>0.04577209230297796</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09871411602745406</v>
+        <v>0.2117305796488033</v>
       </c>
       <c r="N192" t="n">
-        <v>0.04495940969926954</v>
+        <v>0.07191668616559993</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09841568742798179</v>
+        <v>0.2111911613401548</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03511168626345067</v>
+        <v>0.02164702324429221</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06871704177328859</v>
+        <v>0.2115952164216303</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01367990796514724</v>
+        <v>0.01951496717952352</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1006869585732985</v>
+        <v>0.2128540838703922</v>
       </c>
       <c r="L193" t="n">
-        <v>0.02766002598254166</v>
+        <v>0.04578220517072779</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09949139253160724</v>
+        <v>0.2133977495672978</v>
       </c>
       <c r="N193" t="n">
-        <v>0.04413911566104672</v>
+        <v>0.07198866641091201</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09919061410064307</v>
+        <v>0.2128540838703922</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03458767639757959</v>
+        <v>0.02269825057647584</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06871677324482457</v>
+        <v>0.2132483040499243</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01363527368946328</v>
+        <v>0.01956038750645953</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1014735754371524</v>
+        <v>0.2145170064006297</v>
       </c>
       <c r="L194" t="n">
-        <v>0.02724799252027016</v>
+        <v>0.04598944054865209</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1002686690357604</v>
+        <v>0.2150649194857924</v>
       </c>
       <c r="N194" t="n">
-        <v>0.04341618219463922</v>
+        <v>0.07265613019428346</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09996554077330434</v>
+        <v>0.2145170064006297</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03407192134535489</v>
+        <v>0.02174805899611988</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06871650471636057</v>
+        <v>0.2149013916782183</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01328726102422112</v>
+        <v>0.01980456433295923</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1022601923010062</v>
+        <v>0.2161799289308671</v>
       </c>
       <c r="L195" t="n">
-        <v>0.02682519620322513</v>
+        <v>0.04639375469231694</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1010459455399136</v>
+        <v>0.2167320894042869</v>
       </c>
       <c r="N195" t="n">
-        <v>0.04249713821749912</v>
+        <v>0.07231900921788453</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1007404674459656</v>
+        <v>0.2161799289308671</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03356492257279042</v>
+        <v>0.02279642761989877</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06871623618789653</v>
+        <v>0.2165544793065123</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01333604384925022</v>
+        <v>0.01974747913495911</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1030468091648602</v>
+        <v>0.2178428514611046</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0260924517384091</v>
+        <v>0.04609510385728846</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1018232220440668</v>
+        <v>0.2183992593227814</v>
       </c>
       <c r="N196" t="n">
-        <v>0.04148869088771295</v>
+        <v>0.07297723518388571</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1015153941186269</v>
+        <v>0.2178428514611046</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03306718154596609</v>
+        <v>0.02184333556448703</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06871596765943253</v>
+        <v>0.2182075669348063</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01308179604438003</v>
+        <v>0.01968911338839573</v>
       </c>
       <c r="K197" t="n">
-        <v>0.103833426028714</v>
+        <v>0.219505773991342</v>
       </c>
       <c r="L197" t="n">
-        <v>0.02595057383282473</v>
+        <v>0.04649344429913291</v>
       </c>
       <c r="M197" t="n">
-        <v>0.10260049854822</v>
+        <v>0.2200664292412759</v>
       </c>
       <c r="N197" t="n">
-        <v>0.04029754736336733</v>
+        <v>0.0727307397944571</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1022903207912882</v>
+        <v>0.219505773991342</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03257919973089539</v>
+        <v>0.02188876194655912</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06871569913096851</v>
+        <v>0.2198606545631003</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01292469148944005</v>
+        <v>0.01992944856920557</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1046200428925679</v>
+        <v>0.2211686965215794</v>
       </c>
       <c r="L198" t="n">
-        <v>0.02560037719347438</v>
+        <v>0.04658873227341634</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1033777750523731</v>
+        <v>0.2217335991597704</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03963041480254859</v>
+        <v>0.07347945475176915</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1030652474639494</v>
+        <v>0.2211686965215794</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03210147859361406</v>
+        <v>0.02193268588278953</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0687154306025045</v>
+        <v>0.2215137421913943</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01276490406425973</v>
+        <v>0.01986846615332519</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1054066597564218</v>
+        <v>0.2228316190518169</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0247426765273607</v>
+        <v>0.04638092403570496</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1041550515565263</v>
+        <v>0.2234007690782649</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03789400036334345</v>
+        <v>0.073323311757992</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1038401741366107</v>
+        <v>0.2228316190518169</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0316345196001378</v>
+        <v>0.02297508648985273</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06871516207404046</v>
+        <v>0.2231668298196883</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01270260764866853</v>
+        <v>0.01980614761669107</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1061932766202757</v>
+        <v>0.2244945415820543</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0242782865414862</v>
+        <v>0.04686997584156491</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1049323280606795</v>
+        <v>0.2250679389967594</v>
       </c>
       <c r="N200" t="n">
-        <v>0.0364950112038383</v>
+        <v>0.07316224251529624</v>
       </c>
       <c r="O200" t="n">
-        <v>0.104615100809272</v>
+        <v>0.2244945415820543</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03117882421654297</v>
+        <v>0.02201594288442321</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06871489354557646</v>
+        <v>0.2248199174479822</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01243797612249595</v>
+        <v>0.01994247443523975</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1069798934841296</v>
+        <v>0.2261574641122918</v>
       </c>
       <c r="L201" t="n">
-        <v>0.02410802194285347</v>
+        <v>0.04675584394656226</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1057096045648327</v>
+        <v>0.2267351089152539</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03554015448211972</v>
+        <v>0.07329617872585187</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1053900274819333</v>
+        <v>0.2261574641122918</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03073489390884479</v>
+        <v>0.02205523418317545</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06871462501711244</v>
+        <v>0.2264730050762762</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01217118336557144</v>
+        <v>0.01997742808490773</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1077665103479835</v>
+        <v>0.2278203866425292</v>
       </c>
       <c r="L202" t="n">
-        <v>0.02373269743846496</v>
+        <v>0.04673848460626334</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1064868810689859</v>
+        <v>0.2284022788337485</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03363613735627424</v>
+        <v>0.07352505209182936</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1061649541545945</v>
+        <v>0.2278203866425292</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03030323014307899</v>
+        <v>0.02209293950278392</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06871435648864843</v>
+        <v>0.2281260927045702</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01220240325772448</v>
+        <v>0.02001099004163157</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1085531272118374</v>
+        <v>0.2294833091727666</v>
       </c>
       <c r="L203" t="n">
-        <v>0.02325312773532329</v>
+        <v>0.04691785407623417</v>
       </c>
       <c r="M203" t="n">
-        <v>0.107264157573139</v>
+        <v>0.230069448752243</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03258966698438825</v>
+        <v>0.07364879431539889</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1069398808272558</v>
+        <v>0.2294833091727666</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02988433438526339</v>
+        <v>0.0221290379599231</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0687140879601844</v>
+        <v>0.2297791803328642</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01193180967878451</v>
+        <v>0.01994314178134772</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1093397440756913</v>
+        <v>0.2311462317030041</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02277012754043092</v>
+        <v>0.04709390861204094</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1080414340772922</v>
+        <v>0.2317366186707375</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03130745052454847</v>
+        <v>0.0742673370987309</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1077148074999171</v>
+        <v>0.2311462317030041</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02947870810147024</v>
+        <v>0.02116350867126748</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06871381943172039</v>
+        <v>0.2314322679611582</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01185957650858104</v>
+        <v>0.02007386477999278</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1101263609395452</v>
+        <v>0.2328091542332415</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02208451156079044</v>
+        <v>0.04726660446924977</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1088187105814454</v>
+        <v>0.233403788589232</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02979619513484133</v>
+        <v>0.07408061214399558</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1084897341725783</v>
+        <v>0.2328091542332415</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02908685275771673</v>
+        <v>0.02319633075349156</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06871355090325637</v>
+        <v>0.2330853555894522</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01168587762694351</v>
+        <v>0.02020314051350322</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1109129778033991</v>
+        <v>0.2344720767634789</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0214970945034044</v>
+        <v>0.04703589790342683</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1095959870855986</v>
+        <v>0.2350709585077265</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02836260797335322</v>
+        <v>0.07388855115336335</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1092646608452396</v>
+        <v>0.2344720767634789</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02870926982003864</v>
+        <v>0.02322748332326979</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06871328237479235</v>
+        <v>0.2347384432177462</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01141088691370139</v>
+        <v>0.02023095045781556</v>
       </c>
       <c r="K207" t="n">
-        <v>0.111699594667253</v>
+        <v>0.2361349992937164</v>
       </c>
       <c r="L207" t="n">
-        <v>0.02110869107527533</v>
+        <v>0.04730174517013833</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1103732635897518</v>
+        <v>0.2367381284262211</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02621339619817092</v>
+        <v>0.07449108582900438</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1100395875179009</v>
+        <v>0.2361349992937164</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02834646075445622</v>
+        <v>0.02325694549727664</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06871301384632833</v>
+        <v>0.2363915308460402</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01113477824868418</v>
+        <v>0.02015727608886633</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1124862115311069</v>
+        <v>0.2377979218239538</v>
       </c>
       <c r="L208" t="n">
-        <v>0.02062011598340571</v>
+        <v>0.04736410252495035</v>
       </c>
       <c r="M208" t="n">
-        <v>0.111150540093905</v>
+        <v>0.2384052983447156</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02495526696738065</v>
+        <v>0.07468814787308903</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1108145141905622</v>
+        <v>0.2377979218239538</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02799892702703688</v>
+        <v>0.02128469639218662</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06871274531786431</v>
+        <v>0.2380446184743341</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01105772551172131</v>
+        <v>0.02008209888259208</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1132728283949608</v>
+        <v>0.2394608443541912</v>
       </c>
       <c r="L209" t="n">
-        <v>0.02033218393479821</v>
+        <v>0.04742292622342906</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1119278165980581</v>
+        <v>0.2400724682632101</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02329492743906919</v>
+        <v>0.07417966898778766</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1115894408632235</v>
+        <v>0.2394608443541912</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02766717010380021</v>
+        <v>0.0223107151246742</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0687124767894003</v>
+        <v>0.2396977061026281</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01097990258264226</v>
+        <v>0.02010540031492926</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1140594452588147</v>
+        <v>0.2411237668844287</v>
       </c>
       <c r="L210" t="n">
-        <v>0.01964570963645526</v>
+        <v>0.04727817252114058</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1127050931022113</v>
+        <v>0.2417396381817046</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02163908477132304</v>
+        <v>0.07466558087527048</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1123643675358847</v>
+        <v>0.2411237668844287</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02735169145078196</v>
+        <v>0.02333498081141384</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06871220826093628</v>
+        <v>0.2413507937309221</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01070148334127651</v>
+        <v>0.02022716186181445</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1148460621226686</v>
+        <v>0.2427866894146661</v>
       </c>
       <c r="L211" t="n">
-        <v>0.01916150779537942</v>
+        <v>0.04732979767365117</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1134823696063645</v>
+        <v>0.2434068081001991</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02029444612222853</v>
+        <v>0.07444581523770782</v>
       </c>
       <c r="O211" t="n">
-        <v>0.113139294208546</v>
+        <v>0.2427866894146661</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02705299253400525</v>
+        <v>0.02335747256908005</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06871193973247226</v>
+        <v>0.2430038813592161</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01062264166745354</v>
+        <v>0.02024736499918413</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1156326789865225</v>
+        <v>0.2444496119449036</v>
       </c>
       <c r="L212" t="n">
-        <v>0.01858039311857324</v>
+        <v>0.04767775793652687</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1142596461105177</v>
+        <v>0.2450739780186936</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01906771864987239</v>
+        <v>0.07502030377727004</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1139142208812073</v>
+        <v>0.2444496119449036</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02677157481953187</v>
+        <v>0.0213781695143473</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06871167120400824</v>
+        <v>0.2446569689875101</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0102435514410028</v>
+        <v>0.02026599120297484</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1164192958503763</v>
+        <v>0.246112534475141</v>
       </c>
       <c r="L213" t="n">
-        <v>0.01810318031303926</v>
+        <v>0.04752200956533389</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1150369226146709</v>
+        <v>0.2467411479371882</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01706560951234104</v>
+        <v>0.07438897819612739</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1146891475538685</v>
+        <v>0.246112534475141</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02650793977338418</v>
+        <v>0.02139705076389008</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06871140267554424</v>
+        <v>0.2463100566158041</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01016438654175375</v>
+        <v>0.0203830219491231</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1172059127142302</v>
+        <v>0.2477754570053785</v>
       </c>
       <c r="L214" t="n">
-        <v>0.01753068408577999</v>
+        <v>0.04746250881563838</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1158141991188241</v>
+        <v>0.2484083178556827</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01559482586772093</v>
+        <v>0.0745517701964501</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1154640742265298</v>
+        <v>0.2477754570053785</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02650793977338418</v>
+        <v>0.02241409543438284</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06871140267554424</v>
+        <v>0.2479631442440981</v>
       </c>
       <c r="J215" t="n">
-        <v>0.009985320849535871</v>
+        <v>0.02029843871356543</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1179925295780841</v>
+        <v>0.2494383795356159</v>
       </c>
       <c r="L215" t="n">
-        <v>0.01716371914379805</v>
+        <v>0.04749921194300644</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1165914756229772</v>
+        <v>0.2500754877741772</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01396207487409873</v>
+        <v>0.07490861148040845</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1162390008991911</v>
+        <v>0.2494383795356159</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02582913735570426</v>
+        <v>0.02342928264250008</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06858641132564625</v>
+        <v>0.2496162318723921</v>
       </c>
       <c r="J216" t="n">
-        <v>0.009906528244178647</v>
+        <v>0.02031222297223834</v>
       </c>
       <c r="K216" t="n">
-        <v>0.118779146441938</v>
+        <v>0.2511013020658533</v>
       </c>
       <c r="L216" t="n">
-        <v>0.01700310019409593</v>
+        <v>0.04753207520300429</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1173687521271304</v>
+        <v>0.2517426576926717</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01297406368956083</v>
+        <v>0.07475943375017302</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1170139275718524</v>
+        <v>0.2511013020658533</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02515785477179713</v>
+        <v>0.02144259150491629</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06846141997574827</v>
+        <v>0.251269319500686</v>
       </c>
       <c r="J217" t="n">
-        <v>0.009628182605511508</v>
+        <v>0.02042435620107835</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1195657633057919</v>
+        <v>0.2527642245960908</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01624964194367615</v>
+        <v>0.04786105485119804</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1181460286312836</v>
+        <v>0.2534098276111662</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01173749947219388</v>
+        <v>0.07490416870791394</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1177888542445136</v>
+        <v>0.2527642245960908</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02449442961821829</v>
+        <v>0.02245400113830594</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06833642862585029</v>
+        <v>0.25292240712898</v>
       </c>
       <c r="J218" t="n">
-        <v>0.009550457813363972</v>
+        <v>0.02033481987602198</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1203523801696458</v>
+        <v>0.2544271471263282</v>
       </c>
       <c r="L218" t="n">
-        <v>0.01590415909954121</v>
+        <v>0.04758610714315389</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1189233051354368</v>
+        <v>0.2550769975296607</v>
       </c>
       <c r="N218" t="n">
-        <v>0.009959089380084274</v>
+        <v>0.07464274805580146</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1185637809171749</v>
+        <v>0.2544271471263282</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02383919949152331</v>
+        <v>0.0234634906593435</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06821143727595232</v>
+        <v>0.254575494757274</v>
       </c>
       <c r="J219" t="n">
-        <v>0.009273527747565478</v>
+        <v>0.02024359547300575</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1211389970334997</v>
+        <v>0.2560900696565657</v>
       </c>
       <c r="L219" t="n">
-        <v>0.01546746636869378</v>
+        <v>0.04790718833443791</v>
       </c>
       <c r="M219" t="n">
-        <v>0.11970058163959</v>
+        <v>0.2567441674481553</v>
       </c>
       <c r="N219" t="n">
-        <v>0.009145540571318556</v>
+        <v>0.07527510349600591</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1193387075898362</v>
+        <v>0.2560900696565657</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02319250198826793</v>
+        <v>0.02347103918470345</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06808644592605434</v>
+        <v>0.256228582385568</v>
       </c>
       <c r="J220" t="n">
-        <v>0.009097566287945502</v>
+        <v>0.02025066446796618</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1219256138973536</v>
+        <v>0.2577529921868031</v>
       </c>
       <c r="L220" t="n">
-        <v>0.01504037845813633</v>
+        <v>0.04792425468061634</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1204778581437431</v>
+        <v>0.2584113373666497</v>
       </c>
       <c r="N220" t="n">
-        <v>0.007803560203983428</v>
+        <v>0.0752011667306976</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1201136342624975</v>
+        <v>0.2577529921868031</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02255467470500758</v>
+        <v>0.0224766258310603</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06796145457615635</v>
+        <v>0.257881670013862</v>
       </c>
       <c r="J221" t="n">
-        <v>0.008922747314333512</v>
+        <v>0.0204560083368398</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1227122307612075</v>
+        <v>0.2594159147170405</v>
       </c>
       <c r="L221" t="n">
-        <v>0.01442371007487134</v>
+        <v>0.04753726243725528</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1212551346478963</v>
+        <v>0.2600785072851443</v>
       </c>
       <c r="N221" t="n">
-        <v>0.007039855436165143</v>
+        <v>0.07532086946204691</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1208885609351587</v>
+        <v>0.2594159147170405</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02192605523829799</v>
+        <v>0.02348022971508851</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06783646322625837</v>
+        <v>0.259534757642156</v>
       </c>
       <c r="J222" t="n">
-        <v>0.008749244706558974</v>
+        <v>0.02035960855556311</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1234988476250614</v>
+        <v>0.2610788372472779</v>
       </c>
       <c r="L222" t="n">
-        <v>0.01431827592590149</v>
+        <v>0.04774616785992089</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1220324111520495</v>
+        <v>0.2617456772036388</v>
       </c>
       <c r="N222" t="n">
-        <v>0.005861133425950293</v>
+        <v>0.07473414339222401</v>
       </c>
       <c r="O222" t="n">
-        <v>0.12166348760782</v>
+        <v>0.2610788372472779</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02130698118469466</v>
+        <v>0.02148182995346255</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0677114718763604</v>
+        <v>0.26118784527045</v>
       </c>
       <c r="J223" t="n">
-        <v>0.008677232344451377</v>
+        <v>0.02036144660007262</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1242854644889153</v>
+        <v>0.2627417597775154</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01402489071822913</v>
+        <v>0.04755092720417933</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1228096876562027</v>
+        <v>0.2634128471221333</v>
       </c>
       <c r="N223" t="n">
-        <v>0.004674101331425595</v>
+        <v>0.07474092022339929</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1224384142804813</v>
+        <v>0.2627417597775154</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02069779014075329</v>
+        <v>0.02146618319100348</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06758648052646242</v>
+        <v>0.2628409328987439</v>
       </c>
       <c r="J224" t="n">
-        <v>0.008506884107840167</v>
+        <v>0.02035560545779223</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1250720813527692</v>
+        <v>0.2644046823077528</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01334436915885695</v>
+        <v>0.04754302401343441</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1235869641603559</v>
+        <v>0.2650800170406278</v>
       </c>
       <c r="N224" t="n">
-        <v>0.00398546631067731</v>
+        <v>0.07471938405553191</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1232133409531426</v>
+        <v>0.2644046823077528</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02009881970302939</v>
+        <v>0.02139356372844275</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06746148917656443</v>
+        <v>0.264494020527038</v>
       </c>
       <c r="J225" t="n">
-        <v>0.008138373876554812</v>
+        <v>0.02030372663556665</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1258586982166231</v>
+        <v>0.2660676048379903</v>
       </c>
       <c r="L225" t="n">
-        <v>0.01307752595478745</v>
+        <v>0.04783331456034795</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1243642406645091</v>
+        <v>0.2667471869591223</v>
       </c>
       <c r="N225" t="n">
-        <v>0.003601935521792055</v>
+        <v>0.07452810793682435</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1239882676258038</v>
+        <v>0.2660676048379903</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01951040746807862</v>
+        <v>0.02126780724050709</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06733649782666645</v>
+        <v>0.2661471081553319</v>
       </c>
       <c r="J226" t="n">
-        <v>0.008071875530424794</v>
+        <v>0.02030366064857986</v>
       </c>
       <c r="K226" t="n">
-        <v>0.126645315080477</v>
+        <v>0.2677305273682277</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01252517581302315</v>
+        <v>0.04720874643425141</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1251415171686622</v>
+        <v>0.2684143568776168</v>
       </c>
       <c r="N226" t="n">
-        <v>0.003230216122856455</v>
+        <v>0.07465916676228784</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1247631942984651</v>
+        <v>0.2677305273682277</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01893289103245653</v>
+        <v>0.02209542396573201</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06721150647676848</v>
+        <v>0.2678001957836259</v>
       </c>
       <c r="J227" t="n">
-        <v>0.008007562949279581</v>
+        <v>0.02006118225103912</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1274319319443309</v>
+        <v>0.2693934498984651</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01238813344056663</v>
+        <v>0.04718295667291833</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1259187936728154</v>
+        <v>0.2700815267961114</v>
       </c>
       <c r="N227" t="n">
-        <v>0.002577015271956862</v>
+        <v>0.07383385192837028</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1255381209711264</v>
+        <v>0.2693934498984651</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01836660799271879</v>
+        <v>0.02088292414265309</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0670865151268705</v>
+        <v>0.2694532834119199</v>
       </c>
       <c r="J228" t="n">
-        <v>0.007845610012948645</v>
+        <v>0.01978206619715166</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1282185488081848</v>
+        <v>0.2710563724287026</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01226721354442037</v>
+        <v>0.04676958231412223</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1266960701769686</v>
+        <v>0.2717486967146058</v>
       </c>
       <c r="N228" t="n">
-        <v>0.002349040127179958</v>
+        <v>0.07297345483151968</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1263130476437876</v>
+        <v>0.2710563724287026</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0178118959454209</v>
+        <v>0.02063681800980587</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06696152377697251</v>
+        <v>0.2711063710402139</v>
       </c>
       <c r="J229" t="n">
-        <v>0.007686190601261432</v>
+        <v>0.01977208724112482</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1290051656720387</v>
+        <v>0.27271929495894</v>
       </c>
       <c r="L229" t="n">
-        <v>0.01186323083158697</v>
+        <v>0.04638226039563659</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1274733466811218</v>
+        <v>0.2734158666331004</v>
       </c>
       <c r="N229" t="n">
-        <v>0.002252997846612148</v>
+        <v>0.07249926686818392</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1270879743164489</v>
+        <v>0.27271929495894</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01726909248711856</v>
+        <v>0.02136361580572588</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06683653242707453</v>
+        <v>0.2727594586685079</v>
       </c>
       <c r="J230" t="n">
-        <v>0.007329466450619396</v>
+        <v>0.01933702013716582</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1297917825358925</v>
+        <v>0.2743822174891775</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01157688800406562</v>
+        <v>0.045534627955235</v>
       </c>
       <c r="M230" t="n">
-        <v>0.128250623185275</v>
+        <v>0.2750830365515949</v>
       </c>
       <c r="N230" t="n">
-        <v>0.001794905460458851</v>
+        <v>0.07183257943481092</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1278629009891102</v>
+        <v>0.2743822174891775</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01673853521436727</v>
+        <v>0.0210698277689487</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06671154107717654</v>
+        <v>0.2744125462968019</v>
       </c>
       <c r="J231" t="n">
-        <v>0.007174227375814773</v>
+        <v>0.01908263963948195</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1305783993997464</v>
+        <v>0.2760451400194149</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01109897597809378</v>
+        <v>0.04504032203069092</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1290278996894282</v>
+        <v>0.2767502064700894</v>
       </c>
       <c r="N231" t="n">
-        <v>0.001694932639860425</v>
+        <v>0.07059468392784857</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1286378276617715</v>
+        <v>0.2760451400194149</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01622056172372274</v>
+        <v>0.02076196413800986</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06658654972727858</v>
+        <v>0.2760656339250959</v>
       </c>
       <c r="J232" t="n">
-        <v>0.007219583335363849</v>
+        <v>0.01891472050228048</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1313650162636003</v>
+        <v>0.2777080625496524</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01072336612075522</v>
+        <v>0.04421297965977794</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1298051761935813</v>
+        <v>0.2784173763885839</v>
       </c>
       <c r="N232" t="n">
-        <v>0.001795095279218173</v>
+        <v>0.06960687174374491</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1294127543344328</v>
+        <v>0.2777080625496524</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01571550961174045</v>
+        <v>0.02044653515144494</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06646155837738059</v>
+        <v>0.2777187215533898</v>
       </c>
       <c r="J233" t="n">
-        <v>0.006965536698726786</v>
+        <v>0.01863903747976868</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1321516331274542</v>
+        <v>0.2793709850798898</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01065024336556966</v>
+        <v>0.04396623788026954</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1305824526977345</v>
+        <v>0.2800845463070784</v>
       </c>
       <c r="N233" t="n">
-        <v>0.001595516793578444</v>
+        <v>0.06889043427894781</v>
       </c>
       <c r="O233" t="n">
-        <v>0.130187681007094</v>
+        <v>0.2793709850798898</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01522371647497611</v>
+        <v>0.02013005104778945</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06633656702748261</v>
+        <v>0.2793718091816839</v>
       </c>
       <c r="J234" t="n">
-        <v>0.006712089835363741</v>
+        <v>0.01826136532615377</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1329382499913081</v>
+        <v>0.2810339076101272</v>
       </c>
       <c r="L234" t="n">
-        <v>0.01037979264605673</v>
+        <v>0.04311373372993924</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1313597292018877</v>
+        <v>0.2817517162255729</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0021963205979873</v>
+        <v>0.06736666292990517</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1309626076797553</v>
+        <v>0.2810339076101272</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01474551990998522</v>
+        <v>0.01881902206557896</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06621157567758462</v>
+        <v>0.2810248968099778</v>
       </c>
       <c r="J235" t="n">
-        <v>0.006659245114734889</v>
+        <v>0.01808747879564308</v>
       </c>
       <c r="K235" t="n">
-        <v>0.133724866855162</v>
+        <v>0.2826968301403647</v>
       </c>
       <c r="L235" t="n">
-        <v>0.01011219889573622</v>
+        <v>0.04226910424656055</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1321370057060409</v>
+        <v>0.2834188861440675</v>
       </c>
       <c r="N235" t="n">
-        <v>0.001897630107490944</v>
+        <v>0.06635684909306494</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1317375343524166</v>
+        <v>0.2826968301403647</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01428125751332347</v>
+        <v>0.01851995844334901</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06608658432768666</v>
+        <v>0.2826779844382718</v>
       </c>
       <c r="J236" t="n">
-        <v>0.006407004906300404</v>
+        <v>0.01772315264244387</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1345114837190159</v>
+        <v>0.2843597526706021</v>
       </c>
       <c r="L236" t="n">
-        <v>0.01004764704812777</v>
+        <v>0.04204598646790703</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1329142822101941</v>
+        <v>0.285086056062562</v>
       </c>
       <c r="N236" t="n">
-        <v>0.001799568737135715</v>
+        <v>0.06588228416487507</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1325124610250779</v>
+        <v>0.2843597526706021</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01383126688154637</v>
+        <v>0.01823937041963516</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06596159297778867</v>
+        <v>0.2843310720665658</v>
       </c>
       <c r="J237" t="n">
-        <v>0.006355371579520451</v>
+        <v>0.01747416162076337</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1352981005828698</v>
+        <v>0.2860226752008396</v>
       </c>
       <c r="L237" t="n">
-        <v>0.009686322036751072</v>
+        <v>0.04135801743175216</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1336915587143472</v>
+        <v>0.2867532259810565</v>
       </c>
       <c r="N237" t="n">
-        <v>0.002302259901967696</v>
+        <v>0.06446425954178348</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1332873876977391</v>
+        <v>0.2860226752008396</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01339588561120961</v>
+        <v>0.01798288854857182</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06583660162789069</v>
+        <v>0.2859841596948598</v>
       </c>
       <c r="J238" t="n">
-        <v>0.006104347503855183</v>
+        <v>0.01734618945680089</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1360847174467237</v>
+        <v>0.287685597731077</v>
       </c>
       <c r="L238" t="n">
-        <v>0.00922840879512582</v>
+        <v>0.04081882688015656</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1344688352185004</v>
+        <v>0.288420395899551</v>
       </c>
       <c r="N238" t="n">
-        <v>0.002305827017033135</v>
+        <v>0.06412373100190061</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1340623143704004</v>
+        <v>0.287685597731077</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01297545129886869</v>
+        <v>0.01973398326156796</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0657116102779927</v>
+        <v>0.2876372473231538</v>
       </c>
       <c r="J239" t="n">
-        <v>0.005953935048764777</v>
+        <v>0.01722813339301056</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1368713343105776</v>
+        <v>0.2893485202613144</v>
       </c>
       <c r="L239" t="n">
-        <v>0.008874092256771687</v>
+        <v>0.0401066369052028</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1352461117226536</v>
+        <v>0.2900875658180455</v>
       </c>
       <c r="N239" t="n">
-        <v>0.001910393497378204</v>
+        <v>0.06281976291332103</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1348372410430617</v>
+        <v>0.2893485202613144</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01256892302181063</v>
+        <v>0.01748412384393734</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06558661892809474</v>
+        <v>0.2892903349514477</v>
       </c>
       <c r="J240" t="n">
-        <v>0.005904136583709405</v>
+        <v>0.0170092380182522</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1376579511744315</v>
+        <v>0.2910114427915518</v>
       </c>
       <c r="L240" t="n">
-        <v>0.008823557355208428</v>
+        <v>0.03989247201103338</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1360233882268068</v>
+        <v>0.29175473573654</v>
       </c>
       <c r="N240" t="n">
-        <v>0.001716082758049131</v>
+        <v>0.06271270030297954</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1356121677157229</v>
+        <v>0.2910114427915518</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01216836726097873</v>
+        <v>0.01823329487268348</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06546162757819675</v>
+        <v>0.2909434225797418</v>
       </c>
       <c r="J241" t="n">
-        <v>0.005854954478149238</v>
+        <v>0.01658948965191898</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1384445680382854</v>
+        <v>0.2926743653217893</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0083769890239557</v>
+        <v>0.03927629989100015</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1368006647309599</v>
+        <v>0.2934219056550346</v>
       </c>
       <c r="N241" t="n">
-        <v>0.001623018214092109</v>
+        <v>0.06150249273076869</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1363870943883842</v>
+        <v>0.2926743653217893</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01177274309366001</v>
+        <v>0.01698148092480983</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06533663622829877</v>
+        <v>0.2925965102080357</v>
       </c>
       <c r="J242" t="n">
-        <v>0.005606391101544428</v>
+        <v>0.01656887461340403</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1392311849021393</v>
+        <v>0.2943372878520267</v>
       </c>
       <c r="L242" t="n">
-        <v>0.008534572196533224</v>
+        <v>0.03885808823845485</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1375779412351131</v>
+        <v>0.2950890755735291</v>
       </c>
       <c r="N242" t="n">
-        <v>0.001731323280553365</v>
+        <v>0.06108908975658073</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1371620210610455</v>
+        <v>0.2943372878520267</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01138238811640997</v>
+        <v>0.01672866657731993</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06521164487840078</v>
+        <v>0.2942495978363297</v>
       </c>
       <c r="J243" t="n">
-        <v>0.00535844882335515</v>
+        <v>0.01624737922210047</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1400178017659932</v>
+        <v>0.2960002103822642</v>
       </c>
       <c r="L243" t="n">
-        <v>0.00799649180646067</v>
+        <v>0.03823780474674937</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1383552177392663</v>
+        <v>0.2967562454920236</v>
       </c>
       <c r="N243" t="n">
-        <v>0.001941121372479038</v>
+        <v>0.05997244094030768</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1379369477337068</v>
+        <v>0.2960002103822642</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01099763992578427</v>
+        <v>0.01747483640721723</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06508665352850281</v>
+        <v>0.2959026854646237</v>
       </c>
       <c r="J244" t="n">
-        <v>0.005411130013041561</v>
+        <v>0.01612498979740144</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1408044186298471</v>
+        <v>0.2976631329125016</v>
       </c>
       <c r="L244" t="n">
-        <v>0.007862932787257748</v>
+        <v>0.03771541710923546</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1391324942434195</v>
+        <v>0.2984234154105181</v>
       </c>
       <c r="N244" t="n">
-        <v>0.00225253590491542</v>
+        <v>0.058752495841842</v>
       </c>
       <c r="O244" t="n">
-        <v>0.138711874406368</v>
+        <v>0.2976631329125016</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01061883611833846</v>
+        <v>0.01821997499150523</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06496166217860483</v>
+        <v>0.2975557730929177</v>
       </c>
       <c r="J245" t="n">
-        <v>0.005064437040063853</v>
+        <v>0.01570169265870008</v>
       </c>
       <c r="K245" t="n">
-        <v>0.141591035493701</v>
+        <v>0.299326055442739</v>
       </c>
       <c r="L245" t="n">
-        <v>0.007634080072444122</v>
+        <v>0.03689089301926488</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1399097707475727</v>
+        <v>0.3000905853290126</v>
       </c>
       <c r="N245" t="n">
-        <v>0.002265690292908684</v>
+        <v>0.0582292040210759</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1394868010790293</v>
+        <v>0.299326055442739</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01024631429062821</v>
+        <v>0.01696406690718739</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06483667082870685</v>
+        <v>0.2992088607212117</v>
       </c>
       <c r="J246" t="n">
-        <v>0.00501837227388216</v>
+        <v>0.01567747412538953</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1423776523575549</v>
+        <v>0.3009889779729765</v>
       </c>
       <c r="L246" t="n">
-        <v>0.007310118595539539</v>
+        <v>0.03636420017018951</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1406870472517258</v>
+        <v>0.3017577552475071</v>
       </c>
       <c r="N246" t="n">
-        <v>0.002380707951504968</v>
+        <v>0.05780251503790151</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1402617277516906</v>
+        <v>0.3009889779729765</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009880412039209058</v>
+        <v>0.01770709673126723</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06471167947880886</v>
+        <v>0.3008619483495057</v>
       </c>
       <c r="J247" t="n">
-        <v>0.004872938083956689</v>
+        <v>0.01545232051686291</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1431642692214087</v>
+        <v>0.3026519005032139</v>
       </c>
       <c r="L247" t="n">
-        <v>0.006991233290063625</v>
+        <v>0.03583530625536116</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1414643237558791</v>
+        <v>0.3034249251660017</v>
       </c>
       <c r="N247" t="n">
-        <v>0.001897712295750531</v>
+        <v>0.05647237845221131</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1410366544243518</v>
+        <v>0.3026519005032139</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009521466960636632</v>
+        <v>0.01744904904074823</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06458668812891089</v>
+        <v>0.3025150359777997</v>
       </c>
       <c r="J248" t="n">
-        <v>0.004828136839747567</v>
+        <v>0.01512621815251336</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1439508860852627</v>
+        <v>0.3043148230334514</v>
       </c>
       <c r="L248" t="n">
-        <v>0.006777609089536146</v>
+        <v>0.03560417896813159</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1422416002600322</v>
+        <v>0.3050920950844961</v>
       </c>
       <c r="N248" t="n">
-        <v>0.002316826740691558</v>
+        <v>0.05543874382389741</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1418115810970131</v>
+        <v>0.3043148230334514</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009169816651466503</v>
+        <v>0.01518990841263386</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06446169677901291</v>
+        <v>0.3041681236060936</v>
       </c>
       <c r="J249" t="n">
-        <v>0.004583970910714989</v>
+        <v>0.014799153351734</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1447375029491166</v>
+        <v>0.3059777455636888</v>
       </c>
       <c r="L249" t="n">
-        <v>0.006969430927476816</v>
+        <v>0.0347707860018526</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1430188767641854</v>
+        <v>0.3067592650029907</v>
       </c>
       <c r="N249" t="n">
-        <v>0.001838174701374262</v>
+        <v>0.05500156071285206</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1425865077696744</v>
+        <v>0.3059777455636888</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008825798708254319</v>
+        <v>0.01492965942392763</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06433670542911493</v>
+        <v>0.3058212112343877</v>
       </c>
       <c r="J250" t="n">
-        <v>0.004540442666319117</v>
+        <v>0.014571112433918</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1455241198129704</v>
+        <v>0.3076406680939263</v>
       </c>
       <c r="L250" t="n">
-        <v>0.00636688373740521</v>
+        <v>0.03463509504987605</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1437961532683386</v>
+        <v>0.3084264349214852</v>
       </c>
       <c r="N250" t="n">
-        <v>0.00236187959284484</v>
+        <v>0.05446077867896765</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1433614344423357</v>
+        <v>0.3076406680939263</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.00848975072755561</v>
+        <v>0.01566828665163301</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06421171407921694</v>
+        <v>0.3074742988626816</v>
       </c>
       <c r="J251" t="n">
-        <v>0.004197554476020104</v>
+        <v>0.01454208171845847</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1463107366768243</v>
+        <v>0.3093035906241637</v>
       </c>
       <c r="L251" t="n">
-        <v>0.00647015245284116</v>
+        <v>0.03409707380555371</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1445734297724918</v>
+        <v>0.3100936048399797</v>
       </c>
       <c r="N251" t="n">
-        <v>0.001888064830149527</v>
+        <v>0.05331634728213624</v>
       </c>
       <c r="O251" t="n">
-        <v>0.144136361114997</v>
+        <v>0.3093035906241637</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008162010305926053</v>
+        <v>0.0164057746727535</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06408672272931897</v>
+        <v>0.3091273864909756</v>
       </c>
       <c r="J252" t="n">
-        <v>0.004155308709278133</v>
+        <v>0.01431204752474856</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1470973535406782</v>
+        <v>0.3109665131544011</v>
       </c>
       <c r="L252" t="n">
-        <v>0.006279422007304247</v>
+        <v>0.03335668996223737</v>
       </c>
       <c r="M252" t="n">
-        <v>0.145350706276645</v>
+        <v>0.3117607747584742</v>
       </c>
       <c r="N252" t="n">
-        <v>0.001916853828334453</v>
+        <v>0.05206821608225026</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1449112877876582</v>
+        <v>0.3109665131544011</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007842915039921176</v>
+        <v>0.01614210806429257</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06396173137942099</v>
+        <v>0.3107804741192696</v>
       </c>
       <c r="J253" t="n">
-        <v>0.004013707735553353</v>
+        <v>0.01408099617218139</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1478839704045321</v>
+        <v>0.3126294356846386</v>
       </c>
       <c r="L253" t="n">
-        <v>0.006094877334314242</v>
+        <v>0.03271391121327888</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1461279827807981</v>
+        <v>0.3134279446769687</v>
       </c>
       <c r="N253" t="n">
-        <v>0.001848370002445865</v>
+        <v>0.05141633463920176</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1456862144603195</v>
+        <v>0.3126294356846386</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007532802526096637</v>
+        <v>0.01587727140325373</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06383674002952301</v>
+        <v>0.3124335617475636</v>
       </c>
       <c r="J254" t="n">
-        <v>0.003972753924305961</v>
+        <v>0.0136489139801501</v>
       </c>
       <c r="K254" t="n">
-        <v>0.148670587268386</v>
+        <v>0.314292358214876</v>
       </c>
       <c r="L254" t="n">
-        <v>0.005616703367390813</v>
+        <v>0.03206870525202998</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1469052592849513</v>
+        <v>0.3150951145954632</v>
       </c>
       <c r="N254" t="n">
-        <v>0.002082736767529958</v>
+        <v>0.05046065251288318</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1464611411329808</v>
+        <v>0.314292358214876</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007232010361007978</v>
+        <v>0.01461124926664045</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06371174867962502</v>
+        <v>0.3140866493758576</v>
       </c>
       <c r="J255" t="n">
-        <v>0.003732449644996097</v>
+        <v>0.01361578726804784</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1494572041322399</v>
+        <v>0.3159552807451135</v>
       </c>
       <c r="L255" t="n">
-        <v>0.005845085040053655</v>
+        <v>0.03192103977184257</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1476825357891045</v>
+        <v>0.3167622845139578</v>
       </c>
       <c r="N255" t="n">
-        <v>0.002420077538632992</v>
+        <v>0.04960111926318672</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1472360678056421</v>
+        <v>0.3159552807451135</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006940876141210861</v>
+        <v>0.01334402623145622</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06358675732972704</v>
+        <v>0.3157397370041515</v>
       </c>
       <c r="J256" t="n">
-        <v>0.003692797267083936</v>
+        <v>0.01328160235526769</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1502438209960938</v>
+        <v>0.3176182032753509</v>
       </c>
       <c r="L256" t="n">
-        <v>0.005480207285822464</v>
+        <v>0.03127088246606838</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1484598122932577</v>
+        <v>0.3184294544324522</v>
       </c>
       <c r="N256" t="n">
-        <v>0.002460515730801083</v>
+        <v>0.04863768445000471</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1480109944783033</v>
+        <v>0.3176182032753509</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006659737463260824</v>
+        <v>0.01407558687470453</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06346176597982907</v>
+        <v>0.3173928246324455</v>
       </c>
       <c r="J257" t="n">
-        <v>0.003353799160029647</v>
+        <v>0.01294634556120287</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1510304378599477</v>
+        <v>0.3192811258055883</v>
       </c>
       <c r="L257" t="n">
-        <v>0.005422255038216944</v>
+        <v>0.03051820102805927</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1492370887974108</v>
+        <v>0.3200966243509468</v>
       </c>
       <c r="N257" t="n">
-        <v>0.00200417475908049</v>
+        <v>0.04837029763322925</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1487859211509646</v>
+        <v>0.3192811258055883</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006388931923713516</v>
+        <v>0.01380591577338887</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06333677462993109</v>
+        <v>0.3190459122607395</v>
       </c>
       <c r="J258" t="n">
-        <v>0.003415457693293412</v>
+        <v>0.01271000320524646</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1518170547238016</v>
+        <v>0.3209440483358257</v>
       </c>
       <c r="L258" t="n">
-        <v>0.005371413230756766</v>
+        <v>0.03026296315116694</v>
       </c>
       <c r="M258" t="n">
-        <v>0.150014365301564</v>
+        <v>0.3217637942694413</v>
       </c>
       <c r="N258" t="n">
-        <v>0.002751178038517321</v>
+        <v>0.04719890837275265</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1495608478236259</v>
+        <v>0.3209440483358257</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006128797119124493</v>
+        <v>0.01353499750451271</v>
       </c>
       <c r="G259" t="n">
-        <v>0.0632117832800331</v>
+        <v>0.3206989998890335</v>
       </c>
       <c r="J259" t="n">
-        <v>0.003077775236335373</v>
+        <v>0.01247256160679162</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1526036715876555</v>
+        <v>0.3226069708660632</v>
       </c>
       <c r="L259" t="n">
-        <v>0.005227866796961661</v>
+        <v>0.02930513652874331</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1507916418057172</v>
+        <v>0.3234309641879358</v>
       </c>
       <c r="N259" t="n">
-        <v>0.002801648984157912</v>
+        <v>0.04642346622846721</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1503357744962871</v>
+        <v>0.3226069708660632</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005879670646049405</v>
+        <v>0.01226281664507956</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06308679193013512</v>
+        <v>0.3223520875173275</v>
       </c>
       <c r="J260" t="n">
-        <v>0.003140754158615706</v>
+        <v>0.01223400708523145</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1533902884515094</v>
+        <v>0.3242698933963006</v>
       </c>
       <c r="L260" t="n">
-        <v>0.004691800670351298</v>
+        <v>0.02894468885414014</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1515689183098704</v>
+        <v>0.3250981341064303</v>
       </c>
       <c r="N260" t="n">
-        <v>0.002255711011048378</v>
+        <v>0.0455439207602652</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1511107011689484</v>
+        <v>0.3242698933963006</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005641890101043781</v>
+        <v>0.01298935777209289</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06296180058023715</v>
+        <v>0.3240051751456214</v>
       </c>
       <c r="J261" t="n">
-        <v>0.00290439682959457</v>
+        <v>0.0121943259599591</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1541769053153633</v>
+        <v>0.3259328159265381</v>
       </c>
       <c r="L261" t="n">
-        <v>0.004763399784445399</v>
+        <v>0.02858158782070927</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1523461948140236</v>
+        <v>0.3267653040249248</v>
       </c>
       <c r="N261" t="n">
-        <v>0.002413487534234926</v>
+        <v>0.0449602215280388</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1518856278416097</v>
+        <v>0.3259328159265381</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005415793080663291</v>
+        <v>0.01171460546255618</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06283680923033917</v>
+        <v>0.3256582627739155</v>
       </c>
       <c r="J262" t="n">
-        <v>0.002868705618732162</v>
+        <v>0.01185350455036772</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1549635221792172</v>
+        <v>0.3275957384567755</v>
       </c>
       <c r="L262" t="n">
-        <v>0.004742849072763677</v>
+        <v>0.02781580112180246</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1531234713181767</v>
+        <v>0.3284324739434193</v>
       </c>
       <c r="N262" t="n">
-        <v>0.002475101968763826</v>
+        <v>0.04407231809168038</v>
       </c>
       <c r="O262" t="n">
-        <v>0.152660554514271</v>
+        <v>0.3275957384567755</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005201717181463492</v>
+        <v>0.01343854429347295</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06271181788044118</v>
+        <v>0.3273113504022094</v>
       </c>
       <c r="J263" t="n">
-        <v>0.002633682895488605</v>
+        <v>0.01171152917585044</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1557501390430711</v>
+        <v>0.329258660987013</v>
       </c>
       <c r="L263" t="n">
-        <v>0.004630333468825715</v>
+        <v>0.02704729645077153</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1539007478223299</v>
+        <v>0.3300996438619139</v>
       </c>
       <c r="N263" t="n">
-        <v>0.002940677729681207</v>
+        <v>0.04318016001108205</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1534354811869323</v>
+        <v>0.329258660987013</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01116115884184665</v>
       </c>
       <c r="G264" t="n">
-        <v>0.0625868265305432</v>
+        <v>0.3289644380305034</v>
       </c>
       <c r="J264" t="n">
-        <v>0.002399331029324117</v>
+        <v>0.01136838615580039</v>
       </c>
       <c r="K264" t="n">
-        <v>0.156536755906925</v>
+        <v>0.3309215835172504</v>
       </c>
       <c r="L264" t="n">
-        <v>0.004326037906151325</v>
+        <v>0.02677604150096827</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1546780243264831</v>
+        <v>0.3317668137804083</v>
       </c>
       <c r="N264" t="n">
-        <v>0.00271033823203326</v>
+        <v>0.04178369684613614</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1542104078595935</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06257366863580636</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005704192808452253</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06257393716427037</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006404464614532306</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06257420569273439</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007100770590800894</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06257447422119841</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.00779306590972792</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06257474274966243</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008481305743874304</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06257501127812644</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009165445265770539</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06257527980659046</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.00984543964797667</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06257554833505448</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.010521244062964</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.0625758168635185</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01119281368329275</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06257608539198252</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01186010368149343</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06257635392044653</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01252306923012531</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06257662244891056</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01318166550166121</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06257689097737457</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01383584766866059</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06257715950583859</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01448557090365395</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06257742803430259</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01513079037919981</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06257769656276663</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01577146126777251</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06257796509123063</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01640753874193076</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06257823361969465</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01703897797420506</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06257850214815867</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01766573413715311</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06257877067662269</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01828776240325088</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06257903920508671</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01890501794505625</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06257930773355072</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01951745593509974</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06257957626201474</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02012503154593821</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06257984479047876</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02072769995004926</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06258011331894278</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02132559936549037</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06258038184740679</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02191978323779442</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06258065037587081</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02251038978501793</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06258091890433483</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02309737417964003</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06258118743279885</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.023680691594217</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06258145596126286</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02426029720127935</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06258172448972688</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.0248361461733826</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.0625819930181909</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02540819368300712</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06258226154665492</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.0259763949027086</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06258253007511894</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02654070500501753</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06258279860358294</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02710107916248873</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06258306713204698</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02765747254760394</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06258333566051098</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02820984033291817</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.062583604188975</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.0287581376909619</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06258387271743901</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02930231979428927</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06258414124590304</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02984234181538344</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06258440977436705</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03037815892679864</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06258467830283107</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03090972630106543</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06258494683129508</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.0314369991107372</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06258521535975911</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03195993252829853</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06258548388822312</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03247848172630301</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06258575241668714</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03299260187728112</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06258602094515116</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03350224815378548</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06258628947361518</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03400737572830223</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.0625865580020792</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03450793977338419</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.0625868265305432</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03450793977338419</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06257366863580636</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03504758116503558</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06269919704263238</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03558227923569594</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06282472544945839</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03611190392112276</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.0629502538562844</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03663632515707345</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06307578226311042</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03715541287930547</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06320131066993644</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03766903702357625</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06332683907676245</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.0381770675256433</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06345236748358847</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03867937432126399</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06357789589041447</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03917582734619585</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06370342429724049</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03966629653619627</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06382895270406651</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04015065182702271</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06395448111089252</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04062876315443265</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06408000951771854</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04110050045418349</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06420553792454456</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04156573366203273</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06433106633137058</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04202433271373777</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06445659473819658</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04247616754505613</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.0645821231450226</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04292110809174521</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06470765155184861</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04335902428956244</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06483317995867463</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.0437897860742653</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06495870836550065</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04421326338161125</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06508423677232666</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04462932614735772</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06520976517915267</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04503784430726215</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06533529358597868</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04543868779708204</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.0654608219928047</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04583172655257478</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06558635039963072</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.0462173616051549</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06571187880645672</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04659864946452241</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06583740721328275</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04697599116209174</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06596293562010876</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.0473492566336204</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06608846402693476</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04771831581486585</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06621399243376078</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04808303864158552</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06633952084058679</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04844329504953683</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06646504924741281</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04879895497447727</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06659057765423883</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04914988835216429</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06671610606106484</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04949596511835531</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06684163446789086</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.0498370552088078</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06696716287471687</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05017302855927921</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06709269128154288</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05050375510552697</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.0672182196883689</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05082910478330857</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06734374809519492</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05114894752838141</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06746927650202093</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05146315327650298</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06759480490884695</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.0517715919634307</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06772033331567295</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05207413352492204</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06784586172249897</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05237064789673446</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06797139012932499</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05266100501462537</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.068096918536151</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05294507481435225</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06822244694297702</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05322272723167254</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06834797534980304</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.0534938322023437</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06847350375662904</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05375825966212315</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06859903216345506</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05401587954676837</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06872456057028108</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04834391969784557</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06872456057028108</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05423265723534207</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.07064760643221707</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05443317596583</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.07257065229415305</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05461806955058233</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07449369815608904</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05478797180194918</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07641674401802503</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05494351653228068</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07833978987996103</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.0550853375539269</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.08026283574189701</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05521406867923806</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.082185881603833</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05533034372056422</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.08410892746576898</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05543479649025554</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08603197332770497</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05552806080066214</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08795501918964095</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05561077046413415</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08987806505157696</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05568355929302173</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.09180111091351294</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05574706109967495</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.09372415677544893</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05580190969644398</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09564720263738492</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05584873889567893</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.0975702484993209</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05588818250972995</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09949329436125688</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05592087435094714</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1014163402231929</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05594744823168064</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1033393860851289</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05596853796428061</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1052624319470649</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05598477736109712</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1071854778090008</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05599680023448035</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1091085236709368</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05600524039678041</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1110315695328728</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05601073166034742</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1129546153948088</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05601390783753155</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1148776612567448</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05601540274068287</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1168007071186808</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05601585018215151</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1187237529806168</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05601212747436567</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1206467988425528</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.0559605892661427</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1225698447044888</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05585158461295704</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1244928905664247</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05568895043816283</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1264159364283607</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.0554765236651141</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1283389822902967</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05521814121716498</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1302620281522327</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05491764001766952</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1321850740141687</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05457885698998184</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1341081198761047</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.054205629057456</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1360311657380407</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05380179314344609</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1379542115999767</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05337118617130619</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1398772574619127</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05291764506439041</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1418003033238486</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05244500674605279</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1437233491857846</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05195710813964746</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1456463950477206</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05145778616852846</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1475694409096566</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.05095087775604989</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.05044021982556587</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1514155326335286</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04992964930043044</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1533385784954646</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04942300310399769</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1552616243574005</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04892411815962174</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1571846702193365</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04843683139065662</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1591077160812725</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04796497972045645</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1610307619432085</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04751240007237531</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1629538078051445</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04708292936976728</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1648768536670805</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04666357414999513</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1667998995290165</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04621111984488591</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1687229453909525</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04572701789358646</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1706459912528885</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04521555700133192</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1725690371148244</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04468102587335737</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1744920829767604</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04412771321489803</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1764151288386964</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04355990773118899</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1783381747006324</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04298189812746542</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1802612205625684</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04239797310896244</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1821842664245044</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04181242138091519</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1841073122864404</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04122953164855882</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1860303581483763</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.04065359261712848</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1879534040103124</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04008889299185929</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1898764498722484</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.0395397214779864</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1917994957341843</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03901036678074497</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1937225415961203</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03850511760537012</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1956455874580563</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.038028262657097</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1975686333199923</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03758409064116075</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1994916791819283</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03717689026279651</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2014147250438643</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03681095022723942</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2033377709058003</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03649055923972462</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2052608167677362</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03622000600548725</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2071838626296722</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03600357922976245</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2091069084916082</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03584556761778539</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2110299543535442</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03575025987479118</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2129530002154802</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.0357216376590174</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2148760460774162</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03572174459830146</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2167990919393522</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03572238895902403</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2187221378012882</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03572406243461909</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2206451836632242</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03572725671852064</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2225682295251602</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03573246350416268</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2244912753870961</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.0357401744849792</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2264143212490321</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03575088135440421</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2283373671109681</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03576507580587171</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2302604129729041</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03578324953281568</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2321834588348401</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03580589422867016</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2341065046967761</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.0358335015868691</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2360295505587121</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03586656330084653</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.237952596420648</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03590557106403644</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2398756422825841</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03595101656987283</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.24179868814452</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03600339151178969</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.243721734006456</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03606318758322104</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.245644779868392</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03613089647760086</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.247567825730328</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03620700988836316</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.249490871592264</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03629201950894194</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2514139174541999</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03638641703277118</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.253336963316136</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.0364906941532849</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2552600091780719</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03660534256391709</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2571830550400079</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03673085395810176</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2591061009019439</v>
-      </c>
-    </row>
+        <v>0.3309215835172504</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1112.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1112.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002721986994257859</v>
+        <v>0.0009162118782392731</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001653087628293987</v>
+        <v>0.0005461841364975045</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002544591390861002</v>
+        <v>0.001359207084046493</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001662922530237439</v>
+        <v>0.0008489473520244678</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007590449681094597</v>
+        <v>0.003790034662629088</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001667169918494514</v>
+        <v>0.0008354339915845064</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01332003950472016</v>
+        <v>0.006819747616638838</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001662922530237439</v>
+        <v>0.0008301538774872366</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005100265938347712</v>
+        <v>0.00182002667875894</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003306175256587974</v>
+        <v>0.001092368272995009</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005371609440655928</v>
+        <v>0.002454595130016647</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003833986238268169</v>
+        <v>0.001697894704048936</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01379872424387674</v>
+        <v>0.008093754034087908</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003455733133005971</v>
+        <v>0.001670867983169013</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01751981674403047</v>
+        <v>0.01261648794389286</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.002500953840210349</v>
+        <v>0.001660307754974473</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.002699047323839424</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004700743171084316</v>
+        <v>0.001638552409492513</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.006115759990496281</v>
+        <v>0.003693036430216262</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004988767590712317</v>
+        <v>0.002546842056073403</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01576038969756585</v>
+        <v>0.01123607440773738</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.005001509755483543</v>
+        <v>0.002506301974753519</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02364846108255358</v>
+        <v>0.01713895116263853</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004988767590712317</v>
+        <v>0.00230809931930816</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006015370515157714</v>
+        <v>0.003540876735761117</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006612350513175948</v>
+        <v>0.002184736545990018</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006803463744178305</v>
+        <v>0.00454520798824732</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006651690120949757</v>
+        <v>0.003244142201611525</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01739666582174662</v>
+        <v>0.01379872424387674</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006668679673978058</v>
+        <v>0.003282946476355673</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02597327721556431</v>
+        <v>0.02165941541370481</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006651690120949757</v>
+        <v>0.003320615509948946</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007017805765423865</v>
+        <v>0.004333117836804429</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008265438141469936</v>
+        <v>0.002730920682487522</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007720661923515983</v>
+        <v>0.005424746671572715</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008314612651187197</v>
+        <v>0.004244736760122339</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0185437102287424</v>
+        <v>0.01574889003097885</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008335849592472572</v>
+        <v>0.004177169957922532</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02877779809727676</v>
+        <v>0.02447712190098533</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008314612651187197</v>
+        <v>0.004150769387436182</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009875065242874424</v>
+        <v>0.00506337354924976</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009918525769763922</v>
+        <v>0.003277104818985027</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008319189629735289</v>
+        <v>0.006093980589333213</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009977535181424635</v>
+        <v>0.005093684112146807</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01992089638658853</v>
+        <v>0.01729521590015909</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.01000301951096709</v>
+        <v>0.005012603949507039</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03106664155992511</v>
+        <v>0.02743518364583669</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009977535181424635</v>
+        <v>0.004980923264923419</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008655133560085057</v>
+        <v>0.005719246795377518</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01157161339805791</v>
+        <v>0.003823288955482531</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008750881964062145</v>
+        <v>0.006502946580035703</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01164045771166207</v>
+        <v>0.005942631464171275</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02074759776332016</v>
+        <v>0.01863417429018613</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0116701894294616</v>
+        <v>0.005848037941091545</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03264442543574325</v>
+        <v>0.03029356867922112</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01164045771166207</v>
+        <v>0.005811077142410656</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01142599532963144</v>
+        <v>0.006288340497468098</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.0132247010263519</v>
+        <v>0.004369473091980036</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.00916757402772253</v>
+        <v>0.007161481693323063</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01330338024189951</v>
+        <v>0.006791578816195742</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02164318782697264</v>
+        <v>0.02011710317697166</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01333735934795612</v>
+        <v>0.006683471932676051</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03441576755696502</v>
+        <v>0.03241224503210122</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01330338024189951</v>
+        <v>0.006641231019897892</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01410222951325295</v>
+        <v>0.004700743171084316</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009921100921942386</v>
+        <v>0.007679422978838168</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01496630277213695</v>
+        <v>0.007640526168220211</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0225270400455812</v>
+        <v>0.02139534053642742</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01500452926645063</v>
+        <v>0.007518905924260558</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03618528575582458</v>
+        <v>0.03465118073543932</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01496630277213695</v>
+        <v>0.007471384897385129</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01210848610139432</v>
+        <v>0.007209292578712986</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01653087628293987</v>
+        <v>0.005461841364975044</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01033001815510755</v>
+        <v>0.008166607486223873</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01605937499999998</v>
+        <v>0.008489473520244678</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02420828814715215</v>
+        <v>0.02242022434446514</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01690460526315789</v>
+        <v>0.008354339915845064</v>
       </c>
       <c r="N75" s="171" t="n">
         <v>0.0380865581391967</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01605937499999999</v>
+        <v>0.008548515997437627</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01298868792143374</v>
+        <v>0.007636128159611254</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01818396391123386</v>
+        <v>0.006008025501472549</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01115896306898783</v>
+        <v>0.008532872265123059</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01829214783261183</v>
+        <v>0.009338420872269146</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02536092888396324</v>
+        <v>0.02420828814715215</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01833886910343966</v>
+        <v>0.009599258702794359</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04112995393770502</v>
+        <v>0.03894346994975195</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01829214783261183</v>
+        <v>0.009131692652359602</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01387592201999294</v>
+        <v>0.008045687624004691</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01983705153952784</v>
+        <v>0.006554209637970054</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01199599409784558</v>
+        <v>0.008988054365178584</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01995507036284927</v>
+        <v>0.01018736822429361</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02675475892303292</v>
+        <v>0.02480993210809579</v>
       </c>
       <c r="M77" t="n">
-        <v>0.02000603902193417</v>
+        <v>0.01002520789901408</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04415564507807929</v>
+        <v>0.04103687256385963</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01995507036284927</v>
+        <v>0.009961846529846838</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01575746903111482</v>
+        <v>0.008437819517237793</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02149013916782183</v>
+        <v>0.007100393774467558</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01265615215364686</v>
+        <v>0.009441990836033323</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02161799289308671</v>
+        <v>0.01103631557631808</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02855956188024508</v>
+        <v>0.02601899647486508</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02167320894042869</v>
+        <v>0.01086064189059858</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04676268840490472</v>
+        <v>0.04314524844426987</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02161799289308671</v>
+        <v>0.01079200040733407</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01562060958884229</v>
+        <v>0.008812372384655043</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02314322679611582</v>
+        <v>0.007646577910965063</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01342558225646223</v>
+        <v>0.01033001815510755</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02328091542332415</v>
+        <v>0.01228841743034669</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03033637321693894</v>
+        <v>0.02706056054252448</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0233403788589232</v>
+        <v>0.01169607588218309</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04950064415704158</v>
+        <v>0.04535981082084262</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02328091542332415</v>
+        <v>0.01162215428482131</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01645262432721822</v>
+        <v>0.009169194771600934</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02479631442440981</v>
+        <v>0.008192762047462568</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01419042942636223</v>
+        <v>0.01058519932993795</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02494383795356159</v>
+        <v>0.01273421028036702</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03224622839445371</v>
+        <v>0.02822750388984679</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02500754877741772</v>
+        <v>0.0125315098737676</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05261907257335002</v>
+        <v>0.04797177292343774</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02494383795356159</v>
+        <v>0.01245230816230855</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01724079388028552</v>
+        <v>0.009508135223419943</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02644940205270379</v>
+        <v>0.008738946183960072</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01493683868341744</v>
+        <v>0.01098721899071218</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02660676048379903</v>
+        <v>0.01358315763239148</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03405016287412857</v>
+        <v>0.0294127060956049</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02667471869591223</v>
+        <v>0.0133669438653521</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05486753389269022</v>
+        <v>0.04997234798191486</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02660676048379903</v>
+        <v>0.01328246203979578</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01697239888208708</v>
+        <v>0.009829042285456557</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02810248968099778</v>
+        <v>0.009285130320457574</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0157509550476984</v>
+        <v>0.01150739909943918</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02826968301403647</v>
+        <v>0.01443210498441595</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03560921211730272</v>
+        <v>0.03070904673857155</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02834188861440674</v>
+        <v>0.01420237785693661</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05769558835392236</v>
+        <v>0.05205274922613401</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02826968301403647</v>
+        <v>0.01411261591728302</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0196347199666658</v>
+        <v>0.01013176450305528</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02975557730929177</v>
+        <v>0.009831314456955079</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01621892353927565</v>
+        <v>0.01214228706775667</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0299326055442739</v>
+        <v>0.01528105233644042</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03738441158531541</v>
+        <v>0.03210940539751966</v>
       </c>
       <c r="M83" t="n">
-        <v>0.03000905853290126</v>
+        <v>0.01503781184852112</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0600527961959067</v>
+        <v>0.05370418988595493</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0299326055442739</v>
+        <v>0.01494276979477026</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02021503776806456</v>
+        <v>0.01041615042156058</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03140866493758575</v>
+        <v>0.01037749859345258</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01682688917821976</v>
+        <v>0.01258843030730236</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03159552807451135</v>
+        <v>0.01612999968846489</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03883679673950585</v>
+        <v>0.03330666165122192</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03167622845139578</v>
+        <v>0.01587324584010562</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06218871765750333</v>
+        <v>0.05581788319123765</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03159552807451135</v>
+        <v>0.01577292367225749</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01970063292032628</v>
+        <v>0.01068204858631695</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03306175256587975</v>
+        <v>0.01092368272995009</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0174609969846013</v>
+        <v>0.01314237622971398</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03325845060474879</v>
+        <v>0.01697894704048936</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04012740304121326</v>
+        <v>0.03499369507845124</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03334339836989029</v>
+        <v>0.01670867983169013</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0643529129775724</v>
+        <v>0.05808504237184192</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03325845060474879</v>
+        <v>0.01660307754974473</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02107878605749386</v>
+        <v>0.01092930754266889</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03471484019417373</v>
+        <v>0.01146986686644759</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01800739197849079</v>
+        <v>0.01360067224662924</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03492137313498622</v>
+        <v>0.01782789439251382</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04141726595177683</v>
+        <v>0.03606338525798047</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0350105682883848</v>
+        <v>0.01754411382327463</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0661949423949742</v>
+        <v>0.06009688065762742</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03492137313498622</v>
+        <v>0.01743323142723197</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02137014008665888</v>
+        <v>0.01115777583596086</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03636792782246772</v>
+        <v>0.0120160510029451</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01835221917995879</v>
+        <v>0.01425986576968584</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03658429566522366</v>
+        <v>0.01867684174453829</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04226742093253572</v>
+        <v>0.03750861176858233</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03667773820687932</v>
+        <v>0.01837954781485914</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06696436614856888</v>
+        <v>0.06154461127845429</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03658429566522366</v>
+        <v>0.0182633853047192</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01964995257351045</v>
+        <v>0.01136730201153739</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0380210154507617</v>
+        <v>0.0125622351394426</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01850987366333798</v>
+        <v>0.01471650421052154</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03824721819546111</v>
+        <v>0.01952578909656276</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04334785685465553</v>
+        <v>0.03862225418902976</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03834490812537383</v>
+        <v>0.01921498180644365</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06821421002356881</v>
+        <v>0.06331944746418211</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03824721819546111</v>
+        <v>0.01909353918220644</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0219200386194528</v>
+        <v>0.01155773461474292</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03967410307905569</v>
+        <v>0.01310841927594011</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01885548438945836</v>
+        <v>0.01526713498077402</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03991014072569854</v>
+        <v>0.02037473644858723</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04393257995182337</v>
+        <v>0.03979719209809546</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04001207804386835</v>
+        <v>0.02005041579802816</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06881977156852781</v>
+        <v>0.06541260244467106</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03991014072569854</v>
+        <v>0.01992369305969368</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02117848839456789</v>
+        <v>0.01172892219092196</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04132719070734967</v>
+        <v>0.01365460341243761</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01909258782449731</v>
+        <v>0.016008305492081</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04157306325593598</v>
+        <v>0.0212236838006117</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04449904793077961</v>
+        <v>0.04062630507455228</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04167924796236287</v>
+        <v>0.02088584978961266</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07039396691146138</v>
+        <v>0.06631528944978071</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04157306325593598</v>
+        <v>0.02075384693718091</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02042339206893774</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04298027833564366</v>
+        <v>0.01410222951325295</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01931948989867627</v>
+        <v>0.01633656315608022</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04323598578617342</v>
+        <v>0.02207263115263616</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04474326025873404</v>
+        <v>0.04170247269717314</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04334641788085738</v>
+        <v>0.02172128378119717</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07083055005297773</v>
+        <v>0.06821872170937088</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04323598578617342</v>
+        <v>0.02158400081466815</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02165283981264432</v>
+        <v>0.01202567676268845</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04463336596393765</v>
+        <v>0.01474697168543262</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01943449654221668</v>
+        <v>0.01694845538440938</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04489890831641086</v>
+        <v>0.02292157850466063</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04556121640289659</v>
+        <v>0.04291857454473075</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04501358779935189</v>
+        <v>0.02255671777278167</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07152327499368527</v>
+        <v>0.06961411245330162</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04489890831641086</v>
+        <v>0.02241415469215539</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02186492179576961</v>
+        <v>0.01216900622902115</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04628645359223164</v>
+        <v>0.01529315582193013</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01973591368534001</v>
+        <v>0.01744052958870621</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0465618308466483</v>
+        <v>0.0237705258566851</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04584891583047712</v>
+        <v>0.04386749019599798</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0466807577178464</v>
+        <v>0.02339215176436618</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07206589573419242</v>
+        <v>0.0707926749114326</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0465618308466483</v>
+        <v>0.02324430856964262</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02105772818839559</v>
+        <v>0.01231097980067199</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04793954122052563</v>
+        <v>0.01583933995842763</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01972204725826771</v>
+        <v>0.01790933318060842</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04822475337688574</v>
+        <v>0.02461947320870957</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04630235800868557</v>
+        <v>0.04474209922974764</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04834792763634092</v>
+        <v>0.02422758575595069</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07325216627510739</v>
+        <v>0.07194562231362389</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04822475337688574</v>
+        <v>0.02407446244712986</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02322934916060422</v>
+        <v>0.01245157907412426</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04959262884881961</v>
+        <v>0.01638552409492514</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01989120319122119</v>
+        <v>0.01845141357175371</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04988767590712318</v>
+        <v>0.02546842056073403</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0466175424047317</v>
+        <v>0.04563528122475255</v>
       </c>
       <c r="M95" t="n">
-        <v>0.05001509755483544</v>
+        <v>0.02506301974753519</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07407584061703848</v>
+        <v>0.07276416788973517</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04988767590712318</v>
+        <v>0.02490461632461709</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02137787488247751</v>
+        <v>0.01259078564586127</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0512457164771136</v>
+        <v>0.01693170823142264</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02004168741442193</v>
+        <v>0.01866331817377982</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05155059843736062</v>
+        <v>0.02631736791275851</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04729046848582547</v>
+        <v>0.04643991575978557</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05168226747332996</v>
+        <v>0.0258984537391197</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07413067276059415</v>
+        <v>0.07373952486962632</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05155059843736062</v>
+        <v>0.02573477020210433</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02250139552409743</v>
+        <v>0.01272858111236632</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05289880410540759</v>
+        <v>0.01747789236792014</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02017180585809136</v>
+        <v>0.01904159439832448</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05321352096759806</v>
+        <v>0.02716631526478297</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0473171357191767</v>
+        <v>0.04664888241361939</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05334943739182446</v>
+        <v>0.0267338877307042</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07511041670638263</v>
+        <v>0.07486290648315713</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05321352096759806</v>
+        <v>0.02656492407959157</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02159800125554595</v>
+        <v>0.01286494707012271</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05455189173370158</v>
+        <v>0.01802407650441765</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02027986445245095</v>
+        <v>0.01958278965702538</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05487644349783549</v>
+        <v>0.02801526261680743</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04779354357199525</v>
+        <v>0.04755506076502702</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05501660731031898</v>
+        <v>0.02756932172228871</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07480882645501225</v>
+        <v>0.07552552596018752</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05487644349783549</v>
+        <v>0.02739507795707881</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02366578224690508</v>
+        <v>0.01299986511561377</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05620497936199556</v>
+        <v>0.01857026064091515</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02036416912772214</v>
+        <v>0.01968345136152024</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05653936602807294</v>
+        <v>0.02886420996883191</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04801569151149107</v>
+        <v>0.04765133039278113</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05668377722881349</v>
+        <v>0.02840475571387322</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07511965600709142</v>
+        <v>0.0756185965305774</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05653936602807294</v>
+        <v>0.02822523183456604</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02370952772806099</v>
+        <v>0.01313331684532277</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05785806699028955</v>
+        <v>0.01911644477741265</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02052302581412635</v>
+        <v>0.02004012692344678</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05820228855831037</v>
+        <v>0.02971315732085637</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04827957900487392</v>
+        <v>0.04803057087565463</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05835094714730801</v>
+        <v>0.02924018970545773</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07543665936322841</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05820228855831037</v>
+        <v>0.02905538571205328</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02170841789493683</v>
+        <v>0.01326528385573303</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05951115461858354</v>
+        <v>0.01966262891391016</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0206600363102151</v>
+        <v>0.02014936375444272</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05986521108854781</v>
+        <v>0.03056210467288084</v>
       </c>
       <c r="L101" t="n">
         <v>0.04841657629430426</v>
       </c>
       <c r="M101" t="n">
-        <v>0.06001811706580253</v>
+        <v>0.03007562369704223</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0761731162783934</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05986521108854781</v>
+        <v>0.02988553958954052</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02369445058202574</v>
+        <v>0.01339574774332786</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06116424224687753</v>
+        <v>0.02020881305040766</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02045886998798797</v>
+        <v>0.02030770926614579</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06152813361878526</v>
+        <v>0.03141105202490531</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04801657052214042</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06168528698429704</v>
+        <v>0.03091105768862674</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07606881607304578</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06152813361878526</v>
+        <v>0.03071569346702775</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02366526682606378</v>
+        <v>0.01352469010459056</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06281732987517151</v>
+        <v>0.02075499718690517</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02044608810714273</v>
+        <v>0.02051171087019371</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06319105614902269</v>
+        <v>0.03225999937692978</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04830012175503898</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06335245690279155</v>
+        <v>0.03174649168021124</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07602168954910066</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06319105614902269</v>
+        <v>0.03154584734451499</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0236218731624942</v>
+        <v>0.01365209253600442</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06447041750346549</v>
+        <v>0.02130118132340267</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02041992606944878</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06485397867926013</v>
+        <v>0.03310894672895424</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04795128859844772</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06501962682128606</v>
+        <v>0.03258192567179575</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07552523067025751</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06485397867926013</v>
+        <v>0.03237600122200222</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02356527612676024</v>
+        <v>0.01377793663405277</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06612350513175949</v>
+        <v>0.02184736545990018</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02058127669853368</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06651690120949758</v>
+        <v>0.03395789408097871</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0480721823901287</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06668679673978058</v>
+        <v>0.03341735966338025</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07528273125832052</v>
+        <v>0.07577311627839339</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06651690120949758</v>
+        <v>0.03320615509948946</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02249648225430512</v>
+        <v>0.01390220399521889</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06777659276005348</v>
+        <v>0.02239354959639768</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02033103281802498</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06817982373973501</v>
+        <v>0.03480684143300318</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04816491152623126</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06835396665827509</v>
+        <v>0.03425279365496476</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07519748313509361</v>
+        <v>0.07577311627839339</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06817982373973501</v>
+        <v>0.0340363089769767</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02341649808057207</v>
+        <v>0.0140248762159861</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06942968038834746</v>
+        <v>0.02293973373289519</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02037008725155026</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06984274626997244</v>
+        <v>0.03565578878502765</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04773158440290476</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0700211365767696</v>
+        <v>0.03508822764654927</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0754727781223809</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06984274626997244</v>
+        <v>0.03486646285446393</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02332633014100437</v>
+        <v>0.01414593489283771</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07108276801664144</v>
+        <v>0.02348591786939269</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02019933282273706</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07150566880020989</v>
+        <v>0.03650473613705212</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04767430941629855</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07168830649526413</v>
+        <v>0.03592366163813378</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07461190804198647</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07150566880020989</v>
+        <v>0.03569661673195117</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02122698497104522</v>
+        <v>0.01426536162225699</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07273585564493544</v>
+        <v>0.0240321020058902</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02031966235521299</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07316859133044733</v>
+        <v>0.03735368348907658</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04729519496256201</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07335547641375864</v>
+        <v>0.03675909562971828</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07421816471571424</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07316859133044733</v>
+        <v>0.03652677060943841</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02211946910613788</v>
+        <v>0.01438313800072728</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07438894327322942</v>
+        <v>0.0245782861423877</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02013196867260553</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07483151386068476</v>
+        <v>0.03820263084110105</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04749634943784453</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07502264633225315</v>
+        <v>0.03759452962130279</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07419483996536835</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07483151386068476</v>
+        <v>0.03735692448692565</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02300478908172555</v>
+        <v>0.01449924562473187</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07604203090152341</v>
+        <v>0.02512447027888521</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0199371445985423</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07649443639092221</v>
+        <v>0.03905157819312552</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04707988123829546</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07668981625074767</v>
+        <v>0.03842996361288729</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07364522561275283</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07649443639092221</v>
+        <v>0.03818707836441288</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02088395143325152</v>
+        <v>0.01461366609075407</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07769511852981741</v>
+        <v>0.02567065441538271</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01993608295665086</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07815735892115964</v>
+        <v>0.03990052554514999</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04684789876006415</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07835698616924218</v>
+        <v>0.03926539760447181</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07317261347967169</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07815735892115964</v>
+        <v>0.03901723224190012</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.021757962696159</v>
+        <v>0.01472638099527717</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07934820615811138</v>
+        <v>0.02621683855188021</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01992967657055875</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07982028145139708</v>
+        <v>0.04074947289717445</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04640251039929999</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M113" t="n">
-        <v>0.08002415608773669</v>
+        <v>0.04010083159605631</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07288029538792906</v>
+        <v>0.07557311627839342</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07982028145139708</v>
+        <v>0.03984738611938735</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02062782940589121</v>
+        <v>0.01483737193478449</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08100129378640536</v>
+        <v>0.02676302268837772</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01961881826389354</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08148320398163453</v>
+        <v>0.04159842024919892</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04634582455215236</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0816913260062312</v>
+        <v>0.04093626558764081</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07267156315932882</v>
+        <v>0.07557311627839342</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08148320398163453</v>
+        <v>0.04067753999687459</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02049455809789141</v>
+        <v>0.01494662050575932</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08265438141469934</v>
+        <v>0.02730920682487523</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01950440086028281</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08314612651187196</v>
+        <v>0.04244736760122339</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04587994961477057</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08335849592472573</v>
+        <v>0.04177169957922532</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07194970861567529</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08314612651187196</v>
+        <v>0.04150769387436182</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02035915530760285</v>
+        <v>0.01505410830468498</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08430746904299334</v>
+        <v>0.02785539096137273</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01958731718335409</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08480904904210941</v>
+        <v>0.04329631495324786</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04560699398330403</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08502566584322024</v>
+        <v>0.04260713357080983</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07151802357877224</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08480904904210941</v>
+        <v>0.04233784775184907</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02022262757046873</v>
+        <v>0.01515981692804477</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08596055667128732</v>
+        <v>0.02840157509787023</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01926846005673494</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08647197157234685</v>
+        <v>0.04414526230527233</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04552906605390217</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08669283576171476</v>
+        <v>0.04344256756239433</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0714797998704238</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08647197157234685</v>
+        <v>0.0431680016293363</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02008598142193233</v>
+        <v>0.01526372797232199</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08761364429958131</v>
+        <v>0.02894775923436774</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01914872230405296</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08813489410258428</v>
+        <v>0.04499420965729679</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04514827422271422</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08836000568020927</v>
+        <v>0.04427800155397884</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0709383293124341</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08813489410258428</v>
+        <v>0.04399815550682353</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02195022339743685</v>
+        <v>0.01536582303399994</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08926673192787531</v>
+        <v>0.02949394337086524</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01902899674893568</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08979781663282173</v>
+        <v>0.04584315700932126</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04476672688588962</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M119" t="n">
-        <v>0.09002717559870378</v>
+        <v>0.04511343554556334</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07089690372660712</v>
+        <v>0.07557311627839342</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08979781663282173</v>
+        <v>0.04482830938431077</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0208149836607824</v>
+        <v>0.01546608370956193</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09091981955616929</v>
+        <v>0.03004012750736275</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01911017621501067</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09146073916305916</v>
+        <v>0.04669210436134573</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04468653243957774</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09169434551719831</v>
+        <v>0.04594886953714785</v>
       </c>
       <c r="N120" t="n">
-        <v>0.06995881493474687</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09146073916305916</v>
+        <v>0.04565846326179801</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01966365004290305</v>
+        <v>0.01556449159549127</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09257290718446327</v>
+        <v>0.03058631164386025</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01889063261893553</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0931236616932966</v>
+        <v>0.0475410517133702</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04460947676812982</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09336151543569281</v>
+        <v>0.04678430352873236</v>
       </c>
       <c r="N121" t="n">
-        <v>0.06941806022805419</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0931236616932966</v>
+        <v>0.04648861713928525</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01949362756147613</v>
+        <v>0.01566102828827124</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09422599481275726</v>
+        <v>0.03113249578035775</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0186553012821386</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09478658422353405</v>
+        <v>0.04838999906539466</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04430692554517651</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09502868535418733</v>
+        <v>0.04761973752031687</v>
       </c>
       <c r="N122" t="n">
-        <v>0.06911909645571823</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09478658422353405</v>
+        <v>0.04731877101677248</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01930819562929212</v>
+        <v>0.01575567538438519</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09587908244105126</v>
+        <v>0.03167867991685526</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01850393921792574</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09644950675377148</v>
+        <v>0.04923894641741913</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04356412919466099</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09669585527268185</v>
+        <v>0.04845517151190137</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06866102773094435</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09644950675377148</v>
+        <v>0.04814892489425972</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02111063365914155</v>
+        <v>0.01584841448031637</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09753217006934524</v>
+        <v>0.03222486405335277</v>
       </c>
       <c r="J124" t="n">
-        <v>0.01833945535239942</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09811242928400891</v>
+        <v>0.0500878937694436</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04328795712326544</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09836302519117635</v>
+        <v>0.04929060550348587</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06835457920265886</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09811242928400891</v>
+        <v>0.04897907877174695</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02090422106381491</v>
+        <v>0.01593922717254812</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09918525769763922</v>
+        <v>0.03277104818985027</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0182647586116621</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09977535181424636</v>
+        <v>0.05093684112146807</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04318527873767219</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M125" t="n">
-        <v>0.1000301951096709</v>
+        <v>0.05012603949507038</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06721047601978775</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09977535181424636</v>
+        <v>0.04980923264923419</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02069223725610272</v>
+        <v>0.01602809505756373</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1008383453259332</v>
+        <v>0.03331723232634778</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01818275792181626</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1014382743444838</v>
+        <v>0.05178578847349254</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04256296344456345</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1016973650281654</v>
+        <v>0.05096147348665489</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06703944333125755</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1014382743444838</v>
+        <v>0.05063938652672142</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01847796164879549</v>
+        <v>0.01611499973184652</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1024914329542272</v>
+        <v>0.03386341646284528</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01799636220896433</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1031011968747212</v>
+        <v>0.05263473582551701</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04192788065062147</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1033645349466599</v>
+        <v>0.0517969074782394</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06575220628599432</v>
+        <v>0.07577311627839339</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1031011968747212</v>
+        <v>0.05146954040420867</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02026467365468372</v>
+        <v>0.01619992279187977</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1041445205825212</v>
+        <v>0.03440960059934278</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01770848039920882</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1047641194049587</v>
+        <v>0.05348368317754146</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0415868997625285</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1050317048651544</v>
+        <v>0.0526323414698239</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06565949003292432</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1047641194049587</v>
+        <v>0.0522996942816959</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01805565268655791</v>
+        <v>0.0162828458341468</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1057976082108152</v>
+        <v>0.03495578473584029</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01742202141865218</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1064270419351961</v>
+        <v>0.05433263052956594</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04124689018696673</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1066988747836489</v>
+        <v>0.05346777546140841</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06467201972097386</v>
+        <v>0.07557311627839342</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1064270419351961</v>
+        <v>0.05312984815918314</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01985417815720859</v>
+        <v>0.01636375045513092</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1074506958391092</v>
+        <v>0.03550196887233779</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01733989419339689</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1080899644654336</v>
+        <v>0.05518157788159041</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04091472133061852</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1083660447021434</v>
+        <v>0.05430320945299292</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06410052049906911</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1080899644654336</v>
+        <v>0.05396000203667038</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01966102923746652</v>
+        <v>0.01644261825131541</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1091037834674032</v>
+        <v>0.03604815300883529</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01726500764954539</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K131" t="n">
-        <v>0.109752886995671</v>
+        <v>0.05603052523361487</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04039726260016599</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M131" t="n">
-        <v>0.110033214620638</v>
+        <v>0.05513864344457742</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06295571751613638</v>
+        <v>0.07577311627839339</v>
       </c>
       <c r="O131" t="n">
-        <v>0.109752886995671</v>
+        <v>0.05479015591415761</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01845374404509728</v>
+        <v>0.01651943081918359</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1107568710956971</v>
+        <v>0.0365943371453328</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01699489303494232</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1114158095259084</v>
+        <v>0.05687947258563934</v>
       </c>
       <c r="L132" t="n">
-        <v>0.03999910438587442</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1117003845391325</v>
+        <v>0.05597407743616193</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06262850853526897</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1114158095259084</v>
+        <v>0.05562030979164484</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01822994636327606</v>
+        <v>0.01659416975521877</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1124099587239911</v>
+        <v>0.0371405212818303</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01670969534673462</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1130787320561459</v>
+        <v>0.05772841993766381</v>
       </c>
       <c r="L133" t="n">
-        <v>0.03977695326333719</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M133" t="n">
-        <v>0.113367554457627</v>
+        <v>0.05680951142774644</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06174568858149387</v>
+        <v>0.07557311627839342</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1130787320561459</v>
+        <v>0.05645046366913208</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01899433067237315</v>
+        <v>0.01666681665590425</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1140630463522851</v>
+        <v>0.0376867054183278</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0166108505532708</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1147416545863833</v>
+        <v>0.05857736728968827</v>
       </c>
       <c r="L134" t="n">
-        <v>0.03901937482100726</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1150347243761215</v>
+        <v>0.05764494541933094</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06151255203969674</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1147416545863833</v>
+        <v>0.05728061754661933</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0167515914527589</v>
+        <v>0.01673735311772333</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1157161339805791</v>
+        <v>0.03823288955482531</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0164025227831187</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1164045771166207</v>
+        <v>0.05942631464171275</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0388362026165627</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M135" t="n">
-        <v>0.116701894294616</v>
+        <v>0.05848037941091545</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06074445196370759</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1164045771166207</v>
+        <v>0.05811077142410656</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01750642318480361</v>
+        <v>0.01680576073715932</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1173692216088731</v>
+        <v>0.03877907369132282</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01618887616484616</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1180674996468582</v>
+        <v>0.06027526199373721</v>
       </c>
       <c r="L136" t="n">
-        <v>0.03833727020768157</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1183690642131105</v>
+        <v>0.05931581340249996</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06005674140735617</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1180674996468582</v>
+        <v>0.0589409253015938</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0172635203488776</v>
+        <v>0.01687202111069551</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1190223092371671</v>
+        <v>0.03932525782782031</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01587407482702106</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1197304221770956</v>
+        <v>0.06112420934576169</v>
       </c>
       <c r="L137" t="n">
-        <v>0.03743241115204191</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1200362341316051</v>
+        <v>0.06015124739408446</v>
       </c>
       <c r="N137" t="n">
-        <v>0.05906477342447247</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1197304221770956</v>
+        <v>0.05977107917908103</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0170275774253512</v>
+        <v>0.01693611583481522</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1206753968654611</v>
+        <v>0.03987144196431782</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01566228289821123</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1213933447073331</v>
+        <v>0.06197315669778615</v>
       </c>
       <c r="L138" t="n">
-        <v>0.03713145900732173</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1217034040500996</v>
+        <v>0.06098668138566897</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0577839010688862</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1213933447073331</v>
+        <v>0.06060123305656826</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01580328889459473</v>
+        <v>0.01699802650600175</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1223284844937551</v>
+        <v>0.04041762610081533</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01555766450698458</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1230562672375705</v>
+        <v>0.06282210404981062</v>
       </c>
       <c r="L139" t="n">
-        <v>0.03684424733119906</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1233705739685941</v>
+        <v>0.06182211537725348</v>
       </c>
       <c r="N139" t="n">
-        <v>0.05702947739442732</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1230562672375705</v>
+        <v>0.0614313869340555</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0175953492369785</v>
+        <v>0.01705773472073839</v>
       </c>
       <c r="G140" t="n">
-        <v>0.123981572122049</v>
+        <v>0.04096381023731283</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01526438378190891</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1247191897678079</v>
+        <v>0.06367105140183509</v>
       </c>
       <c r="L140" t="n">
-        <v>0.03628060968135194</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1250377438870886</v>
+        <v>0.06265754936883798</v>
       </c>
       <c r="N140" t="n">
-        <v>0.05651685545492563</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1247191897678079</v>
+        <v>0.06226154081154273</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01740845293287283</v>
+        <v>0.01711522207550847</v>
       </c>
       <c r="G141" t="n">
-        <v>0.125634659750343</v>
+        <v>0.04150999437381034</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0152866048515521</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1263821122980454</v>
+        <v>0.06451999875385955</v>
       </c>
       <c r="L141" t="n">
-        <v>0.03565037961545844</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1267049138055831</v>
+        <v>0.06349298336042249</v>
       </c>
       <c r="N141" t="n">
-        <v>0.05626138830421096</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1263821122980454</v>
+        <v>0.06309169468902998</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01724729446264805</v>
+        <v>0.01717047016679529</v>
       </c>
       <c r="G142" t="n">
-        <v>0.127287747378637</v>
+        <v>0.04205617851030784</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01492849184448199</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1280450348282828</v>
+        <v>0.06536894610588402</v>
       </c>
       <c r="L142" t="n">
-        <v>0.03526339069119655</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1283720837240776</v>
+        <v>0.06432841735200699</v>
       </c>
       <c r="N142" t="n">
-        <v>0.05537842899611317</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1280450348282828</v>
+        <v>0.06392184856651721</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01711656830667446</v>
+        <v>0.01722346059108213</v>
       </c>
       <c r="G143" t="n">
-        <v>0.128940835006931</v>
+        <v>0.04260236264680534</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01499420888926647</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1297079573585203</v>
+        <v>0.06621789345790849</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03492947646624434</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1300392536425721</v>
+        <v>0.0651638513435915</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05488333058446221</v>
+        <v>0.07557311627839342</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1297079573585203</v>
+        <v>0.06475200244400445</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0160209689453224</v>
+        <v>0.01727417494485232</v>
       </c>
       <c r="G144" t="n">
-        <v>0.130593922635225</v>
+        <v>0.04314854678330285</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01478792011447334</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1313708798887577</v>
+        <v>0.06706684080993296</v>
       </c>
       <c r="L144" t="n">
-        <v>0.03495847049827977</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1317064235610666</v>
+        <v>0.065999285335176</v>
       </c>
       <c r="N144" t="n">
-        <v>0.05459144612308781</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1313708798887577</v>
+        <v>0.06558215632149168</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01596519085896218</v>
+        <v>0.01732259482458914</v>
       </c>
       <c r="G145" t="n">
-        <v>0.132247010263519</v>
+        <v>0.04369473091980036</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01481378964867051</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1330338024189952</v>
+        <v>0.06791578816195742</v>
       </c>
       <c r="L145" t="n">
-        <v>0.03476020634498098</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1333735934795612</v>
+        <v>0.06683471932676051</v>
       </c>
       <c r="N145" t="n">
-        <v>0.05391812866581996</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1330338024189952</v>
+        <v>0.06641231019897892</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01695254503802188</v>
+        <v>0.01736870182677591</v>
       </c>
       <c r="G146" t="n">
-        <v>0.133900097891813</v>
+        <v>0.04424091505629786</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01457598162042582</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1346967249492326</v>
+        <v>0.06876473551398189</v>
       </c>
       <c r="L146" t="n">
-        <v>0.03464451756402595</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1350407633980557</v>
+        <v>0.06767015331834501</v>
       </c>
       <c r="N146" t="n">
-        <v>0.05437873126648846</v>
+        <v>0.07607286090867937</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1346967249492326</v>
+        <v>0.06724246407646615</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01495773959719367</v>
+        <v>0.01741247754789595</v>
       </c>
       <c r="G147" t="n">
-        <v>0.135553185520107</v>
+        <v>0.04478709919279537</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01477288135047142</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K147" t="n">
-        <v>0.13635964747947</v>
+        <v>0.06961368286600636</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03441833946390641</v>
+        <v>0.04801606133096589</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1367079333165502</v>
+        <v>0.06850558730992952</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05426730063683283</v>
+        <v>0.07606894958188659</v>
       </c>
       <c r="O147" t="n">
-        <v>0.13635964747947</v>
+        <v>0.06807261795395339</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01696949896907869</v>
+        <v>0.01745390358443252</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1372062731484009</v>
+        <v>0.04533328332929287</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01457923274325591</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1380225700097075</v>
+        <v>0.07046263021803083</v>
       </c>
       <c r="L148" t="n">
-        <v>0.03432914189425512</v>
+        <v>0.04801278972599263</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1383751032350447</v>
+        <v>0.06934102130151402</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05399071808750139</v>
+        <v>0.07546045784058081</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1380225700097075</v>
+        <v>0.06890277183144063</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01698747820496941</v>
+        <v>0.01749296153286897</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1388593607766949</v>
+        <v>0.04587946746579037</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01459127860722551</v>
+        <v>0.02065969807063359</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1396854925399449</v>
+        <v>0.0713115775700553</v>
       </c>
       <c r="L149" t="n">
-        <v>0.03425357105432414</v>
+        <v>0.04820659953450626</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1400422731535392</v>
+        <v>0.07017645529309853</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05403513093281542</v>
+        <v>0.0754475630425212</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1396854925399449</v>
+        <v>0.06973292570892786</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01501133235615824</v>
+        <v>0.01752963298968858</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1405124484049889</v>
+        <v>0.04642565160228788</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01460871296372984</v>
+        <v>0.02065808916104395</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1413484150701823</v>
+        <v>0.07216052492207976</v>
       </c>
       <c r="L150" t="n">
-        <v>0.03459090437787726</v>
+        <v>0.04819760565204623</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1417094430720337</v>
+        <v>0.07101188928468305</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05399941103597222</v>
+        <v>0.07553044254546709</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1413484150701823</v>
+        <v>0.07056307958641511</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01604071647393764</v>
+        <v>0.01756389955137466</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1421655360332829</v>
+        <v>0.04697183573878538</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01463122983411862</v>
+        <v>0.02045520213292683</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1430113376004198</v>
+        <v>0.07300947227410423</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0345404192986784</v>
+        <v>0.04818592297415189</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1433766129905283</v>
+        <v>0.07184732327626756</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05438243026016887</v>
+        <v>0.07560927370717779</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1430113376004198</v>
+        <v>0.07139323346390235</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01607528560960005</v>
+        <v>0.01759574281441052</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1438186236615769</v>
+        <v>0.04751801987528289</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01475852323974153</v>
+        <v>0.02065108843161996</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1446742601306572</v>
+        <v>0.0738584196261287</v>
       </c>
       <c r="L152" t="n">
-        <v>0.03460139325049141</v>
+        <v>0.04807166639636273</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1450437829090228</v>
+        <v>0.07268275726785206</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05468306046860283</v>
+        <v>0.07588423388541266</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1446742601306572</v>
+        <v>0.07222338734138958</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01511469481443789</v>
+        <v>0.01762514437527943</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1454717112898709</v>
+        <v>0.0480642040117804</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0146902872019483</v>
+        <v>0.02044579950246105</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1463371826608947</v>
+        <v>0.07470736697815317</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03487310366708019</v>
+        <v>0.04835495081421812</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1467109528275173</v>
+        <v>0.07351819125943657</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05430017352447103</v>
+        <v>0.0756555004379309</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1463371826608947</v>
+        <v>0.07305354121887682</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01715859913974361</v>
+        <v>0.01765208583046475</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1471247989181649</v>
+        <v>0.04861038814827789</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01482621574208857</v>
+        <v>0.02063938679078782</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1480001051911321</v>
+        <v>0.07555631433017763</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03455482798220855</v>
+        <v>0.04793589112325741</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1483781227460118</v>
+        <v>0.07435362525102107</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05493264129097086</v>
+        <v>0.07532325072249191</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1480001051911321</v>
+        <v>0.07388369509636405</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01720665363680965</v>
+        <v>0.01767654877644975</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1487778865464588</v>
+        <v>0.0491565722847754</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01496600288151208</v>
+        <v>0.02063190174193801</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1496630277213695</v>
+        <v>0.0764052616822021</v>
       </c>
       <c r="L155" t="n">
-        <v>0.03504584362964042</v>
+        <v>0.04811460221902011</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1500452926645063</v>
+        <v>0.07518905924260558</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0551793356312994</v>
+        <v>0.07598766209685487</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1496630277213695</v>
+        <v>0.07471384897385129</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01725851335692845</v>
+        <v>0.01769851480971774</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1504309741747528</v>
+        <v>0.04970275642127291</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01490934264156851</v>
+        <v>0.0204233958012493</v>
       </c>
       <c r="K156" t="n">
-        <v>0.151325950251607</v>
+        <v>0.07725420903422657</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03494542804313963</v>
+        <v>0.04829119899704556</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1517124625830008</v>
+        <v>0.07602449323419008</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05503912840865394</v>
+        <v>0.07554891191877922</v>
       </c>
       <c r="O156" t="n">
-        <v>0.151325950251607</v>
+        <v>0.07554400285133851</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01731383335139243</v>
+        <v>0.01771796552675202</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1520840618030468</v>
+        <v>0.05024894055777041</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01485592904360754</v>
+        <v>0.02061392041405945</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1529888727818444</v>
+        <v>0.07810315638625104</v>
       </c>
       <c r="L157" t="n">
-        <v>0.03525285865647007</v>
+        <v>0.04826579635287317</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1533796325014953</v>
+        <v>0.07685992722577459</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05531089148623175</v>
+        <v>0.07530717754602412</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1529888727818444</v>
+        <v>0.07637415672882576</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01637623381734871</v>
+        <v>0.01773488252403588</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1537371494313408</v>
+        <v>0.05079512469426792</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01500545610897885</v>
+        <v>0.02060352702570616</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1546517953120818</v>
+        <v>0.07895210373827551</v>
       </c>
       <c r="L158" t="n">
-        <v>0.03496741290339558</v>
+        <v>0.04823850918204237</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1550468024199898</v>
+        <v>0.07769536121735909</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05549349672722986</v>
+        <v>0.07556263633634885</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1546517953120818</v>
+        <v>0.077204310606313</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01648592577920951</v>
+        <v>0.01774924739805267</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1553902370596348</v>
+        <v>0.05134130883076542</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01497155276026511</v>
+        <v>0.02039226708152715</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1563147178423193</v>
+        <v>0.07980105109029997</v>
       </c>
       <c r="L159" t="n">
-        <v>0.03550175329954131</v>
+        <v>0.04800945238009252</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1567139723384844</v>
+        <v>0.07853079520894361</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0558371936805383</v>
+        <v>0.07581546564751296</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1563147178423193</v>
+        <v>0.07803446448380023</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01564523114870982</v>
+        <v>0.01776104174528565</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1570433246879288</v>
+        <v>0.05188749296726292</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01528522520773963</v>
+        <v>0.02038019202686016</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1579776403725567</v>
+        <v>0.08064999844232444</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0353399109204918</v>
+        <v>0.04797874084256312</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1583811422569789</v>
+        <v>0.07936622920052812</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05595630158669646</v>
+        <v>0.07536584283727543</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1579776403725567</v>
+        <v>0.07886461836128747</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01784373675693176</v>
+        <v>0.01777024716221816</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1586964123162228</v>
+        <v>0.05243367710376043</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0154391450001452</v>
+        <v>0.0203673533070429</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1596405629027942</v>
+        <v>0.08149894579434891</v>
       </c>
       <c r="L161" t="n">
-        <v>0.03577864958140961</v>
+        <v>0.04804648946499351</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1600483121754734</v>
+        <v>0.08020166319211262</v>
       </c>
       <c r="N161" t="n">
-        <v>0.05642380060114199</v>
+        <v>0.07501394526339578</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1596405629027942</v>
+        <v>0.07969477223877471</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01807102943495738</v>
+        <v>0.01777684524533345</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1603494999445167</v>
+        <v>0.05297986124025793</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01542407538053488</v>
+        <v>0.0205538023674131</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1613034854330316</v>
+        <v>0.08234789314637338</v>
       </c>
       <c r="L162" t="n">
-        <v>0.03649615675160156</v>
+        <v>0.04771281314292303</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1617154820939679</v>
+        <v>0.08103709718369712</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05730563499665392</v>
+        <v>0.07505995028363321</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1613034854330316</v>
+        <v>0.08052492611626194</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01831669601386884</v>
+        <v>0.01778081759111488</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1620025875728107</v>
+        <v>0.05352604537675544</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01563077959196173</v>
+        <v>0.02043959065330844</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1629664079632691</v>
+        <v>0.08319684049839784</v>
       </c>
       <c r="L163" t="n">
-        <v>0.03687061990037485</v>
+        <v>0.04787782677189123</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1633826520124624</v>
+        <v>0.08187253117528162</v>
       </c>
       <c r="N163" t="n">
-        <v>0.05766774904601141</v>
+        <v>0.07490403525574701</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1629664079632691</v>
+        <v>0.08135507999374918</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01657032332474821</v>
+        <v>0.01778214579604575</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1636556752011047</v>
+        <v>0.05407222951325295</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01605002087747873</v>
+        <v>0.02042476961006669</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1646293304935065</v>
+        <v>0.08404578785042231</v>
       </c>
       <c r="L164" t="n">
-        <v>0.03748022649703636</v>
+        <v>0.04784164524743745</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1650498219309569</v>
+        <v>0.08270796516686613</v>
       </c>
       <c r="N164" t="n">
-        <v>0.05867608702199323</v>
+        <v>0.07554637753749649</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1646293304935065</v>
+        <v>0.08218523387123641</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01682149819867759</v>
+        <v>0.01778214579604574</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1653087628293987</v>
+        <v>0.05407222951325295</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01617256248013893</v>
+        <v>0.02040939068302555</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1662922530237439</v>
+        <v>0.08489473520244678</v>
       </c>
       <c r="L165" t="n">
-        <v>0.03790316401089311</v>
+        <v>0.04760438346510104</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1667169918494515</v>
+        <v>0.08354339915845063</v>
       </c>
       <c r="N165" t="n">
-        <v>0.05949659319737854</v>
+        <v>0.07538715448664102</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1662922530237439</v>
+        <v>0.08301538774872365</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0180598074667391</v>
+        <v>0.01734175065305296</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1669618504576927</v>
+        <v>0.05407196098478893</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0163891676429954</v>
+        <v>0.02039350531752275</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1679551755539814</v>
+        <v>0.08574368255447125</v>
       </c>
       <c r="L166" t="n">
-        <v>0.03811761991125207</v>
+        <v>0.04766615632042154</v>
       </c>
       <c r="M166" t="n">
-        <v>0.168384161767946</v>
+        <v>0.08437883315003514</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06029521184494629</v>
+        <v>0.07532654346093981</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1679551755539814</v>
+        <v>0.0838455416262109</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01727483796001483</v>
+        <v>0.01690627685444041</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1686149380859867</v>
+        <v>0.05407169245632491</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01659059960910114</v>
+        <v>0.02037716495889601</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1696180980842188</v>
+        <v>0.08659262990649572</v>
       </c>
       <c r="L167" t="n">
-        <v>0.03870178166742033</v>
+        <v>0.04792707870893825</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1700513316864405</v>
+        <v>0.08521426714161966</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06083788723747563</v>
+        <v>0.07486472181815218</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1696180980842188</v>
+        <v>0.08467569550369813</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01945998556172102</v>
+        <v>0.01647635094779156</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1702680257142807</v>
+        <v>0.05407142392786089</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01676762162150919</v>
+        <v>0.02046042105248302</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1712810206144562</v>
+        <v>0.08744157725852018</v>
       </c>
       <c r="L168" t="n">
-        <v>0.03923383674870476</v>
+        <v>0.04748726552619056</v>
       </c>
       <c r="M168" t="n">
-        <v>0.171718501604935</v>
+        <v>0.08604970113320416</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0614905636477453</v>
+        <v>0.07530186691603746</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1712810206144562</v>
+        <v>0.08550584938118537</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01763571210407508</v>
+        <v>0.01605259948074591</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1719211133425746</v>
+        <v>0.05407115539939687</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01692412592906513</v>
+        <v>0.02034332504362155</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1729439431446937</v>
+        <v>0.08829052461054465</v>
       </c>
       <c r="L169" t="n">
-        <v>0.03960785290503002</v>
+        <v>0.04764683166771796</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1733856715234295</v>
+        <v>0.08688513512478867</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06246759171480798</v>
+        <v>0.07513815611235497</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1729439431446937</v>
+        <v>0.08633600325867259</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01780711716039496</v>
+        <v>0.01563564900088667</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1735742009708686</v>
+        <v>0.05407088687093286</v>
       </c>
       <c r="J170" t="n">
-        <v>0.017076467902626</v>
+        <v>0.02022592837764928</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1746068656749311</v>
+        <v>0.08913947196256912</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04016796801139652</v>
+        <v>0.04750589202905983</v>
       </c>
       <c r="M170" t="n">
-        <v>0.175052841441924</v>
+        <v>0.08772056911637317</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06272927334459266</v>
+        <v>0.07447376676486395</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1746068656749311</v>
+        <v>0.08716615713615983</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01797453106774011</v>
+        <v>0.01522612605581591</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1752272885991626</v>
+        <v>0.05407061834246885</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0173251276595818</v>
+        <v>0.02020828249990396</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1762697882051686</v>
+        <v>0.08998841931459359</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04011924403412734</v>
+        <v>0.04736456150575555</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1767200113604185</v>
+        <v>0.08855600310795768</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06377737871974692</v>
+        <v>0.07480887623132354</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1762697882051686</v>
+        <v>0.08799631101364706</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02013828416317003</v>
+        <v>0.01482465719311839</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1768803762274566</v>
+        <v>0.05407034981400482</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01747039821766354</v>
+        <v>0.02019043885572329</v>
       </c>
       <c r="K172" t="n">
-        <v>0.177932710735406</v>
+        <v>0.09083736666661806</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04046237293234706</v>
+        <v>0.04762295499334454</v>
       </c>
       <c r="M172" t="n">
-        <v>0.178387181278913</v>
+        <v>0.08939143709954218</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06411298819043876</v>
+        <v>0.07484366186949343</v>
       </c>
       <c r="O172" t="n">
-        <v>0.177932710735406</v>
+        <v>0.0888264648911343</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02029870678374412</v>
+        <v>0.0144318689604311</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1785334638557506</v>
+        <v>0.05407008128554081</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01751257259460222</v>
+        <v>0.02027244889044499</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1795956332656435</v>
+        <v>0.09168631401864252</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04109804666518027</v>
+        <v>0.047480915682453</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1800543511974076</v>
+        <v>0.09022687109112669</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06433718210683587</v>
+        <v>0.07477276955533496</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1795956332656435</v>
+        <v>0.08965661876862155</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01845612926652189</v>
+        <v>0.01404838790533847</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1801865514840446</v>
+        <v>0.05406981275707679</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01775194380812881</v>
+        <v>0.02025436404940681</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1812585557958809</v>
+        <v>0.09253526137066699</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04152695719175151</v>
+        <v>0.04723120044412185</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1817215211159021</v>
+        <v>0.0910623050827112</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06535104081910603</v>
+        <v>0.07488582179137221</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1812585557958809</v>
+        <v>0.09048677264610878</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01861088194856281</v>
+        <v>0.01367484057544255</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1818396391123386</v>
+        <v>0.05406954422861278</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01788880487597436</v>
+        <v>0.02023479000409338</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1829214783261183</v>
+        <v>0.09338420872269146</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04164979647118539</v>
+        <v>0.04757142464626823</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1833886910343966</v>
+        <v>0.0918977390742957</v>
       </c>
       <c r="N175" t="n">
-        <v>0.06545564467741721</v>
+        <v>0.07448430138518375</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1829214783261183</v>
+        <v>0.09131692652359602</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01876329516692629</v>
+        <v>0.01331185351832983</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1834927267406326</v>
+        <v>0.05406927570014875</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01792344881586982</v>
+        <v>0.02011068981479494</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1845844008563558</v>
+        <v>0.09423315607471593</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0418672564626065</v>
+        <v>0.04740278340790735</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1850558609528911</v>
+        <v>0.09273317306588021</v>
       </c>
       <c r="N176" t="n">
-        <v>0.06575207403193717</v>
+        <v>0.07407005317453907</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1845844008563558</v>
+        <v>0.09214708040108326</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01991369925867184</v>
+        <v>0.01296005328163398</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1851458143689265</v>
+        <v>0.05406900717168474</v>
       </c>
       <c r="J177" t="n">
-        <v>0.01805616864554621</v>
+        <v>0.02008246026813849</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1862473233865932</v>
+        <v>0.09508210342674039</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04238002912513941</v>
+        <v>0.04712647184805457</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1867230308713856</v>
+        <v>0.09356860705746473</v>
       </c>
       <c r="N177" t="n">
-        <v>0.06694140923283365</v>
+        <v>0.07384492199720771</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1862473233865932</v>
+        <v>0.09297723427857049</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02006242456085891</v>
+        <v>0.01262006641294101</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1867989019972205</v>
+        <v>0.05406873864322072</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01808725738273452</v>
+        <v>0.02015063648760812</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1879102459168306</v>
+        <v>0.09593105077876486</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04258880641790869</v>
+        <v>0.04704368508572507</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1883902007898801</v>
+        <v>0.09440404104904923</v>
       </c>
       <c r="N178" t="n">
-        <v>0.06682473063027461</v>
+        <v>0.07441075269095904</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1879102459168306</v>
+        <v>0.09380738815605773</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01921043792840492</v>
+        <v>0.01229251945985298</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1884519896255145</v>
+        <v>0.0540684701147567</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01841700804516576</v>
+        <v>0.02011575359668798</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1895731684470681</v>
+        <v>0.09677999813078933</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0427942803000389</v>
+        <v>0.04685561823993414</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1900573707083747</v>
+        <v>0.09523947504063374</v>
       </c>
       <c r="N179" t="n">
-        <v>0.06790311857442777</v>
+        <v>0.07356939009356273</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1895731684470681</v>
+        <v>0.09463754203354496</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02136632842120717</v>
+        <v>0.01197803896995855</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1901050772538085</v>
+        <v>0.05406820158629268</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01834935601026143</v>
+        <v>0.01997834671886217</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1912360909773055</v>
+        <v>0.0976289454828138</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04310185275925035</v>
+        <v>0.04716346642969713</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1917245406268692</v>
+        <v>0.09607490903221824</v>
       </c>
       <c r="N180" t="n">
-        <v>0.06839108271849154</v>
+        <v>0.07392267904278804</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1912360909773055</v>
+        <v>0.0954676959110322</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02052832747405621</v>
+        <v>0.01167725149088716</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1917581648821025</v>
+        <v>0.05406793305782866</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01858931803121247</v>
+        <v>0.02013895097761483</v>
       </c>
       <c r="K181" t="n">
-        <v>0.192899013507543</v>
+        <v>0.09847789283483827</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04362772762095046</v>
+        <v>0.04686842477402922</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1933917105453637</v>
+        <v>0.09691034302380275</v>
       </c>
       <c r="N181" t="n">
-        <v>0.06860711972522182</v>
+        <v>0.0739724643764047</v>
       </c>
       <c r="O181" t="n">
-        <v>0.192899013507543</v>
+        <v>0.09629784978851944</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0196907604788953</v>
+        <v>0.01139078357022692</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1934112525103965</v>
+        <v>0.05406766452936465</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01873213356506187</v>
+        <v>0.01999810149643005</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1945619360377804</v>
+        <v>0.09932684018686273</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0438628373657238</v>
+        <v>0.04657168839194573</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1950588804638582</v>
+        <v>0.09774577701538725</v>
       </c>
       <c r="N182" t="n">
-        <v>0.06883367757356856</v>
+        <v>0.07332059093218196</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1945619360377804</v>
+        <v>0.09712800366600667</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02184795282766772</v>
+        <v>0.01111926175557983</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1950643401386905</v>
+        <v>0.05406739600090064</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01877276908399474</v>
+        <v>0.02005633339879197</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1962248585680178</v>
+        <v>0.1001757875388872</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04399529535623803</v>
+        <v>0.04657445240246194</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1967260503823527</v>
+        <v>0.09858121100697174</v>
       </c>
       <c r="N183" t="n">
-        <v>0.06945219775309253</v>
+        <v>0.07356890354788959</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1962248585680178</v>
+        <v>0.09795815754349391</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02099422991231675</v>
+        <v>0.01086331259453718</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1967174277669844</v>
+        <v>0.05406712747243661</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0190061910601962</v>
+        <v>0.02001418180818472</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1978877810982553</v>
+        <v>0.1010247348909117</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0445132149551607</v>
+        <v>0.04657791192459307</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1983932203008472</v>
+        <v>0.09941664499855625</v>
       </c>
       <c r="N184" t="n">
-        <v>0.06974412175335493</v>
+        <v>0.07341924706129677</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1978877810982553</v>
+        <v>0.09878831142098114</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02012391712478569</v>
+        <v>0.01062356263472333</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1983705153952784</v>
+        <v>0.0540668589439726</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01902736596585136</v>
+        <v>0.0198721818480924</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1995507036284927</v>
+        <v>0.1018736822429361</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0447047095251594</v>
+        <v>0.04638326207735441</v>
       </c>
       <c r="M185" t="n">
-        <v>0.2000603902193417</v>
+        <v>0.1002520789901408</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07029089106391662</v>
+        <v>0.07317346631017319</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1995507036284927</v>
+        <v>0.09961846529846838</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02023133985701776</v>
+        <v>0.01040063842372884</v>
       </c>
       <c r="G186" t="n">
-        <v>0.2000236030235724</v>
+        <v>0.05406659041550858</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01913126027314538</v>
+        <v>0.01973086864199916</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2012136261587301</v>
+        <v>0.1027226295949606</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04495789242890177</v>
+        <v>0.0464916979797613</v>
       </c>
       <c r="M186" t="n">
-        <v>0.2017275601378362</v>
+        <v>0.1010875129817253</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07127394717433871</v>
+        <v>0.07323340613228829</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2012136261587301</v>
+        <v>0.1004486191759556</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02131082350095628</v>
+        <v>0.01019516650915576</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2016766906518664</v>
+        <v>0.05406632188704457</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01941284045426334</v>
+        <v>0.01989077731338909</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2028765486889676</v>
+        <v>0.1035715769469851</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04526087702905535</v>
+        <v>0.04610441475082891</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2033947300563308</v>
+        <v>0.1019229469733098</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07107473157418209</v>
+        <v>0.07250091136541148</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2028765486889676</v>
+        <v>0.1012787730534428</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02137033381167318</v>
+        <v>0.01000777343859839</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2033297782801604</v>
+        <v>0.05406605335858054</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01936986138052045</v>
+        <v>0.01975244298574633</v>
       </c>
       <c r="K188" t="n">
-        <v>0.204539471219205</v>
+        <v>0.1044205242990095</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04550374082239955</v>
+        <v>0.04602260750957254</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2050618999748253</v>
+        <v>0.1027583809648943</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07138496652153969</v>
+        <v>0.07247782684731241</v>
       </c>
       <c r="O188" t="n">
-        <v>0.204539471219205</v>
+        <v>0.1021089269309301</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02242834245667205</v>
+        <v>0.009839085759675119</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2049828659084544</v>
+        <v>0.05406578483011653</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01942122134868585</v>
+        <v>0.01971640078255497</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2062023937494425</v>
+        <v>0.105269471651034</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04552492620511328</v>
+        <v>0.04614747137500755</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2067290698933198</v>
+        <v>0.1035938149564788</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07127432963631719</v>
+        <v>0.07266599741576046</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2062023937494425</v>
+        <v>0.1029390808084173</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0204850366057589</v>
+        <v>0.009687356755546071</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2066359535367484</v>
+        <v>0.05406551630165252</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01957143043673235</v>
+        <v>0.01968318582729919</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2078653162796799</v>
+        <v>0.1061184190030585</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04554340907573687</v>
+        <v>0.04598020146614909</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2083962398118143</v>
+        <v>0.1044292489480633</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07215944948047281</v>
+        <v>0.07266726790852512</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2078653162796799</v>
+        <v>0.1037692346859046</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02254039537560823</v>
+        <v>0.009538903960358724</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2082890411650424</v>
+        <v>0.0540652477731885</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01962047012059645</v>
+        <v>0.01955333324346306</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2095282388099174</v>
+        <v>0.1069673663550829</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04575914568983633</v>
+        <v>0.04582199290201247</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2100634097303088</v>
+        <v>0.1052646829396478</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07184025775617697</v>
+        <v>0.07258348316337587</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2095282388099174</v>
+        <v>0.1045993885633918</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02159439788289449</v>
+        <v>0.009391803233094936</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2099421287933364</v>
+        <v>0.05406497924472448</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01966832187621466</v>
+        <v>0.01972737815453073</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2111911613401548</v>
+        <v>0.1078163137071074</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04577209230297796</v>
+        <v>0.04597404080161302</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2117305796488033</v>
+        <v>0.1061001169312323</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07191668616559993</v>
+        <v>0.07221600866952715</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2111911613401548</v>
+        <v>0.105429542440879</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02164702324429221</v>
+        <v>0.009246495983094766</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2115952164216303</v>
+        <v>0.05406471071626046</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01951496717952352</v>
+        <v>0.01960585568398629</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2128540838703922</v>
+        <v>0.1086652610591319</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04578220517072779</v>
+        <v>0.04593422226645247</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2133977495672978</v>
+        <v>0.1069355509228168</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07198866641091201</v>
+        <v>0.07225501798695949</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2128540838703922</v>
+        <v>0.1062596963183663</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02269825057647584</v>
+        <v>0.009103423619679002</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2132483040499243</v>
+        <v>0.05406444218779644</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01956038750645953</v>
+        <v>0.01958832674167034</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2145170064006297</v>
+        <v>0.1095142084111563</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04598944054865209</v>
+        <v>0.04569588708879474</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2150649194857924</v>
+        <v>0.1077709849144013</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07265613019428346</v>
+        <v>0.07179593522818156</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2145170064006297</v>
+        <v>0.1070898501958535</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02174805899611988</v>
+        <v>0.008963027552174881</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2149013916782183</v>
+        <v>0.05406417365933243</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01980456433295923</v>
+        <v>0.01967163780489103</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2161799289308671</v>
+        <v>0.1103631557631808</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04639375469231694</v>
+        <v>0.04595875897530771</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2167320894042869</v>
+        <v>0.1086064189059858</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07231900921788453</v>
+        <v>0.07203870127740997</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2161799289308671</v>
+        <v>0.1079200040733408</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02279642761989877</v>
+        <v>0.008825749189903725</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2165544793065123</v>
+        <v>0.0540639051308684</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01974747913495911</v>
+        <v>0.0196554826960188</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2178428514611046</v>
+        <v>0.1112121031152053</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04609510385728846</v>
+        <v>0.04562279962972601</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2183992593227814</v>
+        <v>0.1094418528975703</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07297723518388571</v>
+        <v>0.07208325701886181</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2178428514611046</v>
+        <v>0.108750157950828</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02184333556448703</v>
+        <v>0.008692029942204728</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2182075669348063</v>
+        <v>0.05406363660240439</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01968911338839573</v>
+        <v>0.01943984426761423</v>
       </c>
       <c r="K197" t="n">
-        <v>0.219505773991342</v>
+        <v>0.1120610504672297</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04649344429913291</v>
+        <v>0.0455879707557845</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2200664292412759</v>
+        <v>0.1102772868891548</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0727307397944571</v>
+        <v>0.07192954333675361</v>
       </c>
       <c r="O197" t="n">
-        <v>0.219505773991342</v>
+        <v>0.1095803118283152</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02188876194655912</v>
+        <v>0.00856231121839908</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2198606545631003</v>
+        <v>0.05406336807394038</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01992944856920557</v>
+        <v>0.01952470537223795</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2211686965215794</v>
+        <v>0.1129099978192542</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04658873227341634</v>
+        <v>0.04565423405721794</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2217335991597704</v>
+        <v>0.1111127208807394</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07347945475176915</v>
+        <v>0.07207750111530242</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2211686965215794</v>
+        <v>0.1104104657058024</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02193268588278953</v>
+        <v>0.008437034427814002</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2215137421913943</v>
+        <v>0.05406309954547636</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01986846615332519</v>
+        <v>0.01941004886245054</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2228316190518169</v>
+        <v>0.1137589451712787</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04638092403570496</v>
+        <v>0.04592155123776093</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2234007690782649</v>
+        <v>0.1119481548723239</v>
       </c>
       <c r="N199" t="n">
-        <v>0.073323311757992</v>
+        <v>0.07162707123872497</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2228316190518169</v>
+        <v>0.1112406195832897</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02297508648985273</v>
+        <v>0.008316640979771611</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2231668298196883</v>
+        <v>0.05406283101701233</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01980614761669107</v>
+        <v>0.01959585759081262</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2244945415820543</v>
+        <v>0.1146078925233031</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04686997584156491</v>
+        <v>0.04558988400114836</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2250679389967594</v>
+        <v>0.1127835888639084</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07316224251529624</v>
+        <v>0.07157819459123815</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2244945415820543</v>
+        <v>0.1120707734607769</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02201594288442321</v>
+        <v>0.008201572283609612</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2248199174479822</v>
+        <v>0.05406256248854832</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01994247443523975</v>
+        <v>0.01958211440988473</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2261574641122918</v>
+        <v>0.1154568398753276</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04675584394656226</v>
+        <v>0.04545919405111484</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2267351089152539</v>
+        <v>0.1136190228554929</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07329617872585187</v>
+        <v>0.07153081205705869</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2261574641122918</v>
+        <v>0.1129009273382642</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02205523418317545</v>
+        <v>0.008092269748649898</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2264730050762762</v>
+        <v>0.05406229396008431</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01997742808490773</v>
+        <v>0.01956880217222753</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2278203866425292</v>
+        <v>0.1163057872273521</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04673848460626334</v>
+        <v>0.04542944309139527</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2284022788337485</v>
+        <v>0.1144544568470774</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07352505209182936</v>
+        <v>0.07158486452040347</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2278203866425292</v>
+        <v>0.1137310812157514</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02209293950278392</v>
+        <v>0.007989174784219698</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2281260927045702</v>
+        <v>0.05406202543162029</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02001099004163157</v>
+        <v>0.01935590373040159</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2294833091727666</v>
+        <v>0.1171547345793765</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04691785407623417</v>
+        <v>0.04540059282572434</v>
       </c>
       <c r="M203" t="n">
-        <v>0.230069448752243</v>
+        <v>0.1152898908386619</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07364879431539889</v>
+        <v>0.07174029286548939</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2294833091727666</v>
+        <v>0.1145612350932387</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0221290379599231</v>
+        <v>0.007892728799642187</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2297791803328642</v>
+        <v>0.05406175690315627</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01994314178134772</v>
+        <v>0.01944340193696753</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2311462317030041</v>
+        <v>0.118003681931401</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04709390861204094</v>
+        <v>0.04567260495783673</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2317366186707375</v>
+        <v>0.1161253248302464</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0742673370987309</v>
+        <v>0.07199703797653323</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2311462317030041</v>
+        <v>0.1153913889707259</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02116350867126748</v>
+        <v>0.007803373204253013</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2314322679611582</v>
+        <v>0.05406148837469225</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02007386477999278</v>
+        <v>0.01953127964448594</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2328091542332415</v>
+        <v>0.1188526292834255</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04726660446924977</v>
+        <v>0.04564544119146724</v>
       </c>
       <c r="M205" t="n">
-        <v>0.233403788589232</v>
+        <v>0.1169607588218309</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07408061214399558</v>
+        <v>0.07145504073775177</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2328091542332415</v>
+        <v>0.1162215428482131</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02319633075349156</v>
+        <v>0.007721549407375058</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2330853555894522</v>
+        <v>0.05406121984622823</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02020314051350322</v>
+        <v>0.0194195197055174</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2344720767634789</v>
+        <v>0.1197015766354499</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04703589790342683</v>
+        <v>0.0455190632303506</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2350709585077265</v>
+        <v>0.1177961928134154</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07388855115336335</v>
+        <v>0.07141424203336189</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2344720767634789</v>
+        <v>0.1170516967257004</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02322748332326979</v>
+        <v>0.007647698818335553</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2347384432177462</v>
+        <v>0.05406095131776422</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02023095045781556</v>
+        <v>0.01950810497262252</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2361349992937164</v>
+        <v>0.1205505239874744</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04730174517013833</v>
+        <v>0.04559343277822159</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2367381284262211</v>
+        <v>0.1186316268049999</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07449108582900438</v>
+        <v>0.07157458274758033</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2361349992937164</v>
+        <v>0.1178818506031876</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02325694549727664</v>
+        <v>0.007582262846459069</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2363915308460402</v>
+        <v>0.05406068278930019</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02015727608886633</v>
+        <v>0.01939701829836192</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2377979218239538</v>
+        <v>0.1213994713394989</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04736410252495035</v>
+        <v>0.04526851153881489</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2384052983447156</v>
+        <v>0.1194670607965844</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07468814787308903</v>
+        <v>0.07153600376462405</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2377979218239538</v>
+        <v>0.1187120044806748</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02128469639218662</v>
+        <v>0.007525682901078544</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2380446184743341</v>
+        <v>0.05406041426083618</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02008209888259208</v>
+        <v>0.01948624253529617</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2394608443541912</v>
+        <v>0.1222484186915234</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04742292622342906</v>
+        <v>0.04524426121586531</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2400724682632101</v>
+        <v>0.1203024947881689</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07417966898778766</v>
+        <v>0.07119844596870989</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2394608443541912</v>
+        <v>0.1195421583581621</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0223107151246742</v>
+        <v>0.007478400391518175</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2396977061026281</v>
+        <v>0.05406014573237217</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02010540031492926</v>
+        <v>0.01947576053598589</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2411237668844287</v>
+        <v>0.1230973660435478</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04727817252114058</v>
+        <v>0.04552064351310761</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2417396381817046</v>
+        <v>0.1211379287797534</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07466558087527048</v>
+        <v>0.07126185024405451</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2411237668844287</v>
+        <v>0.1203723122356493</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02333498081141384</v>
+        <v>0.007440856727105198</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2413507937309221</v>
+        <v>0.05405987720390815</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02022716186181445</v>
+        <v>0.01936555515299165</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2427866894146661</v>
+        <v>0.1239463133955723</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04732979767365117</v>
+        <v>0.04539762013427645</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2434068081001991</v>
+        <v>0.1219733627713379</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07444581523770782</v>
+        <v>0.07112615747487483</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2427866894146661</v>
+        <v>0.1212024661131365</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02335747256908005</v>
+        <v>0.00741349331716587</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2430038813592161</v>
+        <v>0.05405960867544413</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02024736499918413</v>
+        <v>0.01945560923887409</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2444496119449036</v>
+        <v>0.1247952607475968</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04767775793652687</v>
+        <v>0.04527515278310668</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2450739780186936</v>
+        <v>0.1228087967629224</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07502030377727004</v>
+        <v>0.07099130854538771</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2444496119449036</v>
+        <v>0.1220326199906238</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0213781695143473</v>
+        <v>0.007396751571029821</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2446569689875101</v>
+        <v>0.05405934014698011</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02026599120297484</v>
+        <v>0.01924590564619376</v>
       </c>
       <c r="K213" t="n">
-        <v>0.246112534475141</v>
+        <v>0.1256442080996212</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04752200956533389</v>
+        <v>0.04525320316333295</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2467411479371882</v>
+        <v>0.123644230754507</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07438897819612739</v>
+        <v>0.07115724433980991</v>
       </c>
       <c r="O213" t="n">
-        <v>0.246112534475141</v>
+        <v>0.122862773868111</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02139705076389008</v>
+        <v>0.007391072898022863</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2463100566158041</v>
+        <v>0.0540590716185161</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0203830219491231</v>
+        <v>0.01943642722751131</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2477754570053785</v>
+        <v>0.1264931554516457</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04746250881563838</v>
+        <v>0.04523173297869004</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2484083178556827</v>
+        <v>0.1244796647460915</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0745517701964501</v>
+        <v>0.07102390574235845</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2477754570053785</v>
+        <v>0.1236929277455982</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02241409543438284</v>
+        <v>0.00739107289802287</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2479631442440981</v>
+        <v>0.0540590716185161</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02029843871356543</v>
+        <v>0.0193271568353873</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2494383795356159</v>
+        <v>0.1273421028036702</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04749921194300644</v>
+        <v>0.04511070393291269</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2500754877741772</v>
+        <v>0.125315098737676</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07490861148040845</v>
+        <v>0.07149123363724991</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2494383795356159</v>
+        <v>0.1245230816230855</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02342928264250008</v>
+        <v>0.007140040247772587</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2496162318723921</v>
+        <v>0.05403025157360783</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02031222297223834</v>
+        <v>0.01921807732238233</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2511013020658533</v>
+        <v>0.1281910501556947</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04753207520300429</v>
+        <v>0.04519007772973571</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2517426576926717</v>
+        <v>0.1261505327292605</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07475943375017302</v>
+        <v>0.07125916890870115</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2511013020658533</v>
+        <v>0.1253532355005727</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02144259150491629</v>
+        <v>0.006893858773642833</v>
       </c>
       <c r="G217" t="n">
-        <v>0.251269319500686</v>
+        <v>0.05400143152869956</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02042435620107835</v>
+        <v>0.01930917154105705</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2527642245960908</v>
+        <v>0.1290399975077191</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04786105485119804</v>
+        <v>0.04546981607289374</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2534098276111662</v>
+        <v>0.126985966720845</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07490416870791394</v>
+        <v>0.07092765244092913</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2527642245960908</v>
+        <v>0.12618338937806</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02245400113830594</v>
+        <v>0.006653016246456679</v>
       </c>
       <c r="G218" t="n">
-        <v>0.25292240712898</v>
+        <v>0.0539726114837913</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02033481987602198</v>
+        <v>0.01930042234397199</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2544271471263282</v>
+        <v>0.1298889448597436</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04758610714315389</v>
+        <v>0.04534988066612161</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2550769975296607</v>
+        <v>0.1278214007124295</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07464274805580146</v>
+        <v>0.07139662511815065</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2544271471263282</v>
+        <v>0.1270135432555472</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0234634906593435</v>
+        <v>0.006418000437036914</v>
       </c>
       <c r="G219" t="n">
-        <v>0.254575494757274</v>
+        <v>0.05394379143888303</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02024359547300575</v>
+        <v>0.01939181258368779</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2560900696565657</v>
+        <v>0.130737892211768</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04790718833443791</v>
+        <v>0.04543023321315401</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2567441674481553</v>
+        <v>0.128656834704014</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07527510349600591</v>
+        <v>0.07126602782458247</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2560900696565657</v>
+        <v>0.1278436971330344</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02347103918470345</v>
+        <v>0.006189299116206602</v>
       </c>
       <c r="G220" t="n">
-        <v>0.256228582385568</v>
+        <v>0.05391497139397476</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02025066446796618</v>
+        <v>0.01928332511276502</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2577529921868031</v>
+        <v>0.1315868395637925</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04792425468061634</v>
+        <v>0.04531083541772574</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2584113373666497</v>
+        <v>0.1294922686955985</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0752011667306976</v>
+        <v>0.07143580144444139</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2577529921868031</v>
+        <v>0.1286738510105217</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0224766258310603</v>
+        <v>0.005967400054788734</v>
       </c>
       <c r="G221" t="n">
-        <v>0.257881670013862</v>
+        <v>0.05388615134906649</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0204560083368398</v>
+        <v>0.01917494278376432</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2594159147170405</v>
+        <v>0.132435786915817</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04753726243725528</v>
+        <v>0.04539164898357151</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2600785072851443</v>
+        <v>0.130327702687183</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07532086946204691</v>
+        <v>0.0711058868619443</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2594159147170405</v>
+        <v>0.1295040048880089</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02348022971508851</v>
+        <v>0.005752791023606284</v>
       </c>
       <c r="G222" t="n">
-        <v>0.259534757642156</v>
+        <v>0.05385733130415822</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02035960855556311</v>
+        <v>0.01936664844924627</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2610788372472779</v>
+        <v>0.1332847342678415</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04774616785992089</v>
+        <v>0.0449726356144261</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2617456772036388</v>
+        <v>0.1311631366787675</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07473414339222401</v>
+        <v>0.07097622496130807</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2610788372472779</v>
+        <v>0.1303341587654961</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02148182995346255</v>
+        <v>0.005545959793482221</v>
       </c>
       <c r="G223" t="n">
-        <v>0.26118784527045</v>
+        <v>0.05382851125924995</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02036144660007262</v>
+        <v>0.01925842496177144</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2627417597775154</v>
+        <v>0.1341336816198659</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04755092720417933</v>
+        <v>0.04495375701402418</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2634128471221333</v>
+        <v>0.131998570670352</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07474092022339929</v>
+        <v>0.07074675662674956</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2627417597775154</v>
+        <v>0.1311643126429834</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02146618319100348</v>
+        <v>0.00534739413523954</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2628409328987439</v>
+        <v>0.05379969121434168</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02035560545779223</v>
+        <v>0.01915025517390045</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2644046823077528</v>
+        <v>0.1349826289718904</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04754302401343441</v>
+        <v>0.04523497488610059</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2650800170406278</v>
+        <v>0.1328340046619365</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07471938405553191</v>
+        <v>0.0710174227424854</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2644046823077528</v>
+        <v>0.1319944665204706</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02139356372844275</v>
+        <v>0.005157581819701273</v>
       </c>
       <c r="G225" t="n">
-        <v>0.264494020527038</v>
+        <v>0.05377087116943342</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02030372663556665</v>
+        <v>0.01934212193819393</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2660676048379903</v>
+        <v>0.1358315763239148</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04783331456034795</v>
+        <v>0.04501625093438999</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2667471869591223</v>
+        <v>0.133669438653521</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07452810793682435</v>
+        <v>0.07078816419273259</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2660676048379903</v>
+        <v>0.1328246203979578</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02126780724050709</v>
+        <v>0.004977010617690264</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2661471081553319</v>
+        <v>0.05374205112452515</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02030366064857986</v>
+        <v>0.01923400810721242</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2677305273682277</v>
+        <v>0.1366805236759393</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04720874643425141</v>
+        <v>0.04489754686262717</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2684143568776168</v>
+        <v>0.1345048726451055</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07465916676228784</v>
+        <v>0.07095892186170788</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2677305273682277</v>
+        <v>0.1336547742754451</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02209542396573201</v>
+        <v>0.004806168300029563</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2678001957836259</v>
+        <v>0.05371323107961688</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02006118225103912</v>
+        <v>0.01932589653351657</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2693934498984651</v>
+        <v>0.1375294710279638</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04718295667291833</v>
+        <v>0.04487882437454691</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2700815267961114</v>
+        <v>0.13534030663669</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07383385192837028</v>
+        <v>0.07102963663362827</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2693934498984651</v>
+        <v>0.1344849281529323</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02088292414265309</v>
+        <v>0.004645542637542147</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2694532834119199</v>
+        <v>0.05368441103470861</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01978206619715166</v>
+        <v>0.01931777006966695</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2710563724287026</v>
+        <v>0.1383784183799882</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04676958231412223</v>
+        <v>0.04486004517388387</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2717486967146058</v>
+        <v>0.1361757406282745</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07297345483151968</v>
+        <v>0.07050024939271032</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2710563724287026</v>
+        <v>0.1353150820304196</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02063681800980587</v>
+        <v>0.004495621401050989</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2711063710402139</v>
+        <v>0.05365559098980035</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01977208724112482</v>
+        <v>0.01930961156822418</v>
       </c>
       <c r="K229" t="n">
-        <v>0.27271929495894</v>
+        <v>0.1392273657320127</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04638226039563659</v>
+        <v>0.04504117096437288</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2734158666331004</v>
+        <v>0.137011174619859</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07249926686818392</v>
+        <v>0.07057070102317098</v>
       </c>
       <c r="O229" t="n">
-        <v>0.27271929495894</v>
+        <v>0.1361452359079068</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02136361580572588</v>
+        <v>0.004356892361379074</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2727594586685079</v>
+        <v>0.05362677094489208</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01933702013716582</v>
+        <v>0.01910140388174883</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2743822174891775</v>
+        <v>0.1400763130840372</v>
       </c>
       <c r="L230" t="n">
-        <v>0.045534627955235</v>
+        <v>0.04492216344974867</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2750830365515949</v>
+        <v>0.1378466086114435</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07183257943481092</v>
+        <v>0.07094093240922711</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2743822174891775</v>
+        <v>0.136975389785394</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0210698277689487</v>
+        <v>0.00422984328934943</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2744125462968019</v>
+        <v>0.05359795089998382</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01908263963948195</v>
+        <v>0.01929312986280153</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2760451400194149</v>
+        <v>0.1409252604360617</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04504032203069092</v>
+        <v>0.04520298433374592</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2767502064700894</v>
+        <v>0.138682042603028</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07059468392784857</v>
+        <v>0.07101088443509551</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2760451400194149</v>
+        <v>0.1378055436628813</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02076196413800986</v>
+        <v>0.004114961955784938</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2760656339250959</v>
+        <v>0.05356913085507555</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01891472050228048</v>
+        <v>0.01908477236394285</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2777080625496524</v>
+        <v>0.1417742077880861</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04421297965977794</v>
+        <v>0.04508360226292327</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2784173763885839</v>
+        <v>0.1395174765946126</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06960687174374491</v>
+        <v>0.07088054630366941</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2777080625496524</v>
+        <v>0.1386356975403685</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02044653515144494</v>
+        <v>0.004012736131508612</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2777187215533898</v>
+        <v>0.05354031081016728</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01863903747976868</v>
+        <v>0.01917635552518789</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2793709850798898</v>
+        <v>0.1426231551401106</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04396623788026954</v>
+        <v>0.04486425393729263</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2800845463070784</v>
+        <v>0.1403529105861971</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06889043427894781</v>
+        <v>0.07065035013219129</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2793709850798898</v>
+        <v>0.1394658514178557</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02013005104778945</v>
+        <v>0.003923653587343437</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2793718091816839</v>
+        <v>0.05351149076525901</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01826136532615377</v>
+        <v>0.01906800251632629</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2810339076101272</v>
+        <v>0.143472102492135</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04311373372993924</v>
+        <v>0.04474507365960412</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2817517162255729</v>
+        <v>0.1411883445777816</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06736666292990517</v>
+        <v>0.07032041602828459</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2810339076101272</v>
+        <v>0.140296005295343</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01881902206557896</v>
+        <v>0.0038482020941124</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2810248968099778</v>
+        <v>0.05348267072035074</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01808747879564308</v>
+        <v>0.01905972430824038</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2826968301403647</v>
+        <v>0.1443210498441595</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04226910424656055</v>
+        <v>0.04492606475324676</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2834188861440675</v>
+        <v>0.1420237785693661</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06635684909306494</v>
+        <v>0.07029074912207739</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2826968301403647</v>
+        <v>0.1411261591728302</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01851995844334901</v>
+        <v>0.003786869422638471</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2826779844382718</v>
+        <v>0.05345385067544247</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01772315264244387</v>
+        <v>0.0190515223890025</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2843597526706021</v>
+        <v>0.145169997196184</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04204598646790703</v>
+        <v>0.04510723054160956</v>
       </c>
       <c r="M236" t="n">
-        <v>0.285086056062562</v>
+        <v>0.1428592125609506</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06588228416487507</v>
+        <v>0.07076135454369759</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2843597526706021</v>
+        <v>0.1419563130503174</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01823937041963516</v>
+        <v>0.003740143343744652</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2843310720665658</v>
+        <v>0.05342503063053421</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01747416162076337</v>
+        <v>0.01924339824668492</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2860226752008396</v>
+        <v>0.1460189445482085</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04135801743175216</v>
+        <v>0.04488857434808144</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2867532259810565</v>
+        <v>0.1436946465525351</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06446425954178348</v>
+        <v>0.07093223742327343</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2860226752008396</v>
+        <v>0.1427864669278047</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01798288854857182</v>
+        <v>0.003708511628253877</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2859841596948598</v>
+        <v>0.05339621058562594</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01734618945680089</v>
+        <v>0.01913535336935995</v>
       </c>
       <c r="K238" t="n">
-        <v>0.287685597731077</v>
+        <v>0.1468678919002329</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04081882688015656</v>
+        <v>0.04507009949605151</v>
       </c>
       <c r="M238" t="n">
-        <v>0.288420395899551</v>
+        <v>0.1445300805441196</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06412373100190061</v>
+        <v>0.07030340289093279</v>
       </c>
       <c r="O238" t="n">
-        <v>0.287685597731077</v>
+        <v>0.1436166208052919</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01973398326156796</v>
+        <v>0.003692462046989142</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2876372473231538</v>
+        <v>0.05336739054071767</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01722813339301056</v>
+        <v>0.01912738924509991</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2893485202613144</v>
+        <v>0.1477168392522574</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0401066369052028</v>
+        <v>0.0450518093089087</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2900875658180455</v>
+        <v>0.1453655145357041</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06281976291332103</v>
+        <v>0.07027485607680373</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2893485202613144</v>
+        <v>0.1444467746827792</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01748412384393734</v>
+        <v>0.00369049063991294</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2892903349514477</v>
+        <v>0.0533385704958094</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0170092380182522</v>
+        <v>0.01901950736197705</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2910114427915518</v>
+        <v>0.1485657866042819</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03989247201103338</v>
+        <v>0.04463370711004205</v>
       </c>
       <c r="M240" t="n">
-        <v>0.29175473573654</v>
+        <v>0.1462009485272886</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06271270030297954</v>
+        <v>0.0701466021110142</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2910114427915518</v>
+        <v>0.1452769285602664</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01823329487268348</v>
+        <v>0.003691134792685277</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2909434225797418</v>
+        <v>0.05330975045090113</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01658948965191898</v>
+        <v>0.01911170920806371</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2926743653217893</v>
+        <v>0.1494147339563063</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03927629989100015</v>
+        <v>0.04501579622284058</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2934219056550346</v>
+        <v>0.1470363825188731</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06150249273076869</v>
+        <v>0.0706186461236924</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2926743653217893</v>
+        <v>0.1461070824377536</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01698148092480983</v>
+        <v>0.00369289054526864</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2925965102080357</v>
+        <v>0.05328093040599286</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01656887461340403</v>
+        <v>0.01920399627143218</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2943372878520267</v>
+        <v>0.1502636813083308</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03885808823845485</v>
+        <v>0.04499807997069322</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2950890755735291</v>
+        <v>0.1478718165104576</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06108908975658073</v>
+        <v>0.0700909932449662</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2943372878520267</v>
+        <v>0.1469372363152409</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01672866657731993</v>
+        <v>0.003696245668486017</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2942495978363297</v>
+        <v>0.0532521103610846</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01624737922210047</v>
+        <v>0.01899637004015478</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2960002103822642</v>
+        <v>0.1511126286603553</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03823780474674937</v>
+        <v>0.04468056167698906</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2967562454920236</v>
+        <v>0.1487072505020421</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05997244094030768</v>
+        <v>0.07016364860496366</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2960002103822642</v>
+        <v>0.1477673901927281</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01747483640721723</v>
+        <v>0.003701687933160364</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2959026854646237</v>
+        <v>0.05322329031617633</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01612498979740144</v>
+        <v>0.01898883200230378</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2976631329125016</v>
+        <v>0.1519615760123798</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03771541710923546</v>
+        <v>0.04486324466511704</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2984234154105181</v>
+        <v>0.1495426844936266</v>
       </c>
       <c r="N244" t="n">
-        <v>0.058752495841842</v>
+        <v>0.07003661733381289</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2976631329125016</v>
+        <v>0.1485975440702153</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01821997499150523</v>
+        <v>0.003709705110114682</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2975557730929177</v>
+        <v>0.05319447027126806</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01570169265870008</v>
+        <v>0.01898138364595149</v>
       </c>
       <c r="K245" t="n">
-        <v>0.299326055442739</v>
+        <v>0.1528105233644042</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03689089301926488</v>
+        <v>0.04494613225846619</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3000905853290126</v>
+        <v>0.1503781184852112</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0582292040210759</v>
+        <v>0.07010990456164184</v>
       </c>
       <c r="O245" t="n">
-        <v>0.299326055442739</v>
+        <v>0.1494276979477026</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01696406690718739</v>
+        <v>0.003720784970171934</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2992088607212117</v>
+        <v>0.05316565022635979</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01567747412538953</v>
+        <v>0.01907402645917022</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3009889779729765</v>
+        <v>0.1536594707164287</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03636420017018951</v>
+        <v>0.04482922778042547</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3017577552475071</v>
+        <v>0.1512135524767957</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05780251503790151</v>
+        <v>0.07068351541857854</v>
       </c>
       <c r="O246" t="n">
-        <v>0.3009889779729765</v>
+        <v>0.1502578518251898</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01770709673126723</v>
+        <v>0.003735415284155101</v>
       </c>
       <c r="G247" t="n">
-        <v>0.3008619483495057</v>
+        <v>0.05313683018145152</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01545232051686291</v>
+        <v>0.01906676193003226</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3026519005032139</v>
+        <v>0.1545084180684531</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03583530625536116</v>
+        <v>0.044812534554384</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3034249251660017</v>
+        <v>0.1520489864683802</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05647237845221131</v>
+        <v>0.07065745503475102</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3026519005032139</v>
+        <v>0.151088005702677</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01744904904074823</v>
+        <v>0.003754083822887173</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3025150359777997</v>
+        <v>0.05310801013654326</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01512621815251336</v>
+        <v>0.01895959154660992</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3043148230334514</v>
+        <v>0.1553573654204776</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03560417896813159</v>
+        <v>0.04489605590373066</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3050920950844961</v>
+        <v>0.1528844204599647</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05543874382389741</v>
+        <v>0.0703317285402873</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3043148230334514</v>
+        <v>0.1519181595801643</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01518990841263386</v>
+        <v>0.003777278357191091</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3041681236060936</v>
+        <v>0.053079190091635</v>
       </c>
       <c r="J249" t="n">
-        <v>0.014799153351734</v>
+        <v>0.0189525167969755</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3059777455636888</v>
+        <v>0.1562063127725021</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0347707860018526</v>
+        <v>0.04447979515185446</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3067592650029907</v>
+        <v>0.1537198544515492</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05500156071285206</v>
+        <v>0.07020634106531548</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3059777455636888</v>
+        <v>0.1527483134576515</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01492965942392763</v>
+        <v>0.003805486657889885</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3058212112343877</v>
+        <v>0.05305037004672673</v>
       </c>
       <c r="J250" t="n">
-        <v>0.014571112433918</v>
+        <v>0.01914553916920129</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3076406680939263</v>
+        <v>0.1570552601245266</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03463509504987605</v>
+        <v>0.04456375562214449</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3084264349214852</v>
+        <v>0.1545552884431337</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05446077867896765</v>
+        <v>0.06998129773996353</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3076406680939263</v>
+        <v>0.1535784673351388</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01566828665163301</v>
+        <v>0.003839196495806503</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3074742988626816</v>
+        <v>0.05302155000181846</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01454208171845847</v>
+        <v>0.01893866015135962</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3093035906241637</v>
+        <v>0.157904207476551</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03409707380555371</v>
+        <v>0.0445479406379897</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3100936048399797</v>
+        <v>0.1553907224347182</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05331634728213624</v>
+        <v>0.07055660369435945</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3093035906241637</v>
+        <v>0.154408621212626</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0164057746727535</v>
+        <v>0.003878895641763927</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3091273864909756</v>
+        <v>0.05299272995691019</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01431204752474856</v>
+        <v>0.01913188123152272</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3109665131544011</v>
+        <v>0.1587531548285755</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03335668996223737</v>
+        <v>0.0447323535227791</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3117607747584742</v>
+        <v>0.1562261564263027</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05206821608225026</v>
+        <v>0.07053226405863139</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3109665131544011</v>
+        <v>0.1552387750901132</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01614210806429257</v>
+        <v>0.003925071866585139</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3107804741192696</v>
+        <v>0.05296390991200192</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01408099617218139</v>
+        <v>0.01902520389776297</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3126294356846386</v>
+        <v>0.1596021021805999</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03271391121327888</v>
+        <v>0.04481699759990168</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3134279446769687</v>
+        <v>0.1570615904178872</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05141633463920176</v>
+        <v>0.06980828396290722</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3126294356846386</v>
+        <v>0.1560689289676005</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01587727140325373</v>
+        <v>0.003978212941093115</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3124335617475636</v>
+        <v>0.05293508986709365</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0136489139801501</v>
+        <v>0.01891862963815263</v>
       </c>
       <c r="K254" t="n">
-        <v>0.314292358214876</v>
+        <v>0.1604510495326244</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03206870525202998</v>
+        <v>0.04470187619274646</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3150951145954632</v>
+        <v>0.1578970244094717</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05046065251288318</v>
+        <v>0.06988466853731495</v>
       </c>
       <c r="O254" t="n">
-        <v>0.314292358214876</v>
+        <v>0.1568990828450877</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01461124926664045</v>
+        <v>0.004038806636110809</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3140866493758576</v>
+        <v>0.05290626982218539</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01361578726804784</v>
+        <v>0.01891215994076402</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3159552807451135</v>
+        <v>0.1612999968846489</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03192103977184257</v>
+        <v>0.04478699262470243</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3167622845139578</v>
+        <v>0.1587324584010562</v>
       </c>
       <c r="N255" t="n">
-        <v>0.04960111926318672</v>
+        <v>0.07046142291198276</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3159552807451135</v>
+        <v>0.1577292367225749</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01334402623145622</v>
+        <v>0.004107340722461245</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3157397370041515</v>
+        <v>0.05287744977727712</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01328160235526769</v>
+        <v>0.01900579629366943</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3176182032753509</v>
+        <v>0.1621489442366734</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03127088246606838</v>
+        <v>0.04437235021915861</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3184294544324522</v>
+        <v>0.1595678923926407</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04863768445000471</v>
+        <v>0.07023855221703862</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3176182032753509</v>
+        <v>0.1585593906000622</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01407558687470453</v>
+        <v>0.004184302970967384</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3173928246324455</v>
+        <v>0.05284862973236885</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01294634556120287</v>
+        <v>0.01899954018494114</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3192811258055883</v>
+        <v>0.1629978915886978</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03051820102805927</v>
+        <v>0.04475795229950399</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3200966243509468</v>
+        <v>0.1604033263842252</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04837029763322925</v>
+        <v>0.07041606158261055</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3192811258055883</v>
+        <v>0.1593895444775494</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01380591577338887</v>
+        <v>0.004270181152452195</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3190459122607395</v>
+        <v>0.05281980968746058</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01271000320524646</v>
+        <v>0.01909339310265148</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3209440483358257</v>
+        <v>0.1638468389407223</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03026296315116694</v>
+        <v>0.04434380218912756</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3217637942694413</v>
+        <v>0.1612387603758097</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04719890837275265</v>
+        <v>0.07019395613882651</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3209440483358257</v>
+        <v>0.1602196983550367</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01353499750451271</v>
+        <v>0.004365463037738666</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3206989998890335</v>
+        <v>0.05279098964255231</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01247256160679162</v>
+        <v>0.01888735653487274</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3226069708660632</v>
+        <v>0.1646957862927468</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02930513652874331</v>
+        <v>0.0447299032114184</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3234309641879358</v>
+        <v>0.1620741943673942</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04642346622846721</v>
+        <v>0.06977224101581464</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3226069708660632</v>
+        <v>0.1610498522325239</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01226281664507956</v>
+        <v>0.00447063639764976</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3223520875173275</v>
+        <v>0.05276216959764404</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01223400708523145</v>
+        <v>0.01908143196967724</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3242698933963006</v>
+        <v>0.1655447336447712</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02894468885414014</v>
+        <v>0.04471625868976539</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3250981341064303</v>
+        <v>0.1629096283589787</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0455439207602652</v>
+        <v>0.07005092134370289</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3242698933963006</v>
+        <v>0.1618800061100111</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01298935777209289</v>
+        <v>0.004586189003008424</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3240051751456214</v>
+        <v>0.05273334955273579</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0121943259599591</v>
+        <v>0.01897562089513725</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3259328159265381</v>
+        <v>0.1663936809967957</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02858158782070927</v>
+        <v>0.04440287194755765</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3267653040249248</v>
+        <v>0.1637450623505632</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0449602215280388</v>
+        <v>0.07003000225261929</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3259328159265381</v>
+        <v>0.1627101599874984</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01171460546255618</v>
+        <v>0.004712608624637724</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3256582627739155</v>
+        <v>0.05270452950782752</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01185350455036772</v>
+        <v>0.01886992479932509</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3275957384567755</v>
+        <v>0.1672426283488202</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02781580112180246</v>
+        <v>0.0445897463081841</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3284324739434193</v>
+        <v>0.1645804963421477</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04407231809168038</v>
+        <v>0.06960948887269197</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3275957384567755</v>
+        <v>0.1635403138649856</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01343854429347295</v>
+        <v>0.004850383033360585</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3273113504022094</v>
+        <v>0.05267570946291925</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01171152917585044</v>
+        <v>0.01906434517031304</v>
       </c>
       <c r="K263" t="n">
-        <v>0.329258660987013</v>
+        <v>0.1680915757008446</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02704729645077153</v>
+        <v>0.04467688509503376</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3300996438619139</v>
+        <v>0.1654159303337323</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04318016001108205</v>
+        <v>0.07018938633404875</v>
       </c>
       <c r="O263" t="n">
-        <v>0.329258660987013</v>
+        <v>0.1643704677424728</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01116115884184665</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3289644380305034</v>
+        <v>0.05264688941801098</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01136838615580039</v>
+        <v>0.0189588834961734</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3309215835172504</v>
+        <v>0.1689405230528691</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02677604150096827</v>
+        <v>0.04446429163149565</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3317668137804083</v>
+        <v>0.1662513643253168</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04178369684613614</v>
+        <v>0.06986969976681789</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3309215835172504</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.16520062161996</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05263373152327413</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005298950073203225</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05263400005173815</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005594953756199547</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05263426858020216</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005887919107764122</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05263453710866619</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006177754186633924</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0526348056371302</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006464367051584263</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05263507416559422</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006747665761377586</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05263534269405823</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007027558374788509</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05263561122252226</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007303952950555123</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05263587975098627</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007576757547452177</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05263614827945028</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007845880224242145</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0526364168079143</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008111229039698957</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05263668533637832</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008372712052562015</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05263695386484234</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008630237321605401</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05263722239330635</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008883712905591618</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05263749092177037</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009133046863293894</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05263775945023439</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009378147253452991</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05263802797869841</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009618922134842355</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05263829650716242</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.00985527956622443</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05263856503562644</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01008712760637172</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05263883356409046</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.0103143743140265</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05263910209255448</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01053692774796144</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05263937062101849</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01075469596693902</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0526396391494825</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01096758702973086</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05263990767794653</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01117550899508094</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05264017620641055</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01137874534848093</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05264044473487456</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01157945670901265</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05264071326333858</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01177792656216704</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0526409817918026</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01197406296668933</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05264125032026662</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01216777398135069</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05264151884873063</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01235896766491357</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05264178737719465</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01254755207614862</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05264205590565867</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01273343527380189</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05264232443412269</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01291652531664413</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0526425929625867</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01309673026343781</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05264286149105071</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01327395817295306</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05264313001951474</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01344811710393694</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05264339854797875</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01361911511515967</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05264366707644277</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01378686026538377</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05264393560490679</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01395126061337878</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05264420413337081</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01411222421789286</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05264447266183483</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01426965913769572</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05264474119029884</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01442347343154984</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05264500971876285</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01457357515822415</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05264527824722688</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01471987237646806</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05264554677569089</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01486227314505065</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05264581530415491</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01500068552273442</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05264608383261892</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01513501756828758</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05264635236108295</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01526517734046092</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05264662088954696</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01539107289802287</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05264688941801098</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01539107289802287</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05263373152327413</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0155165226384588</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05266308862511043</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01564000821688571</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05269244572694674</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01576124585911458</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05272180282878304</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01587995179095651</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05275115993061934</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01599584223822265</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05278051703245565</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01610863342672397</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05280987413429195</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01621804158227161</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05283923123612824</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01632378293067667</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05286858833796455</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01642557369775016</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05289794543980085</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01652313010930317</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05292730254163715</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01661616839114687</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05295665964347346</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01670440476909221</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05298601674530976</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01678755546895033</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05301537384714606</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01686533671653234</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05304473094898237</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01693746473764924</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05307408805081867</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01700365575811215</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05310344515265496</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01706362600373217</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05313280225449128</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01711709170032032</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05316215935632757</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01716376907368772</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05319151645816387</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01720337434964544</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05322087356000018</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01723562375400455</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05325023066183648</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01726023351257613</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05327958776367278</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01727691985117127</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05330894486550909</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01728539899560103</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05333830196734539</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01728646790386622</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05336765906918169</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01728635644957204</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05339701617101798</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01728593635261699</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05342637327285429</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01728500185122721</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05345573037469059</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0172833471836288</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05348508747652689</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01728076658804784</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05351444457836321</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01727705430271046</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0535438016801995</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01727200456584275</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0535731587820358</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01726541161567081</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05360251588387211</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01725706969042076</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05363187298570841</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01724677302831868</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0536612300875447</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01723431586759069</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05369058718938102</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.0172194924464629</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05371994429121731</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01720209700316139</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05374930139305362</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01718192377591227</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05377865849488992</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01715876700294167</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05380801559672622</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01713242092247567</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05383737269856252</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01710267977274036</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05386672980039883</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01706933779196187</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05389608690223513</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01703218921836631</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05392544400407143</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01699102829017973</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05395480110590774</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.0169456492456283</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05398415820774403</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01689584632293809</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05401351530958034</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01684141376033519</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05404287241141664</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01678214579604574</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05407222951325295</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01678214579604574</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05407222951325295</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01712125953216972</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05565457401449055</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01745361945425245</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05723691851572815</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01777908118357491</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05881926301696574</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01809750034141814</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06040160751820334</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01840873254906313</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06198395201944094</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01871263342779088</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06356629652067855</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01900905859888238</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06514864102191616</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01929786368361865</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06673098552315375</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0195789043032807</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06831333002439134</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01985203607914954</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06989567452562895</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02011711463250616</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07147801902686654</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02037399558463159</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07306036352810415</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02062253455680679</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07464270802934174</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02086258717031281</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07622505253057935</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02109400904643062</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07780739703181695</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02131665580644125</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07938974153305454</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02153038307162568</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08097208603429215</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02173504646326493</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08255443053552974</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02193050160264001</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08413677503676735</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02211660411103193</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08571911953800496</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02229320960972168</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08730146403924255</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02246017371999028</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08888380854048014</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02261735206311871</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09046615304171775</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02276460026038798</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09204849754295535</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02290177393307913</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09363084204419296</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02302872870247313</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09521318654543054</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02314532018985098</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09679553104666815</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02325140401649373</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09837787554790575</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02334683580368231</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09996022004914334</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.0234314711726978</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.101542564550381</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02350516574482116</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1031249090516185</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0235677751413334</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1047072535528561</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02361915498351556</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1062895980540938</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02365916089264861</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1078719425553314</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02368764849001355</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1094542870565689</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02370952772806099</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1110366315578065</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02370951111942016</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1126189760590442</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02370644234517076</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1142013205602818</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02369833996212733</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1157836650615193</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.0236855862653602</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.117366009562757</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02366856354993963</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1189483540639946</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02364765411093593</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1205306985652321</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0236232402434194</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1221130430664698</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02359570424246034</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1236953875677073</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02356542840312906</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1252777320689449</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02353279502049584</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1268600765701826</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02349818638963097</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1284424210714202</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02346198480560477</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1300247655726578</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02342457256348755</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1316071100738954</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02338633195834958</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.133189454575133</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02334738746193289</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1347717990763705</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02329628276026312</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1363541435776081</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02322956218313038</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1379364880788458</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02315120228271685</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1395188325800834</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02306517961120484</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1411011770813209</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02297547072077656</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1426835215825586</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02288605216361429</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1442658660837962</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02280090049190028</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1458482105850337</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02272399225781675</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1474305550862713</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02265930401354599</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.149012899587509</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02261081231127023</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02257455901169433</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1521775885899841</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02254052115472786</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1537599330912218</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02250848171171864</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1553422775924594</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02247831325845601</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.156924622093697</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02244988837072931</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1585069665949346</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02242307962432791</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1600893110961722</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0223977595950411</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1616716555974098</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02237380085865824</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1632540000986474</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02235107599096869</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1648363445998849</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02232945756776175</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1664186891011226</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02230881816482679</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1680010336023602</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02228903035795311</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1695833781035978</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02226996672293008</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1711657226048354</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02225149983554704</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.172748067106073</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02223350227159331</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1743304116073106</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02221584660685823</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1759127561085481</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02219840541713113</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1774951006097857</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02218105127820139</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1790774451110234</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0221636567658583</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.180659789612261</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02214609445589119</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1822421341134986</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02212823692408944</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1838244786147362</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02211032996953112</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1854068231159738</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02209272227094901</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1869891676172114</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02207542490616002</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1885715121184489</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02205844893316726</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1901538566196866</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02204180540997387</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1917362011209242</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02202550539458292</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1933185456221617</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02200955994499756</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1949008901233994</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02199398011922092</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.196483234624637</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02197877697525608</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1980655791258746</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02196396157110617</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1996479236271122</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02194954496477428</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2012302681283498</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02193553821426354</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2028126126295874</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02192195237757708</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.204394957130825</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02190879851271801</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2059773016320626</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02189608767768945</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2075596461333002</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02188383093049448</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2091419906345378</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02187203932913627</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2107243351357754</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
